--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1693</definedName>
-    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1693</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1690</definedName>
+    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1690</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -15960,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O645"/>
+  <dimension ref="A1:O648"/>
   <sheetViews>
-    <sheetView topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="A647" sqref="A647"/>
+    <sheetView topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="A649" sqref="A649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29043,6 +29043,66 @@
         <v>2047</v>
       </c>
     </row>
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J646" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O646" s="1" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J647" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O647" s="1" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J648" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O648" s="1" t="s">
+        <v>4199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29050,10 +29110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O1693"/>
+  <dimension ref="A2:O1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="F584" sqref="F584"/>
+    <sheetView tabSelected="1" topLeftCell="A958" workbookViewId="0">
+      <selection activeCell="F1360" sqref="F1360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58891,67 +58951,85 @@
     </row>
     <row r="1364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1364" s="1" t="s">
-        <v>4193</v>
+        <v>4200</v>
       </c>
       <c r="B1364" s="1" t="s">
-        <v>4194</v>
+        <v>4201</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1364" s="1" t="s">
-        <v>521</v>
+        <v>589</v>
+      </c>
+      <c r="E1364" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1364" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
+      </c>
+      <c r="K1364" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1364" s="1" t="s">
-        <v>4195</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1365" s="1" t="s">
-        <v>4196</v>
+        <v>4204</v>
       </c>
       <c r="B1365" s="1" t="s">
-        <v>4194</v>
+        <v>4201</v>
       </c>
       <c r="C1365" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1365" s="1" t="s">
-        <v>521</v>
+        <v>589</v>
+      </c>
+      <c r="E1365" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1365" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
+      </c>
+      <c r="K1365" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1365" s="1" t="s">
-        <v>4197</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1366" s="1" t="s">
-        <v>4198</v>
+        <v>4206</v>
       </c>
       <c r="B1366" s="1" t="s">
-        <v>4194</v>
+        <v>4201</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1366" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
+      </c>
+      <c r="E1366" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1366" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
+      </c>
+      <c r="K1366" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1366" s="1" t="s">
-        <v>4199</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1367" s="1" t="s">
-        <v>4200</v>
+        <v>4208</v>
       </c>
       <c r="B1367" s="1" t="s">
         <v>4201</v>
@@ -58960,87 +59038,78 @@
         <v>2972</v>
       </c>
       <c r="D1367" s="1" t="s">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="E1367" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1367" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1367" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1367" s="1" t="s">
-        <v>4203</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1368" s="1" t="s">
-        <v>4204</v>
+        <v>4210</v>
       </c>
       <c r="B1368" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1368" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1368" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1368" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1368" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1368" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1368" s="1" t="s">
-        <v>4205</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1369" s="1" t="s">
-        <v>4206</v>
+        <v>4213</v>
       </c>
       <c r="B1369" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1369" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E1369" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1369" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1369" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1369" s="1" t="s">
-        <v>4207</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1370" s="1" t="s">
-        <v>4208</v>
+        <v>4215</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>4201</v>
+        <v>4216</v>
       </c>
       <c r="C1370" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1370" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1370" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1370" s="1" t="s">
@@ -59050,15 +59119,15 @@
         <v>1925</v>
       </c>
       <c r="O1370" s="1" t="s">
-        <v>4209</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1371" s="1" t="s">
-        <v>4210</v>
+        <v>4218</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>4211</v>
+        <v>4216</v>
       </c>
       <c r="C1371" s="1" t="s">
         <v>348</v>
@@ -59073,12 +59142,12 @@
         <v>1925</v>
       </c>
       <c r="O1371" s="1" t="s">
-        <v>4212</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="1372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1372" s="1" t="s">
-        <v>4213</v>
+        <v>4220</v>
       </c>
       <c r="B1372" s="1" t="s">
         <v>4211</v>
@@ -59096,15 +59165,15 @@
         <v>1925</v>
       </c>
       <c r="O1372" s="1" t="s">
-        <v>4214</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1373" s="1" t="s">
-        <v>4215</v>
+        <v>4222</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>4216</v>
+        <v>4211</v>
       </c>
       <c r="C1373" s="1" t="s">
         <v>348</v>
@@ -59119,81 +59188,72 @@
         <v>1925</v>
       </c>
       <c r="O1373" s="1" t="s">
-        <v>4217</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1374" s="1" t="s">
-        <v>4218</v>
+        <v>4231</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>4216</v>
+        <v>4232</v>
       </c>
       <c r="C1374" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1374" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1374" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1374" s="1" t="s">
-        <v>1925</v>
+        <v>62</v>
       </c>
       <c r="O1374" s="1" t="s">
-        <v>4219</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="1375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1375" s="1" t="s">
-        <v>4220</v>
+        <v>4234</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>4211</v>
+        <v>4232</v>
       </c>
       <c r="C1375" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1375" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1375" s="1" t="s">
-        <v>1925</v>
+        <v>62</v>
       </c>
       <c r="O1375" s="1" t="s">
-        <v>4221</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1376" s="1" t="s">
-        <v>4222</v>
+        <v>4236</v>
       </c>
       <c r="B1376" s="1" t="s">
-        <v>4211</v>
+        <v>4232</v>
       </c>
       <c r="C1376" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1376" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1376" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1376" s="1" t="s">
-        <v>1925</v>
+        <v>62</v>
       </c>
       <c r="O1376" s="1" t="s">
-        <v>4223</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="1377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1377" s="1" t="s">
-        <v>4231</v>
+        <v>4238</v>
       </c>
       <c r="B1377" s="1" t="s">
         <v>4232</v>
@@ -59208,100 +59268,100 @@
         <v>62</v>
       </c>
       <c r="O1377" s="1" t="s">
-        <v>4233</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="1378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1378" s="1" t="s">
-        <v>4234</v>
+        <v>4254</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>4232</v>
+        <v>4255</v>
       </c>
       <c r="C1378" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1378" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1378" s="1" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="O1378" s="1" t="s">
-        <v>4235</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1379" s="1" t="s">
-        <v>4236</v>
+        <v>4257</v>
       </c>
       <c r="B1379" s="1" t="s">
-        <v>4232</v>
+        <v>4255</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1379" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1379" s="1" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="O1379" s="1" t="s">
-        <v>4237</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1380" s="1" t="s">
-        <v>4238</v>
+        <v>4259</v>
       </c>
       <c r="B1380" s="1" t="s">
-        <v>4232</v>
+        <v>4260</v>
       </c>
       <c r="C1380" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D1380" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1380" s="1" t="s">
-        <v>62</v>
+        <v>1165</v>
+      </c>
+      <c r="E1380" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1380" s="1" t="s">
-        <v>4239</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1381" s="1" t="s">
-        <v>4254</v>
+        <v>4262</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1381" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1381" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1381" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1381" s="1" t="s">
-        <v>4256</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1382" s="1" t="s">
-        <v>4257</v>
+        <v>4264</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1382" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1382" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1382" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1382" s="1" t="s">
-        <v>4258</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1383" s="1" t="s">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="B1383" s="1" t="s">
         <v>4260</v>
@@ -59316,72 +59376,105 @@
         <v>1165</v>
       </c>
       <c r="O1383" s="1" t="s">
-        <v>4261</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1384" s="1" t="s">
-        <v>4262</v>
+        <v>4292</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1384" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1384" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
       </c>
       <c r="E1384" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1384" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1384" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1384" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1384" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1384" s="1" t="s">
-        <v>4263</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1385" s="1" t="s">
-        <v>4264</v>
+        <v>4296</v>
       </c>
       <c r="B1385" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1385" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1385" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
       </c>
       <c r="E1385" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1385" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1385" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1385" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1385" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1385" s="1" t="s">
-        <v>4265</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1386" s="1" t="s">
-        <v>4266</v>
+        <v>4298</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1386" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1386" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1386" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1386" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1386" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1386" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1386" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1386" s="1" t="s">
-        <v>4267</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1387" s="1" t="s">
-        <v>4292</v>
+        <v>4300</v>
       </c>
       <c r="B1387" s="1" t="s">
         <v>4293</v>
@@ -59392,9 +59485,6 @@
       <c r="D1387" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1387" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1387" s="1" t="s">
         <v>85</v>
       </c>
@@ -59402,18 +59492,18 @@
         <v>609</v>
       </c>
       <c r="L1387" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1387" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1387" s="1" t="s">
-        <v>4295</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1388" s="1" t="s">
-        <v>4296</v>
+        <v>4302</v>
       </c>
       <c r="B1388" s="1" t="s">
         <v>4293</v>
@@ -59424,9 +59514,6 @@
       <c r="D1388" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1388" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1388" s="1" t="s">
         <v>85</v>
       </c>
@@ -59434,18 +59521,18 @@
         <v>609</v>
       </c>
       <c r="L1388" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1388" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1388" s="1" t="s">
-        <v>4297</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1389" s="1" t="s">
-        <v>4298</v>
+        <v>4304</v>
       </c>
       <c r="B1389" s="1" t="s">
         <v>4293</v>
@@ -59469,12 +59556,12 @@
         <v>1203</v>
       </c>
       <c r="O1389" s="1" t="s">
-        <v>4299</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1390" s="1" t="s">
-        <v>4300</v>
+        <v>4306</v>
       </c>
       <c r="B1390" s="1" t="s">
         <v>4293</v>
@@ -59498,12 +59585,12 @@
         <v>1203</v>
       </c>
       <c r="O1390" s="1" t="s">
-        <v>4301</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1391" s="1" t="s">
-        <v>4302</v>
+        <v>4308</v>
       </c>
       <c r="B1391" s="1" t="s">
         <v>4293</v>
@@ -59527,12 +59614,12 @@
         <v>1203</v>
       </c>
       <c r="O1391" s="1" t="s">
-        <v>4303</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1392" s="1" t="s">
-        <v>4304</v>
+        <v>4310</v>
       </c>
       <c r="B1392" s="1" t="s">
         <v>4293</v>
@@ -59556,12 +59643,12 @@
         <v>1203</v>
       </c>
       <c r="O1392" s="1" t="s">
-        <v>4305</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1393" s="1" t="s">
-        <v>4306</v>
+        <v>4312</v>
       </c>
       <c r="B1393" s="1" t="s">
         <v>4293</v>
@@ -59585,12 +59672,12 @@
         <v>1203</v>
       </c>
       <c r="O1393" s="1" t="s">
-        <v>4307</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1394" s="1" t="s">
-        <v>4308</v>
+        <v>4314</v>
       </c>
       <c r="B1394" s="1" t="s">
         <v>4293</v>
@@ -59614,12 +59701,12 @@
         <v>1203</v>
       </c>
       <c r="O1394" s="1" t="s">
-        <v>4309</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1395" s="1" t="s">
-        <v>4310</v>
+        <v>4316</v>
       </c>
       <c r="B1395" s="1" t="s">
         <v>4293</v>
@@ -59643,15 +59730,15 @@
         <v>1203</v>
       </c>
       <c r="O1395" s="1" t="s">
-        <v>4311</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1396" s="1" t="s">
-        <v>4312</v>
+        <v>4318</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1396" s="1" t="s">
         <v>4294</v>
@@ -59669,15 +59756,15 @@
         <v>171</v>
       </c>
       <c r="M1396" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1396" s="1" t="s">
-        <v>4313</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1397" s="1" t="s">
-        <v>4314</v>
+        <v>4321</v>
       </c>
       <c r="B1397" s="1" t="s">
         <v>4293</v>
@@ -59698,15 +59785,15 @@
         <v>171</v>
       </c>
       <c r="M1397" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1397" s="1" t="s">
-        <v>4315</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1398" s="1" t="s">
-        <v>4316</v>
+        <v>4323</v>
       </c>
       <c r="B1398" s="1" t="s">
         <v>4293</v>
@@ -59727,18 +59814,18 @@
         <v>171</v>
       </c>
       <c r="M1398" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1398" s="1" t="s">
-        <v>4317</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1399" s="1" t="s">
-        <v>4318</v>
+        <v>4325</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>4319</v>
+        <v>4293</v>
       </c>
       <c r="C1399" s="1" t="s">
         <v>4294</v>
@@ -59759,12 +59846,12 @@
         <v>1925</v>
       </c>
       <c r="O1399" s="1" t="s">
-        <v>4320</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1400" s="1" t="s">
-        <v>4321</v>
+        <v>4327</v>
       </c>
       <c r="B1400" s="1" t="s">
         <v>4293</v>
@@ -59788,12 +59875,12 @@
         <v>1925</v>
       </c>
       <c r="O1400" s="1" t="s">
-        <v>4322</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1401" s="1" t="s">
-        <v>4323</v>
+        <v>4329</v>
       </c>
       <c r="B1401" s="1" t="s">
         <v>4293</v>
@@ -59817,12 +59904,12 @@
         <v>1925</v>
       </c>
       <c r="O1401" s="1" t="s">
-        <v>4324</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1402" s="1" t="s">
-        <v>4325</v>
+        <v>4331</v>
       </c>
       <c r="B1402" s="1" t="s">
         <v>4293</v>
@@ -59846,12 +59933,12 @@
         <v>1925</v>
       </c>
       <c r="O1402" s="1" t="s">
-        <v>4326</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1403" s="1" t="s">
-        <v>4327</v>
+        <v>4333</v>
       </c>
       <c r="B1403" s="1" t="s">
         <v>4293</v>
@@ -59875,99 +59962,81 @@
         <v>1925</v>
       </c>
       <c r="O1403" s="1" t="s">
-        <v>4328</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1404" s="1" t="s">
-        <v>4329</v>
+        <v>4335</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1404" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1404" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1404" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1404" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1404" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1404" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1404" s="1" t="s">
-        <v>4330</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1405" s="1" t="s">
-        <v>4331</v>
+        <v>4339</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1405" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1405" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1405" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1405" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1405" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1405" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1405" s="1" t="s">
-        <v>4332</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1406" s="1" t="s">
-        <v>4333</v>
+        <v>4341</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1406" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1406" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1406" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1406" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1406" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1406" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1406" s="1" t="s">
-        <v>4334</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1407" s="1" t="s">
-        <v>4335</v>
+        <v>4343</v>
       </c>
       <c r="B1407" s="1" t="s">
         <v>4319</v>
@@ -59976,21 +60045,27 @@
         <v>4294</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1407" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1407" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1407" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1407" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1407" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1407" s="1" t="s">
-        <v>4338</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1408" s="1" t="s">
-        <v>4339</v>
+        <v>4345</v>
       </c>
       <c r="B1408" s="1" t="s">
         <v>4319</v>
@@ -59999,21 +60074,27 @@
         <v>4294</v>
       </c>
       <c r="D1408" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1408" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1408" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1408" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1408" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1408" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1408" s="1" t="s">
-        <v>4340</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
-        <v>4341</v>
+        <v>4347</v>
       </c>
       <c r="B1409" s="1" t="s">
         <v>4319</v>
@@ -60022,21 +60103,27 @@
         <v>4294</v>
       </c>
       <c r="D1409" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1409" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1409" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1409" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1409" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1409" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1409" s="1" t="s">
-        <v>4342</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1410" s="1" t="s">
-        <v>4343</v>
+        <v>4349</v>
       </c>
       <c r="B1410" s="1" t="s">
         <v>4319</v>
@@ -60060,12 +60147,12 @@
         <v>1925</v>
       </c>
       <c r="O1410" s="1" t="s">
-        <v>4344</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1411" s="1" t="s">
-        <v>4345</v>
+        <v>4351</v>
       </c>
       <c r="B1411" s="1" t="s">
         <v>4319</v>
@@ -60089,12 +60176,12 @@
         <v>1925</v>
       </c>
       <c r="O1411" s="1" t="s">
-        <v>4346</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1412" s="1" t="s">
-        <v>4347</v>
+        <v>4353</v>
       </c>
       <c r="B1412" s="1" t="s">
         <v>4319</v>
@@ -60118,99 +60205,81 @@
         <v>1925</v>
       </c>
       <c r="O1412" s="1" t="s">
-        <v>4348</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1413" s="1" t="s">
-        <v>4349</v>
+        <v>4355</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1413" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1413" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1413" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1413" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1413" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1413" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1413" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1413" s="1" t="s">
-        <v>4350</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1414" s="1" t="s">
-        <v>4351</v>
+        <v>4358</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1414" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1414" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1414" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1414" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1414" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1414" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1414" s="1" t="s">
-        <v>4352</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1415" s="1" t="s">
-        <v>4353</v>
+        <v>4360</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1415" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1415" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1415" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1415" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1415" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1415" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1415" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1415" s="1" t="s">
-        <v>4354</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1416" s="1" t="s">
-        <v>4355</v>
+        <v>4362</v>
       </c>
       <c r="B1416" s="1" t="s">
         <v>4356</v>
@@ -60228,12 +60297,12 @@
         <v>85</v>
       </c>
       <c r="O1416" s="1" t="s">
-        <v>4357</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1417" s="1" t="s">
-        <v>4358</v>
+        <v>4364</v>
       </c>
       <c r="B1417" s="1" t="s">
         <v>4356</v>
@@ -60251,12 +60320,12 @@
         <v>85</v>
       </c>
       <c r="O1417" s="1" t="s">
-        <v>4359</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1418" s="1" t="s">
-        <v>4360</v>
+        <v>4366</v>
       </c>
       <c r="B1418" s="1" t="s">
         <v>4356</v>
@@ -60274,12 +60343,12 @@
         <v>85</v>
       </c>
       <c r="O1418" s="1" t="s">
-        <v>4361</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1419" s="1" t="s">
-        <v>4362</v>
+        <v>4368</v>
       </c>
       <c r="B1419" s="1" t="s">
         <v>4356</v>
@@ -60297,12 +60366,12 @@
         <v>85</v>
       </c>
       <c r="O1419" s="1" t="s">
-        <v>4363</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1420" s="1" t="s">
-        <v>4364</v>
+        <v>4370</v>
       </c>
       <c r="B1420" s="1" t="s">
         <v>4356</v>
@@ -60320,12 +60389,12 @@
         <v>85</v>
       </c>
       <c r="O1420" s="1" t="s">
-        <v>4365</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1421" s="1" t="s">
-        <v>4366</v>
+        <v>4372</v>
       </c>
       <c r="B1421" s="1" t="s">
         <v>4356</v>
@@ -60343,12 +60412,12 @@
         <v>85</v>
       </c>
       <c r="O1421" s="1" t="s">
-        <v>4367</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1422" s="1" t="s">
-        <v>4368</v>
+        <v>4374</v>
       </c>
       <c r="B1422" s="1" t="s">
         <v>4356</v>
@@ -60366,81 +60435,60 @@
         <v>85</v>
       </c>
       <c r="O1422" s="1" t="s">
-        <v>4369</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
-        <v>4370</v>
+        <v>4395</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1423" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1423" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1423" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1423" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1423" s="1" t="s">
-        <v>4371</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
-        <v>4372</v>
+        <v>4399</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1424" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1424" s="1" t="s">
-        <v>4337</v>
-      </c>
-      <c r="J1424" s="1" t="s">
-        <v>85</v>
+        <v>4397</v>
       </c>
       <c r="O1424" s="1" t="s">
-        <v>4373</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
-        <v>4374</v>
+        <v>4401</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1425" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1425" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1425" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1425" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1425" s="1" t="s">
-        <v>4375</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1426" s="1" t="s">
-        <v>4395</v>
+        <v>4403</v>
       </c>
       <c r="B1426" s="1" t="s">
         <v>4396</v>
@@ -60452,12 +60500,12 @@
         <v>447</v>
       </c>
       <c r="O1426" s="1" t="s">
-        <v>4398</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1427" s="1" t="s">
-        <v>4399</v>
+        <v>4405</v>
       </c>
       <c r="B1427" s="1" t="s">
         <v>4396</v>
@@ -60466,12 +60514,12 @@
         <v>4397</v>
       </c>
       <c r="O1427" s="1" t="s">
-        <v>4400</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1428" s="1" t="s">
-        <v>4401</v>
+        <v>4407</v>
       </c>
       <c r="B1428" s="1" t="s">
         <v>4396</v>
@@ -60483,12 +60531,12 @@
         <v>447</v>
       </c>
       <c r="O1428" s="1" t="s">
-        <v>4402</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1429" s="1" t="s">
-        <v>4403</v>
+        <v>4409</v>
       </c>
       <c r="B1429" s="1" t="s">
         <v>4396</v>
@@ -60496,16 +60544,13 @@
       <c r="C1429" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1429" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1429" s="1" t="s">
-        <v>4404</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1430" s="1" t="s">
-        <v>4405</v>
+        <v>4411</v>
       </c>
       <c r="B1430" s="1" t="s">
         <v>4396</v>
@@ -60514,12 +60559,12 @@
         <v>4397</v>
       </c>
       <c r="O1430" s="1" t="s">
-        <v>4406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1431" s="1" t="s">
-        <v>4407</v>
+        <v>4413</v>
       </c>
       <c r="B1431" s="1" t="s">
         <v>4396</v>
@@ -60531,12 +60576,12 @@
         <v>447</v>
       </c>
       <c r="O1431" s="1" t="s">
-        <v>4408</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
-        <v>4409</v>
+        <v>4415</v>
       </c>
       <c r="B1432" s="1" t="s">
         <v>4396</v>
@@ -60545,12 +60590,12 @@
         <v>4397</v>
       </c>
       <c r="O1432" s="1" t="s">
-        <v>4410</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1433" s="1" t="s">
-        <v>4411</v>
+        <v>4417</v>
       </c>
       <c r="B1433" s="1" t="s">
         <v>4396</v>
@@ -60558,13 +60603,16 @@
       <c r="C1433" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="J1433" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1433" s="1" t="s">
-        <v>4412</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
-        <v>4413</v>
+        <v>4419</v>
       </c>
       <c r="B1434" s="1" t="s">
         <v>4396</v>
@@ -60572,16 +60620,13 @@
       <c r="C1434" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1434" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1434" s="1" t="s">
-        <v>4414</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1435" s="1" t="s">
-        <v>4415</v>
+        <v>4421</v>
       </c>
       <c r="B1435" s="1" t="s">
         <v>4396</v>
@@ -60590,12 +60635,12 @@
         <v>4397</v>
       </c>
       <c r="O1435" s="1" t="s">
-        <v>4416</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1436" s="1" t="s">
-        <v>4417</v>
+        <v>4423</v>
       </c>
       <c r="B1436" s="1" t="s">
         <v>4396</v>
@@ -60603,16 +60648,13 @@
       <c r="C1436" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1436" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1436" s="1" t="s">
-        <v>4418</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1437" s="1" t="s">
-        <v>4419</v>
+        <v>4425</v>
       </c>
       <c r="B1437" s="1" t="s">
         <v>4396</v>
@@ -60620,156 +60662,186 @@
       <c r="C1437" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="D1437" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1437" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="O1437" s="1" t="s">
-        <v>4420</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1438" s="1" t="s">
-        <v>4421</v>
+        <v>4427</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1438" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1438" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1438" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1438" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1438" s="1" t="s">
-        <v>4422</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1439" s="1" t="s">
-        <v>4423</v>
+        <v>4430</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1439" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1439" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1439" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1439" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1439" s="1" t="s">
-        <v>4424</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
-        <v>4425</v>
+        <v>4478</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>4396</v>
+        <v>4479</v>
       </c>
       <c r="C1440" s="1" t="s">
-        <v>4397</v>
+        <v>2</v>
       </c>
       <c r="D1440" s="1" t="s">
-        <v>158</v>
+        <v>1274</v>
       </c>
       <c r="J1440" s="1" t="s">
-        <v>349</v>
+        <v>177</v>
+      </c>
+      <c r="K1440" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1440" s="1" t="s">
-        <v>4426</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
-        <v>4427</v>
+        <v>4481</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>4428</v>
+        <v>4479</v>
       </c>
       <c r="C1441" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1441" s="1" t="s">
-        <v>2</v>
+        <v>1274</v>
       </c>
       <c r="J1441" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K1441" s="1" t="s">
-        <v>85</v>
+        <v>1275</v>
       </c>
       <c r="O1441" s="1" t="s">
-        <v>4429</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
-        <v>4430</v>
+        <v>4490</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>4428</v>
+        <v>4491</v>
       </c>
       <c r="C1442" s="1" t="s">
-        <v>348</v>
+        <v>1340</v>
       </c>
       <c r="D1442" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="J1442" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1442" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1442" s="1" t="s">
-        <v>4431</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
-        <v>4478</v>
+        <v>4493</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>4479</v>
+        <v>4491</v>
       </c>
       <c r="C1443" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D1443" s="1" t="s">
-        <v>1274</v>
+        <v>1340</v>
       </c>
       <c r="J1443" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1443" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1443" s="1" t="s">
-        <v>4480</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
-        <v>4481</v>
+        <v>4495</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>4479</v>
+        <v>4496</v>
       </c>
       <c r="C1444" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D1444" s="1" t="s">
-        <v>1274</v>
+        <v>1340</v>
+      </c>
+      <c r="E1444" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1444" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1444" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1444" s="1" t="s">
-        <v>4482</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
-        <v>4490</v>
+        <v>4498</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="C1445" s="1" t="s">
         <v>1340</v>
@@ -60777,6 +60849,9 @@
       <c r="D1445" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="E1445" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1445" s="1" t="s">
         <v>383</v>
       </c>
@@ -60784,15 +60859,15 @@
         <v>1925</v>
       </c>
       <c r="O1445" s="1" t="s">
-        <v>4492</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
-        <v>4493</v>
+        <v>4500</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="C1446" s="1" t="s">
         <v>1340</v>
@@ -60800,6 +60875,9 @@
       <c r="D1446" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="E1446" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1446" s="1" t="s">
         <v>383</v>
       </c>
@@ -60807,23 +60885,20 @@
         <v>1925</v>
       </c>
       <c r="O1446" s="1" t="s">
-        <v>4494</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
-        <v>4495</v>
+        <v>4502</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>4496</v>
+        <v>4503</v>
       </c>
       <c r="C1447" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1447" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1447" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1447" s="1" t="s">
@@ -60833,67 +60908,49 @@
         <v>1925</v>
       </c>
       <c r="O1447" s="1" t="s">
-        <v>4497</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
-        <v>4498</v>
+        <v>4505</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>4496</v>
+        <v>4506</v>
       </c>
       <c r="C1448" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1448" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1448" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1448" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1448" s="1" t="s">
-        <v>1925</v>
+        <v>158</v>
       </c>
       <c r="O1448" s="1" t="s">
-        <v>4499</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
-        <v>4500</v>
+        <v>4508</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>4496</v>
+        <v>4506</v>
       </c>
       <c r="C1449" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1449" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1449" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1449" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1449" s="1" t="s">
-        <v>1925</v>
+        <v>158</v>
       </c>
       <c r="O1449" s="1" t="s">
-        <v>4501</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
-        <v>4502</v>
+        <v>4510</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>4503</v>
+        <v>4506</v>
       </c>
       <c r="C1450" s="1" t="s">
         <v>348</v>
@@ -60902,21 +60959,21 @@
         <v>158</v>
       </c>
       <c r="J1450" s="1" t="s">
-        <v>383</v>
+        <v>609</v>
       </c>
       <c r="K1450" s="1" t="s">
-        <v>1925</v>
+        <v>4511</v>
       </c>
       <c r="O1450" s="1" t="s">
-        <v>4504</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
-        <v>4505</v>
+        <v>4513</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C1451" s="1" t="s">
         <v>348</v>
@@ -60924,16 +60981,22 @@
       <c r="D1451" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="J1451" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1451" s="1" t="s">
+        <v>1534</v>
+      </c>
       <c r="O1451" s="1" t="s">
-        <v>4507</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1452" s="1" t="s">
-        <v>4508</v>
+        <v>4516</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C1452" s="1" t="s">
         <v>348</v>
@@ -60941,16 +61004,22 @@
       <c r="D1452" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="J1452" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1452" s="1" t="s">
+        <v>1534</v>
+      </c>
       <c r="O1452" s="1" t="s">
-        <v>4509</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1453" s="1" t="s">
-        <v>4510</v>
+        <v>4518</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C1453" s="1" t="s">
         <v>348</v>
@@ -60959,18 +61028,18 @@
         <v>158</v>
       </c>
       <c r="J1453" s="1" t="s">
-        <v>609</v>
+        <v>383</v>
       </c>
       <c r="K1453" s="1" t="s">
-        <v>4511</v>
+        <v>1534</v>
       </c>
       <c r="O1453" s="1" t="s">
-        <v>4512</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
-        <v>4513</v>
+        <v>4520</v>
       </c>
       <c r="B1454" s="1" t="s">
         <v>4514</v>
@@ -60988,12 +61057,12 @@
         <v>1534</v>
       </c>
       <c r="O1454" s="1" t="s">
-        <v>4515</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
-        <v>4516</v>
+        <v>4522</v>
       </c>
       <c r="B1455" s="1" t="s">
         <v>4514</v>
@@ -61011,15 +61080,15 @@
         <v>1534</v>
       </c>
       <c r="O1455" s="1" t="s">
-        <v>4517</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
-        <v>4518</v>
+        <v>4524</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C1456" s="1" t="s">
         <v>348</v>
@@ -61031,18 +61100,18 @@
         <v>383</v>
       </c>
       <c r="K1456" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O1456" s="1" t="s">
-        <v>4519</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
-        <v>4520</v>
+        <v>4527</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C1457" s="1" t="s">
         <v>348</v>
@@ -61054,130 +61123,121 @@
         <v>383</v>
       </c>
       <c r="K1457" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O1457" s="1" t="s">
-        <v>4521</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
-        <v>4522</v>
+        <v>4529</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>4514</v>
+        <v>4530</v>
       </c>
       <c r="C1458" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1458" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1458" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1458" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O1458" s="1" t="s">
-        <v>4523</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
-        <v>4524</v>
+        <v>4532</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
       <c r="C1459" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1459" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1459" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1459" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1459" s="1" t="s">
-        <v>4526</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
-        <v>4527</v>
+        <v>4534</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
       <c r="C1460" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1460" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1460" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1460" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1460" s="1" t="s">
-        <v>4528</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1461" s="1" t="s">
-        <v>4529</v>
+        <v>4536</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="C1461" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D1461" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J1461" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O1461" s="1" t="s">
-        <v>4531</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
-        <v>4532</v>
+        <v>4539</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="C1462" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D1462" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J1462" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O1462" s="1" t="s">
-        <v>4533</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
-        <v>4534</v>
+        <v>4548</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>4530</v>
+        <v>4549</v>
       </c>
       <c r="C1463" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D1463" s="1" t="s">
         <v>2</v>
@@ -61186,178 +61246,181 @@
         <v>177</v>
       </c>
       <c r="O1463" s="1" t="s">
-        <v>4535</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
-        <v>4536</v>
+        <v>4551</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>4537</v>
+        <v>4549</v>
       </c>
       <c r="C1464" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="D1464" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="J1464" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O1464" s="1" t="s">
-        <v>4538</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
-        <v>4539</v>
+        <v>4553</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>4537</v>
+        <v>4554</v>
       </c>
       <c r="C1465" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
       </c>
       <c r="D1465" s="1" t="s">
-        <v>567</v>
+        <v>158</v>
       </c>
       <c r="J1465" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O1465" s="1" t="s">
-        <v>4540</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>4548</v>
+        <v>4556</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>4549</v>
+        <v>4557</v>
       </c>
       <c r="C1466" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1466" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J1466" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1466" s="1" t="s">
+        <v>4078</v>
       </c>
       <c r="O1466" s="1" t="s">
-        <v>4550</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
-        <v>4551</v>
+        <v>4564</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>4549</v>
+        <v>4565</v>
       </c>
       <c r="C1467" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1467" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="E1467" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1467" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1467" s="1" t="s">
-        <v>177</v>
+        <v>609</v>
+      </c>
+      <c r="K1467" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1467" s="1" t="s">
-        <v>4552</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1468" s="1" t="s">
-        <v>4553</v>
+        <v>4567</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>4554</v>
+        <v>4565</v>
       </c>
       <c r="C1468" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1468" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
+      </c>
+      <c r="E1468" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1468" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1468" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1468" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1468" s="1" t="s">
-        <v>4555</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>4556</v>
+        <v>4569</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>4557</v>
+        <v>4570</v>
       </c>
       <c r="C1469" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>567</v>
+        <v>158</v>
       </c>
       <c r="J1469" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1469" s="1" t="s">
-        <v>4078</v>
+        <v>364</v>
       </c>
       <c r="O1469" s="1" t="s">
-        <v>4558</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
-        <v>4564</v>
+        <v>4572</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1470" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1470" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1470" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1470" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1470" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1470" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
       </c>
       <c r="O1470" s="1" t="s">
-        <v>4566</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
-        <v>4567</v>
+        <v>4574</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1471" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1471" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1471" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1471" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="J1471" s="1" t="s">
@@ -61367,12 +61430,12 @@
         <v>1723</v>
       </c>
       <c r="O1471" s="1" t="s">
-        <v>4568</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>4569</v>
+        <v>4576</v>
       </c>
       <c r="B1472" s="1" t="s">
         <v>4570</v>
@@ -61381,18 +61444,21 @@
         <v>348</v>
       </c>
       <c r="D1472" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1472" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1472" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1472" s="1" t="s">
-        <v>4571</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
-        <v>4572</v>
+        <v>4578</v>
       </c>
       <c r="B1473" s="1" t="s">
         <v>4570</v>
@@ -61401,18 +61467,21 @@
         <v>348</v>
       </c>
       <c r="D1473" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1473" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1473" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1473" s="1" t="s">
-        <v>4573</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
-        <v>4574</v>
+        <v>4580</v>
       </c>
       <c r="B1474" s="1" t="s">
         <v>4570</v>
@@ -61430,12 +61499,12 @@
         <v>1723</v>
       </c>
       <c r="O1474" s="1" t="s">
-        <v>4575</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
-        <v>4576</v>
+        <v>4582</v>
       </c>
       <c r="B1475" s="1" t="s">
         <v>4570</v>
@@ -61453,12 +61522,12 @@
         <v>1723</v>
       </c>
       <c r="O1475" s="1" t="s">
-        <v>4577</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>4578</v>
+        <v>4584</v>
       </c>
       <c r="B1476" s="1" t="s">
         <v>4570</v>
@@ -61476,12 +61545,12 @@
         <v>1723</v>
       </c>
       <c r="O1476" s="1" t="s">
-        <v>4579</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>4580</v>
+        <v>4586</v>
       </c>
       <c r="B1477" s="1" t="s">
         <v>4570</v>
@@ -61499,12 +61568,12 @@
         <v>1723</v>
       </c>
       <c r="O1477" s="1" t="s">
-        <v>4581</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
-        <v>4582</v>
+        <v>4588</v>
       </c>
       <c r="B1478" s="1" t="s">
         <v>4570</v>
@@ -61522,12 +61591,12 @@
         <v>1723</v>
       </c>
       <c r="O1478" s="1" t="s">
-        <v>4583</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
-        <v>4584</v>
+        <v>4590</v>
       </c>
       <c r="B1479" s="1" t="s">
         <v>4570</v>
@@ -61545,12 +61614,12 @@
         <v>1723</v>
       </c>
       <c r="O1479" s="1" t="s">
-        <v>4585</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>4586</v>
+        <v>4592</v>
       </c>
       <c r="B1480" s="1" t="s">
         <v>4570</v>
@@ -61568,12 +61637,12 @@
         <v>1723</v>
       </c>
       <c r="O1480" s="1" t="s">
-        <v>4587</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>4588</v>
+        <v>4594</v>
       </c>
       <c r="B1481" s="1" t="s">
         <v>4570</v>
@@ -61591,12 +61660,12 @@
         <v>1723</v>
       </c>
       <c r="O1481" s="1" t="s">
-        <v>4589</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
-        <v>4590</v>
+        <v>4596</v>
       </c>
       <c r="B1482" s="1" t="s">
         <v>4570</v>
@@ -61614,12 +61683,12 @@
         <v>1723</v>
       </c>
       <c r="O1482" s="1" t="s">
-        <v>4591</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>4592</v>
+        <v>4598</v>
       </c>
       <c r="B1483" s="1" t="s">
         <v>4570</v>
@@ -61637,12 +61706,12 @@
         <v>1723</v>
       </c>
       <c r="O1483" s="1" t="s">
-        <v>4593</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>4594</v>
+        <v>4600</v>
       </c>
       <c r="B1484" s="1" t="s">
         <v>4570</v>
@@ -61660,12 +61729,12 @@
         <v>1723</v>
       </c>
       <c r="O1484" s="1" t="s">
-        <v>4595</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>4596</v>
+        <v>4602</v>
       </c>
       <c r="B1485" s="1" t="s">
         <v>4570</v>
@@ -61683,12 +61752,12 @@
         <v>1723</v>
       </c>
       <c r="O1485" s="1" t="s">
-        <v>4597</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>4598</v>
+        <v>4604</v>
       </c>
       <c r="B1486" s="1" t="s">
         <v>4570</v>
@@ -61706,12 +61775,12 @@
         <v>1723</v>
       </c>
       <c r="O1486" s="1" t="s">
-        <v>4599</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>4600</v>
+        <v>4606</v>
       </c>
       <c r="B1487" s="1" t="s">
         <v>4570</v>
@@ -61729,12 +61798,12 @@
         <v>1723</v>
       </c>
       <c r="O1487" s="1" t="s">
-        <v>4601</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>4602</v>
+        <v>4608</v>
       </c>
       <c r="B1488" s="1" t="s">
         <v>4570</v>
@@ -61752,12 +61821,12 @@
         <v>1723</v>
       </c>
       <c r="O1488" s="1" t="s">
-        <v>4603</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>4604</v>
+        <v>4610</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>4570</v>
@@ -61775,12 +61844,12 @@
         <v>1723</v>
       </c>
       <c r="O1489" s="1" t="s">
-        <v>4605</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>4606</v>
+        <v>4612</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>4570</v>
@@ -61798,12 +61867,12 @@
         <v>1723</v>
       </c>
       <c r="O1490" s="1" t="s">
-        <v>4607</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>4608</v>
+        <v>4614</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4570</v>
@@ -61811,22 +61880,16 @@
       <c r="C1491" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1491" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="J1491" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1491" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O1491" s="1" t="s">
-        <v>4609</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>4610</v>
+        <v>4616</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>4570</v>
@@ -61844,75 +61907,81 @@
         <v>1723</v>
       </c>
       <c r="O1492" s="1" t="s">
-        <v>4611</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>4612</v>
+        <v>4618</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1493" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1493" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1493" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1493" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1493" s="1" t="s">
-        <v>4613</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>4614</v>
+        <v>4621</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1494" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1494" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1494" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
+      </c>
+      <c r="K1494" s="1" t="s">
+        <v>2692</v>
       </c>
       <c r="O1494" s="1" t="s">
-        <v>4615</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>4616</v>
+        <v>4623</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1495" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1495" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1495" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1495" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1495" s="1" t="s">
-        <v>4617</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>4618</v>
+        <v>4625</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>4619</v>
@@ -61930,84 +61999,75 @@
         <v>2692</v>
       </c>
       <c r="O1496" s="1" t="s">
-        <v>4620</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>4621</v>
+        <v>4627</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C1497" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1497" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1497" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1497" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O1497" s="1" t="s">
-        <v>4622</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>4623</v>
+        <v>4631</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C1498" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1498" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1498" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1498" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O1498" s="1" t="s">
-        <v>4624</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>4625</v>
+        <v>4638</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>4619</v>
+        <v>4639</v>
       </c>
       <c r="C1499" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1499" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1499" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1499" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O1499" s="1" t="s">
-        <v>4626</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>4627</v>
+        <v>4641</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1500" s="1" t="s">
         <v>348</v>
@@ -62016,18 +62076,18 @@
         <v>158</v>
       </c>
       <c r="J1500" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1500" s="1" t="s">
-        <v>4630</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>4631</v>
+        <v>4643</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1501" s="1" t="s">
         <v>348</v>
@@ -62036,15 +62096,15 @@
         <v>158</v>
       </c>
       <c r="J1501" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1501" s="1" t="s">
-        <v>4632</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>4638</v>
+        <v>4645</v>
       </c>
       <c r="B1502" s="1" t="s">
         <v>4639</v>
@@ -62059,12 +62119,12 @@
         <v>1640</v>
       </c>
       <c r="O1502" s="1" t="s">
-        <v>4640</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
-        <v>4641</v>
+        <v>4647</v>
       </c>
       <c r="B1503" s="1" t="s">
         <v>4639</v>
@@ -62079,12 +62139,12 @@
         <v>1640</v>
       </c>
       <c r="O1503" s="1" t="s">
-        <v>4642</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
-        <v>4643</v>
+        <v>4649</v>
       </c>
       <c r="B1504" s="1" t="s">
         <v>4639</v>
@@ -62099,12 +62159,12 @@
         <v>1640</v>
       </c>
       <c r="O1504" s="1" t="s">
-        <v>4644</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>4645</v>
+        <v>4651</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>4639</v>
@@ -62119,12 +62179,12 @@
         <v>1640</v>
       </c>
       <c r="O1505" s="1" t="s">
-        <v>4646</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>4647</v>
+        <v>4653</v>
       </c>
       <c r="B1506" s="1" t="s">
         <v>4639</v>
@@ -62139,12 +62199,12 @@
         <v>1640</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>4648</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>4649</v>
+        <v>4655</v>
       </c>
       <c r="B1507" s="1" t="s">
         <v>4639</v>
@@ -62159,12 +62219,12 @@
         <v>1640</v>
       </c>
       <c r="O1507" s="1" t="s">
-        <v>4650</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>4651</v>
+        <v>4657</v>
       </c>
       <c r="B1508" s="1" t="s">
         <v>4639</v>
@@ -62179,12 +62239,12 @@
         <v>1640</v>
       </c>
       <c r="O1508" s="1" t="s">
-        <v>4652</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>4653</v>
+        <v>4659</v>
       </c>
       <c r="B1509" s="1" t="s">
         <v>4639</v>
@@ -62199,12 +62259,12 @@
         <v>1640</v>
       </c>
       <c r="O1509" s="1" t="s">
-        <v>4654</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>4655</v>
+        <v>4661</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4639</v>
@@ -62219,18 +62279,18 @@
         <v>1640</v>
       </c>
       <c r="O1510" s="1" t="s">
-        <v>4656</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>4657</v>
+        <v>4663</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1511" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1511" s="1" t="s">
         <v>158</v>
@@ -62239,18 +62299,18 @@
         <v>1640</v>
       </c>
       <c r="O1511" s="1" t="s">
-        <v>4658</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>4659</v>
+        <v>4666</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1512" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1512" s="1" t="s">
         <v>158</v>
@@ -62259,175 +62319,172 @@
         <v>1640</v>
       </c>
       <c r="O1512" s="1" t="s">
-        <v>4660</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>4661</v>
+        <v>4704</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>4639</v>
+        <v>4705</v>
       </c>
       <c r="C1513" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1513" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1513" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1513" s="1" t="s">
-        <v>4662</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>4663</v>
+        <v>4707</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>4664</v>
+        <v>4705</v>
       </c>
       <c r="C1514" s="1" t="s">
-        <v>2297</v>
+        <v>2</v>
       </c>
       <c r="D1514" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1514" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1514" s="1" t="s">
-        <v>4665</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>4666</v>
+        <v>4709</v>
       </c>
       <c r="B1515" s="1" t="s">
-        <v>4664</v>
+        <v>4710</v>
       </c>
       <c r="C1515" s="1" t="s">
-        <v>2297</v>
+        <v>348</v>
       </c>
       <c r="D1515" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J1515" s="1" t="s">
-        <v>1640</v>
+        <v>383</v>
+      </c>
+      <c r="K1515" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1515" s="1" t="s">
-        <v>4667</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>4704</v>
+        <v>4712</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>4705</v>
+        <v>4713</v>
       </c>
       <c r="C1516" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1516" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1516" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K1516" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O1516" s="1" t="s">
-        <v>4706</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>4707</v>
+        <v>4715</v>
       </c>
       <c r="B1517" s="1" t="s">
-        <v>4705</v>
+        <v>4710</v>
       </c>
       <c r="C1517" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1517" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="J1517" s="1" t="s">
-        <v>62</v>
+        <v>1925</v>
       </c>
       <c r="O1517" s="1" t="s">
-        <v>4708</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>4709</v>
+        <v>4717</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C1518" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1518" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1518" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K1518" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1518" s="1" t="s">
-        <v>4711</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>4712</v>
+        <v>4720</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>4713</v>
+        <v>4718</v>
       </c>
       <c r="C1519" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1519" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1519" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K1519" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O1519" s="1" t="s">
-        <v>4714</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>4715</v>
+        <v>4722</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C1520" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1520" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1520" s="1" t="s">
-        <v>4716</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>4717</v>
+        <v>4724</v>
       </c>
       <c r="B1521" s="1" t="s">
         <v>4718</v>
@@ -62436,72 +62493,81 @@
         <v>348</v>
       </c>
       <c r="J1521" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1521" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1521" s="1" t="s">
-        <v>4719</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>4720</v>
+        <v>4735</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1522" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1522" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1522" s="1" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="K1522" s="1" t="s">
-        <v>1925</v>
+        <v>383</v>
       </c>
       <c r="O1522" s="1" t="s">
-        <v>4721</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>4722</v>
+        <v>4739</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1523" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1523" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1523" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
+      </c>
+      <c r="K1523" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O1523" s="1" t="s">
-        <v>4723</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>4724</v>
+        <v>4741</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1524" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1524" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1524" s="1" t="s">
-        <v>1723</v>
+        <v>85</v>
       </c>
       <c r="O1524" s="1" t="s">
-        <v>4725</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>4735</v>
+        <v>4743</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>4736</v>
@@ -62513,18 +62579,15 @@
         <v>4737</v>
       </c>
       <c r="J1525" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1525" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1525" s="1" t="s">
-        <v>4738</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>4739</v>
+        <v>4745</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>4736</v>
@@ -62536,18 +62599,15 @@
         <v>4737</v>
       </c>
       <c r="J1526" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1526" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1526" s="1" t="s">
-        <v>4740</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>4741</v>
+        <v>4747</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>4736</v>
@@ -62562,12 +62622,12 @@
         <v>85</v>
       </c>
       <c r="O1527" s="1" t="s">
-        <v>4742</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>4743</v>
+        <v>4749</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>4736</v>
@@ -62575,19 +62635,16 @@
       <c r="C1528" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1528" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1528" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1528" s="1" t="s">
-        <v>4744</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>4745</v>
+        <v>4751</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>4736</v>
@@ -62602,12 +62659,12 @@
         <v>85</v>
       </c>
       <c r="O1529" s="1" t="s">
-        <v>4746</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>4747</v>
+        <v>4753</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>4736</v>
@@ -62622,12 +62679,12 @@
         <v>85</v>
       </c>
       <c r="O1530" s="1" t="s">
-        <v>4748</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>4749</v>
+        <v>4755</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>4736</v>
@@ -62639,12 +62696,12 @@
         <v>85</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>4750</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>4751</v>
+        <v>4757</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>4736</v>
@@ -62652,19 +62709,16 @@
       <c r="C1532" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1532" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1532" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1532" s="1" t="s">
-        <v>4752</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>4753</v>
+        <v>4759</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>4736</v>
@@ -62672,469 +62726,502 @@
       <c r="C1533" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1533" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1533" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1533" s="1" t="s">
-        <v>4754</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>4755</v>
+        <v>4761</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>4736</v>
+        <v>4762</v>
       </c>
       <c r="C1534" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1534" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1534" s="1" t="s">
-        <v>4756</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>4757</v>
+        <v>4764</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>4736</v>
+        <v>4765</v>
       </c>
       <c r="C1535" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1535" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1535" s="1" t="s">
-        <v>4758</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>4759</v>
+        <v>4767</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>4736</v>
+        <v>4768</v>
       </c>
       <c r="C1536" s="1" t="s">
-        <v>348</v>
+        <v>1340</v>
       </c>
       <c r="J1536" s="1" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="O1536" s="1" t="s">
-        <v>4760</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>4761</v>
+        <v>4770</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>4762</v>
+        <v>4771</v>
       </c>
       <c r="C1537" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1537" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1537" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1537" s="1" t="s">
-        <v>4763</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>4764</v>
+        <v>4773</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>4765</v>
+        <v>4771</v>
       </c>
       <c r="C1538" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1538" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1538" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="K1538" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1538" s="1" t="s">
-        <v>4766</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>4767</v>
+        <v>4776</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>4768</v>
+        <v>4771</v>
       </c>
       <c r="C1539" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
+      </c>
+      <c r="D1539" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J1539" s="1" t="s">
-        <v>364</v>
+        <v>4774</v>
+      </c>
+      <c r="K1539" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1539" s="1" t="s">
-        <v>4769</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>4770</v>
+        <v>4781</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>4771</v>
+        <v>4782</v>
       </c>
       <c r="C1540" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1540" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1540" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1540" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1540" s="1" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="K1540" s="1" t="s">
-        <v>1925</v>
+        <v>4783</v>
       </c>
       <c r="O1540" s="1" t="s">
-        <v>4772</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>4773</v>
+        <v>4807</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>4771</v>
+        <v>4808</v>
       </c>
       <c r="C1541" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1541" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1541" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K1541" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1541" s="1" t="s">
-        <v>4775</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>4776</v>
+        <v>4810</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>4771</v>
+        <v>4811</v>
       </c>
       <c r="C1542" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1542" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1542" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K1542" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1542" s="1" t="s">
-        <v>4777</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>4781</v>
+        <v>4824</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>4782</v>
+        <v>4825</v>
       </c>
       <c r="C1543" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1543" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1543" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1543" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1543" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1543" s="1" t="s">
-        <v>4783</v>
+        <v>1925</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>4784</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>4807</v>
+        <v>4827</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>4808</v>
+        <v>4825</v>
       </c>
       <c r="C1544" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1544" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O1544" s="1" t="s">
-        <v>4809</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>4810</v>
+        <v>4854</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>4811</v>
+        <v>4855</v>
       </c>
       <c r="C1545" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1545" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1545" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1545" s="1" t="s">
-        <v>4812</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>4824</v>
+        <v>4857</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>4825</v>
+        <v>4858</v>
       </c>
       <c r="C1546" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J1546" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1546" s="1" t="s">
-        <v>4826</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>4827</v>
+        <v>4860</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>4825</v>
+        <v>4858</v>
       </c>
       <c r="C1547" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J1547" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1547" s="1" t="s">
-        <v>4828</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>4854</v>
+        <v>4862</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>4855</v>
+        <v>4863</v>
       </c>
       <c r="C1548" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D1548" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1548" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O1548" s="1" t="s">
-        <v>4856</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>4857</v>
+        <v>4865</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>4858</v>
+        <v>4863</v>
       </c>
       <c r="C1549" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
+      </c>
+      <c r="D1549" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J1549" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O1549" s="1" t="s">
-        <v>4859</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="1550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>4860</v>
+        <v>4870</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>4858</v>
+        <v>4871</v>
       </c>
       <c r="C1550" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="J1550" s="1" t="s">
-        <v>177</v>
+        <v>3704</v>
       </c>
       <c r="O1550" s="1" t="s">
-        <v>4861</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>4862</v>
+        <v>4873</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C1551" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1551" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1551" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O1551" s="1" t="s">
-        <v>4864</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>4865</v>
+        <v>4876</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C1552" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1552" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1552" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O1552" s="1" t="s">
-        <v>4866</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>4870</v>
+        <v>4878</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>4871</v>
+        <v>4879</v>
       </c>
       <c r="C1553" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J1553" s="1" t="s">
-        <v>3704</v>
+        <v>395</v>
       </c>
       <c r="O1553" s="1" t="s">
-        <v>4872</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>4873</v>
+        <v>4881</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>4874</v>
+        <v>4882</v>
       </c>
       <c r="C1554" s="1" t="s">
-        <v>521</v>
+        <v>4294</v>
+      </c>
+      <c r="D1554" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E1554" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1554" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J1554" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1554" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O1554" s="1" t="s">
-        <v>4875</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>4876</v>
+        <v>4884</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>4874</v>
+        <v>4885</v>
       </c>
       <c r="C1555" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
+      </c>
+      <c r="D1555" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1555" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1555" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1555" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1555" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1555" s="1" t="s">
-        <v>4877</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="1556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>4878</v>
+        <v>4887</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>4879</v>
+        <v>4885</v>
       </c>
       <c r="C1556" s="1" t="s">
-        <v>395</v>
+        <v>2</v>
+      </c>
+      <c r="D1556" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1556" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1556" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1556" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1556" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1556" s="1" t="s">
-        <v>4880</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="1557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>4881</v>
+        <v>4889</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>4882</v>
+        <v>4885</v>
       </c>
       <c r="C1557" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1557" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="E1557" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="F1557" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J1557" s="1" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="K1557" s="1" t="s">
-        <v>609</v>
+        <v>171</v>
       </c>
       <c r="O1557" s="1" t="s">
-        <v>4883</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="1558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>4884</v>
+        <v>4891</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>4885</v>
@@ -63158,139 +63245,109 @@
         <v>171</v>
       </c>
       <c r="O1558" s="1" t="s">
-        <v>4886</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="1559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>4887</v>
+        <v>4902</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>4885</v>
+        <v>4903</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1559" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1559" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1559" s="1" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="J1559" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1559" s="1" t="s">
-        <v>171</v>
+        <v>447</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>4888</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>4889</v>
+        <v>4907</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>4885</v>
+        <v>4908</v>
       </c>
       <c r="C1560" s="1" t="s">
-        <v>2</v>
+        <v>4909</v>
       </c>
       <c r="D1560" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1560" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1560" s="1" t="s">
-        <v>158</v>
+        <v>806</v>
       </c>
       <c r="J1560" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1560" s="1" t="s">
-        <v>171</v>
+        <v>2678</v>
       </c>
       <c r="O1560" s="1" t="s">
-        <v>4890</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>4891</v>
+        <v>4911</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>4885</v>
+        <v>4912</v>
       </c>
       <c r="C1561" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1561" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1561" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1561" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1561" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1561" s="1" t="s">
-        <v>171</v>
+        <v>1493</v>
       </c>
       <c r="O1561" s="1" t="s">
-        <v>4892</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>4902</v>
+        <v>4914</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>4903</v>
+        <v>4915</v>
       </c>
       <c r="C1562" s="1" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="J1562" s="1" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="O1562" s="1" t="s">
-        <v>4904</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>4907</v>
+        <v>4937</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>4908</v>
+        <v>4938</v>
       </c>
       <c r="C1563" s="1" t="s">
-        <v>4909</v>
+        <v>348</v>
       </c>
       <c r="D1563" s="1" t="s">
-        <v>806</v>
+        <v>158</v>
       </c>
       <c r="J1563" s="1" t="s">
-        <v>2678</v>
+        <v>1640</v>
       </c>
       <c r="O1563" s="1" t="s">
-        <v>4910</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>4911</v>
+        <v>4940</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>4912</v>
+        <v>4938</v>
       </c>
       <c r="C1564" s="1" t="s">
         <v>348</v>
@@ -63299,32 +63356,35 @@
         <v>158</v>
       </c>
       <c r="J1564" s="1" t="s">
-        <v>1493</v>
+        <v>1640</v>
       </c>
       <c r="O1564" s="1" t="s">
-        <v>4913</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>4914</v>
+        <v>4942</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>4915</v>
+        <v>4938</v>
       </c>
       <c r="C1565" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1565" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1565" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O1565" s="1" t="s">
-        <v>4916</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>4937</v>
+        <v>4944</v>
       </c>
       <c r="B1566" s="1" t="s">
         <v>4938</v>
@@ -63339,12 +63399,12 @@
         <v>1640</v>
       </c>
       <c r="O1566" s="1" t="s">
-        <v>4939</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>4940</v>
+        <v>4946</v>
       </c>
       <c r="B1567" s="1" t="s">
         <v>4938</v>
@@ -63359,12 +63419,12 @@
         <v>1640</v>
       </c>
       <c r="O1567" s="1" t="s">
-        <v>4941</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>4942</v>
+        <v>4948</v>
       </c>
       <c r="B1568" s="1" t="s">
         <v>4938</v>
@@ -63379,12 +63439,12 @@
         <v>1640</v>
       </c>
       <c r="O1568" s="1" t="s">
-        <v>4943</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>4944</v>
+        <v>4950</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4938</v>
@@ -63399,12 +63459,12 @@
         <v>1640</v>
       </c>
       <c r="O1569" s="1" t="s">
-        <v>4945</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>4946</v>
+        <v>4952</v>
       </c>
       <c r="B1570" s="1" t="s">
         <v>4938</v>
@@ -63419,12 +63479,12 @@
         <v>1640</v>
       </c>
       <c r="O1570" s="1" t="s">
-        <v>4947</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>4948</v>
+        <v>4954</v>
       </c>
       <c r="B1571" s="1" t="s">
         <v>4938</v>
@@ -63439,12 +63499,12 @@
         <v>1640</v>
       </c>
       <c r="O1571" s="1" t="s">
-        <v>4949</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>4950</v>
+        <v>4956</v>
       </c>
       <c r="B1572" s="1" t="s">
         <v>4938</v>
@@ -63459,12 +63519,12 @@
         <v>1640</v>
       </c>
       <c r="O1572" s="1" t="s">
-        <v>4951</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>4952</v>
+        <v>4958</v>
       </c>
       <c r="B1573" s="1" t="s">
         <v>4938</v>
@@ -63479,12 +63539,12 @@
         <v>1640</v>
       </c>
       <c r="O1573" s="1" t="s">
-        <v>4953</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>4954</v>
+        <v>4960</v>
       </c>
       <c r="B1574" s="1" t="s">
         <v>4938</v>
@@ -63499,12 +63559,12 @@
         <v>1640</v>
       </c>
       <c r="O1574" s="1" t="s">
-        <v>4955</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>4956</v>
+        <v>4962</v>
       </c>
       <c r="B1575" s="1" t="s">
         <v>4938</v>
@@ -63519,12 +63579,12 @@
         <v>1640</v>
       </c>
       <c r="O1575" s="1" t="s">
-        <v>4957</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>4958</v>
+        <v>4964</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>4938</v>
@@ -63539,12 +63599,12 @@
         <v>1640</v>
       </c>
       <c r="O1576" s="1" t="s">
-        <v>4959</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>4960</v>
+        <v>4966</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>4938</v>
@@ -63559,12 +63619,12 @@
         <v>1640</v>
       </c>
       <c r="O1577" s="1" t="s">
-        <v>4961</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>4962</v>
+        <v>4968</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>4938</v>
@@ -63579,12 +63639,12 @@
         <v>1640</v>
       </c>
       <c r="O1578" s="1" t="s">
-        <v>4963</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>4964</v>
+        <v>4970</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>4938</v>
@@ -63599,12 +63659,12 @@
         <v>1640</v>
       </c>
       <c r="O1579" s="1" t="s">
-        <v>4965</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>4966</v>
+        <v>4972</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4938</v>
@@ -63619,12 +63679,12 @@
         <v>1640</v>
       </c>
       <c r="O1580" s="1" t="s">
-        <v>4967</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>4968</v>
+        <v>4974</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>4938</v>
@@ -63639,12 +63699,12 @@
         <v>1640</v>
       </c>
       <c r="O1581" s="1" t="s">
-        <v>4969</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>4938</v>
@@ -63659,12 +63719,12 @@
         <v>1640</v>
       </c>
       <c r="O1582" s="1" t="s">
-        <v>4971</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>4972</v>
+        <v>4978</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>4938</v>
@@ -63679,12 +63739,12 @@
         <v>1640</v>
       </c>
       <c r="O1583" s="1" t="s">
-        <v>4973</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>4974</v>
+        <v>4980</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>4938</v>
@@ -63699,12 +63759,12 @@
         <v>1640</v>
       </c>
       <c r="O1584" s="1" t="s">
-        <v>4975</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>4976</v>
+        <v>4982</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>4938</v>
@@ -63719,12 +63779,12 @@
         <v>1640</v>
       </c>
       <c r="O1585" s="1" t="s">
-        <v>4977</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>4978</v>
+        <v>4984</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>4938</v>
@@ -63739,12 +63799,12 @@
         <v>1640</v>
       </c>
       <c r="O1586" s="1" t="s">
-        <v>4979</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>4980</v>
+        <v>4986</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>4938</v>
@@ -63759,12 +63819,12 @@
         <v>1640</v>
       </c>
       <c r="O1587" s="1" t="s">
-        <v>4981</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>4982</v>
+        <v>4988</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>4938</v>
@@ -63779,12 +63839,12 @@
         <v>1640</v>
       </c>
       <c r="O1588" s="1" t="s">
-        <v>4983</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>4984</v>
+        <v>4990</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>4938</v>
@@ -63799,12 +63859,12 @@
         <v>1640</v>
       </c>
       <c r="O1589" s="1" t="s">
-        <v>4985</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>4986</v>
+        <v>4992</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>4938</v>
@@ -63819,12 +63879,12 @@
         <v>1640</v>
       </c>
       <c r="O1590" s="1" t="s">
-        <v>4987</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>4988</v>
+        <v>4994</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>4938</v>
@@ -63839,12 +63899,12 @@
         <v>1640</v>
       </c>
       <c r="O1591" s="1" t="s">
-        <v>4989</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>4938</v>
@@ -63859,12 +63919,12 @@
         <v>1640</v>
       </c>
       <c r="O1592" s="1" t="s">
-        <v>4991</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>4992</v>
+        <v>4998</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>4938</v>
@@ -63879,12 +63939,12 @@
         <v>1640</v>
       </c>
       <c r="O1593" s="1" t="s">
-        <v>4993</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="1594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>4994</v>
+        <v>5000</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>4938</v>
@@ -63899,12 +63959,12 @@
         <v>1640</v>
       </c>
       <c r="O1594" s="1" t="s">
-        <v>4995</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="1595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>4996</v>
+        <v>5002</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>4938</v>
@@ -63919,12 +63979,12 @@
         <v>1640</v>
       </c>
       <c r="O1595" s="1" t="s">
-        <v>4997</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>4998</v>
+        <v>5004</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>4938</v>
@@ -63939,12 +63999,12 @@
         <v>1640</v>
       </c>
       <c r="O1596" s="1" t="s">
-        <v>4999</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="B1597" s="1" t="s">
         <v>4938</v>
@@ -63959,12 +64019,12 @@
         <v>1640</v>
       </c>
       <c r="O1597" s="1" t="s">
-        <v>5001</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
-        <v>5002</v>
+        <v>5008</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>4938</v>
@@ -63979,12 +64039,12 @@
         <v>1640</v>
       </c>
       <c r="O1598" s="1" t="s">
-        <v>5003</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="1599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
-        <v>5004</v>
+        <v>5010</v>
       </c>
       <c r="B1599" s="1" t="s">
         <v>4938</v>
@@ -63999,12 +64059,12 @@
         <v>1640</v>
       </c>
       <c r="O1599" s="1" t="s">
-        <v>5005</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>5006</v>
+        <v>5012</v>
       </c>
       <c r="B1600" s="1" t="s">
         <v>4938</v>
@@ -64019,12 +64079,12 @@
         <v>1640</v>
       </c>
       <c r="O1600" s="1" t="s">
-        <v>5007</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
-        <v>5008</v>
+        <v>5014</v>
       </c>
       <c r="B1601" s="1" t="s">
         <v>4938</v>
@@ -64039,12 +64099,12 @@
         <v>1640</v>
       </c>
       <c r="O1601" s="1" t="s">
-        <v>5009</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
-        <v>5010</v>
+        <v>5016</v>
       </c>
       <c r="B1602" s="1" t="s">
         <v>4938</v>
@@ -64059,12 +64119,12 @@
         <v>1640</v>
       </c>
       <c r="O1602" s="1" t="s">
-        <v>5011</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
-        <v>5012</v>
+        <v>5018</v>
       </c>
       <c r="B1603" s="1" t="s">
         <v>4938</v>
@@ -64079,12 +64139,12 @@
         <v>1640</v>
       </c>
       <c r="O1603" s="1" t="s">
-        <v>5013</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1604" s="1" t="s">
-        <v>5014</v>
+        <v>5020</v>
       </c>
       <c r="B1604" s="1" t="s">
         <v>4938</v>
@@ -64099,12 +64159,12 @@
         <v>1640</v>
       </c>
       <c r="O1604" s="1" t="s">
-        <v>5015</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1605" s="1" t="s">
-        <v>5016</v>
+        <v>5022</v>
       </c>
       <c r="B1605" s="1" t="s">
         <v>4938</v>
@@ -64119,12 +64179,12 @@
         <v>1640</v>
       </c>
       <c r="O1605" s="1" t="s">
-        <v>5017</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="1606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1606" s="1" t="s">
-        <v>5018</v>
+        <v>5024</v>
       </c>
       <c r="B1606" s="1" t="s">
         <v>4938</v>
@@ -64139,12 +64199,12 @@
         <v>1640</v>
       </c>
       <c r="O1606" s="1" t="s">
-        <v>5019</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1607" s="1" t="s">
-        <v>5020</v>
+        <v>5026</v>
       </c>
       <c r="B1607" s="1" t="s">
         <v>4938</v>
@@ -64159,12 +64219,12 @@
         <v>1640</v>
       </c>
       <c r="O1607" s="1" t="s">
-        <v>5021</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1608" s="1" t="s">
-        <v>5022</v>
+        <v>5028</v>
       </c>
       <c r="B1608" s="1" t="s">
         <v>4938</v>
@@ -64179,12 +64239,12 @@
         <v>1640</v>
       </c>
       <c r="O1608" s="1" t="s">
-        <v>5023</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1609" s="1" t="s">
-        <v>5024</v>
+        <v>5030</v>
       </c>
       <c r="B1609" s="1" t="s">
         <v>4938</v>
@@ -64199,12 +64259,12 @@
         <v>1640</v>
       </c>
       <c r="O1609" s="1" t="s">
-        <v>5025</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
-        <v>5026</v>
+        <v>5032</v>
       </c>
       <c r="B1610" s="1" t="s">
         <v>4938</v>
@@ -64219,12 +64279,12 @@
         <v>1640</v>
       </c>
       <c r="O1610" s="1" t="s">
-        <v>5027</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="1611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1611" s="1" t="s">
-        <v>5028</v>
+        <v>5034</v>
       </c>
       <c r="B1611" s="1" t="s">
         <v>4938</v>
@@ -64239,12 +64299,12 @@
         <v>1640</v>
       </c>
       <c r="O1611" s="1" t="s">
-        <v>5029</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
-        <v>5030</v>
+        <v>5036</v>
       </c>
       <c r="B1612" s="1" t="s">
         <v>4938</v>
@@ -64259,12 +64319,12 @@
         <v>1640</v>
       </c>
       <c r="O1612" s="1" t="s">
-        <v>5031</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1613" s="1" t="s">
-        <v>5032</v>
+        <v>5038</v>
       </c>
       <c r="B1613" s="1" t="s">
         <v>4938</v>
@@ -64279,12 +64339,12 @@
         <v>1640</v>
       </c>
       <c r="O1613" s="1" t="s">
-        <v>5033</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="1614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1614" s="1" t="s">
-        <v>5034</v>
+        <v>5040</v>
       </c>
       <c r="B1614" s="1" t="s">
         <v>4938</v>
@@ -64299,12 +64359,12 @@
         <v>1640</v>
       </c>
       <c r="O1614" s="1" t="s">
-        <v>5035</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1615" s="1" t="s">
-        <v>5036</v>
+        <v>5042</v>
       </c>
       <c r="B1615" s="1" t="s">
         <v>4938</v>
@@ -64319,12 +64379,12 @@
         <v>1640</v>
       </c>
       <c r="O1615" s="1" t="s">
-        <v>5037</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="1616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1616" s="1" t="s">
-        <v>5038</v>
+        <v>5044</v>
       </c>
       <c r="B1616" s="1" t="s">
         <v>4938</v>
@@ -64339,12 +64399,12 @@
         <v>1640</v>
       </c>
       <c r="O1616" s="1" t="s">
-        <v>5039</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="1617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
-        <v>5040</v>
+        <v>5046</v>
       </c>
       <c r="B1617" s="1" t="s">
         <v>4938</v>
@@ -64359,12 +64419,12 @@
         <v>1640</v>
       </c>
       <c r="O1617" s="1" t="s">
-        <v>5041</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1618" s="1" t="s">
-        <v>5042</v>
+        <v>5048</v>
       </c>
       <c r="B1618" s="1" t="s">
         <v>4938</v>
@@ -64379,12 +64439,12 @@
         <v>1640</v>
       </c>
       <c r="O1618" s="1" t="s">
-        <v>5043</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="1619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1619" s="1" t="s">
-        <v>5044</v>
+        <v>5050</v>
       </c>
       <c r="B1619" s="1" t="s">
         <v>4938</v>
@@ -64399,12 +64459,12 @@
         <v>1640</v>
       </c>
       <c r="O1619" s="1" t="s">
-        <v>5045</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="1620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1620" s="1" t="s">
-        <v>5046</v>
+        <v>5052</v>
       </c>
       <c r="B1620" s="1" t="s">
         <v>4938</v>
@@ -64419,12 +64479,12 @@
         <v>1640</v>
       </c>
       <c r="O1620" s="1" t="s">
-        <v>5047</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1621" s="1" t="s">
-        <v>5048</v>
+        <v>5054</v>
       </c>
       <c r="B1621" s="1" t="s">
         <v>4938</v>
@@ -64439,12 +64499,12 @@
         <v>1640</v>
       </c>
       <c r="O1621" s="1" t="s">
-        <v>5049</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="1622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1622" s="1" t="s">
-        <v>5050</v>
+        <v>5056</v>
       </c>
       <c r="B1622" s="1" t="s">
         <v>4938</v>
@@ -64459,12 +64519,12 @@
         <v>1640</v>
       </c>
       <c r="O1622" s="1" t="s">
-        <v>5051</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1623" s="1" t="s">
-        <v>5052</v>
+        <v>5058</v>
       </c>
       <c r="B1623" s="1" t="s">
         <v>4938</v>
@@ -64479,12 +64539,12 @@
         <v>1640</v>
       </c>
       <c r="O1623" s="1" t="s">
-        <v>5053</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
-        <v>5054</v>
+        <v>5060</v>
       </c>
       <c r="B1624" s="1" t="s">
         <v>4938</v>
@@ -64499,12 +64559,12 @@
         <v>1640</v>
       </c>
       <c r="O1624" s="1" t="s">
-        <v>5055</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
-        <v>5056</v>
+        <v>5062</v>
       </c>
       <c r="B1625" s="1" t="s">
         <v>4938</v>
@@ -64519,12 +64579,12 @@
         <v>1640</v>
       </c>
       <c r="O1625" s="1" t="s">
-        <v>5057</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="1626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1626" s="1" t="s">
-        <v>5058</v>
+        <v>5064</v>
       </c>
       <c r="B1626" s="1" t="s">
         <v>4938</v>
@@ -64539,12 +64599,12 @@
         <v>1640</v>
       </c>
       <c r="O1626" s="1" t="s">
-        <v>5059</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
-        <v>5060</v>
+        <v>5066</v>
       </c>
       <c r="B1627" s="1" t="s">
         <v>4938</v>
@@ -64559,12 +64619,12 @@
         <v>1640</v>
       </c>
       <c r="O1627" s="1" t="s">
-        <v>5061</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="1628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1628" s="1" t="s">
-        <v>5062</v>
+        <v>5068</v>
       </c>
       <c r="B1628" s="1" t="s">
         <v>4938</v>
@@ -64579,12 +64639,12 @@
         <v>1640</v>
       </c>
       <c r="O1628" s="1" t="s">
-        <v>5063</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1629" s="1" t="s">
-        <v>5064</v>
+        <v>5070</v>
       </c>
       <c r="B1629" s="1" t="s">
         <v>4938</v>
@@ -64599,12 +64659,12 @@
         <v>1640</v>
       </c>
       <c r="O1629" s="1" t="s">
-        <v>5065</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1630" s="1" t="s">
-        <v>5066</v>
+        <v>5072</v>
       </c>
       <c r="B1630" s="1" t="s">
         <v>4938</v>
@@ -64619,12 +64679,12 @@
         <v>1640</v>
       </c>
       <c r="O1630" s="1" t="s">
-        <v>5067</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="1631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1631" s="1" t="s">
-        <v>5068</v>
+        <v>5074</v>
       </c>
       <c r="B1631" s="1" t="s">
         <v>4938</v>
@@ -64639,12 +64699,12 @@
         <v>1640</v>
       </c>
       <c r="O1631" s="1" t="s">
-        <v>5069</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
-        <v>5070</v>
+        <v>5076</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>4938</v>
@@ -64659,12 +64719,12 @@
         <v>1640</v>
       </c>
       <c r="O1632" s="1" t="s">
-        <v>5071</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
-        <v>5072</v>
+        <v>5078</v>
       </c>
       <c r="B1633" s="1" t="s">
         <v>4938</v>
@@ -64679,12 +64739,12 @@
         <v>1640</v>
       </c>
       <c r="O1633" s="1" t="s">
-        <v>5073</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="1634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
-        <v>5074</v>
+        <v>5080</v>
       </c>
       <c r="B1634" s="1" t="s">
         <v>4938</v>
@@ -64699,12 +64759,12 @@
         <v>1640</v>
       </c>
       <c r="O1634" s="1" t="s">
-        <v>5075</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
-        <v>5076</v>
+        <v>5082</v>
       </c>
       <c r="B1635" s="1" t="s">
         <v>4938</v>
@@ -64719,12 +64779,12 @@
         <v>1640</v>
       </c>
       <c r="O1635" s="1" t="s">
-        <v>5077</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
-        <v>5078</v>
+        <v>5084</v>
       </c>
       <c r="B1636" s="1" t="s">
         <v>4938</v>
@@ -64739,12 +64799,12 @@
         <v>1640</v>
       </c>
       <c r="O1636" s="1" t="s">
-        <v>5079</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
-        <v>5080</v>
+        <v>5086</v>
       </c>
       <c r="B1637" s="1" t="s">
         <v>4938</v>
@@ -64759,12 +64819,12 @@
         <v>1640</v>
       </c>
       <c r="O1637" s="1" t="s">
-        <v>5081</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1638" s="1" t="s">
-        <v>5082</v>
+        <v>5088</v>
       </c>
       <c r="B1638" s="1" t="s">
         <v>4938</v>
@@ -64779,12 +64839,12 @@
         <v>1640</v>
       </c>
       <c r="O1638" s="1" t="s">
-        <v>5083</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
-        <v>5084</v>
+        <v>5090</v>
       </c>
       <c r="B1639" s="1" t="s">
         <v>4938</v>
@@ -64799,12 +64859,12 @@
         <v>1640</v>
       </c>
       <c r="O1639" s="1" t="s">
-        <v>5085</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
-        <v>5086</v>
+        <v>5092</v>
       </c>
       <c r="B1640" s="1" t="s">
         <v>4938</v>
@@ -64819,12 +64879,12 @@
         <v>1640</v>
       </c>
       <c r="O1640" s="1" t="s">
-        <v>5087</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1641" s="1" t="s">
-        <v>5088</v>
+        <v>5094</v>
       </c>
       <c r="B1641" s="1" t="s">
         <v>4938</v>
@@ -64839,12 +64899,12 @@
         <v>1640</v>
       </c>
       <c r="O1641" s="1" t="s">
-        <v>5089</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1642" s="1" t="s">
-        <v>5090</v>
+        <v>5096</v>
       </c>
       <c r="B1642" s="1" t="s">
         <v>4938</v>
@@ -64859,12 +64919,12 @@
         <v>1640</v>
       </c>
       <c r="O1642" s="1" t="s">
-        <v>5091</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1643" s="1" t="s">
-        <v>5092</v>
+        <v>5098</v>
       </c>
       <c r="B1643" s="1" t="s">
         <v>4938</v>
@@ -64879,12 +64939,12 @@
         <v>1640</v>
       </c>
       <c r="O1643" s="1" t="s">
-        <v>5093</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
-        <v>5094</v>
+        <v>5100</v>
       </c>
       <c r="B1644" s="1" t="s">
         <v>4938</v>
@@ -64899,12 +64959,12 @@
         <v>1640</v>
       </c>
       <c r="O1644" s="1" t="s">
-        <v>5095</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
-        <v>5096</v>
+        <v>5102</v>
       </c>
       <c r="B1645" s="1" t="s">
         <v>4938</v>
@@ -64919,12 +64979,12 @@
         <v>1640</v>
       </c>
       <c r="O1645" s="1" t="s">
-        <v>5097</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
-        <v>5098</v>
+        <v>5104</v>
       </c>
       <c r="B1646" s="1" t="s">
         <v>4938</v>
@@ -64939,12 +64999,12 @@
         <v>1640</v>
       </c>
       <c r="O1646" s="1" t="s">
-        <v>5099</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>5100</v>
+        <v>5106</v>
       </c>
       <c r="B1647" s="1" t="s">
         <v>4938</v>
@@ -64959,12 +65019,12 @@
         <v>1640</v>
       </c>
       <c r="O1647" s="1" t="s">
-        <v>5101</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1648" s="1" t="s">
-        <v>5102</v>
+        <v>5108</v>
       </c>
       <c r="B1648" s="1" t="s">
         <v>4938</v>
@@ -64979,12 +65039,12 @@
         <v>1640</v>
       </c>
       <c r="O1648" s="1" t="s">
-        <v>5103</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
-        <v>5104</v>
+        <v>5110</v>
       </c>
       <c r="B1649" s="1" t="s">
         <v>4938</v>
@@ -64999,12 +65059,12 @@
         <v>1640</v>
       </c>
       <c r="O1649" s="1" t="s">
-        <v>5105</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
-        <v>5106</v>
+        <v>5112</v>
       </c>
       <c r="B1650" s="1" t="s">
         <v>4938</v>
@@ -65019,12 +65079,12 @@
         <v>1640</v>
       </c>
       <c r="O1650" s="1" t="s">
-        <v>5107</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
-        <v>5108</v>
+        <v>5114</v>
       </c>
       <c r="B1651" s="1" t="s">
         <v>4938</v>
@@ -65039,12 +65099,12 @@
         <v>1640</v>
       </c>
       <c r="O1651" s="1" t="s">
-        <v>5109</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
-        <v>5110</v>
+        <v>5116</v>
       </c>
       <c r="B1652" s="1" t="s">
         <v>4938</v>
@@ -65059,12 +65119,12 @@
         <v>1640</v>
       </c>
       <c r="O1652" s="1" t="s">
-        <v>5111</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1653" s="1" t="s">
-        <v>5112</v>
+        <v>5118</v>
       </c>
       <c r="B1653" s="1" t="s">
         <v>4938</v>
@@ -65079,12 +65139,12 @@
         <v>1640</v>
       </c>
       <c r="O1653" s="1" t="s">
-        <v>5113</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1654" s="1" t="s">
-        <v>5114</v>
+        <v>5120</v>
       </c>
       <c r="B1654" s="1" t="s">
         <v>4938</v>
@@ -65099,12 +65159,12 @@
         <v>1640</v>
       </c>
       <c r="O1654" s="1" t="s">
-        <v>5115</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1655" s="1" t="s">
-        <v>5116</v>
+        <v>5122</v>
       </c>
       <c r="B1655" s="1" t="s">
         <v>4938</v>
@@ -65119,12 +65179,12 @@
         <v>1640</v>
       </c>
       <c r="O1655" s="1" t="s">
-        <v>5117</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1656" s="1" t="s">
-        <v>5118</v>
+        <v>5124</v>
       </c>
       <c r="B1656" s="1" t="s">
         <v>4938</v>
@@ -65139,12 +65199,12 @@
         <v>1640</v>
       </c>
       <c r="O1656" s="1" t="s">
-        <v>5119</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="1657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1657" s="1" t="s">
-        <v>5120</v>
+        <v>5126</v>
       </c>
       <c r="B1657" s="1" t="s">
         <v>4938</v>
@@ -65159,12 +65219,12 @@
         <v>1640</v>
       </c>
       <c r="O1657" s="1" t="s">
-        <v>5121</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="1658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1658" s="1" t="s">
-        <v>5122</v>
+        <v>5128</v>
       </c>
       <c r="B1658" s="1" t="s">
         <v>4938</v>
@@ -65179,12 +65239,12 @@
         <v>1640</v>
       </c>
       <c r="O1658" s="1" t="s">
-        <v>5123</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="1659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1659" s="1" t="s">
-        <v>5124</v>
+        <v>5130</v>
       </c>
       <c r="B1659" s="1" t="s">
         <v>4938</v>
@@ -65199,12 +65259,12 @@
         <v>1640</v>
       </c>
       <c r="O1659" s="1" t="s">
-        <v>5125</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="1660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1660" s="1" t="s">
-        <v>5126</v>
+        <v>5132</v>
       </c>
       <c r="B1660" s="1" t="s">
         <v>4938</v>
@@ -65219,12 +65279,12 @@
         <v>1640</v>
       </c>
       <c r="O1660" s="1" t="s">
-        <v>5127</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="1661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1661" s="1" t="s">
-        <v>5128</v>
+        <v>5134</v>
       </c>
       <c r="B1661" s="1" t="s">
         <v>4938</v>
@@ -65239,12 +65299,12 @@
         <v>1640</v>
       </c>
       <c r="O1661" s="1" t="s">
-        <v>5129</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1662" s="1" t="s">
-        <v>5130</v>
+        <v>5136</v>
       </c>
       <c r="B1662" s="1" t="s">
         <v>4938</v>
@@ -65259,12 +65319,12 @@
         <v>1640</v>
       </c>
       <c r="O1662" s="1" t="s">
-        <v>5131</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="1663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1663" s="1" t="s">
-        <v>5132</v>
+        <v>5138</v>
       </c>
       <c r="B1663" s="1" t="s">
         <v>4938</v>
@@ -65279,12 +65339,12 @@
         <v>1640</v>
       </c>
       <c r="O1663" s="1" t="s">
-        <v>5133</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1664" s="1" t="s">
-        <v>5134</v>
+        <v>5140</v>
       </c>
       <c r="B1664" s="1" t="s">
         <v>4938</v>
@@ -65299,12 +65359,12 @@
         <v>1640</v>
       </c>
       <c r="O1664" s="1" t="s">
-        <v>5135</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1665" s="1" t="s">
-        <v>5136</v>
+        <v>5142</v>
       </c>
       <c r="B1665" s="1" t="s">
         <v>4938</v>
@@ -65319,12 +65379,12 @@
         <v>1640</v>
       </c>
       <c r="O1665" s="1" t="s">
-        <v>5137</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1666" s="1" t="s">
-        <v>5138</v>
+        <v>5144</v>
       </c>
       <c r="B1666" s="1" t="s">
         <v>4938</v>
@@ -65339,12 +65399,12 @@
         <v>1640</v>
       </c>
       <c r="O1666" s="1" t="s">
-        <v>5139</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1667" s="1" t="s">
-        <v>5140</v>
+        <v>5146</v>
       </c>
       <c r="B1667" s="1" t="s">
         <v>4938</v>
@@ -65359,12 +65419,12 @@
         <v>1640</v>
       </c>
       <c r="O1667" s="1" t="s">
-        <v>5141</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1668" s="1" t="s">
-        <v>5142</v>
+        <v>5148</v>
       </c>
       <c r="B1668" s="1" t="s">
         <v>4938</v>
@@ -65379,12 +65439,12 @@
         <v>1640</v>
       </c>
       <c r="O1668" s="1" t="s">
-        <v>5143</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="1669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1669" s="1" t="s">
-        <v>5144</v>
+        <v>5150</v>
       </c>
       <c r="B1669" s="1" t="s">
         <v>4938</v>
@@ -65399,12 +65459,12 @@
         <v>1640</v>
       </c>
       <c r="O1669" s="1" t="s">
-        <v>5145</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="1670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1670" s="1" t="s">
-        <v>5146</v>
+        <v>5152</v>
       </c>
       <c r="B1670" s="1" t="s">
         <v>4938</v>
@@ -65419,12 +65479,12 @@
         <v>1640</v>
       </c>
       <c r="O1670" s="1" t="s">
-        <v>5147</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
-        <v>5148</v>
+        <v>5154</v>
       </c>
       <c r="B1671" s="1" t="s">
         <v>4938</v>
@@ -65439,12 +65499,12 @@
         <v>1640</v>
       </c>
       <c r="O1671" s="1" t="s">
-        <v>5149</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="1672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1672" s="1" t="s">
-        <v>5150</v>
+        <v>5156</v>
       </c>
       <c r="B1672" s="1" t="s">
         <v>4938</v>
@@ -65459,12 +65519,12 @@
         <v>1640</v>
       </c>
       <c r="O1672" s="1" t="s">
-        <v>5151</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
-        <v>5152</v>
+        <v>5158</v>
       </c>
       <c r="B1673" s="1" t="s">
         <v>4938</v>
@@ -65479,12 +65539,12 @@
         <v>1640</v>
       </c>
       <c r="O1673" s="1" t="s">
-        <v>5153</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1674" s="1" t="s">
-        <v>5154</v>
+        <v>5160</v>
       </c>
       <c r="B1674" s="1" t="s">
         <v>4938</v>
@@ -65499,12 +65559,12 @@
         <v>1640</v>
       </c>
       <c r="O1674" s="1" t="s">
-        <v>5155</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
-        <v>5156</v>
+        <v>5162</v>
       </c>
       <c r="B1675" s="1" t="s">
         <v>4938</v>
@@ -65519,12 +65579,12 @@
         <v>1640</v>
       </c>
       <c r="O1675" s="1" t="s">
-        <v>5157</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="1676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
-        <v>5158</v>
+        <v>5164</v>
       </c>
       <c r="B1676" s="1" t="s">
         <v>4938</v>
@@ -65539,12 +65599,12 @@
         <v>1640</v>
       </c>
       <c r="O1676" s="1" t="s">
-        <v>5159</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="1677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1677" s="1" t="s">
-        <v>5160</v>
+        <v>5166</v>
       </c>
       <c r="B1677" s="1" t="s">
         <v>4938</v>
@@ -65559,12 +65619,12 @@
         <v>1640</v>
       </c>
       <c r="O1677" s="1" t="s">
-        <v>5161</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
-        <v>5162</v>
+        <v>5168</v>
       </c>
       <c r="B1678" s="1" t="s">
         <v>4938</v>
@@ -65579,12 +65639,12 @@
         <v>1640</v>
       </c>
       <c r="O1678" s="1" t="s">
-        <v>5163</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
-        <v>5164</v>
+        <v>5170</v>
       </c>
       <c r="B1679" s="1" t="s">
         <v>4938</v>
@@ -65599,12 +65659,12 @@
         <v>1640</v>
       </c>
       <c r="O1679" s="1" t="s">
-        <v>5165</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
-        <v>5166</v>
+        <v>5172</v>
       </c>
       <c r="B1680" s="1" t="s">
         <v>4938</v>
@@ -65619,12 +65679,12 @@
         <v>1640</v>
       </c>
       <c r="O1680" s="1" t="s">
-        <v>5167</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
-        <v>5168</v>
+        <v>5174</v>
       </c>
       <c r="B1681" s="1" t="s">
         <v>4938</v>
@@ -65639,12 +65699,12 @@
         <v>1640</v>
       </c>
       <c r="O1681" s="1" t="s">
-        <v>5169</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1682" s="1" t="s">
-        <v>5170</v>
+        <v>5176</v>
       </c>
       <c r="B1682" s="1" t="s">
         <v>4938</v>
@@ -65659,12 +65719,12 @@
         <v>1640</v>
       </c>
       <c r="O1682" s="1" t="s">
-        <v>5171</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
-        <v>5172</v>
+        <v>5178</v>
       </c>
       <c r="B1683" s="1" t="s">
         <v>4938</v>
@@ -65679,12 +65739,12 @@
         <v>1640</v>
       </c>
       <c r="O1683" s="1" t="s">
-        <v>5173</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
-        <v>5174</v>
+        <v>5180</v>
       </c>
       <c r="B1684" s="1" t="s">
         <v>4938</v>
@@ -65699,12 +65759,12 @@
         <v>1640</v>
       </c>
       <c r="O1684" s="1" t="s">
-        <v>5175</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
-        <v>5176</v>
+        <v>5182</v>
       </c>
       <c r="B1685" s="1" t="s">
         <v>4938</v>
@@ -65719,12 +65779,12 @@
         <v>1640</v>
       </c>
       <c r="O1685" s="1" t="s">
-        <v>5177</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="1686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
-        <v>5178</v>
+        <v>5184</v>
       </c>
       <c r="B1686" s="1" t="s">
         <v>4938</v>
@@ -65739,12 +65799,12 @@
         <v>1640</v>
       </c>
       <c r="O1686" s="1" t="s">
-        <v>5179</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
-        <v>5180</v>
+        <v>5186</v>
       </c>
       <c r="B1687" s="1" t="s">
         <v>4938</v>
@@ -65759,12 +65819,12 @@
         <v>1640</v>
       </c>
       <c r="O1687" s="1" t="s">
-        <v>5181</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
-        <v>5182</v>
+        <v>5188</v>
       </c>
       <c r="B1688" s="1" t="s">
         <v>4938</v>
@@ -65779,12 +65839,12 @@
         <v>1640</v>
       </c>
       <c r="O1688" s="1" t="s">
-        <v>5183</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
-        <v>5184</v>
+        <v>5190</v>
       </c>
       <c r="B1689" s="1" t="s">
         <v>4938</v>
@@ -65799,12 +65859,12 @@
         <v>1640</v>
       </c>
       <c r="O1689" s="1" t="s">
-        <v>5185</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1690" s="1" t="s">
-        <v>5186</v>
+        <v>5192</v>
       </c>
       <c r="B1690" s="1" t="s">
         <v>4938</v>
@@ -65819,71 +65879,11 @@
         <v>1640</v>
       </c>
       <c r="O1690" s="1" t="s">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1691" s="1" t="s">
-        <v>5188</v>
-      </c>
-      <c r="B1691" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1691" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1691" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1691" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1691" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1692" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B1692" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1692" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1692" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1692" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1692" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1693" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B1693" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1693" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1693" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1693" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1693" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1693"/>
+  <autoFilter ref="A1:N1690"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1653</definedName>
-    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1653</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1652</definedName>
+    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1652</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -15960,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O685"/>
+  <dimension ref="A1:O686"/>
   <sheetViews>
-    <sheetView topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="A685" sqref="A685:XFD685"/>
+    <sheetView topLeftCell="A659" workbookViewId="0">
+      <selection activeCell="A686" sqref="A686:XFD686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29969,6 +29969,23 @@
         <v>1641</v>
       </c>
     </row>
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>4808</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J686" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="O686" s="1" t="s">
+        <v>4809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29976,10 +29993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O1653"/>
+  <dimension ref="A2:O1652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="L407" sqref="L407"/>
+    <sheetView tabSelected="1" topLeftCell="A1494" workbookViewId="0">
+      <selection activeCell="A1508" sqref="A1508:XFD1508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62997,44 +63014,44 @@
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>4807</v>
+        <v>4810</v>
       </c>
       <c r="B1508" s="1" t="s">
-        <v>4808</v>
+        <v>4811</v>
       </c>
       <c r="C1508" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1508" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1508" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O1508" s="1" t="s">
-        <v>4809</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>4810</v>
+        <v>4824</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>4811</v>
+        <v>4825</v>
       </c>
       <c r="C1509" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D1509" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J1509" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1509" s="1" t="s">
-        <v>4812</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>4824</v>
+        <v>4827</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4825</v>
@@ -63046,49 +63063,49 @@
         <v>1925</v>
       </c>
       <c r="O1510" s="1" t="s">
-        <v>4826</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>4827</v>
+        <v>4854</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>4825</v>
+        <v>4855</v>
       </c>
       <c r="C1511" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D1511" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1511" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1511" s="1" t="s">
-        <v>4828</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>4854</v>
+        <v>4857</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>4855</v>
+        <v>4858</v>
       </c>
       <c r="C1512" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1512" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J1512" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O1512" s="1" t="s">
-        <v>4856</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>4857</v>
+        <v>4860</v>
       </c>
       <c r="B1513" s="1" t="s">
         <v>4858</v>
@@ -63100,29 +63117,32 @@
         <v>177</v>
       </c>
       <c r="O1513" s="1" t="s">
-        <v>4859</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>4860</v>
+        <v>4862</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>4858</v>
+        <v>4863</v>
       </c>
       <c r="C1514" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
+      </c>
+      <c r="D1514" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J1514" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O1514" s="1" t="s">
-        <v>4861</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>4862</v>
+        <v>4865</v>
       </c>
       <c r="B1515" s="1" t="s">
         <v>4863</v>
@@ -63137,49 +63157,43 @@
         <v>62</v>
       </c>
       <c r="O1515" s="1" t="s">
-        <v>4864</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>4865</v>
+        <v>4870</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>4863</v>
+        <v>4871</v>
       </c>
       <c r="C1516" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1516" s="1" t="s">
-        <v>1266</v>
+        <v>521</v>
       </c>
       <c r="J1516" s="1" t="s">
-        <v>62</v>
+        <v>3704</v>
       </c>
       <c r="O1516" s="1" t="s">
-        <v>4866</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>4870</v>
+        <v>4873</v>
       </c>
       <c r="B1517" s="1" t="s">
-        <v>4871</v>
+        <v>4874</v>
       </c>
       <c r="C1517" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="J1517" s="1" t="s">
-        <v>3704</v>
-      </c>
       <c r="O1517" s="1" t="s">
-        <v>4872</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>4873</v>
+        <v>4876</v>
       </c>
       <c r="B1518" s="1" t="s">
         <v>4874</v>
@@ -63188,143 +63202,149 @@
         <v>521</v>
       </c>
       <c r="O1518" s="1" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>4876</v>
+        <v>4878</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>4874</v>
+        <v>4879</v>
       </c>
       <c r="C1519" s="1" t="s">
-        <v>521</v>
+        <v>395</v>
       </c>
       <c r="O1519" s="1" t="s">
-        <v>4877</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>4878</v>
+        <v>4881</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>4879</v>
+        <v>4882</v>
       </c>
       <c r="C1520" s="1" t="s">
-        <v>395</v>
+        <v>4294</v>
+      </c>
+      <c r="D1520" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E1520" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1520" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J1520" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1520" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O1520" s="1" t="s">
-        <v>4880</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>4881</v>
+        <v>4902</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>4882</v>
+        <v>4903</v>
       </c>
       <c r="C1521" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1521" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="E1521" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F1521" s="1" t="s">
-        <v>1266</v>
+        <v>395</v>
       </c>
       <c r="J1521" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1521" s="1" t="s">
-        <v>609</v>
+        <v>447</v>
       </c>
       <c r="O1521" s="1" t="s">
-        <v>4883</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>4902</v>
+        <v>4907</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>4903</v>
+        <v>4908</v>
       </c>
       <c r="C1522" s="1" t="s">
-        <v>395</v>
+        <v>4909</v>
+      </c>
+      <c r="D1522" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="J1522" s="1" t="s">
-        <v>447</v>
+        <v>2678</v>
       </c>
       <c r="O1522" s="1" t="s">
-        <v>4904</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>4907</v>
+        <v>4911</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>4908</v>
+        <v>4912</v>
       </c>
       <c r="C1523" s="1" t="s">
-        <v>4909</v>
+        <v>348</v>
       </c>
       <c r="D1523" s="1" t="s">
-        <v>806</v>
+        <v>158</v>
       </c>
       <c r="J1523" s="1" t="s">
-        <v>2678</v>
+        <v>1493</v>
       </c>
       <c r="O1523" s="1" t="s">
-        <v>4910</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>4911</v>
+        <v>4914</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>4912</v>
+        <v>4915</v>
       </c>
       <c r="C1524" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1524" s="1" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="J1524" s="1" t="s">
-        <v>1493</v>
+        <v>62</v>
       </c>
       <c r="O1524" s="1" t="s">
-        <v>4913</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>4914</v>
+        <v>4937</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>4915</v>
+        <v>4938</v>
       </c>
       <c r="C1525" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1525" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1525" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O1525" s="1" t="s">
-        <v>4916</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>4937</v>
+        <v>4940</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>4938</v>
@@ -63339,12 +63359,12 @@
         <v>1640</v>
       </c>
       <c r="O1526" s="1" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>4938</v>
@@ -63359,12 +63379,12 @@
         <v>1640</v>
       </c>
       <c r="O1527" s="1" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>4938</v>
@@ -63379,12 +63399,12 @@
         <v>1640</v>
       </c>
       <c r="O1528" s="1" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>4938</v>
@@ -63399,12 +63419,12 @@
         <v>1640</v>
       </c>
       <c r="O1529" s="1" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>4938</v>
@@ -63419,12 +63439,12 @@
         <v>1640</v>
       </c>
       <c r="O1530" s="1" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>4938</v>
@@ -63439,12 +63459,12 @@
         <v>1640</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>4938</v>
@@ -63459,12 +63479,12 @@
         <v>1640</v>
       </c>
       <c r="O1532" s="1" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>4938</v>
@@ -63479,12 +63499,12 @@
         <v>1640</v>
       </c>
       <c r="O1533" s="1" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>4938</v>
@@ -63499,12 +63519,12 @@
         <v>1640</v>
       </c>
       <c r="O1534" s="1" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>4938</v>
@@ -63519,12 +63539,12 @@
         <v>1640</v>
       </c>
       <c r="O1535" s="1" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>4938</v>
@@ -63539,12 +63559,12 @@
         <v>1640</v>
       </c>
       <c r="O1536" s="1" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>4938</v>
@@ -63559,12 +63579,12 @@
         <v>1640</v>
       </c>
       <c r="O1537" s="1" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>4938</v>
@@ -63579,12 +63599,12 @@
         <v>1640</v>
       </c>
       <c r="O1538" s="1" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>4938</v>
@@ -63599,12 +63619,12 @@
         <v>1640</v>
       </c>
       <c r="O1539" s="1" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="B1540" s="1" t="s">
         <v>4938</v>
@@ -63619,12 +63639,12 @@
         <v>1640</v>
       </c>
       <c r="O1540" s="1" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
       <c r="B1541" s="1" t="s">
         <v>4938</v>
@@ -63639,12 +63659,12 @@
         <v>1640</v>
       </c>
       <c r="O1541" s="1" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4938</v>
@@ -63659,12 +63679,12 @@
         <v>1640</v>
       </c>
       <c r="O1542" s="1" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
       <c r="B1543" s="1" t="s">
         <v>4938</v>
@@ -63679,12 +63699,12 @@
         <v>1640</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>4973</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>4938</v>
@@ -63699,12 +63719,12 @@
         <v>1640</v>
       </c>
       <c r="O1544" s="1" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>4976</v>
+        <v>4978</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>4938</v>
@@ -63719,12 +63739,12 @@
         <v>1640</v>
       </c>
       <c r="O1545" s="1" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>4938</v>
@@ -63739,12 +63759,12 @@
         <v>1640</v>
       </c>
       <c r="O1546" s="1" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>4980</v>
+        <v>4982</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>4938</v>
@@ -63759,12 +63779,12 @@
         <v>1640</v>
       </c>
       <c r="O1547" s="1" t="s">
-        <v>4981</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>4982</v>
+        <v>4984</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>4938</v>
@@ -63779,12 +63799,12 @@
         <v>1640</v>
       </c>
       <c r="O1548" s="1" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="B1549" s="1" t="s">
         <v>4938</v>
@@ -63799,12 +63819,12 @@
         <v>1640</v>
       </c>
       <c r="O1549" s="1" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
       <c r="B1550" s="1" t="s">
         <v>4938</v>
@@ -63819,12 +63839,12 @@
         <v>1640</v>
       </c>
       <c r="O1550" s="1" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>4988</v>
+        <v>4990</v>
       </c>
       <c r="B1551" s="1" t="s">
         <v>4938</v>
@@ -63839,12 +63859,12 @@
         <v>1640</v>
       </c>
       <c r="O1551" s="1" t="s">
-        <v>4989</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>4990</v>
+        <v>4992</v>
       </c>
       <c r="B1552" s="1" t="s">
         <v>4938</v>
@@ -63859,12 +63879,12 @@
         <v>1640</v>
       </c>
       <c r="O1552" s="1" t="s">
-        <v>4991</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>4992</v>
+        <v>4994</v>
       </c>
       <c r="B1553" s="1" t="s">
         <v>4938</v>
@@ -63879,12 +63899,12 @@
         <v>1640</v>
       </c>
       <c r="O1553" s="1" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
       <c r="B1554" s="1" t="s">
         <v>4938</v>
@@ -63899,12 +63919,12 @@
         <v>1640</v>
       </c>
       <c r="O1554" s="1" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>4996</v>
+        <v>4998</v>
       </c>
       <c r="B1555" s="1" t="s">
         <v>4938</v>
@@ -63919,12 +63939,12 @@
         <v>1640</v>
       </c>
       <c r="O1555" s="1" t="s">
-        <v>4997</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="1556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="B1556" s="1" t="s">
         <v>4938</v>
@@ -63939,12 +63959,12 @@
         <v>1640</v>
       </c>
       <c r="O1556" s="1" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="1557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="B1557" s="1" t="s">
         <v>4938</v>
@@ -63959,12 +63979,12 @@
         <v>1640</v>
       </c>
       <c r="O1557" s="1" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>4938</v>
@@ -63979,12 +63999,12 @@
         <v>1640</v>
       </c>
       <c r="O1558" s="1" t="s">
-        <v>5003</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>5004</v>
+        <v>5006</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4938</v>
@@ -63999,12 +64019,12 @@
         <v>1640</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B1560" s="1" t="s">
         <v>4938</v>
@@ -64019,12 +64039,12 @@
         <v>1640</v>
       </c>
       <c r="O1560" s="1" t="s">
-        <v>5007</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="B1561" s="1" t="s">
         <v>4938</v>
@@ -64039,12 +64059,12 @@
         <v>1640</v>
       </c>
       <c r="O1561" s="1" t="s">
-        <v>5009</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>5010</v>
+        <v>5012</v>
       </c>
       <c r="B1562" s="1" t="s">
         <v>4938</v>
@@ -64059,12 +64079,12 @@
         <v>1640</v>
       </c>
       <c r="O1562" s="1" t="s">
-        <v>5011</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="B1563" s="1" t="s">
         <v>4938</v>
@@ -64079,12 +64099,12 @@
         <v>1640</v>
       </c>
       <c r="O1563" s="1" t="s">
-        <v>5013</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>5014</v>
+        <v>5016</v>
       </c>
       <c r="B1564" s="1" t="s">
         <v>4938</v>
@@ -64099,12 +64119,12 @@
         <v>1640</v>
       </c>
       <c r="O1564" s="1" t="s">
-        <v>5015</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>5016</v>
+        <v>5018</v>
       </c>
       <c r="B1565" s="1" t="s">
         <v>4938</v>
@@ -64119,12 +64139,12 @@
         <v>1640</v>
       </c>
       <c r="O1565" s="1" t="s">
-        <v>5017</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="B1566" s="1" t="s">
         <v>4938</v>
@@ -64139,12 +64159,12 @@
         <v>1640</v>
       </c>
       <c r="O1566" s="1" t="s">
-        <v>5019</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>5020</v>
+        <v>5022</v>
       </c>
       <c r="B1567" s="1" t="s">
         <v>4938</v>
@@ -64159,12 +64179,12 @@
         <v>1640</v>
       </c>
       <c r="O1567" s="1" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>5022</v>
+        <v>5024</v>
       </c>
       <c r="B1568" s="1" t="s">
         <v>4938</v>
@@ -64179,12 +64199,12 @@
         <v>1640</v>
       </c>
       <c r="O1568" s="1" t="s">
-        <v>5023</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>5024</v>
+        <v>5026</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4938</v>
@@ -64199,12 +64219,12 @@
         <v>1640</v>
       </c>
       <c r="O1569" s="1" t="s">
-        <v>5025</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>5026</v>
+        <v>5028</v>
       </c>
       <c r="B1570" s="1" t="s">
         <v>4938</v>
@@ -64219,12 +64239,12 @@
         <v>1640</v>
       </c>
       <c r="O1570" s="1" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>5028</v>
+        <v>5030</v>
       </c>
       <c r="B1571" s="1" t="s">
         <v>4938</v>
@@ -64239,12 +64259,12 @@
         <v>1640</v>
       </c>
       <c r="O1571" s="1" t="s">
-        <v>5029</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>5030</v>
+        <v>5032</v>
       </c>
       <c r="B1572" s="1" t="s">
         <v>4938</v>
@@ -64259,12 +64279,12 @@
         <v>1640</v>
       </c>
       <c r="O1572" s="1" t="s">
-        <v>5031</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="1573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
       <c r="B1573" s="1" t="s">
         <v>4938</v>
@@ -64279,12 +64299,12 @@
         <v>1640</v>
       </c>
       <c r="O1573" s="1" t="s">
-        <v>5033</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>5034</v>
+        <v>5036</v>
       </c>
       <c r="B1574" s="1" t="s">
         <v>4938</v>
@@ -64299,12 +64319,12 @@
         <v>1640</v>
       </c>
       <c r="O1574" s="1" t="s">
-        <v>5035</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>5036</v>
+        <v>5038</v>
       </c>
       <c r="B1575" s="1" t="s">
         <v>4938</v>
@@ -64319,12 +64339,12 @@
         <v>1640</v>
       </c>
       <c r="O1575" s="1" t="s">
-        <v>5037</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="1576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>5038</v>
+        <v>5040</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>4938</v>
@@ -64339,12 +64359,12 @@
         <v>1640</v>
       </c>
       <c r="O1576" s="1" t="s">
-        <v>5039</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>4938</v>
@@ -64359,12 +64379,12 @@
         <v>1640</v>
       </c>
       <c r="O1577" s="1" t="s">
-        <v>5041</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="1578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>5042</v>
+        <v>5044</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>4938</v>
@@ -64379,12 +64399,12 @@
         <v>1640</v>
       </c>
       <c r="O1578" s="1" t="s">
-        <v>5043</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="1579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>5044</v>
+        <v>5046</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>4938</v>
@@ -64399,12 +64419,12 @@
         <v>1640</v>
       </c>
       <c r="O1579" s="1" t="s">
-        <v>5045</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4938</v>
@@ -64419,12 +64439,12 @@
         <v>1640</v>
       </c>
       <c r="O1580" s="1" t="s">
-        <v>5047</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="1581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>4938</v>
@@ -64439,12 +64459,12 @@
         <v>1640</v>
       </c>
       <c r="O1581" s="1" t="s">
-        <v>5049</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="1582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>4938</v>
@@ -64459,12 +64479,12 @@
         <v>1640</v>
       </c>
       <c r="O1582" s="1" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>4938</v>
@@ -64479,12 +64499,12 @@
         <v>1640</v>
       </c>
       <c r="O1583" s="1" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="1584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>4938</v>
@@ -64499,12 +64519,12 @@
         <v>1640</v>
       </c>
       <c r="O1584" s="1" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>5056</v>
+        <v>5058</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>4938</v>
@@ -64519,12 +64539,12 @@
         <v>1640</v>
       </c>
       <c r="O1585" s="1" t="s">
-        <v>5057</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>5058</v>
+        <v>5060</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>4938</v>
@@ -64539,12 +64559,12 @@
         <v>1640</v>
       </c>
       <c r="O1586" s="1" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>5060</v>
+        <v>5062</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>4938</v>
@@ -64559,12 +64579,12 @@
         <v>1640</v>
       </c>
       <c r="O1587" s="1" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="1588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>4938</v>
@@ -64579,12 +64599,12 @@
         <v>1640</v>
       </c>
       <c r="O1588" s="1" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>5064</v>
+        <v>5066</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>4938</v>
@@ -64599,12 +64619,12 @@
         <v>1640</v>
       </c>
       <c r="O1589" s="1" t="s">
-        <v>5065</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="1590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>4938</v>
@@ -64619,12 +64639,12 @@
         <v>1640</v>
       </c>
       <c r="O1590" s="1" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>4938</v>
@@ -64639,12 +64659,12 @@
         <v>1640</v>
       </c>
       <c r="O1591" s="1" t="s">
-        <v>5069</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>5070</v>
+        <v>5072</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>4938</v>
@@ -64659,12 +64679,12 @@
         <v>1640</v>
       </c>
       <c r="O1592" s="1" t="s">
-        <v>5071</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="1593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>5072</v>
+        <v>5074</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>4938</v>
@@ -64679,12 +64699,12 @@
         <v>1640</v>
       </c>
       <c r="O1593" s="1" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>4938</v>
@@ -64699,12 +64719,12 @@
         <v>1640</v>
       </c>
       <c r="O1594" s="1" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>5076</v>
+        <v>5078</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>4938</v>
@@ -64719,12 +64739,12 @@
         <v>1640</v>
       </c>
       <c r="O1595" s="1" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="1596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>5078</v>
+        <v>5080</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>4938</v>
@@ -64739,12 +64759,12 @@
         <v>1640</v>
       </c>
       <c r="O1596" s="1" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
-        <v>5080</v>
+        <v>5082</v>
       </c>
       <c r="B1597" s="1" t="s">
         <v>4938</v>
@@ -64759,12 +64779,12 @@
         <v>1640</v>
       </c>
       <c r="O1597" s="1" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>4938</v>
@@ -64779,12 +64799,12 @@
         <v>1640</v>
       </c>
       <c r="O1598" s="1" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
       <c r="B1599" s="1" t="s">
         <v>4938</v>
@@ -64799,12 +64819,12 @@
         <v>1640</v>
       </c>
       <c r="O1599" s="1" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
       <c r="B1600" s="1" t="s">
         <v>4938</v>
@@ -64819,12 +64839,12 @@
         <v>1640</v>
       </c>
       <c r="O1600" s="1" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
       <c r="B1601" s="1" t="s">
         <v>4938</v>
@@ -64839,12 +64859,12 @@
         <v>1640</v>
       </c>
       <c r="O1601" s="1" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
       <c r="B1602" s="1" t="s">
         <v>4938</v>
@@ -64859,12 +64879,12 @@
         <v>1640</v>
       </c>
       <c r="O1602" s="1" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
       <c r="B1603" s="1" t="s">
         <v>4938</v>
@@ -64879,12 +64899,12 @@
         <v>1640</v>
       </c>
       <c r="O1603" s="1" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1604" s="1" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
       <c r="B1604" s="1" t="s">
         <v>4938</v>
@@ -64899,12 +64919,12 @@
         <v>1640</v>
       </c>
       <c r="O1604" s="1" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1605" s="1" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="B1605" s="1" t="s">
         <v>4938</v>
@@ -64919,12 +64939,12 @@
         <v>1640</v>
       </c>
       <c r="O1605" s="1" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1606" s="1" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
       <c r="B1606" s="1" t="s">
         <v>4938</v>
@@ -64939,12 +64959,12 @@
         <v>1640</v>
       </c>
       <c r="O1606" s="1" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1607" s="1" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
       <c r="B1607" s="1" t="s">
         <v>4938</v>
@@ -64959,12 +64979,12 @@
         <v>1640</v>
       </c>
       <c r="O1607" s="1" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1608" s="1" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
       <c r="B1608" s="1" t="s">
         <v>4938</v>
@@ -64979,12 +64999,12 @@
         <v>1640</v>
       </c>
       <c r="O1608" s="1" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1609" s="1" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
       <c r="B1609" s="1" t="s">
         <v>4938</v>
@@ -64999,12 +65019,12 @@
         <v>1640</v>
       </c>
       <c r="O1609" s="1" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="B1610" s="1" t="s">
         <v>4938</v>
@@ -65019,12 +65039,12 @@
         <v>1640</v>
       </c>
       <c r="O1610" s="1" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1611" s="1" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
       <c r="B1611" s="1" t="s">
         <v>4938</v>
@@ -65039,12 +65059,12 @@
         <v>1640</v>
       </c>
       <c r="O1611" s="1" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
       <c r="B1612" s="1" t="s">
         <v>4938</v>
@@ -65059,12 +65079,12 @@
         <v>1640</v>
       </c>
       <c r="O1612" s="1" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1613" s="1" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="B1613" s="1" t="s">
         <v>4938</v>
@@ -65079,12 +65099,12 @@
         <v>1640</v>
       </c>
       <c r="O1613" s="1" t="s">
-        <v>5113</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1614" s="1" t="s">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="B1614" s="1" t="s">
         <v>4938</v>
@@ -65099,12 +65119,12 @@
         <v>1640</v>
       </c>
       <c r="O1614" s="1" t="s">
-        <v>5115</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1615" s="1" t="s">
-        <v>5116</v>
+        <v>5118</v>
       </c>
       <c r="B1615" s="1" t="s">
         <v>4938</v>
@@ -65119,12 +65139,12 @@
         <v>1640</v>
       </c>
       <c r="O1615" s="1" t="s">
-        <v>5117</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1616" s="1" t="s">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="B1616" s="1" t="s">
         <v>4938</v>
@@ -65139,12 +65159,12 @@
         <v>1640</v>
       </c>
       <c r="O1616" s="1" t="s">
-        <v>5119</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
-        <v>5120</v>
+        <v>5122</v>
       </c>
       <c r="B1617" s="1" t="s">
         <v>4938</v>
@@ -65159,12 +65179,12 @@
         <v>1640</v>
       </c>
       <c r="O1617" s="1" t="s">
-        <v>5121</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1618" s="1" t="s">
-        <v>5122</v>
+        <v>5124</v>
       </c>
       <c r="B1618" s="1" t="s">
         <v>4938</v>
@@ -65179,12 +65199,12 @@
         <v>1640</v>
       </c>
       <c r="O1618" s="1" t="s">
-        <v>5123</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="1619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1619" s="1" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="B1619" s="1" t="s">
         <v>4938</v>
@@ -65199,12 +65219,12 @@
         <v>1640</v>
       </c>
       <c r="O1619" s="1" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="1620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1620" s="1" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
       <c r="B1620" s="1" t="s">
         <v>4938</v>
@@ -65219,12 +65239,12 @@
         <v>1640</v>
       </c>
       <c r="O1620" s="1" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="1621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1621" s="1" t="s">
-        <v>5128</v>
+        <v>5130</v>
       </c>
       <c r="B1621" s="1" t="s">
         <v>4938</v>
@@ -65239,12 +65259,12 @@
         <v>1640</v>
       </c>
       <c r="O1621" s="1" t="s">
-        <v>5129</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="1622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1622" s="1" t="s">
-        <v>5130</v>
+        <v>5132</v>
       </c>
       <c r="B1622" s="1" t="s">
         <v>4938</v>
@@ -65259,12 +65279,12 @@
         <v>1640</v>
       </c>
       <c r="O1622" s="1" t="s">
-        <v>5131</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="1623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1623" s="1" t="s">
-        <v>5132</v>
+        <v>5134</v>
       </c>
       <c r="B1623" s="1" t="s">
         <v>4938</v>
@@ -65279,12 +65299,12 @@
         <v>1640</v>
       </c>
       <c r="O1623" s="1" t="s">
-        <v>5133</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
-        <v>5134</v>
+        <v>5136</v>
       </c>
       <c r="B1624" s="1" t="s">
         <v>4938</v>
@@ -65299,12 +65319,12 @@
         <v>1640</v>
       </c>
       <c r="O1624" s="1" t="s">
-        <v>5135</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="1625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
-        <v>5136</v>
+        <v>5138</v>
       </c>
       <c r="B1625" s="1" t="s">
         <v>4938</v>
@@ -65319,12 +65339,12 @@
         <v>1640</v>
       </c>
       <c r="O1625" s="1" t="s">
-        <v>5137</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1626" s="1" t="s">
-        <v>5138</v>
+        <v>5140</v>
       </c>
       <c r="B1626" s="1" t="s">
         <v>4938</v>
@@ -65339,12 +65359,12 @@
         <v>1640</v>
       </c>
       <c r="O1626" s="1" t="s">
-        <v>5139</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
       <c r="B1627" s="1" t="s">
         <v>4938</v>
@@ -65359,12 +65379,12 @@
         <v>1640</v>
       </c>
       <c r="O1627" s="1" t="s">
-        <v>5141</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1628" s="1" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="B1628" s="1" t="s">
         <v>4938</v>
@@ -65379,12 +65399,12 @@
         <v>1640</v>
       </c>
       <c r="O1628" s="1" t="s">
-        <v>5143</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1629" s="1" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="B1629" s="1" t="s">
         <v>4938</v>
@@ -65399,12 +65419,12 @@
         <v>1640</v>
       </c>
       <c r="O1629" s="1" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1630" s="1" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
       <c r="B1630" s="1" t="s">
         <v>4938</v>
@@ -65419,12 +65439,12 @@
         <v>1640</v>
       </c>
       <c r="O1630" s="1" t="s">
-        <v>5147</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="1631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1631" s="1" t="s">
-        <v>5148</v>
+        <v>5150</v>
       </c>
       <c r="B1631" s="1" t="s">
         <v>4938</v>
@@ -65439,12 +65459,12 @@
         <v>1640</v>
       </c>
       <c r="O1631" s="1" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="1632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>4938</v>
@@ -65459,12 +65479,12 @@
         <v>1640</v>
       </c>
       <c r="O1632" s="1" t="s">
-        <v>5151</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="B1633" s="1" t="s">
         <v>4938</v>
@@ -65479,12 +65499,12 @@
         <v>1640</v>
       </c>
       <c r="O1633" s="1" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="1634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="B1634" s="1" t="s">
         <v>4938</v>
@@ -65499,12 +65519,12 @@
         <v>1640</v>
       </c>
       <c r="O1634" s="1" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
-        <v>5156</v>
+        <v>5158</v>
       </c>
       <c r="B1635" s="1" t="s">
         <v>4938</v>
@@ -65519,12 +65539,12 @@
         <v>1640</v>
       </c>
       <c r="O1635" s="1" t="s">
-        <v>5157</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
-        <v>5158</v>
+        <v>5160</v>
       </c>
       <c r="B1636" s="1" t="s">
         <v>4938</v>
@@ -65539,12 +65559,12 @@
         <v>1640</v>
       </c>
       <c r="O1636" s="1" t="s">
-        <v>5159</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="B1637" s="1" t="s">
         <v>4938</v>
@@ -65559,12 +65579,12 @@
         <v>1640</v>
       </c>
       <c r="O1637" s="1" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="1638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1638" s="1" t="s">
-        <v>5162</v>
+        <v>5164</v>
       </c>
       <c r="B1638" s="1" t="s">
         <v>4938</v>
@@ -65579,12 +65599,12 @@
         <v>1640</v>
       </c>
       <c r="O1638" s="1" t="s">
-        <v>5163</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="1639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
-        <v>5164</v>
+        <v>5166</v>
       </c>
       <c r="B1639" s="1" t="s">
         <v>4938</v>
@@ -65599,12 +65619,12 @@
         <v>1640</v>
       </c>
       <c r="O1639" s="1" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="B1640" s="1" t="s">
         <v>4938</v>
@@ -65619,12 +65639,12 @@
         <v>1640</v>
       </c>
       <c r="O1640" s="1" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1641" s="1" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="B1641" s="1" t="s">
         <v>4938</v>
@@ -65639,12 +65659,12 @@
         <v>1640</v>
       </c>
       <c r="O1641" s="1" t="s">
-        <v>5169</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1642" s="1" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
       <c r="B1642" s="1" t="s">
         <v>4938</v>
@@ -65659,12 +65679,12 @@
         <v>1640</v>
       </c>
       <c r="O1642" s="1" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1643" s="1" t="s">
-        <v>5172</v>
+        <v>5174</v>
       </c>
       <c r="B1643" s="1" t="s">
         <v>4938</v>
@@ -65679,12 +65699,12 @@
         <v>1640</v>
       </c>
       <c r="O1643" s="1" t="s">
-        <v>5173</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
-        <v>5174</v>
+        <v>5176</v>
       </c>
       <c r="B1644" s="1" t="s">
         <v>4938</v>
@@ -65699,12 +65719,12 @@
         <v>1640</v>
       </c>
       <c r="O1644" s="1" t="s">
-        <v>5175</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
-        <v>5176</v>
+        <v>5178</v>
       </c>
       <c r="B1645" s="1" t="s">
         <v>4938</v>
@@ -65719,12 +65739,12 @@
         <v>1640</v>
       </c>
       <c r="O1645" s="1" t="s">
-        <v>5177</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
-        <v>5178</v>
+        <v>5180</v>
       </c>
       <c r="B1646" s="1" t="s">
         <v>4938</v>
@@ -65739,12 +65759,12 @@
         <v>1640</v>
       </c>
       <c r="O1646" s="1" t="s">
-        <v>5179</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>5180</v>
+        <v>5182</v>
       </c>
       <c r="B1647" s="1" t="s">
         <v>4938</v>
@@ -65759,12 +65779,12 @@
         <v>1640</v>
       </c>
       <c r="O1647" s="1" t="s">
-        <v>5181</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="1648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1648" s="1" t="s">
-        <v>5182</v>
+        <v>5184</v>
       </c>
       <c r="B1648" s="1" t="s">
         <v>4938</v>
@@ -65779,12 +65799,12 @@
         <v>1640</v>
       </c>
       <c r="O1648" s="1" t="s">
-        <v>5183</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
-        <v>5184</v>
+        <v>5186</v>
       </c>
       <c r="B1649" s="1" t="s">
         <v>4938</v>
@@ -65799,12 +65819,12 @@
         <v>1640</v>
       </c>
       <c r="O1649" s="1" t="s">
-        <v>5185</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
-        <v>5186</v>
+        <v>5188</v>
       </c>
       <c r="B1650" s="1" t="s">
         <v>4938</v>
@@ -65819,12 +65839,12 @@
         <v>1640</v>
       </c>
       <c r="O1650" s="1" t="s">
-        <v>5187</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
-        <v>5188</v>
+        <v>5190</v>
       </c>
       <c r="B1651" s="1" t="s">
         <v>4938</v>
@@ -65839,12 +65859,12 @@
         <v>1640</v>
       </c>
       <c r="O1651" s="1" t="s">
-        <v>5189</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
-        <v>5190</v>
+        <v>5192</v>
       </c>
       <c r="B1652" s="1" t="s">
         <v>4938</v>
@@ -65859,31 +65879,11 @@
         <v>1640</v>
       </c>
       <c r="O1652" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1653" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B1653" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1653" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1653" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1653" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1653" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1653"/>
+  <autoFilter ref="A1:N1652"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -30073,7 +30073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O1649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I986" sqref="I986"/>
     </sheetView>
   </sheetViews>

--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1616</definedName>
-    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1616</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1614</definedName>
+    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1614</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -15960,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O722"/>
+  <dimension ref="A1:O724"/>
   <sheetViews>
     <sheetView topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="A719" sqref="A719:XFD722"/>
+      <selection activeCell="A723" sqref="A723:XFD724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30760,6 +30760,46 @@
         <v>4178</v>
       </c>
     </row>
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J723" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O723" s="1" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J724" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O724" s="1" t="s">
+        <v>4540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30767,10 +30807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O1616"/>
+  <dimension ref="A2:O1614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1278" workbookViewId="0">
-      <selection activeCell="A1292" sqref="A1292:XFD1295"/>
+    <sheetView tabSelected="1" topLeftCell="A1378" workbookViewId="0">
+      <selection activeCell="A1392" sqref="A1392:XFD1393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61324,188 +61364,188 @@
     </row>
     <row r="1392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1392" s="1" t="s">
-        <v>4536</v>
+        <v>4548</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>4537</v>
+        <v>4549</v>
       </c>
       <c r="C1392" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="D1392" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="J1392" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O1392" s="1" t="s">
-        <v>4538</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1393" s="1" t="s">
-        <v>4539</v>
+        <v>4551</v>
       </c>
       <c r="B1393" s="1" t="s">
-        <v>4537</v>
+        <v>4549</v>
       </c>
       <c r="C1393" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="D1393" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="J1393" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O1393" s="1" t="s">
-        <v>4540</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1394" s="1" t="s">
-        <v>4548</v>
+        <v>4553</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>4549</v>
+        <v>4554</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1394" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O1394" s="1" t="s">
-        <v>4550</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1395" s="1" t="s">
-        <v>4551</v>
+        <v>4556</v>
       </c>
       <c r="B1395" s="1" t="s">
-        <v>4549</v>
+        <v>4557</v>
       </c>
       <c r="C1395" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1395" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J1395" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1395" s="1" t="s">
+        <v>4078</v>
       </c>
       <c r="O1395" s="1" t="s">
-        <v>4552</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1396" s="1" t="s">
-        <v>4553</v>
+        <v>4564</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>4554</v>
+        <v>4565</v>
       </c>
       <c r="C1396" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1396" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
+      </c>
+      <c r="E1396" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1396" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1396" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1396" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1396" s="1" t="s">
-        <v>4555</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1397" s="1" t="s">
-        <v>4556</v>
+        <v>4567</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>4557</v>
+        <v>4565</v>
       </c>
       <c r="C1397" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1397" s="1" t="s">
-        <v>567</v>
+        <v>348</v>
+      </c>
+      <c r="E1397" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1397" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1397" s="1" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="K1397" s="1" t="s">
-        <v>4078</v>
+        <v>1723</v>
       </c>
       <c r="O1397" s="1" t="s">
-        <v>4558</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1398" s="1" t="s">
-        <v>4564</v>
+        <v>4569</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1398" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1398" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1398" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1398" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1398" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
       </c>
       <c r="O1398" s="1" t="s">
-        <v>4566</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1399" s="1" t="s">
-        <v>4567</v>
+        <v>4572</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1399" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1399" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1399" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1399" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1399" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
       </c>
       <c r="O1399" s="1" t="s">
-        <v>4568</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1400" s="1" t="s">
-        <v>4569</v>
+        <v>4574</v>
       </c>
       <c r="B1400" s="1" t="s">
         <v>4570</v>
@@ -61514,18 +61554,21 @@
         <v>348</v>
       </c>
       <c r="D1400" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1400" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1400" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1400" s="1" t="s">
-        <v>4571</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1401" s="1" t="s">
-        <v>4572</v>
+        <v>4576</v>
       </c>
       <c r="B1401" s="1" t="s">
         <v>4570</v>
@@ -61534,18 +61577,21 @@
         <v>348</v>
       </c>
       <c r="D1401" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1401" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1401" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1401" s="1" t="s">
-        <v>4573</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1402" s="1" t="s">
-        <v>4574</v>
+        <v>4578</v>
       </c>
       <c r="B1402" s="1" t="s">
         <v>4570</v>
@@ -61563,12 +61609,12 @@
         <v>1723</v>
       </c>
       <c r="O1402" s="1" t="s">
-        <v>4575</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1403" s="1" t="s">
-        <v>4576</v>
+        <v>4580</v>
       </c>
       <c r="B1403" s="1" t="s">
         <v>4570</v>
@@ -61586,12 +61632,12 @@
         <v>1723</v>
       </c>
       <c r="O1403" s="1" t="s">
-        <v>4577</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1404" s="1" t="s">
-        <v>4578</v>
+        <v>4582</v>
       </c>
       <c r="B1404" s="1" t="s">
         <v>4570</v>
@@ -61609,12 +61655,12 @@
         <v>1723</v>
       </c>
       <c r="O1404" s="1" t="s">
-        <v>4579</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1405" s="1" t="s">
-        <v>4580</v>
+        <v>4584</v>
       </c>
       <c r="B1405" s="1" t="s">
         <v>4570</v>
@@ -61632,12 +61678,12 @@
         <v>1723</v>
       </c>
       <c r="O1405" s="1" t="s">
-        <v>4581</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1406" s="1" t="s">
-        <v>4582</v>
+        <v>4586</v>
       </c>
       <c r="B1406" s="1" t="s">
         <v>4570</v>
@@ -61655,12 +61701,12 @@
         <v>1723</v>
       </c>
       <c r="O1406" s="1" t="s">
-        <v>4583</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1407" s="1" t="s">
-        <v>4584</v>
+        <v>4588</v>
       </c>
       <c r="B1407" s="1" t="s">
         <v>4570</v>
@@ -61678,12 +61724,12 @@
         <v>1723</v>
       </c>
       <c r="O1407" s="1" t="s">
-        <v>4585</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1408" s="1" t="s">
-        <v>4586</v>
+        <v>4590</v>
       </c>
       <c r="B1408" s="1" t="s">
         <v>4570</v>
@@ -61701,12 +61747,12 @@
         <v>1723</v>
       </c>
       <c r="O1408" s="1" t="s">
-        <v>4587</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
-        <v>4588</v>
+        <v>4592</v>
       </c>
       <c r="B1409" s="1" t="s">
         <v>4570</v>
@@ -61724,12 +61770,12 @@
         <v>1723</v>
       </c>
       <c r="O1409" s="1" t="s">
-        <v>4589</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1410" s="1" t="s">
-        <v>4590</v>
+        <v>4594</v>
       </c>
       <c r="B1410" s="1" t="s">
         <v>4570</v>
@@ -61747,12 +61793,12 @@
         <v>1723</v>
       </c>
       <c r="O1410" s="1" t="s">
-        <v>4591</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1411" s="1" t="s">
-        <v>4592</v>
+        <v>4596</v>
       </c>
       <c r="B1411" s="1" t="s">
         <v>4570</v>
@@ -61770,12 +61816,12 @@
         <v>1723</v>
       </c>
       <c r="O1411" s="1" t="s">
-        <v>4593</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1412" s="1" t="s">
-        <v>4594</v>
+        <v>4598</v>
       </c>
       <c r="B1412" s="1" t="s">
         <v>4570</v>
@@ -61793,12 +61839,12 @@
         <v>1723</v>
       </c>
       <c r="O1412" s="1" t="s">
-        <v>4595</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1413" s="1" t="s">
-        <v>4596</v>
+        <v>4600</v>
       </c>
       <c r="B1413" s="1" t="s">
         <v>4570</v>
@@ -61816,12 +61862,12 @@
         <v>1723</v>
       </c>
       <c r="O1413" s="1" t="s">
-        <v>4597</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1414" s="1" t="s">
-        <v>4598</v>
+        <v>4602</v>
       </c>
       <c r="B1414" s="1" t="s">
         <v>4570</v>
@@ -61839,12 +61885,12 @@
         <v>1723</v>
       </c>
       <c r="O1414" s="1" t="s">
-        <v>4599</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1415" s="1" t="s">
-        <v>4600</v>
+        <v>4604</v>
       </c>
       <c r="B1415" s="1" t="s">
         <v>4570</v>
@@ -61862,12 +61908,12 @@
         <v>1723</v>
       </c>
       <c r="O1415" s="1" t="s">
-        <v>4601</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1416" s="1" t="s">
-        <v>4602</v>
+        <v>4606</v>
       </c>
       <c r="B1416" s="1" t="s">
         <v>4570</v>
@@ -61885,12 +61931,12 @@
         <v>1723</v>
       </c>
       <c r="O1416" s="1" t="s">
-        <v>4603</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1417" s="1" t="s">
-        <v>4604</v>
+        <v>4608</v>
       </c>
       <c r="B1417" s="1" t="s">
         <v>4570</v>
@@ -61908,12 +61954,12 @@
         <v>1723</v>
       </c>
       <c r="O1417" s="1" t="s">
-        <v>4605</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1418" s="1" t="s">
-        <v>4606</v>
+        <v>4610</v>
       </c>
       <c r="B1418" s="1" t="s">
         <v>4570</v>
@@ -61931,12 +61977,12 @@
         <v>1723</v>
       </c>
       <c r="O1418" s="1" t="s">
-        <v>4607</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1419" s="1" t="s">
-        <v>4608</v>
+        <v>4612</v>
       </c>
       <c r="B1419" s="1" t="s">
         <v>4570</v>
@@ -61954,12 +62000,12 @@
         <v>1723</v>
       </c>
       <c r="O1419" s="1" t="s">
-        <v>4609</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1420" s="1" t="s">
-        <v>4610</v>
+        <v>4614</v>
       </c>
       <c r="B1420" s="1" t="s">
         <v>4570</v>
@@ -61967,22 +62013,16 @@
       <c r="C1420" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1420" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="J1420" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1420" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O1420" s="1" t="s">
-        <v>4611</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1421" s="1" t="s">
-        <v>4612</v>
+        <v>4616</v>
       </c>
       <c r="B1421" s="1" t="s">
         <v>4570</v>
@@ -62000,52 +62040,58 @@
         <v>1723</v>
       </c>
       <c r="O1421" s="1" t="s">
-        <v>4613</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1422" s="1" t="s">
-        <v>4614</v>
+        <v>4618</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1422" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1422" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1422" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
+      </c>
+      <c r="K1422" s="1" t="s">
+        <v>2692</v>
       </c>
       <c r="O1422" s="1" t="s">
-        <v>4615</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
-        <v>4616</v>
+        <v>4621</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1423" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1423" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1423" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1423" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1423" s="1" t="s">
-        <v>4617</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
-        <v>4618</v>
+        <v>4623</v>
       </c>
       <c r="B1424" s="1" t="s">
         <v>4619</v>
@@ -62063,12 +62109,12 @@
         <v>2692</v>
       </c>
       <c r="O1424" s="1" t="s">
-        <v>4620</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
-        <v>4621</v>
+        <v>4625</v>
       </c>
       <c r="B1425" s="1" t="s">
         <v>4619</v>
@@ -62086,61 +62132,55 @@
         <v>2692</v>
       </c>
       <c r="O1425" s="1" t="s">
-        <v>4622</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1426" s="1" t="s">
-        <v>4623</v>
+        <v>4627</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C1426" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1426" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1426" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1426" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O1426" s="1" t="s">
-        <v>4624</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1427" s="1" t="s">
-        <v>4625</v>
+        <v>4631</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C1427" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1427" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1427" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1427" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O1427" s="1" t="s">
-        <v>4626</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1428" s="1" t="s">
-        <v>4627</v>
+        <v>4638</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1428" s="1" t="s">
         <v>348</v>
@@ -62149,18 +62189,18 @@
         <v>158</v>
       </c>
       <c r="J1428" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1428" s="1" t="s">
-        <v>4630</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1429" s="1" t="s">
-        <v>4631</v>
+        <v>4641</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1429" s="1" t="s">
         <v>348</v>
@@ -62169,15 +62209,15 @@
         <v>158</v>
       </c>
       <c r="J1429" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1429" s="1" t="s">
-        <v>4632</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1430" s="1" t="s">
-        <v>4638</v>
+        <v>4643</v>
       </c>
       <c r="B1430" s="1" t="s">
         <v>4639</v>
@@ -62192,12 +62232,12 @@
         <v>1640</v>
       </c>
       <c r="O1430" s="1" t="s">
-        <v>4640</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1431" s="1" t="s">
-        <v>4641</v>
+        <v>4645</v>
       </c>
       <c r="B1431" s="1" t="s">
         <v>4639</v>
@@ -62212,12 +62252,12 @@
         <v>1640</v>
       </c>
       <c r="O1431" s="1" t="s">
-        <v>4642</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
-        <v>4643</v>
+        <v>4647</v>
       </c>
       <c r="B1432" s="1" t="s">
         <v>4639</v>
@@ -62232,12 +62272,12 @@
         <v>1640</v>
       </c>
       <c r="O1432" s="1" t="s">
-        <v>4644</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1433" s="1" t="s">
-        <v>4645</v>
+        <v>4649</v>
       </c>
       <c r="B1433" s="1" t="s">
         <v>4639</v>
@@ -62252,12 +62292,12 @@
         <v>1640</v>
       </c>
       <c r="O1433" s="1" t="s">
-        <v>4646</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
-        <v>4647</v>
+        <v>4651</v>
       </c>
       <c r="B1434" s="1" t="s">
         <v>4639</v>
@@ -62272,12 +62312,12 @@
         <v>1640</v>
       </c>
       <c r="O1434" s="1" t="s">
-        <v>4648</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1435" s="1" t="s">
-        <v>4649</v>
+        <v>4653</v>
       </c>
       <c r="B1435" s="1" t="s">
         <v>4639</v>
@@ -62292,12 +62332,12 @@
         <v>1640</v>
       </c>
       <c r="O1435" s="1" t="s">
-        <v>4650</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1436" s="1" t="s">
-        <v>4651</v>
+        <v>4655</v>
       </c>
       <c r="B1436" s="1" t="s">
         <v>4639</v>
@@ -62312,12 +62352,12 @@
         <v>1640</v>
       </c>
       <c r="O1436" s="1" t="s">
-        <v>4652</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1437" s="1" t="s">
-        <v>4653</v>
+        <v>4657</v>
       </c>
       <c r="B1437" s="1" t="s">
         <v>4639</v>
@@ -62332,12 +62372,12 @@
         <v>1640</v>
       </c>
       <c r="O1437" s="1" t="s">
-        <v>4654</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1438" s="1" t="s">
-        <v>4655</v>
+        <v>4659</v>
       </c>
       <c r="B1438" s="1" t="s">
         <v>4639</v>
@@ -62352,12 +62392,12 @@
         <v>1640</v>
       </c>
       <c r="O1438" s="1" t="s">
-        <v>4656</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1439" s="1" t="s">
-        <v>4657</v>
+        <v>4661</v>
       </c>
       <c r="B1439" s="1" t="s">
         <v>4639</v>
@@ -62372,18 +62412,18 @@
         <v>1640</v>
       </c>
       <c r="O1439" s="1" t="s">
-        <v>4658</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
-        <v>4659</v>
+        <v>4663</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1440" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1440" s="1" t="s">
         <v>158</v>
@@ -62392,18 +62432,18 @@
         <v>1640</v>
       </c>
       <c r="O1440" s="1" t="s">
-        <v>4660</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
-        <v>4661</v>
+        <v>4666</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1441" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1441" s="1" t="s">
         <v>158</v>
@@ -62412,92 +62452,98 @@
         <v>1640</v>
       </c>
       <c r="O1441" s="1" t="s">
-        <v>4662</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
-        <v>4663</v>
+        <v>4704</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>4664</v>
+        <v>4705</v>
       </c>
       <c r="C1442" s="1" t="s">
-        <v>2297</v>
+        <v>2</v>
       </c>
       <c r="D1442" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1442" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1442" s="1" t="s">
-        <v>4665</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
-        <v>4666</v>
+        <v>4707</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>4664</v>
+        <v>4705</v>
       </c>
       <c r="C1443" s="1" t="s">
-        <v>2297</v>
+        <v>2</v>
       </c>
       <c r="D1443" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1443" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1443" s="1" t="s">
-        <v>4667</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
-        <v>4704</v>
+        <v>4709</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>4705</v>
+        <v>4710</v>
       </c>
       <c r="C1444" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1444" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J1444" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K1444" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1444" s="1" t="s">
-        <v>4706</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
-        <v>4707</v>
+        <v>4712</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>4705</v>
+        <v>4713</v>
       </c>
       <c r="C1445" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1445" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1445" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K1445" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O1445" s="1" t="s">
-        <v>4708</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
-        <v>4709</v>
+        <v>4715</v>
       </c>
       <c r="B1446" s="1" t="s">
         <v>4710</v>
@@ -62505,62 +62551,56 @@
       <c r="C1446" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1446" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1446" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1446" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1446" s="1" t="s">
-        <v>4711</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
-        <v>4712</v>
+        <v>4717</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>4713</v>
+        <v>4718</v>
       </c>
       <c r="C1447" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1447" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1447" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K1447" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O1447" s="1" t="s">
-        <v>4714</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
-        <v>4715</v>
+        <v>4720</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C1448" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1448" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1448" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1448" s="1" t="s">
-        <v>4716</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
-        <v>4717</v>
+        <v>4722</v>
       </c>
       <c r="B1449" s="1" t="s">
         <v>4718</v>
@@ -62569,18 +62609,15 @@
         <v>348</v>
       </c>
       <c r="J1449" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1449" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1449" s="1" t="s">
-        <v>4719</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
-        <v>4720</v>
+        <v>4724</v>
       </c>
       <c r="B1450" s="1" t="s">
         <v>4718</v>
@@ -62589,52 +62626,61 @@
         <v>348</v>
       </c>
       <c r="J1450" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1450" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1450" s="1" t="s">
-        <v>4721</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
-        <v>4722</v>
+        <v>4735</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1451" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1451" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1451" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
+      </c>
+      <c r="K1451" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O1451" s="1" t="s">
-        <v>4723</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1452" s="1" t="s">
-        <v>4724</v>
+        <v>4739</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1452" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1452" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1452" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
+      </c>
+      <c r="K1452" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O1452" s="1" t="s">
-        <v>4725</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1453" s="1" t="s">
-        <v>4735</v>
+        <v>4741</v>
       </c>
       <c r="B1453" s="1" t="s">
         <v>4736</v>
@@ -62646,18 +62692,15 @@
         <v>4737</v>
       </c>
       <c r="J1453" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1453" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1453" s="1" t="s">
-        <v>4738</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
-        <v>4739</v>
+        <v>4743</v>
       </c>
       <c r="B1454" s="1" t="s">
         <v>4736</v>
@@ -62669,18 +62712,15 @@
         <v>4737</v>
       </c>
       <c r="J1454" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1454" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1454" s="1" t="s">
-        <v>4740</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
-        <v>4741</v>
+        <v>4745</v>
       </c>
       <c r="B1455" s="1" t="s">
         <v>4736</v>
@@ -62695,12 +62735,12 @@
         <v>85</v>
       </c>
       <c r="O1455" s="1" t="s">
-        <v>4742</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
-        <v>4743</v>
+        <v>4747</v>
       </c>
       <c r="B1456" s="1" t="s">
         <v>4736</v>
@@ -62715,12 +62755,12 @@
         <v>85</v>
       </c>
       <c r="O1456" s="1" t="s">
-        <v>4744</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
-        <v>4745</v>
+        <v>4749</v>
       </c>
       <c r="B1457" s="1" t="s">
         <v>4736</v>
@@ -62728,19 +62768,16 @@
       <c r="C1457" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1457" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1457" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1457" s="1" t="s">
-        <v>4746</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
-        <v>4747</v>
+        <v>4751</v>
       </c>
       <c r="B1458" s="1" t="s">
         <v>4736</v>
@@ -62755,12 +62792,12 @@
         <v>85</v>
       </c>
       <c r="O1458" s="1" t="s">
-        <v>4748</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
-        <v>4749</v>
+        <v>4753</v>
       </c>
       <c r="B1459" s="1" t="s">
         <v>4736</v>
@@ -62768,16 +62805,19 @@
       <c r="C1459" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1459" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1459" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1459" s="1" t="s">
-        <v>4750</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
-        <v>4751</v>
+        <v>4755</v>
       </c>
       <c r="B1460" s="1" t="s">
         <v>4736</v>
@@ -62785,19 +62825,16 @@
       <c r="C1460" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1460" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1460" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1460" s="1" t="s">
-        <v>4752</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1461" s="1" t="s">
-        <v>4753</v>
+        <v>4757</v>
       </c>
       <c r="B1461" s="1" t="s">
         <v>4736</v>
@@ -62805,19 +62842,16 @@
       <c r="C1461" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1461" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1461" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1461" s="1" t="s">
-        <v>4754</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
-        <v>4755</v>
+        <v>4759</v>
       </c>
       <c r="B1462" s="1" t="s">
         <v>4736</v>
@@ -62829,97 +62863,106 @@
         <v>85</v>
       </c>
       <c r="O1462" s="1" t="s">
-        <v>4756</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
-        <v>4757</v>
+        <v>4761</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>4736</v>
+        <v>4762</v>
       </c>
       <c r="C1463" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1463" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1463" s="1" t="s">
-        <v>4758</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
-        <v>4759</v>
+        <v>4764</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>4736</v>
+        <v>4765</v>
       </c>
       <c r="C1464" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1464" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1464" s="1" t="s">
-        <v>4760</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
-        <v>4761</v>
+        <v>4767</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>4762</v>
+        <v>4768</v>
       </c>
       <c r="C1465" s="1" t="s">
-        <v>348</v>
+        <v>1340</v>
       </c>
       <c r="J1465" s="1" t="s">
-        <v>1925</v>
+        <v>364</v>
       </c>
       <c r="O1465" s="1" t="s">
-        <v>4763</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>4764</v>
+        <v>4770</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>4765</v>
+        <v>4771</v>
       </c>
       <c r="C1466" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1466" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1466" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1466" s="1" t="s">
-        <v>4766</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
-        <v>4767</v>
+        <v>4773</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>4768</v>
+        <v>4771</v>
       </c>
       <c r="C1467" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
+      </c>
+      <c r="D1467" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J1467" s="1" t="s">
-        <v>364</v>
+        <v>4774</v>
+      </c>
+      <c r="K1467" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1467" s="1" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1468" s="1" t="s">
-        <v>4770</v>
+        <v>4776</v>
       </c>
       <c r="B1468" s="1" t="s">
         <v>4771</v>
@@ -62927,370 +62970,364 @@
       <c r="C1468" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1468" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1468" s="1" t="s">
-        <v>62</v>
+        <v>4774</v>
       </c>
       <c r="K1468" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1468" s="1" t="s">
-        <v>4772</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>4773</v>
+        <v>4781</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>4771</v>
+        <v>4782</v>
       </c>
       <c r="C1469" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="E1469" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1469" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1469" s="1" t="s">
-        <v>4774</v>
+        <v>609</v>
       </c>
       <c r="K1469" s="1" t="s">
-        <v>1925</v>
+        <v>4783</v>
       </c>
       <c r="O1469" s="1" t="s">
-        <v>4775</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
-        <v>4776</v>
+        <v>4810</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>4771</v>
+        <v>4811</v>
       </c>
       <c r="C1470" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1470" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1470" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K1470" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1470" s="1" t="s">
-        <v>4777</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
-        <v>4781</v>
+        <v>4824</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>4782</v>
+        <v>4825</v>
       </c>
       <c r="C1471" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1471" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1471" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1471" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1471" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1471" s="1" t="s">
-        <v>4783</v>
+        <v>1925</v>
       </c>
       <c r="O1471" s="1" t="s">
-        <v>4784</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>4810</v>
+        <v>4827</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>4811</v>
+        <v>4825</v>
       </c>
       <c r="C1472" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D1472" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J1472" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1472" s="1" t="s">
-        <v>4812</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
-        <v>4824</v>
+        <v>4854</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>4825</v>
+        <v>4855</v>
       </c>
       <c r="C1473" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D1473" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1473" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1473" s="1" t="s">
-        <v>4826</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="1474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
-        <v>4827</v>
+        <v>4857</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>4825</v>
+        <v>4858</v>
       </c>
       <c r="C1474" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J1474" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1474" s="1" t="s">
-        <v>4828</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
-        <v>4854</v>
+        <v>4860</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>4855</v>
+        <v>4858</v>
       </c>
       <c r="C1475" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1475" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J1475" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O1475" s="1" t="s">
-        <v>4856</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>4857</v>
+        <v>4862</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>4858</v>
+        <v>4863</v>
       </c>
       <c r="C1476" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
+      </c>
+      <c r="D1476" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J1476" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O1476" s="1" t="s">
-        <v>4859</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>4860</v>
+        <v>4865</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>4858</v>
+        <v>4863</v>
       </c>
       <c r="C1477" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
+      </c>
+      <c r="D1477" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J1477" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O1477" s="1" t="s">
-        <v>4861</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
-        <v>4862</v>
+        <v>4870</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>4863</v>
+        <v>4871</v>
       </c>
       <c r="C1478" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1478" s="1" t="s">
-        <v>1266</v>
+        <v>521</v>
       </c>
       <c r="J1478" s="1" t="s">
-        <v>62</v>
+        <v>3704</v>
       </c>
       <c r="O1478" s="1" t="s">
-        <v>4864</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
-        <v>4865</v>
+        <v>4873</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C1479" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1479" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1479" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O1479" s="1" t="s">
-        <v>4866</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>4870</v>
+        <v>4876</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>4871</v>
+        <v>4874</v>
       </c>
       <c r="C1480" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="J1480" s="1" t="s">
-        <v>3704</v>
-      </c>
       <c r="O1480" s="1" t="s">
-        <v>4872</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>4873</v>
+        <v>4878</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>4874</v>
+        <v>4879</v>
       </c>
       <c r="C1481" s="1" t="s">
-        <v>521</v>
+        <v>395</v>
       </c>
       <c r="O1481" s="1" t="s">
-        <v>4875</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
-        <v>4876</v>
+        <v>4881</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>4874</v>
+        <v>4882</v>
       </c>
       <c r="C1482" s="1" t="s">
-        <v>521</v>
+        <v>4294</v>
+      </c>
+      <c r="D1482" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E1482" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1482" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J1482" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1482" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O1482" s="1" t="s">
-        <v>4877</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>4878</v>
+        <v>4902</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>4879</v>
+        <v>4903</v>
       </c>
       <c r="C1483" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="J1483" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1483" s="1" t="s">
-        <v>4880</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>4881</v>
+        <v>4907</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>4882</v>
+        <v>4908</v>
       </c>
       <c r="C1484" s="1" t="s">
-        <v>4294</v>
+        <v>4909</v>
       </c>
       <c r="D1484" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="E1484" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F1484" s="1" t="s">
-        <v>1266</v>
+        <v>806</v>
       </c>
       <c r="J1484" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1484" s="1" t="s">
-        <v>609</v>
+        <v>2678</v>
       </c>
       <c r="O1484" s="1" t="s">
-        <v>4883</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="1485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>4902</v>
+        <v>4911</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>4903</v>
+        <v>4912</v>
       </c>
       <c r="C1485" s="1" t="s">
-        <v>395</v>
+        <v>348</v>
+      </c>
+      <c r="D1485" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1485" s="1" t="s">
-        <v>447</v>
+        <v>1493</v>
       </c>
       <c r="O1485" s="1" t="s">
-        <v>4904</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>4907</v>
+        <v>4914</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>4908</v>
+        <v>4915</v>
       </c>
       <c r="C1486" s="1" t="s">
-        <v>4909</v>
-      </c>
-      <c r="D1486" s="1" t="s">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="J1486" s="1" t="s">
-        <v>2678</v>
+        <v>62</v>
       </c>
       <c r="O1486" s="1" t="s">
-        <v>4910</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>4911</v>
+        <v>4937</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>4912</v>
+        <v>4938</v>
       </c>
       <c r="C1487" s="1" t="s">
         <v>348</v>
@@ -63299,32 +63336,35 @@
         <v>158</v>
       </c>
       <c r="J1487" s="1" t="s">
-        <v>1493</v>
+        <v>1640</v>
       </c>
       <c r="O1487" s="1" t="s">
-        <v>4913</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="1488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>4914</v>
+        <v>4940</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>4915</v>
+        <v>4938</v>
       </c>
       <c r="C1488" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1488" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1488" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O1488" s="1" t="s">
-        <v>4916</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>4937</v>
+        <v>4942</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>4938</v>
@@ -63339,12 +63379,12 @@
         <v>1640</v>
       </c>
       <c r="O1489" s="1" t="s">
-        <v>4939</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="1490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>4940</v>
+        <v>4944</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>4938</v>
@@ -63359,12 +63399,12 @@
         <v>1640</v>
       </c>
       <c r="O1490" s="1" t="s">
-        <v>4941</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>4942</v>
+        <v>4946</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4938</v>
@@ -63379,12 +63419,12 @@
         <v>1640</v>
       </c>
       <c r="O1491" s="1" t="s">
-        <v>4943</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>4938</v>
@@ -63399,12 +63439,12 @@
         <v>1640</v>
       </c>
       <c r="O1492" s="1" t="s">
-        <v>4945</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>4946</v>
+        <v>4950</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>4938</v>
@@ -63419,12 +63459,12 @@
         <v>1640</v>
       </c>
       <c r="O1493" s="1" t="s">
-        <v>4947</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>4948</v>
+        <v>4952</v>
       </c>
       <c r="B1494" s="1" t="s">
         <v>4938</v>
@@ -63439,12 +63479,12 @@
         <v>1640</v>
       </c>
       <c r="O1494" s="1" t="s">
-        <v>4949</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>4950</v>
+        <v>4954</v>
       </c>
       <c r="B1495" s="1" t="s">
         <v>4938</v>
@@ -63459,12 +63499,12 @@
         <v>1640</v>
       </c>
       <c r="O1495" s="1" t="s">
-        <v>4951</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>4952</v>
+        <v>4956</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>4938</v>
@@ -63479,12 +63519,12 @@
         <v>1640</v>
       </c>
       <c r="O1496" s="1" t="s">
-        <v>4953</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>4954</v>
+        <v>4958</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>4938</v>
@@ -63499,12 +63539,12 @@
         <v>1640</v>
       </c>
       <c r="O1497" s="1" t="s">
-        <v>4955</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>4956</v>
+        <v>4960</v>
       </c>
       <c r="B1498" s="1" t="s">
         <v>4938</v>
@@ -63519,12 +63559,12 @@
         <v>1640</v>
       </c>
       <c r="O1498" s="1" t="s">
-        <v>4957</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>4958</v>
+        <v>4962</v>
       </c>
       <c r="B1499" s="1" t="s">
         <v>4938</v>
@@ -63539,12 +63579,12 @@
         <v>1640</v>
       </c>
       <c r="O1499" s="1" t="s">
-        <v>4959</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>4960</v>
+        <v>4964</v>
       </c>
       <c r="B1500" s="1" t="s">
         <v>4938</v>
@@ -63559,12 +63599,12 @@
         <v>1640</v>
       </c>
       <c r="O1500" s="1" t="s">
-        <v>4961</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>4962</v>
+        <v>4966</v>
       </c>
       <c r="B1501" s="1" t="s">
         <v>4938</v>
@@ -63579,12 +63619,12 @@
         <v>1640</v>
       </c>
       <c r="O1501" s="1" t="s">
-        <v>4963</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>4964</v>
+        <v>4968</v>
       </c>
       <c r="B1502" s="1" t="s">
         <v>4938</v>
@@ -63599,12 +63639,12 @@
         <v>1640</v>
       </c>
       <c r="O1502" s="1" t="s">
-        <v>4965</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="B1503" s="1" t="s">
         <v>4938</v>
@@ -63619,12 +63659,12 @@
         <v>1640</v>
       </c>
       <c r="O1503" s="1" t="s">
-        <v>4967</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
-        <v>4968</v>
+        <v>4972</v>
       </c>
       <c r="B1504" s="1" t="s">
         <v>4938</v>
@@ -63639,12 +63679,12 @@
         <v>1640</v>
       </c>
       <c r="O1504" s="1" t="s">
-        <v>4969</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>4970</v>
+        <v>4974</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>4938</v>
@@ -63659,12 +63699,12 @@
         <v>1640</v>
       </c>
       <c r="O1505" s="1" t="s">
-        <v>4971</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>4972</v>
+        <v>4976</v>
       </c>
       <c r="B1506" s="1" t="s">
         <v>4938</v>
@@ -63679,12 +63719,12 @@
         <v>1640</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>4973</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>4974</v>
+        <v>4978</v>
       </c>
       <c r="B1507" s="1" t="s">
         <v>4938</v>
@@ -63699,12 +63739,12 @@
         <v>1640</v>
       </c>
       <c r="O1507" s="1" t="s">
-        <v>4975</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="B1508" s="1" t="s">
         <v>4938</v>
@@ -63719,12 +63759,12 @@
         <v>1640</v>
       </c>
       <c r="O1508" s="1" t="s">
-        <v>4977</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>4978</v>
+        <v>4982</v>
       </c>
       <c r="B1509" s="1" t="s">
         <v>4938</v>
@@ -63739,12 +63779,12 @@
         <v>1640</v>
       </c>
       <c r="O1509" s="1" t="s">
-        <v>4979</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>4980</v>
+        <v>4984</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4938</v>
@@ -63759,12 +63799,12 @@
         <v>1640</v>
       </c>
       <c r="O1510" s="1" t="s">
-        <v>4981</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>4982</v>
+        <v>4986</v>
       </c>
       <c r="B1511" s="1" t="s">
         <v>4938</v>
@@ -63779,12 +63819,12 @@
         <v>1640</v>
       </c>
       <c r="O1511" s="1" t="s">
-        <v>4983</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>4984</v>
+        <v>4988</v>
       </c>
       <c r="B1512" s="1" t="s">
         <v>4938</v>
@@ -63799,12 +63839,12 @@
         <v>1640</v>
       </c>
       <c r="O1512" s="1" t="s">
-        <v>4985</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="B1513" s="1" t="s">
         <v>4938</v>
@@ -63819,12 +63859,12 @@
         <v>1640</v>
       </c>
       <c r="O1513" s="1" t="s">
-        <v>4987</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>4988</v>
+        <v>4992</v>
       </c>
       <c r="B1514" s="1" t="s">
         <v>4938</v>
@@ -63839,12 +63879,12 @@
         <v>1640</v>
       </c>
       <c r="O1514" s="1" t="s">
-        <v>4989</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="B1515" s="1" t="s">
         <v>4938</v>
@@ -63859,12 +63899,12 @@
         <v>1640</v>
       </c>
       <c r="O1515" s="1" t="s">
-        <v>4991</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>4992</v>
+        <v>4996</v>
       </c>
       <c r="B1516" s="1" t="s">
         <v>4938</v>
@@ -63879,12 +63919,12 @@
         <v>1640</v>
       </c>
       <c r="O1516" s="1" t="s">
-        <v>4993</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>4994</v>
+        <v>4998</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4938</v>
@@ -63899,12 +63939,12 @@
         <v>1640</v>
       </c>
       <c r="O1517" s="1" t="s">
-        <v>4995</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="B1518" s="1" t="s">
         <v>4938</v>
@@ -63919,12 +63959,12 @@
         <v>1640</v>
       </c>
       <c r="O1518" s="1" t="s">
-        <v>4997</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>4998</v>
+        <v>5002</v>
       </c>
       <c r="B1519" s="1" t="s">
         <v>4938</v>
@@ -63939,12 +63979,12 @@
         <v>1640</v>
       </c>
       <c r="O1519" s="1" t="s">
-        <v>4999</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>5000</v>
+        <v>5004</v>
       </c>
       <c r="B1520" s="1" t="s">
         <v>4938</v>
@@ -63959,12 +63999,12 @@
         <v>1640</v>
       </c>
       <c r="O1520" s="1" t="s">
-        <v>5001</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>5002</v>
+        <v>5006</v>
       </c>
       <c r="B1521" s="1" t="s">
         <v>4938</v>
@@ -63979,12 +64019,12 @@
         <v>1640</v>
       </c>
       <c r="O1521" s="1" t="s">
-        <v>5003</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="B1522" s="1" t="s">
         <v>4938</v>
@@ -63999,12 +64039,12 @@
         <v>1640</v>
       </c>
       <c r="O1522" s="1" t="s">
-        <v>5005</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>5006</v>
+        <v>5010</v>
       </c>
       <c r="B1523" s="1" t="s">
         <v>4938</v>
@@ -64019,12 +64059,12 @@
         <v>1640</v>
       </c>
       <c r="O1523" s="1" t="s">
-        <v>5007</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>5008</v>
+        <v>5012</v>
       </c>
       <c r="B1524" s="1" t="s">
         <v>4938</v>
@@ -64039,12 +64079,12 @@
         <v>1640</v>
       </c>
       <c r="O1524" s="1" t="s">
-        <v>5009</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>5010</v>
+        <v>5014</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>4938</v>
@@ -64059,12 +64099,12 @@
         <v>1640</v>
       </c>
       <c r="O1525" s="1" t="s">
-        <v>5011</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>5012</v>
+        <v>5016</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>4938</v>
@@ -64079,12 +64119,12 @@
         <v>1640</v>
       </c>
       <c r="O1526" s="1" t="s">
-        <v>5013</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>5014</v>
+        <v>5018</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>4938</v>
@@ -64099,12 +64139,12 @@
         <v>1640</v>
       </c>
       <c r="O1527" s="1" t="s">
-        <v>5015</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>4938</v>
@@ -64119,12 +64159,12 @@
         <v>1640</v>
       </c>
       <c r="O1528" s="1" t="s">
-        <v>5017</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>5018</v>
+        <v>5022</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>4938</v>
@@ -64139,12 +64179,12 @@
         <v>1640</v>
       </c>
       <c r="O1529" s="1" t="s">
-        <v>5019</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>5020</v>
+        <v>5024</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>4938</v>
@@ -64159,12 +64199,12 @@
         <v>1640</v>
       </c>
       <c r="O1530" s="1" t="s">
-        <v>5021</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>5022</v>
+        <v>5026</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>4938</v>
@@ -64179,12 +64219,12 @@
         <v>1640</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>5023</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>5024</v>
+        <v>5028</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>4938</v>
@@ -64199,12 +64239,12 @@
         <v>1640</v>
       </c>
       <c r="O1532" s="1" t="s">
-        <v>5025</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>5026</v>
+        <v>5030</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>4938</v>
@@ -64219,12 +64259,12 @@
         <v>1640</v>
       </c>
       <c r="O1533" s="1" t="s">
-        <v>5027</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>5028</v>
+        <v>5032</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>4938</v>
@@ -64239,12 +64279,12 @@
         <v>1640</v>
       </c>
       <c r="O1534" s="1" t="s">
-        <v>5029</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>5030</v>
+        <v>5034</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>4938</v>
@@ -64259,12 +64299,12 @@
         <v>1640</v>
       </c>
       <c r="O1535" s="1" t="s">
-        <v>5031</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>5032</v>
+        <v>5036</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>4938</v>
@@ -64279,12 +64319,12 @@
         <v>1640</v>
       </c>
       <c r="O1536" s="1" t="s">
-        <v>5033</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>5034</v>
+        <v>5038</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>4938</v>
@@ -64299,12 +64339,12 @@
         <v>1640</v>
       </c>
       <c r="O1537" s="1" t="s">
-        <v>5035</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>5036</v>
+        <v>5040</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>4938</v>
@@ -64319,12 +64359,12 @@
         <v>1640</v>
       </c>
       <c r="O1538" s="1" t="s">
-        <v>5037</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>5038</v>
+        <v>5042</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>4938</v>
@@ -64339,12 +64379,12 @@
         <v>1640</v>
       </c>
       <c r="O1539" s="1" t="s">
-        <v>5039</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>5040</v>
+        <v>5044</v>
       </c>
       <c r="B1540" s="1" t="s">
         <v>4938</v>
@@ -64359,12 +64399,12 @@
         <v>1640</v>
       </c>
       <c r="O1540" s="1" t="s">
-        <v>5041</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>5042</v>
+        <v>5046</v>
       </c>
       <c r="B1541" s="1" t="s">
         <v>4938</v>
@@ -64379,12 +64419,12 @@
         <v>1640</v>
       </c>
       <c r="O1541" s="1" t="s">
-        <v>5043</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4938</v>
@@ -64399,12 +64439,12 @@
         <v>1640</v>
       </c>
       <c r="O1542" s="1" t="s">
-        <v>5045</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>5046</v>
+        <v>5050</v>
       </c>
       <c r="B1543" s="1" t="s">
         <v>4938</v>
@@ -64419,12 +64459,12 @@
         <v>1640</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>5047</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>5048</v>
+        <v>5052</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>4938</v>
@@ -64439,12 +64479,12 @@
         <v>1640</v>
       </c>
       <c r="O1544" s="1" t="s">
-        <v>5049</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>5050</v>
+        <v>5054</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>4938</v>
@@ -64459,12 +64499,12 @@
         <v>1640</v>
       </c>
       <c r="O1545" s="1" t="s">
-        <v>5051</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>5052</v>
+        <v>5056</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>4938</v>
@@ -64479,12 +64519,12 @@
         <v>1640</v>
       </c>
       <c r="O1546" s="1" t="s">
-        <v>5053</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>5054</v>
+        <v>5058</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>4938</v>
@@ -64499,12 +64539,12 @@
         <v>1640</v>
       </c>
       <c r="O1547" s="1" t="s">
-        <v>5055</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>5056</v>
+        <v>5060</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>4938</v>
@@ -64519,12 +64559,12 @@
         <v>1640</v>
       </c>
       <c r="O1548" s="1" t="s">
-        <v>5057</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>5058</v>
+        <v>5062</v>
       </c>
       <c r="B1549" s="1" t="s">
         <v>4938</v>
@@ -64539,12 +64579,12 @@
         <v>1640</v>
       </c>
       <c r="O1549" s="1" t="s">
-        <v>5059</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="1550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>5060</v>
+        <v>5064</v>
       </c>
       <c r="B1550" s="1" t="s">
         <v>4938</v>
@@ -64559,12 +64599,12 @@
         <v>1640</v>
       </c>
       <c r="O1550" s="1" t="s">
-        <v>5061</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>5062</v>
+        <v>5066</v>
       </c>
       <c r="B1551" s="1" t="s">
         <v>4938</v>
@@ -64579,12 +64619,12 @@
         <v>1640</v>
       </c>
       <c r="O1551" s="1" t="s">
-        <v>5063</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="1552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>5064</v>
+        <v>5068</v>
       </c>
       <c r="B1552" s="1" t="s">
         <v>4938</v>
@@ -64599,12 +64639,12 @@
         <v>1640</v>
       </c>
       <c r="O1552" s="1" t="s">
-        <v>5065</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>5066</v>
+        <v>5070</v>
       </c>
       <c r="B1553" s="1" t="s">
         <v>4938</v>
@@ -64619,12 +64659,12 @@
         <v>1640</v>
       </c>
       <c r="O1553" s="1" t="s">
-        <v>5067</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>5068</v>
+        <v>5072</v>
       </c>
       <c r="B1554" s="1" t="s">
         <v>4938</v>
@@ -64639,12 +64679,12 @@
         <v>1640</v>
       </c>
       <c r="O1554" s="1" t="s">
-        <v>5069</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="1555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>5070</v>
+        <v>5074</v>
       </c>
       <c r="B1555" s="1" t="s">
         <v>4938</v>
@@ -64659,12 +64699,12 @@
         <v>1640</v>
       </c>
       <c r="O1555" s="1" t="s">
-        <v>5071</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>5072</v>
+        <v>5076</v>
       </c>
       <c r="B1556" s="1" t="s">
         <v>4938</v>
@@ -64679,12 +64719,12 @@
         <v>1640</v>
       </c>
       <c r="O1556" s="1" t="s">
-        <v>5073</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>5074</v>
+        <v>5078</v>
       </c>
       <c r="B1557" s="1" t="s">
         <v>4938</v>
@@ -64699,12 +64739,12 @@
         <v>1640</v>
       </c>
       <c r="O1557" s="1" t="s">
-        <v>5075</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="1558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>5076</v>
+        <v>5080</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>4938</v>
@@ -64719,12 +64759,12 @@
         <v>1640</v>
       </c>
       <c r="O1558" s="1" t="s">
-        <v>5077</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>5078</v>
+        <v>5082</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4938</v>
@@ -64739,12 +64779,12 @@
         <v>1640</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>5079</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>5080</v>
+        <v>5084</v>
       </c>
       <c r="B1560" s="1" t="s">
         <v>4938</v>
@@ -64759,12 +64799,12 @@
         <v>1640</v>
       </c>
       <c r="O1560" s="1" t="s">
-        <v>5081</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>5082</v>
+        <v>5086</v>
       </c>
       <c r="B1561" s="1" t="s">
         <v>4938</v>
@@ -64779,12 +64819,12 @@
         <v>1640</v>
       </c>
       <c r="O1561" s="1" t="s">
-        <v>5083</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>5084</v>
+        <v>5088</v>
       </c>
       <c r="B1562" s="1" t="s">
         <v>4938</v>
@@ -64799,12 +64839,12 @@
         <v>1640</v>
       </c>
       <c r="O1562" s="1" t="s">
-        <v>5085</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>5086</v>
+        <v>5090</v>
       </c>
       <c r="B1563" s="1" t="s">
         <v>4938</v>
@@ -64819,12 +64859,12 @@
         <v>1640</v>
       </c>
       <c r="O1563" s="1" t="s">
-        <v>5087</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>5088</v>
+        <v>5092</v>
       </c>
       <c r="B1564" s="1" t="s">
         <v>4938</v>
@@ -64839,12 +64879,12 @@
         <v>1640</v>
       </c>
       <c r="O1564" s="1" t="s">
-        <v>5089</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>5090</v>
+        <v>5094</v>
       </c>
       <c r="B1565" s="1" t="s">
         <v>4938</v>
@@ -64859,12 +64899,12 @@
         <v>1640</v>
       </c>
       <c r="O1565" s="1" t="s">
-        <v>5091</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>5092</v>
+        <v>5096</v>
       </c>
       <c r="B1566" s="1" t="s">
         <v>4938</v>
@@ -64879,12 +64919,12 @@
         <v>1640</v>
       </c>
       <c r="O1566" s="1" t="s">
-        <v>5093</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>5094</v>
+        <v>5098</v>
       </c>
       <c r="B1567" s="1" t="s">
         <v>4938</v>
@@ -64899,12 +64939,12 @@
         <v>1640</v>
       </c>
       <c r="O1567" s="1" t="s">
-        <v>5095</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>5096</v>
+        <v>5100</v>
       </c>
       <c r="B1568" s="1" t="s">
         <v>4938</v>
@@ -64919,12 +64959,12 @@
         <v>1640</v>
       </c>
       <c r="O1568" s="1" t="s">
-        <v>5097</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>5098</v>
+        <v>5102</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4938</v>
@@ -64939,12 +64979,12 @@
         <v>1640</v>
       </c>
       <c r="O1569" s="1" t="s">
-        <v>5099</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>5100</v>
+        <v>5104</v>
       </c>
       <c r="B1570" s="1" t="s">
         <v>4938</v>
@@ -64959,12 +64999,12 @@
         <v>1640</v>
       </c>
       <c r="O1570" s="1" t="s">
-        <v>5101</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>5102</v>
+        <v>5106</v>
       </c>
       <c r="B1571" s="1" t="s">
         <v>4938</v>
@@ -64979,12 +65019,12 @@
         <v>1640</v>
       </c>
       <c r="O1571" s="1" t="s">
-        <v>5103</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>5104</v>
+        <v>5108</v>
       </c>
       <c r="B1572" s="1" t="s">
         <v>4938</v>
@@ -64999,12 +65039,12 @@
         <v>1640</v>
       </c>
       <c r="O1572" s="1" t="s">
-        <v>5105</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>5106</v>
+        <v>5110</v>
       </c>
       <c r="B1573" s="1" t="s">
         <v>4938</v>
@@ -65019,12 +65059,12 @@
         <v>1640</v>
       </c>
       <c r="O1573" s="1" t="s">
-        <v>5107</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>5108</v>
+        <v>5112</v>
       </c>
       <c r="B1574" s="1" t="s">
         <v>4938</v>
@@ -65039,12 +65079,12 @@
         <v>1640</v>
       </c>
       <c r="O1574" s="1" t="s">
-        <v>5109</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>5110</v>
+        <v>5114</v>
       </c>
       <c r="B1575" s="1" t="s">
         <v>4938</v>
@@ -65059,12 +65099,12 @@
         <v>1640</v>
       </c>
       <c r="O1575" s="1" t="s">
-        <v>5111</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>5112</v>
+        <v>5116</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>4938</v>
@@ -65079,12 +65119,12 @@
         <v>1640</v>
       </c>
       <c r="O1576" s="1" t="s">
-        <v>5113</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>5114</v>
+        <v>5118</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>4938</v>
@@ -65099,12 +65139,12 @@
         <v>1640</v>
       </c>
       <c r="O1577" s="1" t="s">
-        <v>5115</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>5116</v>
+        <v>5120</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>4938</v>
@@ -65119,12 +65159,12 @@
         <v>1640</v>
       </c>
       <c r="O1578" s="1" t="s">
-        <v>5117</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>5118</v>
+        <v>5122</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>4938</v>
@@ -65139,12 +65179,12 @@
         <v>1640</v>
       </c>
       <c r="O1579" s="1" t="s">
-        <v>5119</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>5120</v>
+        <v>5124</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4938</v>
@@ -65159,12 +65199,12 @@
         <v>1640</v>
       </c>
       <c r="O1580" s="1" t="s">
-        <v>5121</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="1581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>5122</v>
+        <v>5126</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>4938</v>
@@ -65179,12 +65219,12 @@
         <v>1640</v>
       </c>
       <c r="O1581" s="1" t="s">
-        <v>5123</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="1582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>5124</v>
+        <v>5128</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>4938</v>
@@ -65199,12 +65239,12 @@
         <v>1640</v>
       </c>
       <c r="O1582" s="1" t="s">
-        <v>5125</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="1583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>5126</v>
+        <v>5130</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>4938</v>
@@ -65219,12 +65259,12 @@
         <v>1640</v>
       </c>
       <c r="O1583" s="1" t="s">
-        <v>5127</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="1584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>5128</v>
+        <v>5132</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>4938</v>
@@ -65239,12 +65279,12 @@
         <v>1640</v>
       </c>
       <c r="O1584" s="1" t="s">
-        <v>5129</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="1585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>5130</v>
+        <v>5134</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>4938</v>
@@ -65259,12 +65299,12 @@
         <v>1640</v>
       </c>
       <c r="O1585" s="1" t="s">
-        <v>5131</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>5132</v>
+        <v>5136</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>4938</v>
@@ -65279,12 +65319,12 @@
         <v>1640</v>
       </c>
       <c r="O1586" s="1" t="s">
-        <v>5133</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="1587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>5134</v>
+        <v>5138</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>4938</v>
@@ -65299,12 +65339,12 @@
         <v>1640</v>
       </c>
       <c r="O1587" s="1" t="s">
-        <v>5135</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>5136</v>
+        <v>5140</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>4938</v>
@@ -65319,12 +65359,12 @@
         <v>1640</v>
       </c>
       <c r="O1588" s="1" t="s">
-        <v>5137</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>5138</v>
+        <v>5142</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>4938</v>
@@ -65339,12 +65379,12 @@
         <v>1640</v>
       </c>
       <c r="O1589" s="1" t="s">
-        <v>5139</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>5140</v>
+        <v>5144</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>4938</v>
@@ -65359,12 +65399,12 @@
         <v>1640</v>
       </c>
       <c r="O1590" s="1" t="s">
-        <v>5141</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>5142</v>
+        <v>5146</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>4938</v>
@@ -65379,12 +65419,12 @@
         <v>1640</v>
       </c>
       <c r="O1591" s="1" t="s">
-        <v>5143</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>5144</v>
+        <v>5148</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>4938</v>
@@ -65399,12 +65439,12 @@
         <v>1640</v>
       </c>
       <c r="O1592" s="1" t="s">
-        <v>5145</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="1593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>5146</v>
+        <v>5150</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>4938</v>
@@ -65419,12 +65459,12 @@
         <v>1640</v>
       </c>
       <c r="O1593" s="1" t="s">
-        <v>5147</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="1594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>5148</v>
+        <v>5152</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>4938</v>
@@ -65439,12 +65479,12 @@
         <v>1640</v>
       </c>
       <c r="O1594" s="1" t="s">
-        <v>5149</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>5150</v>
+        <v>5154</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>4938</v>
@@ -65459,12 +65499,12 @@
         <v>1640</v>
       </c>
       <c r="O1595" s="1" t="s">
-        <v>5151</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="1596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>5152</v>
+        <v>5156</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>4938</v>
@@ -65479,12 +65519,12 @@
         <v>1640</v>
       </c>
       <c r="O1596" s="1" t="s">
-        <v>5153</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
-        <v>5154</v>
+        <v>5158</v>
       </c>
       <c r="B1597" s="1" t="s">
         <v>4938</v>
@@ -65499,12 +65539,12 @@
         <v>1640</v>
       </c>
       <c r="O1597" s="1" t="s">
-        <v>5155</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
-        <v>5156</v>
+        <v>5160</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>4938</v>
@@ -65519,12 +65559,12 @@
         <v>1640</v>
       </c>
       <c r="O1598" s="1" t="s">
-        <v>5157</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
-        <v>5158</v>
+        <v>5162</v>
       </c>
       <c r="B1599" s="1" t="s">
         <v>4938</v>
@@ -65539,12 +65579,12 @@
         <v>1640</v>
       </c>
       <c r="O1599" s="1" t="s">
-        <v>5159</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="1600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
       <c r="B1600" s="1" t="s">
         <v>4938</v>
@@ -65559,12 +65599,12 @@
         <v>1640</v>
       </c>
       <c r="O1600" s="1" t="s">
-        <v>5161</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="1601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="B1601" s="1" t="s">
         <v>4938</v>
@@ -65579,12 +65619,12 @@
         <v>1640</v>
       </c>
       <c r="O1601" s="1" t="s">
-        <v>5163</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
-        <v>5164</v>
+        <v>5168</v>
       </c>
       <c r="B1602" s="1" t="s">
         <v>4938</v>
@@ -65599,12 +65639,12 @@
         <v>1640</v>
       </c>
       <c r="O1602" s="1" t="s">
-        <v>5165</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
-        <v>5166</v>
+        <v>5170</v>
       </c>
       <c r="B1603" s="1" t="s">
         <v>4938</v>
@@ -65619,12 +65659,12 @@
         <v>1640</v>
       </c>
       <c r="O1603" s="1" t="s">
-        <v>5167</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1604" s="1" t="s">
-        <v>5168</v>
+        <v>5172</v>
       </c>
       <c r="B1604" s="1" t="s">
         <v>4938</v>
@@ -65639,12 +65679,12 @@
         <v>1640</v>
       </c>
       <c r="O1604" s="1" t="s">
-        <v>5169</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1605" s="1" t="s">
-        <v>5170</v>
+        <v>5174</v>
       </c>
       <c r="B1605" s="1" t="s">
         <v>4938</v>
@@ -65659,12 +65699,12 @@
         <v>1640</v>
       </c>
       <c r="O1605" s="1" t="s">
-        <v>5171</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1606" s="1" t="s">
-        <v>5172</v>
+        <v>5176</v>
       </c>
       <c r="B1606" s="1" t="s">
         <v>4938</v>
@@ -65679,12 +65719,12 @@
         <v>1640</v>
       </c>
       <c r="O1606" s="1" t="s">
-        <v>5173</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1607" s="1" t="s">
-        <v>5174</v>
+        <v>5178</v>
       </c>
       <c r="B1607" s="1" t="s">
         <v>4938</v>
@@ -65699,12 +65739,12 @@
         <v>1640</v>
       </c>
       <c r="O1607" s="1" t="s">
-        <v>5175</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1608" s="1" t="s">
-        <v>5176</v>
+        <v>5180</v>
       </c>
       <c r="B1608" s="1" t="s">
         <v>4938</v>
@@ -65719,12 +65759,12 @@
         <v>1640</v>
       </c>
       <c r="O1608" s="1" t="s">
-        <v>5177</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1609" s="1" t="s">
-        <v>5178</v>
+        <v>5182</v>
       </c>
       <c r="B1609" s="1" t="s">
         <v>4938</v>
@@ -65739,12 +65779,12 @@
         <v>1640</v>
       </c>
       <c r="O1609" s="1" t="s">
-        <v>5179</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="1610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
-        <v>5180</v>
+        <v>5184</v>
       </c>
       <c r="B1610" s="1" t="s">
         <v>4938</v>
@@ -65759,12 +65799,12 @@
         <v>1640</v>
       </c>
       <c r="O1610" s="1" t="s">
-        <v>5181</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1611" s="1" t="s">
-        <v>5182</v>
+        <v>5186</v>
       </c>
       <c r="B1611" s="1" t="s">
         <v>4938</v>
@@ -65779,12 +65819,12 @@
         <v>1640</v>
       </c>
       <c r="O1611" s="1" t="s">
-        <v>5183</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
-        <v>5184</v>
+        <v>5188</v>
       </c>
       <c r="B1612" s="1" t="s">
         <v>4938</v>
@@ -65799,12 +65839,12 @@
         <v>1640</v>
       </c>
       <c r="O1612" s="1" t="s">
-        <v>5185</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1613" s="1" t="s">
-        <v>5186</v>
+        <v>5190</v>
       </c>
       <c r="B1613" s="1" t="s">
         <v>4938</v>
@@ -65819,12 +65859,12 @@
         <v>1640</v>
       </c>
       <c r="O1613" s="1" t="s">
-        <v>5187</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1614" s="1" t="s">
-        <v>5188</v>
+        <v>5192</v>
       </c>
       <c r="B1614" s="1" t="s">
         <v>4938</v>
@@ -65839,51 +65879,11 @@
         <v>1640</v>
       </c>
       <c r="O1614" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1615" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B1615" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1615" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1615" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1615" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1615" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1616" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B1616" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1616" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1616" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1616" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1616" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1616"/>
+  <autoFilter ref="A1:N1614"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1614</definedName>
-    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1614</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1605</definedName>
+    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1605</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -15960,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O724"/>
+  <dimension ref="A1:O733"/>
   <sheetViews>
-    <sheetView topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="A723" sqref="A723:XFD724"/>
+    <sheetView topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="A734" sqref="A734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30800,6 +30800,171 @@
         <v>4540</v>
       </c>
     </row>
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J725" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="O725" s="1" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J726" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="O726" s="1" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J727" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="O727" s="1" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J728" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="O728" s="1" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J729" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="O729" s="1" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J730" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O730" s="1" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J731" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O731" s="1" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J732" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O732" s="1" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J733" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O733" s="1" t="s">
+        <v>4239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30807,10 +30972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O1614"/>
+  <dimension ref="A2:O1605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1378" workbookViewId="0">
-      <selection activeCell="A1392" sqref="A1392:XFD1393"/>
+    <sheetView tabSelected="1" topLeftCell="A1149" workbookViewId="0">
+      <selection activeCell="E1300" sqref="E1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57280,167 +57445,173 @@
     </row>
     <row r="1210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
-        <v>3889</v>
+        <v>3900</v>
       </c>
       <c r="B1210" s="1" t="s">
-        <v>3890</v>
+        <v>3901</v>
       </c>
       <c r="C1210" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1210" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>3674</v>
+        <v>609</v>
+      </c>
+      <c r="K1210" s="1" t="s">
+        <v>3668</v>
       </c>
       <c r="O1210" s="1" t="s">
-        <v>3891</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
-        <v>3892</v>
+        <v>3903</v>
       </c>
       <c r="B1211" s="1" t="s">
-        <v>3890</v>
+        <v>3901</v>
       </c>
       <c r="C1211" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1211" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>3674</v>
+        <v>609</v>
+      </c>
+      <c r="K1211" s="1" t="s">
+        <v>3668</v>
       </c>
       <c r="O1211" s="1" t="s">
-        <v>3893</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1212" s="1" t="s">
-        <v>3894</v>
+        <v>3905</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>3890</v>
+        <v>3901</v>
       </c>
       <c r="C1212" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1212" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>3674</v>
+        <v>609</v>
+      </c>
+      <c r="K1212" s="1" t="s">
+        <v>3668</v>
       </c>
       <c r="O1212" s="1" t="s">
-        <v>3895</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1213" s="1" t="s">
-        <v>3896</v>
+        <v>3907</v>
       </c>
       <c r="B1213" s="1" t="s">
-        <v>3890</v>
+        <v>3908</v>
       </c>
       <c r="C1213" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1213" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>3674</v>
+        <v>609</v>
+      </c>
+      <c r="K1213" s="1" t="s">
+        <v>3668</v>
       </c>
       <c r="O1213" s="1" t="s">
-        <v>3897</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1214" s="1" t="s">
-        <v>3898</v>
+        <v>3910</v>
       </c>
       <c r="B1214" s="1" t="s">
-        <v>3890</v>
+        <v>3911</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>3674</v>
+        <v>1925</v>
       </c>
       <c r="O1214" s="1" t="s">
-        <v>3899</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1215" s="1" t="s">
-        <v>3900</v>
+        <v>3913</v>
       </c>
       <c r="B1215" s="1" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>3840</v>
-      </c>
-      <c r="D1215" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1215" s="1" t="s">
-        <v>3668</v>
+        <v>1925</v>
       </c>
       <c r="O1215" s="1" t="s">
-        <v>3902</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1216" s="1" t="s">
-        <v>3903</v>
+        <v>3915</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>3840</v>
-      </c>
-      <c r="D1216" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1216" s="1" t="s">
-        <v>3668</v>
+        <v>1925</v>
       </c>
       <c r="O1216" s="1" t="s">
-        <v>3904</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1217" s="1" t="s">
-        <v>3905</v>
+        <v>3917</v>
       </c>
       <c r="B1217" s="1" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>3840</v>
-      </c>
-      <c r="D1217" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1217" s="1" t="s">
-        <v>3668</v>
+        <v>1925</v>
       </c>
       <c r="O1217" s="1" t="s">
-        <v>3906</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1218" s="1" t="s">
-        <v>3907</v>
+        <v>3919</v>
       </c>
       <c r="B1218" s="1" t="s">
-        <v>3908</v>
+        <v>3920</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>3840</v>
+        <v>348</v>
       </c>
       <c r="D1218" s="1" t="s">
         <v>446</v>
@@ -57448,107 +57619,128 @@
       <c r="J1218" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K1218" s="1" t="s">
-        <v>3668</v>
-      </c>
       <c r="O1218" s="1" t="s">
-        <v>3909</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="1219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1219" s="1" t="s">
-        <v>3910</v>
+        <v>3922</v>
       </c>
       <c r="B1219" s="1" t="s">
-        <v>3911</v>
+        <v>3920</v>
       </c>
       <c r="C1219" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1219" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1219" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
       </c>
       <c r="O1219" s="1" t="s">
-        <v>3912</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1220" s="1" t="s">
-        <v>3913</v>
+        <v>3924</v>
       </c>
       <c r="B1220" s="1" t="s">
-        <v>3911</v>
+        <v>3920</v>
       </c>
       <c r="C1220" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1220" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1220" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
       </c>
       <c r="O1220" s="1" t="s">
-        <v>3914</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="1221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1221" s="1" t="s">
-        <v>3915</v>
+        <v>3926</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>3911</v>
+        <v>3927</v>
       </c>
       <c r="C1221" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1221" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1221" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
       </c>
       <c r="O1221" s="1" t="s">
-        <v>3916</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1222" s="1" t="s">
-        <v>3917</v>
+        <v>3929</v>
       </c>
       <c r="B1222" s="1" t="s">
-        <v>3911</v>
+        <v>3930</v>
       </c>
       <c r="C1222" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1222" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1222" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1222" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
+      </c>
+      <c r="K1222" s="1" t="s">
+        <v>1166</v>
       </c>
       <c r="O1222" s="1" t="s">
-        <v>3918</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="1223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1223" s="1" t="s">
-        <v>3919</v>
+        <v>3932</v>
       </c>
       <c r="B1223" s="1" t="s">
-        <v>3920</v>
+        <v>3930</v>
       </c>
       <c r="C1223" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1223" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1223" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1223" s="1" t="s">
         <v>609</v>
       </c>
+      <c r="K1223" s="1" t="s">
+        <v>1166</v>
+      </c>
       <c r="O1223" s="1" t="s">
-        <v>3921</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="1224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1224" s="1" t="s">
-        <v>3922</v>
+        <v>3934</v>
       </c>
       <c r="B1224" s="1" t="s">
-        <v>3920</v>
+        <v>3935</v>
       </c>
       <c r="C1224" s="1" t="s">
         <v>348</v>
@@ -57559,16 +57751,19 @@
       <c r="J1224" s="1" t="s">
         <v>609</v>
       </c>
+      <c r="K1224" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1224" s="1" t="s">
-        <v>3923</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1225" s="1" t="s">
-        <v>3924</v>
+        <v>3937</v>
       </c>
       <c r="B1225" s="1" t="s">
-        <v>3920</v>
+        <v>3935</v>
       </c>
       <c r="C1225" s="1" t="s">
         <v>348</v>
@@ -57579,16 +57774,19 @@
       <c r="J1225" s="1" t="s">
         <v>609</v>
       </c>
+      <c r="K1225" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1225" s="1" t="s">
-        <v>3925</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1226" s="1" t="s">
-        <v>3926</v>
+        <v>3939</v>
       </c>
       <c r="B1226" s="1" t="s">
-        <v>3927</v>
+        <v>3940</v>
       </c>
       <c r="C1226" s="1" t="s">
         <v>348</v>
@@ -57600,67 +57798,67 @@
         <v>609</v>
       </c>
       <c r="O1226" s="1" t="s">
-        <v>3928</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1227" s="1" t="s">
-        <v>3929</v>
+        <v>3942</v>
       </c>
       <c r="B1227" s="1" t="s">
-        <v>3930</v>
+        <v>3943</v>
       </c>
       <c r="C1227" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1227" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="E1227" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="J1227" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1227" s="1" t="s">
-        <v>1166</v>
+        <v>85</v>
       </c>
       <c r="O1227" s="1" t="s">
-        <v>3931</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1228" s="1" t="s">
-        <v>3932</v>
+        <v>3945</v>
       </c>
       <c r="B1228" s="1" t="s">
-        <v>3930</v>
+        <v>3943</v>
       </c>
       <c r="C1228" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="E1228" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="J1228" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1228" s="1" t="s">
-        <v>1166</v>
+        <v>85</v>
       </c>
       <c r="O1228" s="1" t="s">
-        <v>3933</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1229" s="1" t="s">
-        <v>3934</v>
+        <v>3947</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>3935</v>
+        <v>3943</v>
       </c>
       <c r="C1229" s="1" t="s">
         <v>348</v>
@@ -57668,22 +57866,25 @@
       <c r="D1229" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="E1229" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="J1229" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1229" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1229" s="1" t="s">
-        <v>3936</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1230" s="1" t="s">
-        <v>3937</v>
+        <v>3949</v>
       </c>
       <c r="B1230" s="1" t="s">
-        <v>3935</v>
+        <v>3943</v>
       </c>
       <c r="C1230" s="1" t="s">
         <v>348</v>
@@ -57698,230 +57899,227 @@
         <v>1925</v>
       </c>
       <c r="O1230" s="1" t="s">
-        <v>3938</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1231" s="1" t="s">
-        <v>3939</v>
+        <v>3951</v>
       </c>
       <c r="B1231" s="1" t="s">
-        <v>3940</v>
+        <v>3952</v>
       </c>
       <c r="C1231" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1231" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J1231" s="1" t="s">
-        <v>609</v>
+        <v>1925</v>
+      </c>
+      <c r="K1231" s="1" t="s">
+        <v>2356</v>
       </c>
       <c r="O1231" s="1" t="s">
-        <v>3941</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="1232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1232" s="1" t="s">
-        <v>3942</v>
+        <v>3954</v>
       </c>
       <c r="B1232" s="1" t="s">
-        <v>3943</v>
+        <v>3952</v>
       </c>
       <c r="C1232" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1232" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1232" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="J1232" s="1" t="s">
-        <v>609</v>
+        <v>1925</v>
       </c>
       <c r="K1232" s="1" t="s">
-        <v>85</v>
+        <v>2356</v>
       </c>
       <c r="O1232" s="1" t="s">
-        <v>3944</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="1233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1233" s="1" t="s">
-        <v>3945</v>
+        <v>3956</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>3943</v>
+        <v>3952</v>
       </c>
       <c r="C1233" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1233" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1233" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="J1233" s="1" t="s">
-        <v>609</v>
+        <v>1925</v>
       </c>
       <c r="K1233" s="1" t="s">
-        <v>85</v>
+        <v>2356</v>
       </c>
       <c r="O1233" s="1" t="s">
-        <v>3946</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1234" s="1" t="s">
-        <v>3947</v>
+        <v>3958</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>3943</v>
+        <v>3959</v>
       </c>
       <c r="C1234" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1234" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1234" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="J1234" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1234" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1234" s="1" t="s">
-        <v>3948</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="1235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1235" s="1" t="s">
-        <v>3949</v>
+        <v>3961</v>
       </c>
       <c r="B1235" s="1" t="s">
-        <v>3943</v>
+        <v>3959</v>
       </c>
       <c r="C1235" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1235" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J1235" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1235" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1235" s="1" t="s">
-        <v>3950</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1236" s="1" t="s">
-        <v>3951</v>
+        <v>3963</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>3952</v>
+        <v>3964</v>
       </c>
       <c r="C1236" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1236" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1236" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1236" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="K1236" s="1" t="s">
-        <v>2356</v>
-      </c>
       <c r="O1236" s="1" t="s">
-        <v>3953</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="1237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1237" s="1" t="s">
-        <v>3954</v>
+        <v>3966</v>
       </c>
       <c r="B1237" s="1" t="s">
-        <v>3952</v>
+        <v>3964</v>
       </c>
       <c r="C1237" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1237" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1237" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1237" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="K1237" s="1" t="s">
-        <v>2356</v>
-      </c>
       <c r="O1237" s="1" t="s">
-        <v>3955</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1238" s="1" t="s">
-        <v>3956</v>
+        <v>3968</v>
       </c>
       <c r="B1238" s="1" t="s">
-        <v>3952</v>
+        <v>3964</v>
       </c>
       <c r="C1238" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1238" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1238" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1238" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="K1238" s="1" t="s">
-        <v>2356</v>
-      </c>
       <c r="O1238" s="1" t="s">
-        <v>3957</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="1239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1239" s="1" t="s">
-        <v>3958</v>
+        <v>3970</v>
       </c>
       <c r="B1239" s="1" t="s">
-        <v>3959</v>
+        <v>3964</v>
       </c>
       <c r="C1239" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1239" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1239" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1239" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1239" s="1" t="s">
-        <v>3960</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1240" s="1" t="s">
-        <v>3961</v>
+        <v>3972</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>3959</v>
+        <v>3973</v>
       </c>
       <c r="C1240" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1240" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1240" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="J1240" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1240" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1240" s="1" t="s">
-        <v>3962</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1241" s="1" t="s">
-        <v>3963</v>
+        <v>3975</v>
       </c>
       <c r="B1241" s="1" t="s">
-        <v>3964</v>
+        <v>3976</v>
       </c>
       <c r="C1241" s="1" t="s">
         <v>348</v>
@@ -57936,61 +58134,55 @@
         <v>1925</v>
       </c>
       <c r="O1241" s="1" t="s">
-        <v>3965</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="1242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1242" s="1" t="s">
-        <v>3966</v>
+        <v>3978</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>3964</v>
+        <v>3979</v>
       </c>
       <c r="C1242" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1242" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J1242" s="1" t="s">
-        <v>609</v>
+        <v>1925</v>
       </c>
       <c r="K1242" s="1" t="s">
-        <v>1925</v>
+        <v>2356</v>
       </c>
       <c r="O1242" s="1" t="s">
-        <v>3967</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1243" s="1" t="s">
-        <v>3968</v>
+        <v>3981</v>
       </c>
       <c r="B1243" s="1" t="s">
-        <v>3964</v>
+        <v>3979</v>
       </c>
       <c r="C1243" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1243" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J1243" s="1" t="s">
-        <v>609</v>
+        <v>1925</v>
       </c>
       <c r="K1243" s="1" t="s">
-        <v>1925</v>
+        <v>2356</v>
       </c>
       <c r="O1243" s="1" t="s">
-        <v>3969</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="1244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1244" s="1" t="s">
-        <v>3970</v>
+        <v>3983</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>3964</v>
+        <v>3984</v>
       </c>
       <c r="C1244" s="1" t="s">
         <v>348</v>
@@ -58001,68 +58193,53 @@
       <c r="J1244" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K1244" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1244" s="1" t="s">
-        <v>3971</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="1245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1245" s="1" t="s">
-        <v>3972</v>
+        <v>3986</v>
       </c>
       <c r="B1245" s="1" t="s">
-        <v>3973</v>
+        <v>3984</v>
       </c>
       <c r="C1245" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1245" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1245" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K1245" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1245" s="1" t="s">
-        <v>3974</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="1246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1246" s="1" t="s">
-        <v>3975</v>
+        <v>3988</v>
       </c>
       <c r="B1246" s="1" t="s">
-        <v>3976</v>
+        <v>3989</v>
       </c>
       <c r="C1246" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1246" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J1246" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1246" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1246" s="1" t="s">
-        <v>3977</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1247" s="1" t="s">
-        <v>3978</v>
+        <v>3991</v>
       </c>
       <c r="B1247" s="1" t="s">
-        <v>3979</v>
+        <v>3989</v>
       </c>
       <c r="C1247" s="1" t="s">
         <v>348</v>
@@ -58070,110 +58247,107 @@
       <c r="J1247" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="K1247" s="1" t="s">
-        <v>2356</v>
-      </c>
       <c r="O1247" s="1" t="s">
-        <v>3980</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1248" s="1" t="s">
-        <v>3981</v>
+        <v>3993</v>
       </c>
       <c r="B1248" s="1" t="s">
-        <v>3979</v>
+        <v>3994</v>
       </c>
       <c r="C1248" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1248" s="1" t="s">
-        <v>1925</v>
-      </c>
-      <c r="K1248" s="1" t="s">
-        <v>2356</v>
+        <v>446</v>
       </c>
       <c r="O1248" s="1" t="s">
-        <v>3982</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1249" s="1" t="s">
-        <v>3983</v>
+        <v>3996</v>
       </c>
       <c r="B1249" s="1" t="s">
-        <v>3984</v>
+        <v>3994</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1249" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>609</v>
+        <v>447</v>
+      </c>
+      <c r="K1249" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1249" s="1" t="s">
-        <v>3985</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1250" s="1" t="s">
-        <v>3986</v>
+        <v>3998</v>
       </c>
       <c r="B1250" s="1" t="s">
-        <v>3984</v>
+        <v>3994</v>
       </c>
       <c r="C1250" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1250" s="1" t="s">
         <v>446</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>609</v>
+        <v>447</v>
+      </c>
+      <c r="K1250" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1250" s="1" t="s">
-        <v>3987</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="1251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1251" s="1" t="s">
-        <v>3988</v>
+        <v>4000</v>
       </c>
       <c r="B1251" s="1" t="s">
-        <v>3989</v>
+        <v>3994</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>1925</v>
+        <v>447</v>
+      </c>
+      <c r="K1251" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1251" s="1" t="s">
-        <v>3990</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1252" s="1" t="s">
-        <v>3991</v>
+        <v>4002</v>
       </c>
       <c r="B1252" s="1" t="s">
-        <v>3989</v>
+        <v>3994</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>1925</v>
+        <v>447</v>
+      </c>
+      <c r="K1252" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1252" s="1" t="s">
-        <v>3992</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1253" s="1" t="s">
-        <v>3993</v>
+        <v>4004</v>
       </c>
       <c r="B1253" s="1" t="s">
         <v>3994</v>
@@ -58181,13 +58355,19 @@
       <c r="C1253" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="J1253" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1253" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="O1253" s="1" t="s">
-        <v>3995</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1254" s="1" t="s">
-        <v>3996</v>
+        <v>4006</v>
       </c>
       <c r="B1254" s="1" t="s">
         <v>3994</v>
@@ -58202,12 +58382,12 @@
         <v>85</v>
       </c>
       <c r="O1254" s="1" t="s">
-        <v>3997</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="1255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1255" s="1" t="s">
-        <v>3998</v>
+        <v>4008</v>
       </c>
       <c r="B1255" s="1" t="s">
         <v>3994</v>
@@ -58222,12 +58402,12 @@
         <v>85</v>
       </c>
       <c r="O1255" s="1" t="s">
-        <v>3999</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1256" s="1" t="s">
-        <v>4000</v>
+        <v>4010</v>
       </c>
       <c r="B1256" s="1" t="s">
         <v>3994</v>
@@ -58242,12 +58422,12 @@
         <v>85</v>
       </c>
       <c r="O1256" s="1" t="s">
-        <v>4001</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1257" s="1" t="s">
-        <v>4002</v>
+        <v>4012</v>
       </c>
       <c r="B1257" s="1" t="s">
         <v>3994</v>
@@ -58262,135 +58442,150 @@
         <v>85</v>
       </c>
       <c r="O1257" s="1" t="s">
-        <v>4003</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="1258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1258" s="1" t="s">
-        <v>4004</v>
+        <v>4014</v>
       </c>
       <c r="B1258" s="1" t="s">
-        <v>3994</v>
+        <v>4015</v>
       </c>
       <c r="C1258" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="D1258" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1258" s="1" t="s">
+        <v>1266</v>
+      </c>
       <c r="J1258" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K1258" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="O1258" s="1" t="s">
-        <v>4005</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1259" s="1" t="s">
-        <v>4006</v>
+        <v>4088</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>3994</v>
+        <v>4089</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1259" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1259" s="1" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="K1259" s="1" t="s">
-        <v>85</v>
+        <v>2692</v>
       </c>
       <c r="O1259" s="1" t="s">
-        <v>4007</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1260" s="1" t="s">
-        <v>4008</v>
+        <v>4091</v>
       </c>
       <c r="B1260" s="1" t="s">
-        <v>3994</v>
+        <v>4089</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1260" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1260" s="1" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="K1260" s="1" t="s">
-        <v>85</v>
+        <v>2692</v>
       </c>
       <c r="O1260" s="1" t="s">
-        <v>4009</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1261" s="1" t="s">
-        <v>4010</v>
+        <v>4093</v>
       </c>
       <c r="B1261" s="1" t="s">
-        <v>3994</v>
+        <v>4089</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1261" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1261" s="1" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="K1261" s="1" t="s">
-        <v>85</v>
+        <v>2692</v>
       </c>
       <c r="O1261" s="1" t="s">
-        <v>4011</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1262" s="1" t="s">
-        <v>4012</v>
+        <v>4095</v>
       </c>
       <c r="B1262" s="1" t="s">
-        <v>3994</v>
+        <v>4089</v>
       </c>
       <c r="C1262" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1262" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1262" s="1" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="K1262" s="1" t="s">
-        <v>85</v>
+        <v>2692</v>
       </c>
       <c r="O1262" s="1" t="s">
-        <v>4013</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1263" s="1" t="s">
-        <v>4014</v>
+        <v>4097</v>
       </c>
       <c r="B1263" s="1" t="s">
-        <v>4015</v>
+        <v>4089</v>
       </c>
       <c r="C1263" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E1263" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J1263" s="1" t="s">
-        <v>65</v>
+        <v>383</v>
+      </c>
+      <c r="K1263" s="1" t="s">
+        <v>2692</v>
       </c>
       <c r="O1263" s="1" t="s">
-        <v>4016</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1264" s="1" t="s">
-        <v>4088</v>
+        <v>4099</v>
       </c>
       <c r="B1264" s="1" t="s">
         <v>4089</v>
@@ -58408,12 +58603,12 @@
         <v>2692</v>
       </c>
       <c r="O1264" s="1" t="s">
-        <v>4090</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1265" s="1" t="s">
-        <v>4091</v>
+        <v>4101</v>
       </c>
       <c r="B1265" s="1" t="s">
         <v>4089</v>
@@ -58431,12 +58626,12 @@
         <v>2692</v>
       </c>
       <c r="O1265" s="1" t="s">
-        <v>4092</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1266" s="1" t="s">
-        <v>4093</v>
+        <v>4103</v>
       </c>
       <c r="B1266" s="1" t="s">
         <v>4089</v>
@@ -58454,15 +58649,15 @@
         <v>2692</v>
       </c>
       <c r="O1266" s="1" t="s">
-        <v>4094</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1267" s="1" t="s">
-        <v>4095</v>
+        <v>4105</v>
       </c>
       <c r="B1267" s="1" t="s">
-        <v>4089</v>
+        <v>4106</v>
       </c>
       <c r="C1267" s="1" t="s">
         <v>348</v>
@@ -58477,15 +58672,15 @@
         <v>2692</v>
       </c>
       <c r="O1267" s="1" t="s">
-        <v>4096</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="1268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1268" s="1" t="s">
-        <v>4097</v>
+        <v>4108</v>
       </c>
       <c r="B1268" s="1" t="s">
-        <v>4089</v>
+        <v>4106</v>
       </c>
       <c r="C1268" s="1" t="s">
         <v>348</v>
@@ -58500,15 +58695,15 @@
         <v>2692</v>
       </c>
       <c r="O1268" s="1" t="s">
-        <v>4098</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="1269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1269" s="1" t="s">
-        <v>4099</v>
+        <v>4110</v>
       </c>
       <c r="B1269" s="1" t="s">
-        <v>4089</v>
+        <v>4106</v>
       </c>
       <c r="C1269" s="1" t="s">
         <v>348</v>
@@ -58523,15 +58718,15 @@
         <v>2692</v>
       </c>
       <c r="O1269" s="1" t="s">
-        <v>4100</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="1270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1270" s="1" t="s">
-        <v>4101</v>
+        <v>4112</v>
       </c>
       <c r="B1270" s="1" t="s">
-        <v>4089</v>
+        <v>4113</v>
       </c>
       <c r="C1270" s="1" t="s">
         <v>348</v>
@@ -58540,21 +58735,21 @@
         <v>158</v>
       </c>
       <c r="J1270" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="K1270" s="1" t="s">
-        <v>2692</v>
+        <v>177</v>
       </c>
       <c r="O1270" s="1" t="s">
-        <v>4102</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1271" s="1" t="s">
-        <v>4103</v>
+        <v>4115</v>
       </c>
       <c r="B1271" s="1" t="s">
-        <v>4089</v>
+        <v>4113</v>
       </c>
       <c r="C1271" s="1" t="s">
         <v>348</v>
@@ -58563,21 +58758,21 @@
         <v>158</v>
       </c>
       <c r="J1271" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="K1271" s="1" t="s">
-        <v>2692</v>
+        <v>177</v>
       </c>
       <c r="O1271" s="1" t="s">
-        <v>4104</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1272" s="1" t="s">
-        <v>4105</v>
+        <v>4117</v>
       </c>
       <c r="B1272" s="1" t="s">
-        <v>4106</v>
+        <v>4113</v>
       </c>
       <c r="C1272" s="1" t="s">
         <v>348</v>
@@ -58586,21 +58781,24 @@
         <v>158</v>
       </c>
       <c r="J1272" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="K1272" s="1" t="s">
-        <v>2692</v>
+        <v>2356</v>
+      </c>
+      <c r="L1272" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1272" s="1" t="s">
-        <v>4107</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1273" s="1" t="s">
-        <v>4108</v>
+        <v>4119</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>4106</v>
+        <v>4113</v>
       </c>
       <c r="C1273" s="1" t="s">
         <v>348</v>
@@ -58609,21 +58807,24 @@
         <v>158</v>
       </c>
       <c r="J1273" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="K1273" s="1" t="s">
-        <v>2692</v>
+        <v>2356</v>
+      </c>
+      <c r="L1273" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1273" s="1" t="s">
-        <v>4109</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1274" s="1" t="s">
-        <v>4110</v>
+        <v>4121</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>4106</v>
+        <v>4113</v>
       </c>
       <c r="C1274" s="1" t="s">
         <v>348</v>
@@ -58632,18 +58833,21 @@
         <v>158</v>
       </c>
       <c r="J1274" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="K1274" s="1" t="s">
-        <v>2692</v>
+        <v>2356</v>
+      </c>
+      <c r="L1274" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1274" s="1" t="s">
-        <v>4111</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1275" s="1" t="s">
-        <v>4112</v>
+        <v>4123</v>
       </c>
       <c r="B1275" s="1" t="s">
         <v>4113</v>
@@ -58658,15 +58862,18 @@
         <v>364</v>
       </c>
       <c r="K1275" s="1" t="s">
-        <v>177</v>
+        <v>2356</v>
+      </c>
+      <c r="L1275" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1275" s="1" t="s">
-        <v>4114</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1276" s="1" t="s">
-        <v>4115</v>
+        <v>4125</v>
       </c>
       <c r="B1276" s="1" t="s">
         <v>4113</v>
@@ -58681,15 +58888,18 @@
         <v>364</v>
       </c>
       <c r="K1276" s="1" t="s">
-        <v>177</v>
+        <v>2356</v>
+      </c>
+      <c r="L1276" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1276" s="1" t="s">
-        <v>4116</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1277" s="1" t="s">
-        <v>4117</v>
+        <v>4127</v>
       </c>
       <c r="B1277" s="1" t="s">
         <v>4113</v>
@@ -58710,12 +58920,12 @@
         <v>171</v>
       </c>
       <c r="O1277" s="1" t="s">
-        <v>4118</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1278" s="1" t="s">
-        <v>4119</v>
+        <v>4129</v>
       </c>
       <c r="B1278" s="1" t="s">
         <v>4113</v>
@@ -58736,12 +58946,12 @@
         <v>171</v>
       </c>
       <c r="O1278" s="1" t="s">
-        <v>4120</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1279" s="1" t="s">
-        <v>4121</v>
+        <v>4131</v>
       </c>
       <c r="B1279" s="1" t="s">
         <v>4113</v>
@@ -58762,12 +58972,12 @@
         <v>171</v>
       </c>
       <c r="O1279" s="1" t="s">
-        <v>4122</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1280" s="1" t="s">
-        <v>4123</v>
+        <v>4133</v>
       </c>
       <c r="B1280" s="1" t="s">
         <v>4113</v>
@@ -58788,145 +58998,118 @@
         <v>171</v>
       </c>
       <c r="O1280" s="1" t="s">
-        <v>4124</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1281" s="1" t="s">
-        <v>4125</v>
+        <v>4151</v>
       </c>
       <c r="B1281" s="1" t="s">
-        <v>4113</v>
+        <v>4152</v>
       </c>
       <c r="C1281" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1281" s="1" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="J1281" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1281" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L1281" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O1281" s="1" t="s">
-        <v>4126</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="1282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1282" s="1" t="s">
-        <v>4127</v>
+        <v>4154</v>
       </c>
       <c r="B1282" s="1" t="s">
-        <v>4113</v>
+        <v>4152</v>
       </c>
       <c r="C1282" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1282" s="1" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="J1282" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1282" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L1282" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O1282" s="1" t="s">
-        <v>4128</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="1283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1283" s="1" t="s">
-        <v>4129</v>
+        <v>4156</v>
       </c>
       <c r="B1283" s="1" t="s">
-        <v>4113</v>
+        <v>4157</v>
       </c>
       <c r="C1283" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1283" s="1" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="K1283" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L1283" s="1" t="s">
         <v>171</v>
       </c>
       <c r="O1283" s="1" t="s">
-        <v>4130</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1284" s="1" t="s">
-        <v>4131</v>
+        <v>4159</v>
       </c>
       <c r="B1284" s="1" t="s">
-        <v>4113</v>
+        <v>4157</v>
       </c>
       <c r="C1284" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1284" s="1" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="K1284" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L1284" s="1" t="s">
         <v>171</v>
       </c>
       <c r="O1284" s="1" t="s">
-        <v>4132</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1285" s="1" t="s">
-        <v>4133</v>
+        <v>4161</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>4113</v>
+        <v>4162</v>
       </c>
       <c r="C1285" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1285" s="1" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="K1285" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L1285" s="1" t="s">
         <v>171</v>
       </c>
       <c r="O1285" s="1" t="s">
-        <v>4134</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="1286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1286" s="1" t="s">
-        <v>4151</v>
+        <v>4164</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>4152</v>
+        <v>4165</v>
       </c>
       <c r="C1286" s="1" t="s">
         <v>446</v>
@@ -58935,342 +59118,354 @@
         <v>177</v>
       </c>
       <c r="O1286" s="1" t="s">
-        <v>4153</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1287" s="1" t="s">
-        <v>4154</v>
+        <v>4179</v>
       </c>
       <c r="B1287" s="1" t="s">
-        <v>4152</v>
+        <v>4180</v>
       </c>
       <c r="C1287" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="D1287" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="J1287" s="1" t="s">
-        <v>177</v>
+        <v>358</v>
+      </c>
+      <c r="K1287" s="1" t="s">
+        <v>1601</v>
       </c>
       <c r="O1287" s="1" t="s">
-        <v>4155</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="1288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1288" s="1" t="s">
-        <v>4156</v>
+        <v>4182</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>4157</v>
+        <v>4180</v>
       </c>
       <c r="C1288" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>1266</v>
+        <v>567</v>
       </c>
       <c r="J1288" s="1" t="s">
-        <v>177</v>
+        <v>358</v>
       </c>
       <c r="K1288" s="1" t="s">
-        <v>171</v>
+        <v>1601</v>
       </c>
       <c r="O1288" s="1" t="s">
-        <v>4158</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="1289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1289" s="1" t="s">
-        <v>4159</v>
+        <v>4184</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>4157</v>
+        <v>4180</v>
       </c>
       <c r="C1289" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>1266</v>
+        <v>567</v>
       </c>
       <c r="J1289" s="1" t="s">
-        <v>177</v>
+        <v>358</v>
       </c>
       <c r="K1289" s="1" t="s">
-        <v>171</v>
+        <v>1601</v>
       </c>
       <c r="O1289" s="1" t="s">
-        <v>4160</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="1290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1290" s="1" t="s">
-        <v>4161</v>
+        <v>4186</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>4162</v>
+        <v>4187</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>1266</v>
+        <v>521</v>
+      </c>
+      <c r="E1290" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1290" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1290" s="1" t="s">
-        <v>171</v>
+        <v>1538</v>
       </c>
       <c r="O1290" s="1" t="s">
-        <v>4163</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1291" s="1" t="s">
-        <v>4164</v>
+        <v>4189</v>
       </c>
       <c r="B1291" s="1" t="s">
-        <v>4165</v>
+        <v>4187</v>
       </c>
       <c r="C1291" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
+      </c>
+      <c r="D1291" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1291" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1291" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O1291" s="1" t="s">
-        <v>4166</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1292" s="1" t="s">
-        <v>4179</v>
+        <v>4191</v>
       </c>
       <c r="B1292" s="1" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="C1292" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1292" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1292" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J1292" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1292" s="1" t="s">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="O1292" s="1" t="s">
-        <v>4181</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1293" s="1" t="s">
-        <v>4182</v>
+        <v>4200</v>
       </c>
       <c r="B1293" s="1" t="s">
-        <v>4180</v>
+        <v>4201</v>
       </c>
       <c r="C1293" s="1" t="s">
-        <v>446</v>
+        <v>2972</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>567</v>
+        <v>589</v>
+      </c>
+      <c r="E1293" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1293" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
       </c>
       <c r="K1293" s="1" t="s">
-        <v>1601</v>
+        <v>1275</v>
       </c>
       <c r="O1293" s="1" t="s">
-        <v>4183</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1294" s="1" t="s">
-        <v>4184</v>
+        <v>4204</v>
       </c>
       <c r="B1294" s="1" t="s">
-        <v>4180</v>
+        <v>4201</v>
       </c>
       <c r="C1294" s="1" t="s">
-        <v>446</v>
+        <v>2972</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>567</v>
+        <v>589</v>
+      </c>
+      <c r="E1294" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1294" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
       </c>
       <c r="K1294" s="1" t="s">
-        <v>1601</v>
+        <v>1275</v>
       </c>
       <c r="O1294" s="1" t="s">
-        <v>4185</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1295" s="1" t="s">
-        <v>4186</v>
+        <v>4206</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>4187</v>
+        <v>4201</v>
       </c>
       <c r="C1295" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="E1295" s="1" t="s">
-        <v>567</v>
+        <v>4202</v>
       </c>
       <c r="J1295" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1295" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1295" s="1" t="s">
-        <v>4188</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1296" s="1" t="s">
-        <v>4189</v>
+        <v>4208</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>4187</v>
+        <v>4201</v>
       </c>
       <c r="C1296" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
       </c>
       <c r="E1296" s="1" t="s">
-        <v>567</v>
+        <v>158</v>
       </c>
       <c r="J1296" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1296" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1296" s="1" t="s">
-        <v>4190</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1297" s="1" t="s">
-        <v>4191</v>
+        <v>4210</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>4187</v>
+        <v>4211</v>
       </c>
       <c r="C1297" s="1" t="s">
-        <v>521</v>
+        <v>348</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E1297" s="1" t="s">
-        <v>567</v>
+        <v>158</v>
       </c>
       <c r="J1297" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1297" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1297" s="1" t="s">
-        <v>4192</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1298" s="1" t="s">
-        <v>4200</v>
+        <v>4213</v>
       </c>
       <c r="B1298" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1298" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1298" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1298" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1298" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1298" s="1" t="s">
-        <v>4203</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1299" s="1" t="s">
-        <v>4204</v>
+        <v>4215</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>4201</v>
+        <v>4216</v>
       </c>
       <c r="C1299" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1299" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1299" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1299" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1299" s="1" t="s">
-        <v>4205</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1300" s="1" t="s">
-        <v>4206</v>
+        <v>4218</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>4201</v>
+        <v>4216</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E1300" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1300" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1300" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1300" s="1" t="s">
-        <v>4207</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="1301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1301" s="1" t="s">
-        <v>4208</v>
+        <v>4220</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1301" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1301" s="1" t="s">
@@ -59280,12 +59475,12 @@
         <v>1925</v>
       </c>
       <c r="O1301" s="1" t="s">
-        <v>4209</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1302" s="1" t="s">
-        <v>4210</v>
+        <v>4222</v>
       </c>
       <c r="B1302" s="1" t="s">
         <v>4211</v>
@@ -59303,315 +59498,387 @@
         <v>1925</v>
       </c>
       <c r="O1302" s="1" t="s">
-        <v>4212</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1303" s="1" t="s">
-        <v>4213</v>
+        <v>4254</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>4211</v>
+        <v>4255</v>
       </c>
       <c r="C1303" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1303" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1303" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1303" s="1" t="s">
-        <v>1925</v>
+        <v>214</v>
       </c>
       <c r="O1303" s="1" t="s">
-        <v>4214</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1304" s="1" t="s">
-        <v>4215</v>
+        <v>4257</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>4216</v>
+        <v>4255</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1304" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1304" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1304" s="1" t="s">
-        <v>1925</v>
+        <v>214</v>
       </c>
       <c r="O1304" s="1" t="s">
-        <v>4217</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1305" s="1" t="s">
-        <v>4218</v>
+        <v>4259</v>
       </c>
       <c r="B1305" s="1" t="s">
-        <v>4216</v>
+        <v>4260</v>
       </c>
       <c r="C1305" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1305" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1305" s="1" t="s">
-        <v>1925</v>
+        <v>1165</v>
+      </c>
+      <c r="E1305" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1305" s="1" t="s">
-        <v>4219</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1306" s="1" t="s">
-        <v>4220</v>
+        <v>4262</v>
       </c>
       <c r="B1306" s="1" t="s">
-        <v>4211</v>
+        <v>4260</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1306" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1306" s="1" t="s">
-        <v>1925</v>
+        <v>1165</v>
+      </c>
+      <c r="E1306" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1306" s="1" t="s">
-        <v>4221</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1307" s="1" t="s">
-        <v>4222</v>
+        <v>4264</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>4211</v>
+        <v>4260</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1307" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1307" s="1" t="s">
-        <v>1925</v>
+        <v>1165</v>
+      </c>
+      <c r="E1307" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1307" s="1" t="s">
-        <v>4223</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1308" s="1" t="s">
-        <v>4231</v>
+        <v>4266</v>
       </c>
       <c r="B1308" s="1" t="s">
-        <v>4232</v>
+        <v>4260</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1308" s="1" t="s">
-        <v>62</v>
+        <v>1165</v>
+      </c>
+      <c r="E1308" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1308" s="1" t="s">
-        <v>4233</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1309" s="1" t="s">
-        <v>4234</v>
+        <v>4292</v>
       </c>
       <c r="B1309" s="1" t="s">
-        <v>4232</v>
+        <v>4293</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>446</v>
+        <v>4294</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>1266</v>
+        <v>567</v>
+      </c>
+      <c r="E1309" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1309" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="K1309" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1309" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1309" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1309" s="1" t="s">
-        <v>4235</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1310" s="1" t="s">
-        <v>4236</v>
+        <v>4296</v>
       </c>
       <c r="B1310" s="1" t="s">
-        <v>4232</v>
+        <v>4293</v>
       </c>
       <c r="C1310" s="1" t="s">
-        <v>446</v>
+        <v>4294</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>1266</v>
+        <v>567</v>
+      </c>
+      <c r="E1310" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1310" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="K1310" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1310" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1310" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1310" s="1" t="s">
-        <v>4237</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1311" s="1" t="s">
-        <v>4238</v>
+        <v>4298</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>4232</v>
+        <v>4293</v>
       </c>
       <c r="C1311" s="1" t="s">
-        <v>446</v>
+        <v>4294</v>
       </c>
       <c r="D1311" s="1" t="s">
-        <v>1266</v>
+        <v>567</v>
       </c>
       <c r="J1311" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="K1311" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1311" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1311" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1311" s="1" t="s">
-        <v>4239</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1312" s="1" t="s">
-        <v>4254</v>
+        <v>4300</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>4255</v>
+        <v>4293</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>214</v>
+        <v>4294</v>
+      </c>
+      <c r="D1312" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1312" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1312" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1312" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1312" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1312" s="1" t="s">
-        <v>4256</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1313" s="1" t="s">
-        <v>4257</v>
+        <v>4302</v>
       </c>
       <c r="B1313" s="1" t="s">
-        <v>4255</v>
+        <v>4293</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>214</v>
+        <v>4294</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1313" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1313" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1313" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1313" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1313" s="1" t="s">
-        <v>4258</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1314" s="1" t="s">
-        <v>4259</v>
+        <v>4304</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1314" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1314" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1314" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1314" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1314" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1314" s="1" t="s">
-        <v>4261</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1315" s="1" t="s">
-        <v>4262</v>
+        <v>4306</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1315" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1315" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1315" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1315" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1315" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1315" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1315" s="1" t="s">
-        <v>4263</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1316" s="1" t="s">
-        <v>4264</v>
+        <v>4308</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1316" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1316" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1316" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1316" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1316" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1316" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1316" s="1" t="s">
-        <v>4265</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1317" s="1" t="s">
-        <v>4266</v>
+        <v>4310</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1317" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1317" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1317" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1317" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1317" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1317" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1317" s="1" t="s">
-        <v>4267</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1318" s="1" t="s">
-        <v>4292</v>
+        <v>4312</v>
       </c>
       <c r="B1318" s="1" t="s">
         <v>4293</v>
@@ -59622,9 +59889,6 @@
       <c r="D1318" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1318" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1318" s="1" t="s">
         <v>85</v>
       </c>
@@ -59632,18 +59896,18 @@
         <v>609</v>
       </c>
       <c r="L1318" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1318" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1318" s="1" t="s">
-        <v>4295</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1319" s="1" t="s">
-        <v>4296</v>
+        <v>4314</v>
       </c>
       <c r="B1319" s="1" t="s">
         <v>4293</v>
@@ -59654,9 +59918,6 @@
       <c r="D1319" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1319" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1319" s="1" t="s">
         <v>85</v>
       </c>
@@ -59664,18 +59925,18 @@
         <v>609</v>
       </c>
       <c r="L1319" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1319" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1319" s="1" t="s">
-        <v>4297</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1320" s="1" t="s">
-        <v>4298</v>
+        <v>4316</v>
       </c>
       <c r="B1320" s="1" t="s">
         <v>4293</v>
@@ -59699,15 +59960,15 @@
         <v>1203</v>
       </c>
       <c r="O1320" s="1" t="s">
-        <v>4299</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1321" s="1" t="s">
-        <v>4300</v>
+        <v>4318</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1321" s="1" t="s">
         <v>4294</v>
@@ -59725,15 +59986,15 @@
         <v>171</v>
       </c>
       <c r="M1321" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1321" s="1" t="s">
-        <v>4301</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1322" s="1" t="s">
-        <v>4302</v>
+        <v>4321</v>
       </c>
       <c r="B1322" s="1" t="s">
         <v>4293</v>
@@ -59754,15 +60015,15 @@
         <v>171</v>
       </c>
       <c r="M1322" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1322" s="1" t="s">
-        <v>4303</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1323" s="1" t="s">
-        <v>4304</v>
+        <v>4323</v>
       </c>
       <c r="B1323" s="1" t="s">
         <v>4293</v>
@@ -59783,15 +60044,15 @@
         <v>171</v>
       </c>
       <c r="M1323" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1323" s="1" t="s">
-        <v>4305</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1324" s="1" t="s">
-        <v>4306</v>
+        <v>4325</v>
       </c>
       <c r="B1324" s="1" t="s">
         <v>4293</v>
@@ -59812,15 +60073,15 @@
         <v>171</v>
       </c>
       <c r="M1324" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1324" s="1" t="s">
-        <v>4307</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1325" s="1" t="s">
-        <v>4308</v>
+        <v>4327</v>
       </c>
       <c r="B1325" s="1" t="s">
         <v>4293</v>
@@ -59841,15 +60102,15 @@
         <v>171</v>
       </c>
       <c r="M1325" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1325" s="1" t="s">
-        <v>4309</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1326" s="1" t="s">
-        <v>4310</v>
+        <v>4329</v>
       </c>
       <c r="B1326" s="1" t="s">
         <v>4293</v>
@@ -59870,15 +60131,15 @@
         <v>171</v>
       </c>
       <c r="M1326" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1326" s="1" t="s">
-        <v>4311</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1327" s="1" t="s">
-        <v>4312</v>
+        <v>4331</v>
       </c>
       <c r="B1327" s="1" t="s">
         <v>4293</v>
@@ -59899,15 +60160,15 @@
         <v>171</v>
       </c>
       <c r="M1327" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1327" s="1" t="s">
-        <v>4313</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1328" s="1" t="s">
-        <v>4314</v>
+        <v>4333</v>
       </c>
       <c r="B1328" s="1" t="s">
         <v>4293</v>
@@ -59928,44 +60189,38 @@
         <v>171</v>
       </c>
       <c r="M1328" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1328" s="1" t="s">
-        <v>4315</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1329" s="1" t="s">
-        <v>4316</v>
+        <v>4335</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1329" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1329" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1329" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1329" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1329" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1329" s="1" t="s">
-        <v>1203</v>
-      </c>
       <c r="O1329" s="1" t="s">
-        <v>4317</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1330" s="1" t="s">
-        <v>4318</v>
+        <v>4339</v>
       </c>
       <c r="B1330" s="1" t="s">
         <v>4319</v>
@@ -59974,59 +60229,47 @@
         <v>4294</v>
       </c>
       <c r="D1330" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1330" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1330" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1330" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1330" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1330" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1330" s="1" t="s">
-        <v>4320</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1331" s="1" t="s">
-        <v>4321</v>
+        <v>4341</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1331" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1331" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1331" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1331" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1331" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1331" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1331" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1331" s="1" t="s">
-        <v>4322</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1332" s="1" t="s">
-        <v>4323</v>
+        <v>4343</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1332" s="1" t="s">
         <v>4294</v>
@@ -60047,15 +60290,15 @@
         <v>1925</v>
       </c>
       <c r="O1332" s="1" t="s">
-        <v>4324</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1333" s="1" t="s">
-        <v>4325</v>
+        <v>4345</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1333" s="1" t="s">
         <v>4294</v>
@@ -60076,15 +60319,15 @@
         <v>1925</v>
       </c>
       <c r="O1333" s="1" t="s">
-        <v>4326</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1334" s="1" t="s">
-        <v>4327</v>
+        <v>4347</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1334" s="1" t="s">
         <v>4294</v>
@@ -60105,15 +60348,15 @@
         <v>1925</v>
       </c>
       <c r="O1334" s="1" t="s">
-        <v>4328</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1335" s="1" t="s">
-        <v>4329</v>
+        <v>4349</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1335" s="1" t="s">
         <v>4294</v>
@@ -60134,15 +60377,15 @@
         <v>1925</v>
       </c>
       <c r="O1335" s="1" t="s">
-        <v>4330</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1336" s="1" t="s">
-        <v>4331</v>
+        <v>4351</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1336" s="1" t="s">
         <v>4294</v>
@@ -60163,15 +60406,15 @@
         <v>1925</v>
       </c>
       <c r="O1336" s="1" t="s">
-        <v>4332</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1337" s="1" t="s">
-        <v>4333</v>
+        <v>4353</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1337" s="1" t="s">
         <v>4294</v>
@@ -60192,15 +60435,15 @@
         <v>1925</v>
       </c>
       <c r="O1337" s="1" t="s">
-        <v>4334</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1338" s="1" t="s">
-        <v>4335</v>
+        <v>4355</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1338" s="1" t="s">
         <v>4294</v>
@@ -60215,15 +60458,15 @@
         <v>85</v>
       </c>
       <c r="O1338" s="1" t="s">
-        <v>4338</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1339" s="1" t="s">
-        <v>4339</v>
+        <v>4358</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1339" s="1" t="s">
         <v>4294</v>
@@ -60238,15 +60481,15 @@
         <v>85</v>
       </c>
       <c r="O1339" s="1" t="s">
-        <v>4340</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1340" s="1" t="s">
-        <v>4341</v>
+        <v>4360</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1340" s="1" t="s">
         <v>4294</v>
@@ -60261,186 +60504,150 @@
         <v>85</v>
       </c>
       <c r="O1340" s="1" t="s">
-        <v>4342</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1341" s="1" t="s">
-        <v>4343</v>
+        <v>4362</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1341" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1341" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1341" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1341" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1341" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1341" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1341" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1341" s="1" t="s">
-        <v>4344</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1342" s="1" t="s">
-        <v>4345</v>
+        <v>4364</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1342" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1342" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1342" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1342" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1342" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1342" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1342" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1342" s="1" t="s">
-        <v>4346</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1343" s="1" t="s">
-        <v>4347</v>
+        <v>4366</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1343" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1343" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1343" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1343" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1343" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1343" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1343" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1343" s="1" t="s">
-        <v>4348</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1344" s="1" t="s">
-        <v>4349</v>
+        <v>4368</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1344" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1344" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1344" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1344" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1344" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1344" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1344" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1344" s="1" t="s">
-        <v>4350</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1345" s="1" t="s">
-        <v>4351</v>
+        <v>4370</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1345" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1345" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1345" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1345" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1345" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1345" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1345" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1345" s="1" t="s">
-        <v>4352</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1346" s="1" t="s">
-        <v>4353</v>
+        <v>4372</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1346" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1346" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1346" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1346" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1346" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1346" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1346" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1346" s="1" t="s">
-        <v>4354</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1347" s="1" t="s">
-        <v>4355</v>
+        <v>4374</v>
       </c>
       <c r="B1347" s="1" t="s">
         <v>4356</v>
@@ -60458,219 +60665,153 @@
         <v>85</v>
       </c>
       <c r="O1347" s="1" t="s">
-        <v>4357</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1348" s="1" t="s">
-        <v>4358</v>
+        <v>4395</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1348" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1348" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1348" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1348" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1348" s="1" t="s">
-        <v>4359</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1349" s="1" t="s">
-        <v>4360</v>
+        <v>4399</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1349" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1349" s="1" t="s">
-        <v>4337</v>
-      </c>
-      <c r="J1349" s="1" t="s">
-        <v>85</v>
+        <v>4397</v>
       </c>
       <c r="O1349" s="1" t="s">
-        <v>4361</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1350" s="1" t="s">
-        <v>4362</v>
+        <v>4401</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1350" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1350" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1350" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1350" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1350" s="1" t="s">
-        <v>4363</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1351" s="1" t="s">
-        <v>4364</v>
+        <v>4403</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1351" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1351" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1351" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1351" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1351" s="1" t="s">
-        <v>4365</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1352" s="1" t="s">
-        <v>4366</v>
+        <v>4405</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1352" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1352" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1352" s="1" t="s">
-        <v>4337</v>
-      </c>
-      <c r="J1352" s="1" t="s">
-        <v>85</v>
+        <v>4397</v>
       </c>
       <c r="O1352" s="1" t="s">
-        <v>4367</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1353" s="1" t="s">
-        <v>4368</v>
+        <v>4407</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1353" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1353" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1353" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1353" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1353" s="1" t="s">
-        <v>4369</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1354" s="1" t="s">
-        <v>4370</v>
+        <v>4409</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1354" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1354" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1354" s="1" t="s">
-        <v>4337</v>
-      </c>
-      <c r="J1354" s="1" t="s">
-        <v>85</v>
+        <v>4397</v>
       </c>
       <c r="O1354" s="1" t="s">
-        <v>4371</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1355" s="1" t="s">
-        <v>4372</v>
+        <v>4411</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1355" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1355" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1355" s="1" t="s">
-        <v>4337</v>
-      </c>
-      <c r="J1355" s="1" t="s">
-        <v>85</v>
+        <v>4397</v>
       </c>
       <c r="O1355" s="1" t="s">
-        <v>4373</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1356" s="1" t="s">
-        <v>4374</v>
+        <v>4413</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1356" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1356" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1356" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1356" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1356" s="1" t="s">
-        <v>4375</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1357" s="1" t="s">
-        <v>4395</v>
+        <v>4415</v>
       </c>
       <c r="B1357" s="1" t="s">
         <v>4396</v>
@@ -60678,16 +60819,13 @@
       <c r="C1357" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1357" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1357" s="1" t="s">
-        <v>4398</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1358" s="1" t="s">
-        <v>4399</v>
+        <v>4417</v>
       </c>
       <c r="B1358" s="1" t="s">
         <v>4396</v>
@@ -60695,13 +60833,16 @@
       <c r="C1358" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="J1358" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1358" s="1" t="s">
-        <v>4400</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1359" s="1" t="s">
-        <v>4401</v>
+        <v>4419</v>
       </c>
       <c r="B1359" s="1" t="s">
         <v>4396</v>
@@ -60709,16 +60850,13 @@
       <c r="C1359" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1359" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1359" s="1" t="s">
-        <v>4402</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1360" s="1" t="s">
-        <v>4403</v>
+        <v>4421</v>
       </c>
       <c r="B1360" s="1" t="s">
         <v>4396</v>
@@ -60726,16 +60864,13 @@
       <c r="C1360" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1360" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1360" s="1" t="s">
-        <v>4404</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1361" s="1" t="s">
-        <v>4405</v>
+        <v>4423</v>
       </c>
       <c r="B1361" s="1" t="s">
         <v>4396</v>
@@ -60744,12 +60879,12 @@
         <v>4397</v>
       </c>
       <c r="O1361" s="1" t="s">
-        <v>4406</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1362" s="1" t="s">
-        <v>4407</v>
+        <v>4425</v>
       </c>
       <c r="B1362" s="1" t="s">
         <v>4396</v>
@@ -60757,303 +60892,381 @@
       <c r="C1362" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="D1362" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1362" s="1" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
       <c r="O1362" s="1" t="s">
-        <v>4408</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1363" s="1" t="s">
-        <v>4409</v>
+        <v>4427</v>
       </c>
       <c r="B1363" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1363" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1363" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1363" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1363" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1363" s="1" t="s">
-        <v>4410</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1364" s="1" t="s">
-        <v>4411</v>
+        <v>4430</v>
       </c>
       <c r="B1364" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1364" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1364" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1364" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1364" s="1" t="s">
-        <v>4412</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1365" s="1" t="s">
-        <v>4413</v>
+        <v>4478</v>
       </c>
       <c r="B1365" s="1" t="s">
-        <v>4396</v>
+        <v>4479</v>
       </c>
       <c r="C1365" s="1" t="s">
-        <v>4397</v>
+        <v>2</v>
+      </c>
+      <c r="D1365" s="1" t="s">
+        <v>1274</v>
       </c>
       <c r="J1365" s="1" t="s">
-        <v>447</v>
+        <v>177</v>
+      </c>
+      <c r="K1365" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1365" s="1" t="s">
-        <v>4414</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1366" s="1" t="s">
-        <v>4415</v>
+        <v>4481</v>
       </c>
       <c r="B1366" s="1" t="s">
-        <v>4396</v>
+        <v>4479</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>4397</v>
+        <v>2</v>
+      </c>
+      <c r="D1366" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J1366" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1366" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1366" s="1" t="s">
-        <v>4416</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1367" s="1" t="s">
-        <v>4417</v>
+        <v>4490</v>
       </c>
       <c r="B1367" s="1" t="s">
-        <v>4396</v>
+        <v>4491</v>
       </c>
       <c r="C1367" s="1" t="s">
-        <v>4397</v>
+        <v>1340</v>
+      </c>
+      <c r="D1367" s="1" t="s">
+        <v>1340</v>
       </c>
       <c r="J1367" s="1" t="s">
-        <v>447</v>
+        <v>383</v>
+      </c>
+      <c r="K1367" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1367" s="1" t="s">
-        <v>4418</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1368" s="1" t="s">
-        <v>4419</v>
+        <v>4493</v>
       </c>
       <c r="B1368" s="1" t="s">
-        <v>4396</v>
+        <v>4491</v>
       </c>
       <c r="C1368" s="1" t="s">
-        <v>4397</v>
+        <v>1340</v>
+      </c>
+      <c r="D1368" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J1368" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1368" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1368" s="1" t="s">
-        <v>4420</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1369" s="1" t="s">
-        <v>4421</v>
+        <v>4495</v>
       </c>
       <c r="B1369" s="1" t="s">
-        <v>4396</v>
+        <v>4496</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>4397</v>
+        <v>1340</v>
+      </c>
+      <c r="D1369" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1369" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1369" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1369" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1369" s="1" t="s">
-        <v>4422</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1370" s="1" t="s">
-        <v>4423</v>
+        <v>4498</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>4396</v>
+        <v>4496</v>
       </c>
       <c r="C1370" s="1" t="s">
-        <v>4397</v>
+        <v>1340</v>
+      </c>
+      <c r="D1370" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1370" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1370" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1370" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1370" s="1" t="s">
-        <v>4424</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1371" s="1" t="s">
-        <v>4425</v>
+        <v>4500</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>4396</v>
+        <v>4496</v>
       </c>
       <c r="C1371" s="1" t="s">
-        <v>4397</v>
+        <v>1340</v>
       </c>
       <c r="D1371" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1371" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1371" s="1" t="s">
-        <v>349</v>
+        <v>383</v>
+      </c>
+      <c r="K1371" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1371" s="1" t="s">
-        <v>4426</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1372" s="1" t="s">
-        <v>4427</v>
+        <v>4502</v>
       </c>
       <c r="B1372" s="1" t="s">
-        <v>4428</v>
+        <v>4503</v>
       </c>
       <c r="C1372" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1372" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1372" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1372" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1372" s="1" t="s">
-        <v>4429</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1373" s="1" t="s">
-        <v>4430</v>
+        <v>4513</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>4428</v>
+        <v>4514</v>
       </c>
       <c r="C1373" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1373" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1373" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1373" s="1" t="s">
-        <v>85</v>
+        <v>1534</v>
       </c>
       <c r="O1373" s="1" t="s">
-        <v>4431</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1374" s="1" t="s">
-        <v>4478</v>
+        <v>4516</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>4479</v>
+        <v>4514</v>
       </c>
       <c r="C1374" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1374" s="1" t="s">
-        <v>1274</v>
+        <v>158</v>
       </c>
       <c r="J1374" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1374" s="1" t="s">
-        <v>1275</v>
+        <v>1534</v>
       </c>
       <c r="O1374" s="1" t="s">
-        <v>4480</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1375" s="1" t="s">
-        <v>4481</v>
+        <v>4518</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>4479</v>
+        <v>4514</v>
       </c>
       <c r="C1375" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>1274</v>
+        <v>158</v>
       </c>
       <c r="J1375" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1375" s="1" t="s">
-        <v>1275</v>
+        <v>1534</v>
       </c>
       <c r="O1375" s="1" t="s">
-        <v>4482</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1376" s="1" t="s">
-        <v>4490</v>
+        <v>4520</v>
       </c>
       <c r="B1376" s="1" t="s">
-        <v>4491</v>
+        <v>4514</v>
       </c>
       <c r="C1376" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1376" s="1" t="s">
-        <v>1340</v>
+        <v>158</v>
       </c>
       <c r="J1376" s="1" t="s">
         <v>383</v>
       </c>
       <c r="K1376" s="1" t="s">
-        <v>1925</v>
+        <v>1534</v>
       </c>
       <c r="O1376" s="1" t="s">
-        <v>4492</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1377" s="1" t="s">
-        <v>4493</v>
+        <v>4522</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>4491</v>
+        <v>4514</v>
       </c>
       <c r="C1377" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1377" s="1" t="s">
-        <v>1340</v>
+        <v>158</v>
       </c>
       <c r="J1377" s="1" t="s">
         <v>383</v>
       </c>
       <c r="K1377" s="1" t="s">
-        <v>1925</v>
+        <v>1534</v>
       </c>
       <c r="O1377" s="1" t="s">
-        <v>4494</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1378" s="1" t="s">
-        <v>4495</v>
+        <v>4524</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>4496</v>
+        <v>4525</v>
       </c>
       <c r="C1378" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1378" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1378" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1378" s="1" t="s">
@@ -61063,23 +61276,20 @@
         <v>1925</v>
       </c>
       <c r="O1378" s="1" t="s">
-        <v>4497</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1379" s="1" t="s">
-        <v>4498</v>
+        <v>4527</v>
       </c>
       <c r="B1379" s="1" t="s">
-        <v>4496</v>
+        <v>4525</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1379" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1379" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1379" s="1" t="s">
@@ -61089,379 +61299,376 @@
         <v>1925</v>
       </c>
       <c r="O1379" s="1" t="s">
-        <v>4499</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1380" s="1" t="s">
-        <v>4500</v>
+        <v>4529</v>
       </c>
       <c r="B1380" s="1" t="s">
-        <v>4496</v>
+        <v>4530</v>
       </c>
       <c r="C1380" s="1" t="s">
-        <v>1340</v>
+        <v>2</v>
       </c>
       <c r="D1380" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1380" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1380" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1380" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1380" s="1" t="s">
-        <v>4501</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1381" s="1" t="s">
-        <v>4502</v>
+        <v>4532</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>4503</v>
+        <v>4530</v>
       </c>
       <c r="C1381" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1381" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1381" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1381" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1381" s="1" t="s">
-        <v>4504</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1382" s="1" t="s">
-        <v>4513</v>
+        <v>4534</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>4514</v>
+        <v>4530</v>
       </c>
       <c r="C1382" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1382" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1382" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1382" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O1382" s="1" t="s">
-        <v>4515</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1383" s="1" t="s">
-        <v>4516</v>
+        <v>4548</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>4514</v>
+        <v>4549</v>
       </c>
       <c r="C1383" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1383" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1383" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1383" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O1383" s="1" t="s">
-        <v>4517</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1384" s="1" t="s">
-        <v>4518</v>
+        <v>4551</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>4514</v>
+        <v>4549</v>
       </c>
       <c r="C1384" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1384" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1384" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1384" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O1384" s="1" t="s">
-        <v>4519</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1385" s="1" t="s">
-        <v>4520</v>
+        <v>4553</v>
       </c>
       <c r="B1385" s="1" t="s">
-        <v>4514</v>
+        <v>4554</v>
       </c>
       <c r="C1385" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1385" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1385" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1385" s="1" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="O1385" s="1" t="s">
-        <v>4521</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1386" s="1" t="s">
-        <v>4522</v>
+        <v>4556</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>4514</v>
+        <v>4557</v>
       </c>
       <c r="C1386" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1386" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J1386" s="1" t="s">
-        <v>383</v>
+        <v>62</v>
       </c>
       <c r="K1386" s="1" t="s">
-        <v>1534</v>
+        <v>4078</v>
       </c>
       <c r="O1386" s="1" t="s">
-        <v>4523</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1387" s="1" t="s">
-        <v>4524</v>
+        <v>4564</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>4525</v>
+        <v>4565</v>
       </c>
       <c r="C1387" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1387" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
+      </c>
+      <c r="E1387" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1387" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1387" s="1" t="s">
-        <v>383</v>
+        <v>609</v>
       </c>
       <c r="K1387" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1387" s="1" t="s">
-        <v>4526</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1388" s="1" t="s">
-        <v>4527</v>
+        <v>4567</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>4525</v>
+        <v>4565</v>
       </c>
       <c r="C1388" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1388" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
+      </c>
+      <c r="E1388" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1388" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1388" s="1" t="s">
-        <v>383</v>
+        <v>609</v>
       </c>
       <c r="K1388" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1388" s="1" t="s">
-        <v>4528</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1389" s="1" t="s">
-        <v>4529</v>
+        <v>4569</v>
       </c>
       <c r="B1389" s="1" t="s">
-        <v>4530</v>
+        <v>4570</v>
       </c>
       <c r="C1389" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1389" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1389" s="1" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="O1389" s="1" t="s">
-        <v>4531</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1390" s="1" t="s">
-        <v>4532</v>
+        <v>4572</v>
       </c>
       <c r="B1390" s="1" t="s">
-        <v>4530</v>
+        <v>4570</v>
       </c>
       <c r="C1390" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1390" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1390" s="1" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="O1390" s="1" t="s">
-        <v>4533</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1391" s="1" t="s">
-        <v>4534</v>
+        <v>4574</v>
       </c>
       <c r="B1391" s="1" t="s">
-        <v>4530</v>
+        <v>4570</v>
       </c>
       <c r="C1391" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1391" s="1" t="s">
-        <v>2</v>
+        <v>1177</v>
       </c>
       <c r="J1391" s="1" t="s">
-        <v>177</v>
+        <v>609</v>
+      </c>
+      <c r="K1391" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1391" s="1" t="s">
-        <v>4535</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1392" s="1" t="s">
-        <v>4548</v>
+        <v>4576</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>4549</v>
+        <v>4570</v>
       </c>
       <c r="C1392" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1392" s="1" t="s">
-        <v>2</v>
+        <v>1177</v>
       </c>
       <c r="J1392" s="1" t="s">
-        <v>177</v>
+        <v>609</v>
+      </c>
+      <c r="K1392" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1392" s="1" t="s">
-        <v>4550</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1393" s="1" t="s">
-        <v>4551</v>
+        <v>4578</v>
       </c>
       <c r="B1393" s="1" t="s">
-        <v>4549</v>
+        <v>4570</v>
       </c>
       <c r="C1393" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1393" s="1" t="s">
-        <v>2</v>
+        <v>1177</v>
       </c>
       <c r="J1393" s="1" t="s">
-        <v>177</v>
+        <v>609</v>
+      </c>
+      <c r="K1393" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1393" s="1" t="s">
-        <v>4552</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1394" s="1" t="s">
-        <v>4553</v>
+        <v>4580</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>4554</v>
+        <v>4570</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1394" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1394" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1394" s="1" t="s">
-        <v>4555</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1395" s="1" t="s">
-        <v>4556</v>
+        <v>4582</v>
       </c>
       <c r="B1395" s="1" t="s">
-        <v>4557</v>
+        <v>4570</v>
       </c>
       <c r="C1395" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1395" s="1" t="s">
-        <v>567</v>
+        <v>1177</v>
       </c>
       <c r="J1395" s="1" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="K1395" s="1" t="s">
-        <v>4078</v>
+        <v>1723</v>
       </c>
       <c r="O1395" s="1" t="s">
-        <v>4558</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1396" s="1" t="s">
-        <v>4564</v>
+        <v>4584</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1396" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1396" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1396" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1396" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="J1396" s="1" t="s">
@@ -61471,26 +61678,20 @@
         <v>1723</v>
       </c>
       <c r="O1396" s="1" t="s">
-        <v>4566</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1397" s="1" t="s">
-        <v>4567</v>
+        <v>4586</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1397" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1397" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1397" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1397" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="J1397" s="1" t="s">
@@ -61500,12 +61701,12 @@
         <v>1723</v>
       </c>
       <c r="O1397" s="1" t="s">
-        <v>4568</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1398" s="1" t="s">
-        <v>4569</v>
+        <v>4588</v>
       </c>
       <c r="B1398" s="1" t="s">
         <v>4570</v>
@@ -61514,18 +61715,21 @@
         <v>348</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1398" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1398" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1398" s="1" t="s">
-        <v>4571</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1399" s="1" t="s">
-        <v>4572</v>
+        <v>4590</v>
       </c>
       <c r="B1399" s="1" t="s">
         <v>4570</v>
@@ -61534,18 +61738,21 @@
         <v>348</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1399" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1399" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1399" s="1" t="s">
-        <v>4573</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1400" s="1" t="s">
-        <v>4574</v>
+        <v>4592</v>
       </c>
       <c r="B1400" s="1" t="s">
         <v>4570</v>
@@ -61563,12 +61770,12 @@
         <v>1723</v>
       </c>
       <c r="O1400" s="1" t="s">
-        <v>4575</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1401" s="1" t="s">
-        <v>4576</v>
+        <v>4594</v>
       </c>
       <c r="B1401" s="1" t="s">
         <v>4570</v>
@@ -61586,12 +61793,12 @@
         <v>1723</v>
       </c>
       <c r="O1401" s="1" t="s">
-        <v>4577</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1402" s="1" t="s">
-        <v>4578</v>
+        <v>4596</v>
       </c>
       <c r="B1402" s="1" t="s">
         <v>4570</v>
@@ -61609,12 +61816,12 @@
         <v>1723</v>
       </c>
       <c r="O1402" s="1" t="s">
-        <v>4579</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1403" s="1" t="s">
-        <v>4580</v>
+        <v>4598</v>
       </c>
       <c r="B1403" s="1" t="s">
         <v>4570</v>
@@ -61632,12 +61839,12 @@
         <v>1723</v>
       </c>
       <c r="O1403" s="1" t="s">
-        <v>4581</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1404" s="1" t="s">
-        <v>4582</v>
+        <v>4600</v>
       </c>
       <c r="B1404" s="1" t="s">
         <v>4570</v>
@@ -61655,12 +61862,12 @@
         <v>1723</v>
       </c>
       <c r="O1404" s="1" t="s">
-        <v>4583</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1405" s="1" t="s">
-        <v>4584</v>
+        <v>4602</v>
       </c>
       <c r="B1405" s="1" t="s">
         <v>4570</v>
@@ -61678,12 +61885,12 @@
         <v>1723</v>
       </c>
       <c r="O1405" s="1" t="s">
-        <v>4585</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1406" s="1" t="s">
-        <v>4586</v>
+        <v>4604</v>
       </c>
       <c r="B1406" s="1" t="s">
         <v>4570</v>
@@ -61701,12 +61908,12 @@
         <v>1723</v>
       </c>
       <c r="O1406" s="1" t="s">
-        <v>4587</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1407" s="1" t="s">
-        <v>4588</v>
+        <v>4606</v>
       </c>
       <c r="B1407" s="1" t="s">
         <v>4570</v>
@@ -61724,12 +61931,12 @@
         <v>1723</v>
       </c>
       <c r="O1407" s="1" t="s">
-        <v>4589</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1408" s="1" t="s">
-        <v>4590</v>
+        <v>4608</v>
       </c>
       <c r="B1408" s="1" t="s">
         <v>4570</v>
@@ -61747,12 +61954,12 @@
         <v>1723</v>
       </c>
       <c r="O1408" s="1" t="s">
-        <v>4591</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
-        <v>4592</v>
+        <v>4610</v>
       </c>
       <c r="B1409" s="1" t="s">
         <v>4570</v>
@@ -61770,12 +61977,12 @@
         <v>1723</v>
       </c>
       <c r="O1409" s="1" t="s">
-        <v>4593</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1410" s="1" t="s">
-        <v>4594</v>
+        <v>4612</v>
       </c>
       <c r="B1410" s="1" t="s">
         <v>4570</v>
@@ -61793,12 +62000,12 @@
         <v>1723</v>
       </c>
       <c r="O1410" s="1" t="s">
-        <v>4595</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1411" s="1" t="s">
-        <v>4596</v>
+        <v>4614</v>
       </c>
       <c r="B1411" s="1" t="s">
         <v>4570</v>
@@ -61806,22 +62013,16 @@
       <c r="C1411" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1411" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="J1411" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1411" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O1411" s="1" t="s">
-        <v>4597</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1412" s="1" t="s">
-        <v>4598</v>
+        <v>4616</v>
       </c>
       <c r="B1412" s="1" t="s">
         <v>4570</v>
@@ -61839,308 +62040,287 @@
         <v>1723</v>
       </c>
       <c r="O1412" s="1" t="s">
-        <v>4599</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1413" s="1" t="s">
-        <v>4600</v>
+        <v>4618</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1413" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1413" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1413" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1413" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1413" s="1" t="s">
-        <v>4601</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1414" s="1" t="s">
-        <v>4602</v>
+        <v>4621</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1414" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1414" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1414" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1414" s="1" t="s">
-        <v>4603</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1415" s="1" t="s">
-        <v>4604</v>
+        <v>4623</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1415" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1415" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1415" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1415" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1415" s="1" t="s">
-        <v>4605</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1416" s="1" t="s">
-        <v>4606</v>
+        <v>4625</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1416" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1416" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1416" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1416" s="1" t="s">
-        <v>4607</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1417" s="1" t="s">
-        <v>4608</v>
+        <v>4627</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>4570</v>
+        <v>4628</v>
       </c>
       <c r="C1417" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1417" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1417" s="1" t="s">
-        <v>1723</v>
+        <v>4629</v>
       </c>
       <c r="O1417" s="1" t="s">
-        <v>4609</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1418" s="1" t="s">
-        <v>4610</v>
+        <v>4631</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>4570</v>
+        <v>4628</v>
       </c>
       <c r="C1418" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1418" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1418" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1418" s="1" t="s">
-        <v>1723</v>
+        <v>4629</v>
       </c>
       <c r="O1418" s="1" t="s">
-        <v>4611</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1419" s="1" t="s">
-        <v>4612</v>
+        <v>4638</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>4570</v>
+        <v>4639</v>
       </c>
       <c r="C1419" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1419" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1419" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1419" s="1" t="s">
-        <v>1723</v>
+        <v>1640</v>
       </c>
       <c r="O1419" s="1" t="s">
-        <v>4613</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1420" s="1" t="s">
-        <v>4614</v>
+        <v>4641</v>
       </c>
       <c r="B1420" s="1" t="s">
-        <v>4570</v>
+        <v>4639</v>
       </c>
       <c r="C1420" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1420" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1420" s="1" t="s">
-        <v>1925</v>
+        <v>1640</v>
       </c>
       <c r="O1420" s="1" t="s">
-        <v>4615</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1421" s="1" t="s">
-        <v>4616</v>
+        <v>4643</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>4570</v>
+        <v>4639</v>
       </c>
       <c r="C1421" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1421" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1421" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1421" s="1" t="s">
-        <v>1723</v>
+        <v>1640</v>
       </c>
       <c r="O1421" s="1" t="s">
-        <v>4617</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1422" s="1" t="s">
-        <v>4618</v>
+        <v>4645</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>4619</v>
+        <v>4639</v>
       </c>
       <c r="C1422" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1422" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1422" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1422" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O1422" s="1" t="s">
-        <v>4620</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
-        <v>4621</v>
+        <v>4647</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>4619</v>
+        <v>4639</v>
       </c>
       <c r="C1423" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1423" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1423" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1423" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O1423" s="1" t="s">
-        <v>4622</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
-        <v>4623</v>
+        <v>4649</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>4619</v>
+        <v>4639</v>
       </c>
       <c r="C1424" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1424" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1424" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O1424" s="1" t="s">
-        <v>4624</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
-        <v>4625</v>
+        <v>4651</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>4619</v>
+        <v>4639</v>
       </c>
       <c r="C1425" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1425" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1425" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1425" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O1425" s="1" t="s">
-        <v>4626</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1426" s="1" t="s">
-        <v>4627</v>
+        <v>4653</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1426" s="1" t="s">
         <v>348</v>
@@ -62149,18 +62329,18 @@
         <v>158</v>
       </c>
       <c r="J1426" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1426" s="1" t="s">
-        <v>4630</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1427" s="1" t="s">
-        <v>4631</v>
+        <v>4655</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1427" s="1" t="s">
         <v>348</v>
@@ -62169,15 +62349,15 @@
         <v>158</v>
       </c>
       <c r="J1427" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1427" s="1" t="s">
-        <v>4632</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1428" s="1" t="s">
-        <v>4638</v>
+        <v>4657</v>
       </c>
       <c r="B1428" s="1" t="s">
         <v>4639</v>
@@ -62192,12 +62372,12 @@
         <v>1640</v>
       </c>
       <c r="O1428" s="1" t="s">
-        <v>4640</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1429" s="1" t="s">
-        <v>4641</v>
+        <v>4659</v>
       </c>
       <c r="B1429" s="1" t="s">
         <v>4639</v>
@@ -62212,12 +62392,12 @@
         <v>1640</v>
       </c>
       <c r="O1429" s="1" t="s">
-        <v>4642</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1430" s="1" t="s">
-        <v>4643</v>
+        <v>4661</v>
       </c>
       <c r="B1430" s="1" t="s">
         <v>4639</v>
@@ -62232,18 +62412,18 @@
         <v>1640</v>
       </c>
       <c r="O1430" s="1" t="s">
-        <v>4644</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1431" s="1" t="s">
-        <v>4645</v>
+        <v>4663</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1431" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1431" s="1" t="s">
         <v>158</v>
@@ -62252,18 +62432,18 @@
         <v>1640</v>
       </c>
       <c r="O1431" s="1" t="s">
-        <v>4646</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
-        <v>4647</v>
+        <v>4666</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1432" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1432" s="1" t="s">
         <v>158</v>
@@ -62272,369 +62452,372 @@
         <v>1640</v>
       </c>
       <c r="O1432" s="1" t="s">
-        <v>4648</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1433" s="1" t="s">
-        <v>4649</v>
+        <v>4704</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>4639</v>
+        <v>4705</v>
       </c>
       <c r="C1433" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1433" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1433" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1433" s="1" t="s">
-        <v>4650</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
-        <v>4651</v>
+        <v>4707</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>4639</v>
+        <v>4705</v>
       </c>
       <c r="C1434" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1434" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1434" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1434" s="1" t="s">
-        <v>4652</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1435" s="1" t="s">
-        <v>4653</v>
+        <v>4709</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>4639</v>
+        <v>4710</v>
       </c>
       <c r="C1435" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1435" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J1435" s="1" t="s">
-        <v>1640</v>
+        <v>383</v>
+      </c>
+      <c r="K1435" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1435" s="1" t="s">
-        <v>4654</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1436" s="1" t="s">
-        <v>4655</v>
+        <v>4712</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>4639</v>
+        <v>4713</v>
       </c>
       <c r="C1436" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1436" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1436" s="1" t="s">
-        <v>1640</v>
+        <v>383</v>
+      </c>
+      <c r="K1436" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O1436" s="1" t="s">
-        <v>4656</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1437" s="1" t="s">
-        <v>4657</v>
+        <v>4715</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>4639</v>
+        <v>4710</v>
       </c>
       <c r="C1437" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1437" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1437" s="1" t="s">
-        <v>1640</v>
+        <v>1925</v>
       </c>
       <c r="O1437" s="1" t="s">
-        <v>4658</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1438" s="1" t="s">
-        <v>4659</v>
+        <v>4717</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>4639</v>
+        <v>4718</v>
       </c>
       <c r="C1438" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1438" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1438" s="1" t="s">
-        <v>1640</v>
+        <v>177</v>
+      </c>
+      <c r="K1438" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1438" s="1" t="s">
-        <v>4660</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1439" s="1" t="s">
-        <v>4661</v>
+        <v>4720</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>4639</v>
+        <v>4718</v>
       </c>
       <c r="C1439" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1439" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1439" s="1" t="s">
-        <v>1640</v>
+        <v>177</v>
+      </c>
+      <c r="K1439" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1439" s="1" t="s">
-        <v>4662</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
-        <v>4663</v>
+        <v>4722</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>4664</v>
+        <v>4718</v>
       </c>
       <c r="C1440" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D1440" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="J1440" s="1" t="s">
-        <v>1640</v>
+        <v>1723</v>
       </c>
       <c r="O1440" s="1" t="s">
-        <v>4665</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
-        <v>4666</v>
+        <v>4724</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>4664</v>
+        <v>4718</v>
       </c>
       <c r="C1441" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D1441" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="J1441" s="1" t="s">
-        <v>1640</v>
+        <v>1723</v>
       </c>
       <c r="O1441" s="1" t="s">
-        <v>4667</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
-        <v>4704</v>
+        <v>4735</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>4705</v>
+        <v>4736</v>
       </c>
       <c r="C1442" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1442" s="1" t="s">
-        <v>2</v>
+        <v>4737</v>
       </c>
       <c r="J1442" s="1" t="s">
-        <v>62</v>
+        <v>364</v>
+      </c>
+      <c r="K1442" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O1442" s="1" t="s">
-        <v>4706</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
-        <v>4707</v>
+        <v>4739</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>4705</v>
+        <v>4736</v>
       </c>
       <c r="C1443" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1443" s="1" t="s">
-        <v>2</v>
+        <v>4737</v>
       </c>
       <c r="J1443" s="1" t="s">
-        <v>62</v>
+        <v>364</v>
+      </c>
+      <c r="K1443" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O1443" s="1" t="s">
-        <v>4708</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
-        <v>4709</v>
+        <v>4741</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>4710</v>
+        <v>4736</v>
       </c>
       <c r="C1444" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1444" s="1" t="s">
-        <v>567</v>
+        <v>4737</v>
       </c>
       <c r="J1444" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1444" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1444" s="1" t="s">
-        <v>4711</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
-        <v>4712</v>
+        <v>4743</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>4713</v>
+        <v>4736</v>
       </c>
       <c r="C1445" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1445" s="1" t="s">
-        <v>2</v>
+        <v>4737</v>
       </c>
       <c r="J1445" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1445" s="1" t="s">
-        <v>1534</v>
+        <v>85</v>
       </c>
       <c r="O1445" s="1" t="s">
-        <v>4714</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
-        <v>4715</v>
+        <v>4745</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>4710</v>
+        <v>4736</v>
       </c>
       <c r="C1446" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1446" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1446" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1446" s="1" t="s">
-        <v>4716</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
-        <v>4717</v>
+        <v>4747</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1447" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1447" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1447" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1447" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1447" s="1" t="s">
-        <v>4719</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
-        <v>4720</v>
+        <v>4749</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1448" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1448" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1448" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1448" s="1" t="s">
-        <v>4721</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
-        <v>4722</v>
+        <v>4751</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1449" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1449" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1449" s="1" t="s">
-        <v>1723</v>
+        <v>85</v>
       </c>
       <c r="O1449" s="1" t="s">
-        <v>4723</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
-        <v>4724</v>
+        <v>4753</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1450" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1450" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1450" s="1" t="s">
-        <v>1723</v>
+        <v>85</v>
       </c>
       <c r="O1450" s="1" t="s">
-        <v>4725</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
-        <v>4735</v>
+        <v>4755</v>
       </c>
       <c r="B1451" s="1" t="s">
         <v>4736</v>
@@ -62642,22 +62825,16 @@
       <c r="C1451" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1451" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1451" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1451" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1451" s="1" t="s">
-        <v>4738</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1452" s="1" t="s">
-        <v>4739</v>
+        <v>4757</v>
       </c>
       <c r="B1452" s="1" t="s">
         <v>4736</v>
@@ -62665,22 +62842,16 @@
       <c r="C1452" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1452" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1452" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1452" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1452" s="1" t="s">
-        <v>4740</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1453" s="1" t="s">
-        <v>4741</v>
+        <v>4759</v>
       </c>
       <c r="B1453" s="1" t="s">
         <v>4736</v>
@@ -62688,190 +62859,202 @@
       <c r="C1453" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1453" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1453" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1453" s="1" t="s">
-        <v>4742</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
-        <v>4743</v>
+        <v>4761</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>4736</v>
+        <v>4762</v>
       </c>
       <c r="C1454" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1454" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1454" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1454" s="1" t="s">
-        <v>4744</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
-        <v>4745</v>
+        <v>4764</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>4736</v>
+        <v>4765</v>
       </c>
       <c r="C1455" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1455" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1455" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1455" s="1" t="s">
-        <v>4746</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
-        <v>4747</v>
+        <v>4767</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>4736</v>
+        <v>4768</v>
       </c>
       <c r="C1456" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1456" s="1" t="s">
-        <v>4737</v>
+        <v>1340</v>
       </c>
       <c r="J1456" s="1" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="O1456" s="1" t="s">
-        <v>4748</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
-        <v>4749</v>
+        <v>4770</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>4736</v>
+        <v>4771</v>
       </c>
       <c r="C1457" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1457" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="K1457" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1457" s="1" t="s">
-        <v>4750</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
-        <v>4751</v>
+        <v>4773</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>4736</v>
+        <v>4771</v>
       </c>
       <c r="C1458" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1458" s="1" t="s">
-        <v>4737</v>
+        <v>2</v>
       </c>
       <c r="J1458" s="1" t="s">
-        <v>85</v>
+        <v>4774</v>
+      </c>
+      <c r="K1458" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1458" s="1" t="s">
-        <v>4752</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
-        <v>4753</v>
+        <v>4776</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>4736</v>
+        <v>4771</v>
       </c>
       <c r="C1459" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1459" s="1" t="s">
-        <v>4737</v>
+        <v>2</v>
       </c>
       <c r="J1459" s="1" t="s">
-        <v>85</v>
+        <v>4774</v>
+      </c>
+      <c r="K1459" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1459" s="1" t="s">
-        <v>4754</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
-        <v>4755</v>
+        <v>4781</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>4736</v>
+        <v>4782</v>
       </c>
       <c r="C1460" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1460" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1460" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1460" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1460" s="1" t="s">
-        <v>85</v>
+        <v>609</v>
+      </c>
+      <c r="K1460" s="1" t="s">
+        <v>4783</v>
       </c>
       <c r="O1460" s="1" t="s">
-        <v>4756</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1461" s="1" t="s">
-        <v>4757</v>
+        <v>4810</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>4736</v>
+        <v>4811</v>
       </c>
       <c r="C1461" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1461" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1461" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1461" s="1" t="s">
-        <v>4758</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
-        <v>4759</v>
+        <v>4824</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>4736</v>
+        <v>4825</v>
       </c>
       <c r="C1462" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1462" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1462" s="1" t="s">
-        <v>4760</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
-        <v>4761</v>
+        <v>4827</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>4762</v>
+        <v>4825</v>
       </c>
       <c r="C1463" s="1" t="s">
         <v>348</v>
@@ -62880,417 +63063,411 @@
         <v>1925</v>
       </c>
       <c r="O1463" s="1" t="s">
-        <v>4763</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
-        <v>4764</v>
+        <v>4854</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>4765</v>
+        <v>4855</v>
       </c>
       <c r="C1464" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D1464" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1464" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1464" s="1" t="s">
-        <v>4766</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="1465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
-        <v>4767</v>
+        <v>4857</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>4768</v>
+        <v>4858</v>
       </c>
       <c r="C1465" s="1" t="s">
-        <v>1340</v>
+        <v>2</v>
       </c>
       <c r="J1465" s="1" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="O1465" s="1" t="s">
-        <v>4769</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>4770</v>
+        <v>4860</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>4771</v>
+        <v>4858</v>
       </c>
       <c r="C1466" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J1466" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1466" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1466" s="1" t="s">
-        <v>4772</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
-        <v>4773</v>
+        <v>4862</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>4771</v>
+        <v>4863</v>
       </c>
       <c r="C1467" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1467" s="1" t="s">
-        <v>2</v>
+        <v>1266</v>
       </c>
       <c r="J1467" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K1467" s="1" t="s">
-        <v>1925</v>
+        <v>62</v>
       </c>
       <c r="O1467" s="1" t="s">
-        <v>4775</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="1468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1468" s="1" t="s">
-        <v>4776</v>
+        <v>4865</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>4771</v>
+        <v>4863</v>
       </c>
       <c r="C1468" s="1" t="s">
-        <v>348</v>
+        <v>446</v>
       </c>
       <c r="D1468" s="1" t="s">
-        <v>2</v>
+        <v>1266</v>
       </c>
       <c r="J1468" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K1468" s="1" t="s">
-        <v>1925</v>
+        <v>62</v>
       </c>
       <c r="O1468" s="1" t="s">
-        <v>4777</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="1469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>4781</v>
+        <v>4870</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>4782</v>
+        <v>4871</v>
       </c>
       <c r="C1469" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1469" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1469" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1469" s="1" t="s">
-        <v>158</v>
+        <v>521</v>
       </c>
       <c r="J1469" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1469" s="1" t="s">
-        <v>4783</v>
+        <v>3704</v>
       </c>
       <c r="O1469" s="1" t="s">
-        <v>4784</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
-        <v>4810</v>
+        <v>4873</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>4811</v>
+        <v>4874</v>
       </c>
       <c r="C1470" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1470" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1470" s="1" t="s">
-        <v>1925</v>
+        <v>521</v>
       </c>
       <c r="O1470" s="1" t="s">
-        <v>4812</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
-        <v>4824</v>
+        <v>4876</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>4825</v>
+        <v>4874</v>
       </c>
       <c r="C1471" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1471" s="1" t="s">
-        <v>1925</v>
+        <v>521</v>
       </c>
       <c r="O1471" s="1" t="s">
-        <v>4826</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>4827</v>
+        <v>4878</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>4825</v>
+        <v>4879</v>
       </c>
       <c r="C1472" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1472" s="1" t="s">
-        <v>1925</v>
+        <v>395</v>
       </c>
       <c r="O1472" s="1" t="s">
-        <v>4828</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
-        <v>4854</v>
+        <v>4881</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>4855</v>
+        <v>4882</v>
       </c>
       <c r="C1473" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1473" s="1" t="s">
-        <v>158</v>
+        <v>4294</v>
+      </c>
+      <c r="E1473" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1473" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J1473" s="1" t="s">
-        <v>177</v>
+        <v>359</v>
+      </c>
+      <c r="K1473" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O1473" s="1" t="s">
-        <v>4856</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
-        <v>4857</v>
+        <v>4902</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>4858</v>
+        <v>4903</v>
       </c>
       <c r="C1474" s="1" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="J1474" s="1" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="O1474" s="1" t="s">
-        <v>4859</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
-        <v>4860</v>
+        <v>4907</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>4858</v>
+        <v>4908</v>
       </c>
       <c r="C1475" s="1" t="s">
-        <v>2</v>
+        <v>4909</v>
+      </c>
+      <c r="D1475" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="J1475" s="1" t="s">
-        <v>177</v>
+        <v>2678</v>
       </c>
       <c r="O1475" s="1" t="s">
-        <v>4861</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="1476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>4862</v>
+        <v>4911</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>4863</v>
+        <v>4912</v>
       </c>
       <c r="C1476" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1476" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J1476" s="1" t="s">
-        <v>62</v>
+        <v>1493</v>
       </c>
       <c r="O1476" s="1" t="s">
-        <v>4864</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>4865</v>
+        <v>4914</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>4863</v>
+        <v>4915</v>
       </c>
       <c r="C1477" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D1477" s="1" t="s">
-        <v>1266</v>
-      </c>
       <c r="J1477" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O1477" s="1" t="s">
-        <v>4866</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
-        <v>4870</v>
+        <v>4937</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>4871</v>
+        <v>4938</v>
       </c>
       <c r="C1478" s="1" t="s">
-        <v>521</v>
+        <v>348</v>
+      </c>
+      <c r="D1478" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1478" s="1" t="s">
-        <v>3704</v>
+        <v>1640</v>
       </c>
       <c r="O1478" s="1" t="s">
-        <v>4872</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="1479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
-        <v>4873</v>
+        <v>4940</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>4874</v>
+        <v>4938</v>
       </c>
       <c r="C1479" s="1" t="s">
-        <v>521</v>
+        <v>348</v>
+      </c>
+      <c r="D1479" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1479" s="1" t="s">
+        <v>1640</v>
       </c>
       <c r="O1479" s="1" t="s">
-        <v>4875</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>4876</v>
+        <v>4942</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>4874</v>
+        <v>4938</v>
       </c>
       <c r="C1480" s="1" t="s">
-        <v>521</v>
+        <v>348</v>
+      </c>
+      <c r="D1480" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1480" s="1" t="s">
+        <v>1640</v>
       </c>
       <c r="O1480" s="1" t="s">
-        <v>4877</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="1481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>4878</v>
+        <v>4944</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>4879</v>
+        <v>4938</v>
       </c>
       <c r="C1481" s="1" t="s">
-        <v>395</v>
+        <v>348</v>
+      </c>
+      <c r="D1481" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1481" s="1" t="s">
+        <v>1640</v>
       </c>
       <c r="O1481" s="1" t="s">
-        <v>4880</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
-        <v>4881</v>
+        <v>4946</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>4882</v>
+        <v>4938</v>
       </c>
       <c r="C1482" s="1" t="s">
-        <v>4294</v>
+        <v>348</v>
       </c>
       <c r="D1482" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="E1482" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F1482" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J1482" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1482" s="1" t="s">
-        <v>609</v>
+        <v>1640</v>
       </c>
       <c r="O1482" s="1" t="s">
-        <v>4883</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>4902</v>
+        <v>4948</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>4903</v>
+        <v>4938</v>
       </c>
       <c r="C1483" s="1" t="s">
-        <v>395</v>
+        <v>348</v>
+      </c>
+      <c r="D1483" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1483" s="1" t="s">
-        <v>447</v>
+        <v>1640</v>
       </c>
       <c r="O1483" s="1" t="s">
-        <v>4904</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>4907</v>
+        <v>4950</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>4908</v>
+        <v>4938</v>
       </c>
       <c r="C1484" s="1" t="s">
-        <v>4909</v>
+        <v>348</v>
       </c>
       <c r="D1484" s="1" t="s">
-        <v>806</v>
+        <v>158</v>
       </c>
       <c r="J1484" s="1" t="s">
-        <v>2678</v>
+        <v>1640</v>
       </c>
       <c r="O1484" s="1" t="s">
-        <v>4910</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>4911</v>
+        <v>4952</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>4912</v>
+        <v>4938</v>
       </c>
       <c r="C1485" s="1" t="s">
         <v>348</v>
@@ -63299,32 +63476,35 @@
         <v>158</v>
       </c>
       <c r="J1485" s="1" t="s">
-        <v>1493</v>
+        <v>1640</v>
       </c>
       <c r="O1485" s="1" t="s">
-        <v>4913</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>4914</v>
+        <v>4954</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>4915</v>
+        <v>4938</v>
       </c>
       <c r="C1486" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1486" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1486" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O1486" s="1" t="s">
-        <v>4916</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>4937</v>
+        <v>4956</v>
       </c>
       <c r="B1487" s="1" t="s">
         <v>4938</v>
@@ -63339,12 +63519,12 @@
         <v>1640</v>
       </c>
       <c r="O1487" s="1" t="s">
-        <v>4939</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>4940</v>
+        <v>4958</v>
       </c>
       <c r="B1488" s="1" t="s">
         <v>4938</v>
@@ -63359,12 +63539,12 @@
         <v>1640</v>
       </c>
       <c r="O1488" s="1" t="s">
-        <v>4941</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>4942</v>
+        <v>4960</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>4938</v>
@@ -63379,12 +63559,12 @@
         <v>1640</v>
       </c>
       <c r="O1489" s="1" t="s">
-        <v>4943</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>4944</v>
+        <v>4962</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>4938</v>
@@ -63399,12 +63579,12 @@
         <v>1640</v>
       </c>
       <c r="O1490" s="1" t="s">
-        <v>4945</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>4946</v>
+        <v>4964</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4938</v>
@@ -63419,12 +63599,12 @@
         <v>1640</v>
       </c>
       <c r="O1491" s="1" t="s">
-        <v>4947</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>4948</v>
+        <v>4966</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>4938</v>
@@ -63439,12 +63619,12 @@
         <v>1640</v>
       </c>
       <c r="O1492" s="1" t="s">
-        <v>4949</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>4950</v>
+        <v>4968</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>4938</v>
@@ -63459,12 +63639,12 @@
         <v>1640</v>
       </c>
       <c r="O1493" s="1" t="s">
-        <v>4951</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>4952</v>
+        <v>4970</v>
       </c>
       <c r="B1494" s="1" t="s">
         <v>4938</v>
@@ -63479,12 +63659,12 @@
         <v>1640</v>
       </c>
       <c r="O1494" s="1" t="s">
-        <v>4953</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>4954</v>
+        <v>4972</v>
       </c>
       <c r="B1495" s="1" t="s">
         <v>4938</v>
@@ -63499,12 +63679,12 @@
         <v>1640</v>
       </c>
       <c r="O1495" s="1" t="s">
-        <v>4955</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>4956</v>
+        <v>4974</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>4938</v>
@@ -63519,12 +63699,12 @@
         <v>1640</v>
       </c>
       <c r="O1496" s="1" t="s">
-        <v>4957</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>4958</v>
+        <v>4976</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>4938</v>
@@ -63539,12 +63719,12 @@
         <v>1640</v>
       </c>
       <c r="O1497" s="1" t="s">
-        <v>4959</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>4960</v>
+        <v>4978</v>
       </c>
       <c r="B1498" s="1" t="s">
         <v>4938</v>
@@ -63559,12 +63739,12 @@
         <v>1640</v>
       </c>
       <c r="O1498" s="1" t="s">
-        <v>4961</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>4962</v>
+        <v>4980</v>
       </c>
       <c r="B1499" s="1" t="s">
         <v>4938</v>
@@ -63579,12 +63759,12 @@
         <v>1640</v>
       </c>
       <c r="O1499" s="1" t="s">
-        <v>4963</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>4964</v>
+        <v>4982</v>
       </c>
       <c r="B1500" s="1" t="s">
         <v>4938</v>
@@ -63599,12 +63779,12 @@
         <v>1640</v>
       </c>
       <c r="O1500" s="1" t="s">
-        <v>4965</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>4966</v>
+        <v>4984</v>
       </c>
       <c r="B1501" s="1" t="s">
         <v>4938</v>
@@ -63619,12 +63799,12 @@
         <v>1640</v>
       </c>
       <c r="O1501" s="1" t="s">
-        <v>4967</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>4968</v>
+        <v>4986</v>
       </c>
       <c r="B1502" s="1" t="s">
         <v>4938</v>
@@ -63639,12 +63819,12 @@
         <v>1640</v>
       </c>
       <c r="O1502" s="1" t="s">
-        <v>4969</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
-        <v>4970</v>
+        <v>4988</v>
       </c>
       <c r="B1503" s="1" t="s">
         <v>4938</v>
@@ -63659,12 +63839,12 @@
         <v>1640</v>
       </c>
       <c r="O1503" s="1" t="s">
-        <v>4971</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
-        <v>4972</v>
+        <v>4990</v>
       </c>
       <c r="B1504" s="1" t="s">
         <v>4938</v>
@@ -63679,12 +63859,12 @@
         <v>1640</v>
       </c>
       <c r="O1504" s="1" t="s">
-        <v>4973</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>4974</v>
+        <v>4992</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>4938</v>
@@ -63699,12 +63879,12 @@
         <v>1640</v>
       </c>
       <c r="O1505" s="1" t="s">
-        <v>4975</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>4976</v>
+        <v>4994</v>
       </c>
       <c r="B1506" s="1" t="s">
         <v>4938</v>
@@ -63719,12 +63899,12 @@
         <v>1640</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>4977</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>4978</v>
+        <v>4996</v>
       </c>
       <c r="B1507" s="1" t="s">
         <v>4938</v>
@@ -63739,12 +63919,12 @@
         <v>1640</v>
       </c>
       <c r="O1507" s="1" t="s">
-        <v>4979</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>4980</v>
+        <v>4998</v>
       </c>
       <c r="B1508" s="1" t="s">
         <v>4938</v>
@@ -63759,12 +63939,12 @@
         <v>1640</v>
       </c>
       <c r="O1508" s="1" t="s">
-        <v>4981</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>4982</v>
+        <v>5000</v>
       </c>
       <c r="B1509" s="1" t="s">
         <v>4938</v>
@@ -63779,12 +63959,12 @@
         <v>1640</v>
       </c>
       <c r="O1509" s="1" t="s">
-        <v>4983</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>4984</v>
+        <v>5002</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4938</v>
@@ -63799,12 +63979,12 @@
         <v>1640</v>
       </c>
       <c r="O1510" s="1" t="s">
-        <v>4985</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>4986</v>
+        <v>5004</v>
       </c>
       <c r="B1511" s="1" t="s">
         <v>4938</v>
@@ -63819,12 +63999,12 @@
         <v>1640</v>
       </c>
       <c r="O1511" s="1" t="s">
-        <v>4987</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>4988</v>
+        <v>5006</v>
       </c>
       <c r="B1512" s="1" t="s">
         <v>4938</v>
@@ -63839,12 +64019,12 @@
         <v>1640</v>
       </c>
       <c r="O1512" s="1" t="s">
-        <v>4989</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>4990</v>
+        <v>5008</v>
       </c>
       <c r="B1513" s="1" t="s">
         <v>4938</v>
@@ -63859,12 +64039,12 @@
         <v>1640</v>
       </c>
       <c r="O1513" s="1" t="s">
-        <v>4991</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>4992</v>
+        <v>5010</v>
       </c>
       <c r="B1514" s="1" t="s">
         <v>4938</v>
@@ -63879,12 +64059,12 @@
         <v>1640</v>
       </c>
       <c r="O1514" s="1" t="s">
-        <v>4993</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>4994</v>
+        <v>5012</v>
       </c>
       <c r="B1515" s="1" t="s">
         <v>4938</v>
@@ -63899,12 +64079,12 @@
         <v>1640</v>
       </c>
       <c r="O1515" s="1" t="s">
-        <v>4995</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>4996</v>
+        <v>5014</v>
       </c>
       <c r="B1516" s="1" t="s">
         <v>4938</v>
@@ -63919,12 +64099,12 @@
         <v>1640</v>
       </c>
       <c r="O1516" s="1" t="s">
-        <v>4997</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>4998</v>
+        <v>5016</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4938</v>
@@ -63939,12 +64119,12 @@
         <v>1640</v>
       </c>
       <c r="O1517" s="1" t="s">
-        <v>4999</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>5000</v>
+        <v>5018</v>
       </c>
       <c r="B1518" s="1" t="s">
         <v>4938</v>
@@ -63959,12 +64139,12 @@
         <v>1640</v>
       </c>
       <c r="O1518" s="1" t="s">
-        <v>5001</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>5002</v>
+        <v>5020</v>
       </c>
       <c r="B1519" s="1" t="s">
         <v>4938</v>
@@ -63979,12 +64159,12 @@
         <v>1640</v>
       </c>
       <c r="O1519" s="1" t="s">
-        <v>5003</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>5004</v>
+        <v>5022</v>
       </c>
       <c r="B1520" s="1" t="s">
         <v>4938</v>
@@ -63999,12 +64179,12 @@
         <v>1640</v>
       </c>
       <c r="O1520" s="1" t="s">
-        <v>5005</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>5006</v>
+        <v>5024</v>
       </c>
       <c r="B1521" s="1" t="s">
         <v>4938</v>
@@ -64019,12 +64199,12 @@
         <v>1640</v>
       </c>
       <c r="O1521" s="1" t="s">
-        <v>5007</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>5008</v>
+        <v>5026</v>
       </c>
       <c r="B1522" s="1" t="s">
         <v>4938</v>
@@ -64039,12 +64219,12 @@
         <v>1640</v>
       </c>
       <c r="O1522" s="1" t="s">
-        <v>5009</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>5010</v>
+        <v>5028</v>
       </c>
       <c r="B1523" s="1" t="s">
         <v>4938</v>
@@ -64059,12 +64239,12 @@
         <v>1640</v>
       </c>
       <c r="O1523" s="1" t="s">
-        <v>5011</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>5012</v>
+        <v>5030</v>
       </c>
       <c r="B1524" s="1" t="s">
         <v>4938</v>
@@ -64079,12 +64259,12 @@
         <v>1640</v>
       </c>
       <c r="O1524" s="1" t="s">
-        <v>5013</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>5014</v>
+        <v>5032</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>4938</v>
@@ -64099,12 +64279,12 @@
         <v>1640</v>
       </c>
       <c r="O1525" s="1" t="s">
-        <v>5015</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>5016</v>
+        <v>5034</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>4938</v>
@@ -64119,12 +64299,12 @@
         <v>1640</v>
       </c>
       <c r="O1526" s="1" t="s">
-        <v>5017</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>5018</v>
+        <v>5036</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>4938</v>
@@ -64139,12 +64319,12 @@
         <v>1640</v>
       </c>
       <c r="O1527" s="1" t="s">
-        <v>5019</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>5020</v>
+        <v>5038</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>4938</v>
@@ -64159,12 +64339,12 @@
         <v>1640</v>
       </c>
       <c r="O1528" s="1" t="s">
-        <v>5021</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>5022</v>
+        <v>5040</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>4938</v>
@@ -64179,12 +64359,12 @@
         <v>1640</v>
       </c>
       <c r="O1529" s="1" t="s">
-        <v>5023</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>5024</v>
+        <v>5042</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>4938</v>
@@ -64199,12 +64379,12 @@
         <v>1640</v>
       </c>
       <c r="O1530" s="1" t="s">
-        <v>5025</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>5026</v>
+        <v>5044</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>4938</v>
@@ -64219,12 +64399,12 @@
         <v>1640</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>5027</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>5028</v>
+        <v>5046</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>4938</v>
@@ -64239,12 +64419,12 @@
         <v>1640</v>
       </c>
       <c r="O1532" s="1" t="s">
-        <v>5029</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>5030</v>
+        <v>5048</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>4938</v>
@@ -64259,12 +64439,12 @@
         <v>1640</v>
       </c>
       <c r="O1533" s="1" t="s">
-        <v>5031</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>5032</v>
+        <v>5050</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>4938</v>
@@ -64279,12 +64459,12 @@
         <v>1640</v>
       </c>
       <c r="O1534" s="1" t="s">
-        <v>5033</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>5034</v>
+        <v>5052</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>4938</v>
@@ -64299,12 +64479,12 @@
         <v>1640</v>
       </c>
       <c r="O1535" s="1" t="s">
-        <v>5035</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>5036</v>
+        <v>5054</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>4938</v>
@@ -64319,12 +64499,12 @@
         <v>1640</v>
       </c>
       <c r="O1536" s="1" t="s">
-        <v>5037</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>5038</v>
+        <v>5056</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>4938</v>
@@ -64339,12 +64519,12 @@
         <v>1640</v>
       </c>
       <c r="O1537" s="1" t="s">
-        <v>5039</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>5040</v>
+        <v>5058</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>4938</v>
@@ -64359,12 +64539,12 @@
         <v>1640</v>
       </c>
       <c r="O1538" s="1" t="s">
-        <v>5041</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>5042</v>
+        <v>5060</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>4938</v>
@@ -64379,12 +64559,12 @@
         <v>1640</v>
       </c>
       <c r="O1539" s="1" t="s">
-        <v>5043</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>5044</v>
+        <v>5062</v>
       </c>
       <c r="B1540" s="1" t="s">
         <v>4938</v>
@@ -64399,12 +64579,12 @@
         <v>1640</v>
       </c>
       <c r="O1540" s="1" t="s">
-        <v>5045</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>5046</v>
+        <v>5064</v>
       </c>
       <c r="B1541" s="1" t="s">
         <v>4938</v>
@@ -64419,12 +64599,12 @@
         <v>1640</v>
       </c>
       <c r="O1541" s="1" t="s">
-        <v>5047</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>5048</v>
+        <v>5066</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4938</v>
@@ -64439,12 +64619,12 @@
         <v>1640</v>
       </c>
       <c r="O1542" s="1" t="s">
-        <v>5049</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>5050</v>
+        <v>5068</v>
       </c>
       <c r="B1543" s="1" t="s">
         <v>4938</v>
@@ -64459,12 +64639,12 @@
         <v>1640</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>5051</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>5052</v>
+        <v>5070</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>4938</v>
@@ -64479,12 +64659,12 @@
         <v>1640</v>
       </c>
       <c r="O1544" s="1" t="s">
-        <v>5053</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>5054</v>
+        <v>5072</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>4938</v>
@@ -64499,12 +64679,12 @@
         <v>1640</v>
       </c>
       <c r="O1545" s="1" t="s">
-        <v>5055</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>5056</v>
+        <v>5074</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>4938</v>
@@ -64519,12 +64699,12 @@
         <v>1640</v>
       </c>
       <c r="O1546" s="1" t="s">
-        <v>5057</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>5058</v>
+        <v>5076</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>4938</v>
@@ -64539,12 +64719,12 @@
         <v>1640</v>
       </c>
       <c r="O1547" s="1" t="s">
-        <v>5059</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>5060</v>
+        <v>5078</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>4938</v>
@@ -64559,12 +64739,12 @@
         <v>1640</v>
       </c>
       <c r="O1548" s="1" t="s">
-        <v>5061</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>5062</v>
+        <v>5080</v>
       </c>
       <c r="B1549" s="1" t="s">
         <v>4938</v>
@@ -64579,12 +64759,12 @@
         <v>1640</v>
       </c>
       <c r="O1549" s="1" t="s">
-        <v>5063</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>5064</v>
+        <v>5082</v>
       </c>
       <c r="B1550" s="1" t="s">
         <v>4938</v>
@@ -64599,12 +64779,12 @@
         <v>1640</v>
       </c>
       <c r="O1550" s="1" t="s">
-        <v>5065</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>5066</v>
+        <v>5084</v>
       </c>
       <c r="B1551" s="1" t="s">
         <v>4938</v>
@@ -64619,12 +64799,12 @@
         <v>1640</v>
       </c>
       <c r="O1551" s="1" t="s">
-        <v>5067</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>5068</v>
+        <v>5086</v>
       </c>
       <c r="B1552" s="1" t="s">
         <v>4938</v>
@@ -64639,12 +64819,12 @@
         <v>1640</v>
       </c>
       <c r="O1552" s="1" t="s">
-        <v>5069</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>5070</v>
+        <v>5088</v>
       </c>
       <c r="B1553" s="1" t="s">
         <v>4938</v>
@@ -64659,12 +64839,12 @@
         <v>1640</v>
       </c>
       <c r="O1553" s="1" t="s">
-        <v>5071</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>5072</v>
+        <v>5090</v>
       </c>
       <c r="B1554" s="1" t="s">
         <v>4938</v>
@@ -64679,12 +64859,12 @@
         <v>1640</v>
       </c>
       <c r="O1554" s="1" t="s">
-        <v>5073</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>5074</v>
+        <v>5092</v>
       </c>
       <c r="B1555" s="1" t="s">
         <v>4938</v>
@@ -64699,12 +64879,12 @@
         <v>1640</v>
       </c>
       <c r="O1555" s="1" t="s">
-        <v>5075</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>5076</v>
+        <v>5094</v>
       </c>
       <c r="B1556" s="1" t="s">
         <v>4938</v>
@@ -64719,12 +64899,12 @@
         <v>1640</v>
       </c>
       <c r="O1556" s="1" t="s">
-        <v>5077</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>5078</v>
+        <v>5096</v>
       </c>
       <c r="B1557" s="1" t="s">
         <v>4938</v>
@@ -64739,12 +64919,12 @@
         <v>1640</v>
       </c>
       <c r="O1557" s="1" t="s">
-        <v>5079</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>5080</v>
+        <v>5098</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>4938</v>
@@ -64759,12 +64939,12 @@
         <v>1640</v>
       </c>
       <c r="O1558" s="1" t="s">
-        <v>5081</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>5082</v>
+        <v>5100</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4938</v>
@@ -64779,12 +64959,12 @@
         <v>1640</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>5083</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>5084</v>
+        <v>5102</v>
       </c>
       <c r="B1560" s="1" t="s">
         <v>4938</v>
@@ -64799,12 +64979,12 @@
         <v>1640</v>
       </c>
       <c r="O1560" s="1" t="s">
-        <v>5085</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>5086</v>
+        <v>5104</v>
       </c>
       <c r="B1561" s="1" t="s">
         <v>4938</v>
@@ -64819,12 +64999,12 @@
         <v>1640</v>
       </c>
       <c r="O1561" s="1" t="s">
-        <v>5087</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>5088</v>
+        <v>5106</v>
       </c>
       <c r="B1562" s="1" t="s">
         <v>4938</v>
@@ -64839,12 +65019,12 @@
         <v>1640</v>
       </c>
       <c r="O1562" s="1" t="s">
-        <v>5089</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>5090</v>
+        <v>5108</v>
       </c>
       <c r="B1563" s="1" t="s">
         <v>4938</v>
@@ -64859,12 +65039,12 @@
         <v>1640</v>
       </c>
       <c r="O1563" s="1" t="s">
-        <v>5091</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>5092</v>
+        <v>5110</v>
       </c>
       <c r="B1564" s="1" t="s">
         <v>4938</v>
@@ -64879,12 +65059,12 @@
         <v>1640</v>
       </c>
       <c r="O1564" s="1" t="s">
-        <v>5093</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>5094</v>
+        <v>5112</v>
       </c>
       <c r="B1565" s="1" t="s">
         <v>4938</v>
@@ -64899,12 +65079,12 @@
         <v>1640</v>
       </c>
       <c r="O1565" s="1" t="s">
-        <v>5095</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>5096</v>
+        <v>5114</v>
       </c>
       <c r="B1566" s="1" t="s">
         <v>4938</v>
@@ -64919,12 +65099,12 @@
         <v>1640</v>
       </c>
       <c r="O1566" s="1" t="s">
-        <v>5097</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>5098</v>
+        <v>5116</v>
       </c>
       <c r="B1567" s="1" t="s">
         <v>4938</v>
@@ -64939,12 +65119,12 @@
         <v>1640</v>
       </c>
       <c r="O1567" s="1" t="s">
-        <v>5099</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>5100</v>
+        <v>5118</v>
       </c>
       <c r="B1568" s="1" t="s">
         <v>4938</v>
@@ -64959,12 +65139,12 @@
         <v>1640</v>
       </c>
       <c r="O1568" s="1" t="s">
-        <v>5101</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>5102</v>
+        <v>5120</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4938</v>
@@ -64979,12 +65159,12 @@
         <v>1640</v>
       </c>
       <c r="O1569" s="1" t="s">
-        <v>5103</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>5104</v>
+        <v>5122</v>
       </c>
       <c r="B1570" s="1" t="s">
         <v>4938</v>
@@ -64999,12 +65179,12 @@
         <v>1640</v>
       </c>
       <c r="O1570" s="1" t="s">
-        <v>5105</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>5106</v>
+        <v>5124</v>
       </c>
       <c r="B1571" s="1" t="s">
         <v>4938</v>
@@ -65019,12 +65199,12 @@
         <v>1640</v>
       </c>
       <c r="O1571" s="1" t="s">
-        <v>5107</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>5108</v>
+        <v>5126</v>
       </c>
       <c r="B1572" s="1" t="s">
         <v>4938</v>
@@ -65039,12 +65219,12 @@
         <v>1640</v>
       </c>
       <c r="O1572" s="1" t="s">
-        <v>5109</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="1573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>5110</v>
+        <v>5128</v>
       </c>
       <c r="B1573" s="1" t="s">
         <v>4938</v>
@@ -65059,12 +65239,12 @@
         <v>1640</v>
       </c>
       <c r="O1573" s="1" t="s">
-        <v>5111</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="1574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>5112</v>
+        <v>5130</v>
       </c>
       <c r="B1574" s="1" t="s">
         <v>4938</v>
@@ -65079,12 +65259,12 @@
         <v>1640</v>
       </c>
       <c r="O1574" s="1" t="s">
-        <v>5113</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="1575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>5114</v>
+        <v>5132</v>
       </c>
       <c r="B1575" s="1" t="s">
         <v>4938</v>
@@ -65099,12 +65279,12 @@
         <v>1640</v>
       </c>
       <c r="O1575" s="1" t="s">
-        <v>5115</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="1576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>5116</v>
+        <v>5134</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>4938</v>
@@ -65119,12 +65299,12 @@
         <v>1640</v>
       </c>
       <c r="O1576" s="1" t="s">
-        <v>5117</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>5118</v>
+        <v>5136</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>4938</v>
@@ -65139,12 +65319,12 @@
         <v>1640</v>
       </c>
       <c r="O1577" s="1" t="s">
-        <v>5119</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="1578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>5120</v>
+        <v>5138</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>4938</v>
@@ -65159,12 +65339,12 @@
         <v>1640</v>
       </c>
       <c r="O1578" s="1" t="s">
-        <v>5121</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>5122</v>
+        <v>5140</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>4938</v>
@@ -65179,12 +65359,12 @@
         <v>1640</v>
       </c>
       <c r="O1579" s="1" t="s">
-        <v>5123</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>5124</v>
+        <v>5142</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4938</v>
@@ -65199,12 +65379,12 @@
         <v>1640</v>
       </c>
       <c r="O1580" s="1" t="s">
-        <v>5125</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>5126</v>
+        <v>5144</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>4938</v>
@@ -65219,12 +65399,12 @@
         <v>1640</v>
       </c>
       <c r="O1581" s="1" t="s">
-        <v>5127</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>5128</v>
+        <v>5146</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>4938</v>
@@ -65239,12 +65419,12 @@
         <v>1640</v>
       </c>
       <c r="O1582" s="1" t="s">
-        <v>5129</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>5130</v>
+        <v>5148</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>4938</v>
@@ -65259,12 +65439,12 @@
         <v>1640</v>
       </c>
       <c r="O1583" s="1" t="s">
-        <v>5131</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="1584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>5132</v>
+        <v>5150</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>4938</v>
@@ -65279,12 +65459,12 @@
         <v>1640</v>
       </c>
       <c r="O1584" s="1" t="s">
-        <v>5133</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="1585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>5134</v>
+        <v>5152</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>4938</v>
@@ -65299,12 +65479,12 @@
         <v>1640</v>
       </c>
       <c r="O1585" s="1" t="s">
-        <v>5135</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>5136</v>
+        <v>5154</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>4938</v>
@@ -65319,12 +65499,12 @@
         <v>1640</v>
       </c>
       <c r="O1586" s="1" t="s">
-        <v>5137</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="1587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>5138</v>
+        <v>5156</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>4938</v>
@@ -65339,12 +65519,12 @@
         <v>1640</v>
       </c>
       <c r="O1587" s="1" t="s">
-        <v>5139</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>5140</v>
+        <v>5158</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>4938</v>
@@ -65359,12 +65539,12 @@
         <v>1640</v>
       </c>
       <c r="O1588" s="1" t="s">
-        <v>5141</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>5142</v>
+        <v>5160</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>4938</v>
@@ -65379,12 +65559,12 @@
         <v>1640</v>
       </c>
       <c r="O1589" s="1" t="s">
-        <v>5143</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>5144</v>
+        <v>5162</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>4938</v>
@@ -65399,12 +65579,12 @@
         <v>1640</v>
       </c>
       <c r="O1590" s="1" t="s">
-        <v>5145</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="1591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>5146</v>
+        <v>5164</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>4938</v>
@@ -65419,12 +65599,12 @@
         <v>1640</v>
       </c>
       <c r="O1591" s="1" t="s">
-        <v>5147</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="1592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>5148</v>
+        <v>5166</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>4938</v>
@@ -65439,12 +65619,12 @@
         <v>1640</v>
       </c>
       <c r="O1592" s="1" t="s">
-        <v>5149</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>5150</v>
+        <v>5168</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>4938</v>
@@ -65459,12 +65639,12 @@
         <v>1640</v>
       </c>
       <c r="O1593" s="1" t="s">
-        <v>5151</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>5152</v>
+        <v>5170</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>4938</v>
@@ -65479,12 +65659,12 @@
         <v>1640</v>
       </c>
       <c r="O1594" s="1" t="s">
-        <v>5153</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>5154</v>
+        <v>5172</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>4938</v>
@@ -65499,12 +65679,12 @@
         <v>1640</v>
       </c>
       <c r="O1595" s="1" t="s">
-        <v>5155</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>5156</v>
+        <v>5174</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>4938</v>
@@ -65519,12 +65699,12 @@
         <v>1640</v>
       </c>
       <c r="O1596" s="1" t="s">
-        <v>5157</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
-        <v>5158</v>
+        <v>5176</v>
       </c>
       <c r="B1597" s="1" t="s">
         <v>4938</v>
@@ -65539,12 +65719,12 @@
         <v>1640</v>
       </c>
       <c r="O1597" s="1" t="s">
-        <v>5159</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
-        <v>5160</v>
+        <v>5178</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>4938</v>
@@ -65559,12 +65739,12 @@
         <v>1640</v>
       </c>
       <c r="O1598" s="1" t="s">
-        <v>5161</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
-        <v>5162</v>
+        <v>5180</v>
       </c>
       <c r="B1599" s="1" t="s">
         <v>4938</v>
@@ -65579,12 +65759,12 @@
         <v>1640</v>
       </c>
       <c r="O1599" s="1" t="s">
-        <v>5163</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>5164</v>
+        <v>5182</v>
       </c>
       <c r="B1600" s="1" t="s">
         <v>4938</v>
@@ -65599,12 +65779,12 @@
         <v>1640</v>
       </c>
       <c r="O1600" s="1" t="s">
-        <v>5165</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="1601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
-        <v>5166</v>
+        <v>5184</v>
       </c>
       <c r="B1601" s="1" t="s">
         <v>4938</v>
@@ -65619,12 +65799,12 @@
         <v>1640</v>
       </c>
       <c r="O1601" s="1" t="s">
-        <v>5167</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
-        <v>5168</v>
+        <v>5186</v>
       </c>
       <c r="B1602" s="1" t="s">
         <v>4938</v>
@@ -65639,12 +65819,12 @@
         <v>1640</v>
       </c>
       <c r="O1602" s="1" t="s">
-        <v>5169</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
-        <v>5170</v>
+        <v>5188</v>
       </c>
       <c r="B1603" s="1" t="s">
         <v>4938</v>
@@ -65659,12 +65839,12 @@
         <v>1640</v>
       </c>
       <c r="O1603" s="1" t="s">
-        <v>5171</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1604" s="1" t="s">
-        <v>5172</v>
+        <v>5190</v>
       </c>
       <c r="B1604" s="1" t="s">
         <v>4938</v>
@@ -65679,12 +65859,12 @@
         <v>1640</v>
       </c>
       <c r="O1604" s="1" t="s">
-        <v>5173</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1605" s="1" t="s">
-        <v>5174</v>
+        <v>5192</v>
       </c>
       <c r="B1605" s="1" t="s">
         <v>4938</v>
@@ -65699,191 +65879,11 @@
         <v>1640</v>
       </c>
       <c r="O1605" s="1" t="s">
-        <v>5175</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1606" s="1" t="s">
-        <v>5176</v>
-      </c>
-      <c r="B1606" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1606" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1606" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1606" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1606" s="1" t="s">
-        <v>5177</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1607" s="1" t="s">
-        <v>5178</v>
-      </c>
-      <c r="B1607" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1607" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1607" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1607" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1607" s="1" t="s">
-        <v>5179</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1608" s="1" t="s">
-        <v>5180</v>
-      </c>
-      <c r="B1608" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1608" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1608" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1608" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1608" s="1" t="s">
-        <v>5181</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1609" s="1" t="s">
-        <v>5182</v>
-      </c>
-      <c r="B1609" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1609" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1609" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1609" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1609" s="1" t="s">
-        <v>5183</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1610" s="1" t="s">
-        <v>5184</v>
-      </c>
-      <c r="B1610" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1610" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1610" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1610" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1610" s="1" t="s">
-        <v>5185</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1611" s="1" t="s">
-        <v>5186</v>
-      </c>
-      <c r="B1611" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1611" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1611" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1611" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1611" s="1" t="s">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1612" s="1" t="s">
-        <v>5188</v>
-      </c>
-      <c r="B1612" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1612" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1612" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1612" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1612" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1613" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B1613" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1613" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1613" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1613" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1613" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1614" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B1614" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1614" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1614" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1614" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1614" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1614"/>
+  <autoFilter ref="A1:N1605"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1605</definedName>
-    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1605</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1604</definedName>
+    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1604</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -15960,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O733"/>
+  <dimension ref="A1:O734"/>
   <sheetViews>
     <sheetView topLeftCell="A708" workbookViewId="0">
-      <selection activeCell="A734" sqref="A734"/>
+      <selection activeCell="A734" sqref="A734:XFD734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30965,6 +30965,26 @@
         <v>4239</v>
       </c>
     </row>
+    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J734" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="O734" s="1" t="s">
+        <v>4910</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30972,10 +30992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O1605"/>
+  <dimension ref="A2:O1604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1149" workbookViewId="0">
-      <selection activeCell="E1300" sqref="E1300"/>
+    <sheetView tabSelected="1" topLeftCell="A1461" workbookViewId="0">
+      <selection activeCell="A1475" sqref="A1475:XFD1475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63267,64 +63287,64 @@
     </row>
     <row r="1475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
-        <v>4907</v>
+        <v>4911</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>4908</v>
+        <v>4912</v>
       </c>
       <c r="C1475" s="1" t="s">
-        <v>4909</v>
+        <v>348</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>806</v>
+        <v>158</v>
       </c>
       <c r="J1475" s="1" t="s">
-        <v>2678</v>
+        <v>1493</v>
       </c>
       <c r="O1475" s="1" t="s">
-        <v>4910</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>4911</v>
+        <v>4914</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>4912</v>
+        <v>4915</v>
       </c>
       <c r="C1476" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1476" s="1" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="J1476" s="1" t="s">
-        <v>1493</v>
+        <v>62</v>
       </c>
       <c r="O1476" s="1" t="s">
-        <v>4913</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>4914</v>
+        <v>4937</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>4915</v>
+        <v>4938</v>
       </c>
       <c r="C1477" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1477" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1477" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O1477" s="1" t="s">
-        <v>4916</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
-        <v>4937</v>
+        <v>4940</v>
       </c>
       <c r="B1478" s="1" t="s">
         <v>4938</v>
@@ -63339,12 +63359,12 @@
         <v>1640</v>
       </c>
       <c r="O1478" s="1" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="B1479" s="1" t="s">
         <v>4938</v>
@@ -63359,12 +63379,12 @@
         <v>1640</v>
       </c>
       <c r="O1479" s="1" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="1480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
       <c r="B1480" s="1" t="s">
         <v>4938</v>
@@ -63379,12 +63399,12 @@
         <v>1640</v>
       </c>
       <c r="O1480" s="1" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
       <c r="B1481" s="1" t="s">
         <v>4938</v>
@@ -63399,12 +63419,12 @@
         <v>1640</v>
       </c>
       <c r="O1481" s="1" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
       <c r="B1482" s="1" t="s">
         <v>4938</v>
@@ -63419,12 +63439,12 @@
         <v>1640</v>
       </c>
       <c r="O1482" s="1" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="B1483" s="1" t="s">
         <v>4938</v>
@@ -63439,12 +63459,12 @@
         <v>1640</v>
       </c>
       <c r="O1483" s="1" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
       <c r="B1484" s="1" t="s">
         <v>4938</v>
@@ -63459,12 +63479,12 @@
         <v>1640</v>
       </c>
       <c r="O1484" s="1" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="B1485" s="1" t="s">
         <v>4938</v>
@@ -63479,12 +63499,12 @@
         <v>1640</v>
       </c>
       <c r="O1485" s="1" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
       <c r="B1486" s="1" t="s">
         <v>4938</v>
@@ -63499,12 +63519,12 @@
         <v>1640</v>
       </c>
       <c r="O1486" s="1" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
       <c r="B1487" s="1" t="s">
         <v>4938</v>
@@ -63519,12 +63539,12 @@
         <v>1640</v>
       </c>
       <c r="O1487" s="1" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="B1488" s="1" t="s">
         <v>4938</v>
@@ -63539,12 +63559,12 @@
         <v>1640</v>
       </c>
       <c r="O1488" s="1" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>4938</v>
@@ -63559,12 +63579,12 @@
         <v>1640</v>
       </c>
       <c r="O1489" s="1" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>4938</v>
@@ -63579,12 +63599,12 @@
         <v>1640</v>
       </c>
       <c r="O1490" s="1" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4938</v>
@@ -63599,12 +63619,12 @@
         <v>1640</v>
       </c>
       <c r="O1491" s="1" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>4938</v>
@@ -63619,12 +63639,12 @@
         <v>1640</v>
       </c>
       <c r="O1492" s="1" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>4938</v>
@@ -63639,12 +63659,12 @@
         <v>1640</v>
       </c>
       <c r="O1493" s="1" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
       <c r="B1494" s="1" t="s">
         <v>4938</v>
@@ -63659,12 +63679,12 @@
         <v>1640</v>
       </c>
       <c r="O1494" s="1" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
       <c r="B1495" s="1" t="s">
         <v>4938</v>
@@ -63679,12 +63699,12 @@
         <v>1640</v>
       </c>
       <c r="O1495" s="1" t="s">
-        <v>4973</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>4938</v>
@@ -63699,12 +63719,12 @@
         <v>1640</v>
       </c>
       <c r="O1496" s="1" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>4976</v>
+        <v>4978</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>4938</v>
@@ -63719,12 +63739,12 @@
         <v>1640</v>
       </c>
       <c r="O1497" s="1" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="B1498" s="1" t="s">
         <v>4938</v>
@@ -63739,12 +63759,12 @@
         <v>1640</v>
       </c>
       <c r="O1498" s="1" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>4980</v>
+        <v>4982</v>
       </c>
       <c r="B1499" s="1" t="s">
         <v>4938</v>
@@ -63759,12 +63779,12 @@
         <v>1640</v>
       </c>
       <c r="O1499" s="1" t="s">
-        <v>4981</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>4982</v>
+        <v>4984</v>
       </c>
       <c r="B1500" s="1" t="s">
         <v>4938</v>
@@ -63779,12 +63799,12 @@
         <v>1640</v>
       </c>
       <c r="O1500" s="1" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="B1501" s="1" t="s">
         <v>4938</v>
@@ -63799,12 +63819,12 @@
         <v>1640</v>
       </c>
       <c r="O1501" s="1" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
       <c r="B1502" s="1" t="s">
         <v>4938</v>
@@ -63819,12 +63839,12 @@
         <v>1640</v>
       </c>
       <c r="O1502" s="1" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
-        <v>4988</v>
+        <v>4990</v>
       </c>
       <c r="B1503" s="1" t="s">
         <v>4938</v>
@@ -63839,12 +63859,12 @@
         <v>1640</v>
       </c>
       <c r="O1503" s="1" t="s">
-        <v>4989</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
-        <v>4990</v>
+        <v>4992</v>
       </c>
       <c r="B1504" s="1" t="s">
         <v>4938</v>
@@ -63859,12 +63879,12 @@
         <v>1640</v>
       </c>
       <c r="O1504" s="1" t="s">
-        <v>4991</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>4992</v>
+        <v>4994</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>4938</v>
@@ -63879,12 +63899,12 @@
         <v>1640</v>
       </c>
       <c r="O1505" s="1" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
       <c r="B1506" s="1" t="s">
         <v>4938</v>
@@ -63899,12 +63919,12 @@
         <v>1640</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>4996</v>
+        <v>4998</v>
       </c>
       <c r="B1507" s="1" t="s">
         <v>4938</v>
@@ -63919,12 +63939,12 @@
         <v>1640</v>
       </c>
       <c r="O1507" s="1" t="s">
-        <v>4997</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="B1508" s="1" t="s">
         <v>4938</v>
@@ -63939,12 +63959,12 @@
         <v>1640</v>
       </c>
       <c r="O1508" s="1" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="B1509" s="1" t="s">
         <v>4938</v>
@@ -63959,12 +63979,12 @@
         <v>1640</v>
       </c>
       <c r="O1509" s="1" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4938</v>
@@ -63979,12 +63999,12 @@
         <v>1640</v>
       </c>
       <c r="O1510" s="1" t="s">
-        <v>5003</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>5004</v>
+        <v>5006</v>
       </c>
       <c r="B1511" s="1" t="s">
         <v>4938</v>
@@ -63999,12 +64019,12 @@
         <v>1640</v>
       </c>
       <c r="O1511" s="1" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B1512" s="1" t="s">
         <v>4938</v>
@@ -64019,12 +64039,12 @@
         <v>1640</v>
       </c>
       <c r="O1512" s="1" t="s">
-        <v>5007</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="B1513" s="1" t="s">
         <v>4938</v>
@@ -64039,12 +64059,12 @@
         <v>1640</v>
       </c>
       <c r="O1513" s="1" t="s">
-        <v>5009</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>5010</v>
+        <v>5012</v>
       </c>
       <c r="B1514" s="1" t="s">
         <v>4938</v>
@@ -64059,12 +64079,12 @@
         <v>1640</v>
       </c>
       <c r="O1514" s="1" t="s">
-        <v>5011</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="B1515" s="1" t="s">
         <v>4938</v>
@@ -64079,12 +64099,12 @@
         <v>1640</v>
       </c>
       <c r="O1515" s="1" t="s">
-        <v>5013</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>5014</v>
+        <v>5016</v>
       </c>
       <c r="B1516" s="1" t="s">
         <v>4938</v>
@@ -64099,12 +64119,12 @@
         <v>1640</v>
       </c>
       <c r="O1516" s="1" t="s">
-        <v>5015</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>5016</v>
+        <v>5018</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4938</v>
@@ -64119,12 +64139,12 @@
         <v>1640</v>
       </c>
       <c r="O1517" s="1" t="s">
-        <v>5017</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="B1518" s="1" t="s">
         <v>4938</v>
@@ -64139,12 +64159,12 @@
         <v>1640</v>
       </c>
       <c r="O1518" s="1" t="s">
-        <v>5019</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>5020</v>
+        <v>5022</v>
       </c>
       <c r="B1519" s="1" t="s">
         <v>4938</v>
@@ -64159,12 +64179,12 @@
         <v>1640</v>
       </c>
       <c r="O1519" s="1" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>5022</v>
+        <v>5024</v>
       </c>
       <c r="B1520" s="1" t="s">
         <v>4938</v>
@@ -64179,12 +64199,12 @@
         <v>1640</v>
       </c>
       <c r="O1520" s="1" t="s">
-        <v>5023</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>5024</v>
+        <v>5026</v>
       </c>
       <c r="B1521" s="1" t="s">
         <v>4938</v>
@@ -64199,12 +64219,12 @@
         <v>1640</v>
       </c>
       <c r="O1521" s="1" t="s">
-        <v>5025</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>5026</v>
+        <v>5028</v>
       </c>
       <c r="B1522" s="1" t="s">
         <v>4938</v>
@@ -64219,12 +64239,12 @@
         <v>1640</v>
       </c>
       <c r="O1522" s="1" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>5028</v>
+        <v>5030</v>
       </c>
       <c r="B1523" s="1" t="s">
         <v>4938</v>
@@ -64239,12 +64259,12 @@
         <v>1640</v>
       </c>
       <c r="O1523" s="1" t="s">
-        <v>5029</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>5030</v>
+        <v>5032</v>
       </c>
       <c r="B1524" s="1" t="s">
         <v>4938</v>
@@ -64259,12 +64279,12 @@
         <v>1640</v>
       </c>
       <c r="O1524" s="1" t="s">
-        <v>5031</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>4938</v>
@@ -64279,12 +64299,12 @@
         <v>1640</v>
       </c>
       <c r="O1525" s="1" t="s">
-        <v>5033</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>5034</v>
+        <v>5036</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>4938</v>
@@ -64299,12 +64319,12 @@
         <v>1640</v>
       </c>
       <c r="O1526" s="1" t="s">
-        <v>5035</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>5036</v>
+        <v>5038</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>4938</v>
@@ -64319,12 +64339,12 @@
         <v>1640</v>
       </c>
       <c r="O1527" s="1" t="s">
-        <v>5037</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>5038</v>
+        <v>5040</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>4938</v>
@@ -64339,12 +64359,12 @@
         <v>1640</v>
       </c>
       <c r="O1528" s="1" t="s">
-        <v>5039</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>4938</v>
@@ -64359,12 +64379,12 @@
         <v>1640</v>
       </c>
       <c r="O1529" s="1" t="s">
-        <v>5041</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>5042</v>
+        <v>5044</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>4938</v>
@@ -64379,12 +64399,12 @@
         <v>1640</v>
       </c>
       <c r="O1530" s="1" t="s">
-        <v>5043</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>5044</v>
+        <v>5046</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>4938</v>
@@ -64399,12 +64419,12 @@
         <v>1640</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>5045</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>4938</v>
@@ -64419,12 +64439,12 @@
         <v>1640</v>
       </c>
       <c r="O1532" s="1" t="s">
-        <v>5047</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>4938</v>
@@ -64439,12 +64459,12 @@
         <v>1640</v>
       </c>
       <c r="O1533" s="1" t="s">
-        <v>5049</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>4938</v>
@@ -64459,12 +64479,12 @@
         <v>1640</v>
       </c>
       <c r="O1534" s="1" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>4938</v>
@@ -64479,12 +64499,12 @@
         <v>1640</v>
       </c>
       <c r="O1535" s="1" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>4938</v>
@@ -64499,12 +64519,12 @@
         <v>1640</v>
       </c>
       <c r="O1536" s="1" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>5056</v>
+        <v>5058</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>4938</v>
@@ -64519,12 +64539,12 @@
         <v>1640</v>
       </c>
       <c r="O1537" s="1" t="s">
-        <v>5057</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>5058</v>
+        <v>5060</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>4938</v>
@@ -64539,12 +64559,12 @@
         <v>1640</v>
       </c>
       <c r="O1538" s="1" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>5060</v>
+        <v>5062</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>4938</v>
@@ -64559,12 +64579,12 @@
         <v>1640</v>
       </c>
       <c r="O1539" s="1" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="B1540" s="1" t="s">
         <v>4938</v>
@@ -64579,12 +64599,12 @@
         <v>1640</v>
       </c>
       <c r="O1540" s="1" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>5064</v>
+        <v>5066</v>
       </c>
       <c r="B1541" s="1" t="s">
         <v>4938</v>
@@ -64599,12 +64619,12 @@
         <v>1640</v>
       </c>
       <c r="O1541" s="1" t="s">
-        <v>5065</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4938</v>
@@ -64619,12 +64639,12 @@
         <v>1640</v>
       </c>
       <c r="O1542" s="1" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
       <c r="B1543" s="1" t="s">
         <v>4938</v>
@@ -64639,12 +64659,12 @@
         <v>1640</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>5069</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>5070</v>
+        <v>5072</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>4938</v>
@@ -64659,12 +64679,12 @@
         <v>1640</v>
       </c>
       <c r="O1544" s="1" t="s">
-        <v>5071</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>5072</v>
+        <v>5074</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>4938</v>
@@ -64679,12 +64699,12 @@
         <v>1640</v>
       </c>
       <c r="O1545" s="1" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>4938</v>
@@ -64699,12 +64719,12 @@
         <v>1640</v>
       </c>
       <c r="O1546" s="1" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>5076</v>
+        <v>5078</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>4938</v>
@@ -64719,12 +64739,12 @@
         <v>1640</v>
       </c>
       <c r="O1547" s="1" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="1548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>5078</v>
+        <v>5080</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>4938</v>
@@ -64739,12 +64759,12 @@
         <v>1640</v>
       </c>
       <c r="O1548" s="1" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>5080</v>
+        <v>5082</v>
       </c>
       <c r="B1549" s="1" t="s">
         <v>4938</v>
@@ -64759,12 +64779,12 @@
         <v>1640</v>
       </c>
       <c r="O1549" s="1" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
       <c r="B1550" s="1" t="s">
         <v>4938</v>
@@ -64779,12 +64799,12 @@
         <v>1640</v>
       </c>
       <c r="O1550" s="1" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
       <c r="B1551" s="1" t="s">
         <v>4938</v>
@@ -64799,12 +64819,12 @@
         <v>1640</v>
       </c>
       <c r="O1551" s="1" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
       <c r="B1552" s="1" t="s">
         <v>4938</v>
@@ -64819,12 +64839,12 @@
         <v>1640</v>
       </c>
       <c r="O1552" s="1" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
       <c r="B1553" s="1" t="s">
         <v>4938</v>
@@ -64839,12 +64859,12 @@
         <v>1640</v>
       </c>
       <c r="O1553" s="1" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
       <c r="B1554" s="1" t="s">
         <v>4938</v>
@@ -64859,12 +64879,12 @@
         <v>1640</v>
       </c>
       <c r="O1554" s="1" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
       <c r="B1555" s="1" t="s">
         <v>4938</v>
@@ -64879,12 +64899,12 @@
         <v>1640</v>
       </c>
       <c r="O1555" s="1" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
       <c r="B1556" s="1" t="s">
         <v>4938</v>
@@ -64899,12 +64919,12 @@
         <v>1640</v>
       </c>
       <c r="O1556" s="1" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="B1557" s="1" t="s">
         <v>4938</v>
@@ -64919,12 +64939,12 @@
         <v>1640</v>
       </c>
       <c r="O1557" s="1" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>4938</v>
@@ -64939,12 +64959,12 @@
         <v>1640</v>
       </c>
       <c r="O1558" s="1" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4938</v>
@@ -64959,12 +64979,12 @@
         <v>1640</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
       <c r="B1560" s="1" t="s">
         <v>4938</v>
@@ -64979,12 +64999,12 @@
         <v>1640</v>
       </c>
       <c r="O1560" s="1" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
       <c r="B1561" s="1" t="s">
         <v>4938</v>
@@ -64999,12 +65019,12 @@
         <v>1640</v>
       </c>
       <c r="O1561" s="1" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="B1562" s="1" t="s">
         <v>4938</v>
@@ -65019,12 +65039,12 @@
         <v>1640</v>
       </c>
       <c r="O1562" s="1" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
       <c r="B1563" s="1" t="s">
         <v>4938</v>
@@ -65039,12 +65059,12 @@
         <v>1640</v>
       </c>
       <c r="O1563" s="1" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
       <c r="B1564" s="1" t="s">
         <v>4938</v>
@@ -65059,12 +65079,12 @@
         <v>1640</v>
       </c>
       <c r="O1564" s="1" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="B1565" s="1" t="s">
         <v>4938</v>
@@ -65079,12 +65099,12 @@
         <v>1640</v>
       </c>
       <c r="O1565" s="1" t="s">
-        <v>5113</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="B1566" s="1" t="s">
         <v>4938</v>
@@ -65099,12 +65119,12 @@
         <v>1640</v>
       </c>
       <c r="O1566" s="1" t="s">
-        <v>5115</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>5116</v>
+        <v>5118</v>
       </c>
       <c r="B1567" s="1" t="s">
         <v>4938</v>
@@ -65119,12 +65139,12 @@
         <v>1640</v>
       </c>
       <c r="O1567" s="1" t="s">
-        <v>5117</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="B1568" s="1" t="s">
         <v>4938</v>
@@ -65139,12 +65159,12 @@
         <v>1640</v>
       </c>
       <c r="O1568" s="1" t="s">
-        <v>5119</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>5120</v>
+        <v>5122</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4938</v>
@@ -65159,12 +65179,12 @@
         <v>1640</v>
       </c>
       <c r="O1569" s="1" t="s">
-        <v>5121</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>5122</v>
+        <v>5124</v>
       </c>
       <c r="B1570" s="1" t="s">
         <v>4938</v>
@@ -65179,12 +65199,12 @@
         <v>1640</v>
       </c>
       <c r="O1570" s="1" t="s">
-        <v>5123</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="B1571" s="1" t="s">
         <v>4938</v>
@@ -65199,12 +65219,12 @@
         <v>1640</v>
       </c>
       <c r="O1571" s="1" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
       <c r="B1572" s="1" t="s">
         <v>4938</v>
@@ -65219,12 +65239,12 @@
         <v>1640</v>
       </c>
       <c r="O1572" s="1" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="1573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>5128</v>
+        <v>5130</v>
       </c>
       <c r="B1573" s="1" t="s">
         <v>4938</v>
@@ -65239,12 +65259,12 @@
         <v>1640</v>
       </c>
       <c r="O1573" s="1" t="s">
-        <v>5129</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="1574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>5130</v>
+        <v>5132</v>
       </c>
       <c r="B1574" s="1" t="s">
         <v>4938</v>
@@ -65259,12 +65279,12 @@
         <v>1640</v>
       </c>
       <c r="O1574" s="1" t="s">
-        <v>5131</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="1575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>5132</v>
+        <v>5134</v>
       </c>
       <c r="B1575" s="1" t="s">
         <v>4938</v>
@@ -65279,12 +65299,12 @@
         <v>1640</v>
       </c>
       <c r="O1575" s="1" t="s">
-        <v>5133</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>5134</v>
+        <v>5136</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>4938</v>
@@ -65299,12 +65319,12 @@
         <v>1640</v>
       </c>
       <c r="O1576" s="1" t="s">
-        <v>5135</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="1577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>5136</v>
+        <v>5138</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>4938</v>
@@ -65319,12 +65339,12 @@
         <v>1640</v>
       </c>
       <c r="O1577" s="1" t="s">
-        <v>5137</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>5138</v>
+        <v>5140</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>4938</v>
@@ -65339,12 +65359,12 @@
         <v>1640</v>
       </c>
       <c r="O1578" s="1" t="s">
-        <v>5139</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>4938</v>
@@ -65359,12 +65379,12 @@
         <v>1640</v>
       </c>
       <c r="O1579" s="1" t="s">
-        <v>5141</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4938</v>
@@ -65379,12 +65399,12 @@
         <v>1640</v>
       </c>
       <c r="O1580" s="1" t="s">
-        <v>5143</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>4938</v>
@@ -65399,12 +65419,12 @@
         <v>1640</v>
       </c>
       <c r="O1581" s="1" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>4938</v>
@@ -65419,12 +65439,12 @@
         <v>1640</v>
       </c>
       <c r="O1582" s="1" t="s">
-        <v>5147</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="1583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>5148</v>
+        <v>5150</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>4938</v>
@@ -65439,12 +65459,12 @@
         <v>1640</v>
       </c>
       <c r="O1583" s="1" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="1584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>4938</v>
@@ -65459,12 +65479,12 @@
         <v>1640</v>
       </c>
       <c r="O1584" s="1" t="s">
-        <v>5151</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>4938</v>
@@ -65479,12 +65499,12 @@
         <v>1640</v>
       </c>
       <c r="O1585" s="1" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="1586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>4938</v>
@@ -65499,12 +65519,12 @@
         <v>1640</v>
       </c>
       <c r="O1586" s="1" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>5156</v>
+        <v>5158</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>4938</v>
@@ -65519,12 +65539,12 @@
         <v>1640</v>
       </c>
       <c r="O1587" s="1" t="s">
-        <v>5157</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>5158</v>
+        <v>5160</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>4938</v>
@@ -65539,12 +65559,12 @@
         <v>1640</v>
       </c>
       <c r="O1588" s="1" t="s">
-        <v>5159</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>4938</v>
@@ -65559,12 +65579,12 @@
         <v>1640</v>
       </c>
       <c r="O1589" s="1" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="1590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>5162</v>
+        <v>5164</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>4938</v>
@@ -65579,12 +65599,12 @@
         <v>1640</v>
       </c>
       <c r="O1590" s="1" t="s">
-        <v>5163</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="1591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>5164</v>
+        <v>5166</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>4938</v>
@@ -65599,12 +65619,12 @@
         <v>1640</v>
       </c>
       <c r="O1591" s="1" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>4938</v>
@@ -65619,12 +65639,12 @@
         <v>1640</v>
       </c>
       <c r="O1592" s="1" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>4938</v>
@@ -65639,12 +65659,12 @@
         <v>1640</v>
       </c>
       <c r="O1593" s="1" t="s">
-        <v>5169</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>4938</v>
@@ -65659,12 +65679,12 @@
         <v>1640</v>
       </c>
       <c r="O1594" s="1" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>5172</v>
+        <v>5174</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>4938</v>
@@ -65679,12 +65699,12 @@
         <v>1640</v>
       </c>
       <c r="O1595" s="1" t="s">
-        <v>5173</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>5174</v>
+        <v>5176</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>4938</v>
@@ -65699,12 +65719,12 @@
         <v>1640</v>
       </c>
       <c r="O1596" s="1" t="s">
-        <v>5175</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
-        <v>5176</v>
+        <v>5178</v>
       </c>
       <c r="B1597" s="1" t="s">
         <v>4938</v>
@@ -65719,12 +65739,12 @@
         <v>1640</v>
       </c>
       <c r="O1597" s="1" t="s">
-        <v>5177</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
-        <v>5178</v>
+        <v>5180</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>4938</v>
@@ -65739,12 +65759,12 @@
         <v>1640</v>
       </c>
       <c r="O1598" s="1" t="s">
-        <v>5179</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
-        <v>5180</v>
+        <v>5182</v>
       </c>
       <c r="B1599" s="1" t="s">
         <v>4938</v>
@@ -65759,12 +65779,12 @@
         <v>1640</v>
       </c>
       <c r="O1599" s="1" t="s">
-        <v>5181</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="1600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>5182</v>
+        <v>5184</v>
       </c>
       <c r="B1600" s="1" t="s">
         <v>4938</v>
@@ -65779,12 +65799,12 @@
         <v>1640</v>
       </c>
       <c r="O1600" s="1" t="s">
-        <v>5183</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
-        <v>5184</v>
+        <v>5186</v>
       </c>
       <c r="B1601" s="1" t="s">
         <v>4938</v>
@@ -65799,12 +65819,12 @@
         <v>1640</v>
       </c>
       <c r="O1601" s="1" t="s">
-        <v>5185</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
-        <v>5186</v>
+        <v>5188</v>
       </c>
       <c r="B1602" s="1" t="s">
         <v>4938</v>
@@ -65819,12 +65839,12 @@
         <v>1640</v>
       </c>
       <c r="O1602" s="1" t="s">
-        <v>5187</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
-        <v>5188</v>
+        <v>5190</v>
       </c>
       <c r="B1603" s="1" t="s">
         <v>4938</v>
@@ -65839,12 +65859,12 @@
         <v>1640</v>
       </c>
       <c r="O1603" s="1" t="s">
-        <v>5189</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1604" s="1" t="s">
-        <v>5190</v>
+        <v>5192</v>
       </c>
       <c r="B1604" s="1" t="s">
         <v>4938</v>
@@ -65859,31 +65879,11 @@
         <v>1640</v>
       </c>
       <c r="O1604" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1605" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B1605" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1605" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1605" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1605" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1605" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1605"/>
+  <autoFilter ref="A1:N1604"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1604</definedName>
-    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1604</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1601</definedName>
+    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1601</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -15960,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O734"/>
+  <dimension ref="A1:O737"/>
   <sheetViews>
-    <sheetView topLeftCell="A708" workbookViewId="0">
-      <selection activeCell="A734" sqref="A734:XFD734"/>
+    <sheetView topLeftCell="A711" workbookViewId="0">
+      <selection activeCell="A738" sqref="A738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30985,6 +30985,75 @@
         <v>4910</v>
       </c>
     </row>
+    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J735" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K735" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O735" s="1" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J736" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K736" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O736" s="1" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J737" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K737" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O737" s="1" t="s">
+        <v>4185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30992,10 +31061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O1604"/>
+  <dimension ref="A2:O1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1461" workbookViewId="0">
-      <selection activeCell="A1475" sqref="A1475:XFD1475"/>
+    <sheetView tabSelected="1" topLeftCell="A1273" workbookViewId="0">
+      <selection activeCell="A1287" sqref="A1287:XFD1289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59143,145 +59212,154 @@
     </row>
     <row r="1287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1287" s="1" t="s">
-        <v>4179</v>
+        <v>4186</v>
       </c>
       <c r="B1287" s="1" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="C1287" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1287" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1287" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J1287" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1287" s="1" t="s">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="O1287" s="1" t="s">
-        <v>4181</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1288" s="1" t="s">
-        <v>4182</v>
+        <v>4189</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="C1288" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1288" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1288" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J1288" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1288" s="1" t="s">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="O1288" s="1" t="s">
-        <v>4183</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1289" s="1" t="s">
-        <v>4184</v>
+        <v>4191</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="C1289" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1289" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1289" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J1289" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1289" s="1" t="s">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="O1289" s="1" t="s">
-        <v>4185</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1290" s="1" t="s">
-        <v>4186</v>
+        <v>4200</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>4187</v>
+        <v>4201</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="E1290" s="1" t="s">
-        <v>567</v>
+        <v>4202</v>
       </c>
       <c r="J1290" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1290" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1290" s="1" t="s">
-        <v>4188</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1291" s="1" t="s">
-        <v>4189</v>
+        <v>4204</v>
       </c>
       <c r="B1291" s="1" t="s">
-        <v>4187</v>
+        <v>4201</v>
       </c>
       <c r="C1291" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="E1291" s="1" t="s">
-        <v>567</v>
+        <v>4202</v>
       </c>
       <c r="J1291" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1291" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1291" s="1" t="s">
-        <v>4190</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1292" s="1" t="s">
-        <v>4191</v>
+        <v>4206</v>
       </c>
       <c r="B1292" s="1" t="s">
-        <v>4187</v>
+        <v>4201</v>
       </c>
       <c r="C1292" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="E1292" s="1" t="s">
-        <v>567</v>
+        <v>4202</v>
       </c>
       <c r="J1292" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1292" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1292" s="1" t="s">
-        <v>4192</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1293" s="1" t="s">
-        <v>4200</v>
+        <v>4208</v>
       </c>
       <c r="B1293" s="1" t="s">
         <v>4201</v>
@@ -59290,87 +59368,78 @@
         <v>2972</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="E1293" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1293" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1293" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1293" s="1" t="s">
-        <v>4203</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1294" s="1" t="s">
-        <v>4204</v>
+        <v>4210</v>
       </c>
       <c r="B1294" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1294" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1294" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1294" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1294" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1294" s="1" t="s">
-        <v>4205</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1295" s="1" t="s">
-        <v>4206</v>
+        <v>4213</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1295" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E1295" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1295" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1295" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1295" s="1" t="s">
-        <v>4207</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1296" s="1" t="s">
-        <v>4208</v>
+        <v>4215</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>4201</v>
+        <v>4216</v>
       </c>
       <c r="C1296" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1296" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1296" s="1" t="s">
@@ -59380,15 +59449,15 @@
         <v>1925</v>
       </c>
       <c r="O1296" s="1" t="s">
-        <v>4209</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1297" s="1" t="s">
-        <v>4210</v>
+        <v>4218</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>4211</v>
+        <v>4216</v>
       </c>
       <c r="C1297" s="1" t="s">
         <v>348</v>
@@ -59403,12 +59472,12 @@
         <v>1925</v>
       </c>
       <c r="O1297" s="1" t="s">
-        <v>4212</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="1298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1298" s="1" t="s">
-        <v>4213</v>
+        <v>4220</v>
       </c>
       <c r="B1298" s="1" t="s">
         <v>4211</v>
@@ -59426,15 +59495,15 @@
         <v>1925</v>
       </c>
       <c r="O1298" s="1" t="s">
-        <v>4214</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1299" s="1" t="s">
-        <v>4215</v>
+        <v>4222</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>4216</v>
+        <v>4211</v>
       </c>
       <c r="C1299" s="1" t="s">
         <v>348</v>
@@ -59449,109 +59518,100 @@
         <v>1925</v>
       </c>
       <c r="O1299" s="1" t="s">
-        <v>4217</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1300" s="1" t="s">
-        <v>4218</v>
+        <v>4254</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>4216</v>
+        <v>4255</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1300" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1300" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1300" s="1" t="s">
-        <v>1925</v>
+        <v>214</v>
       </c>
       <c r="O1300" s="1" t="s">
-        <v>4219</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1301" s="1" t="s">
-        <v>4220</v>
+        <v>4257</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>4211</v>
+        <v>4255</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1301" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1301" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1301" s="1" t="s">
-        <v>1925</v>
+        <v>214</v>
       </c>
       <c r="O1301" s="1" t="s">
-        <v>4221</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1302" s="1" t="s">
-        <v>4222</v>
+        <v>4259</v>
       </c>
       <c r="B1302" s="1" t="s">
-        <v>4211</v>
+        <v>4260</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1302" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1302" s="1" t="s">
-        <v>1925</v>
+        <v>1165</v>
+      </c>
+      <c r="E1302" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1302" s="1" t="s">
-        <v>4223</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1303" s="1" t="s">
-        <v>4254</v>
+        <v>4262</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1303" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1303" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1303" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1303" s="1" t="s">
-        <v>4256</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1304" s="1" t="s">
-        <v>4257</v>
+        <v>4264</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1304" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1304" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1304" s="1" t="s">
-        <v>4258</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1305" s="1" t="s">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="B1305" s="1" t="s">
         <v>4260</v>
@@ -59566,72 +59626,105 @@
         <v>1165</v>
       </c>
       <c r="O1305" s="1" t="s">
-        <v>4261</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1306" s="1" t="s">
-        <v>4262</v>
+        <v>4292</v>
       </c>
       <c r="B1306" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
       </c>
       <c r="E1306" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1306" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1306" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1306" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1306" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1306" s="1" t="s">
-        <v>4263</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1307" s="1" t="s">
-        <v>4264</v>
+        <v>4296</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
       </c>
       <c r="E1307" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1307" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1307" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1307" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1307" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1307" s="1" t="s">
-        <v>4265</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1308" s="1" t="s">
-        <v>4266</v>
+        <v>4298</v>
       </c>
       <c r="B1308" s="1" t="s">
-        <v>4260</v>
+        <v>4293</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1308" s="1" t="s">
-        <v>1165</v>
+        <v>567</v>
+      </c>
+      <c r="J1308" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1308" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1308" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1308" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1308" s="1" t="s">
-        <v>4267</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1309" s="1" t="s">
-        <v>4292</v>
+        <v>4300</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>4293</v>
@@ -59642,9 +59735,6 @@
       <c r="D1309" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1309" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1309" s="1" t="s">
         <v>85</v>
       </c>
@@ -59652,18 +59742,18 @@
         <v>609</v>
       </c>
       <c r="L1309" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1309" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1309" s="1" t="s">
-        <v>4295</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1310" s="1" t="s">
-        <v>4296</v>
+        <v>4302</v>
       </c>
       <c r="B1310" s="1" t="s">
         <v>4293</v>
@@ -59674,9 +59764,6 @@
       <c r="D1310" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1310" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1310" s="1" t="s">
         <v>85</v>
       </c>
@@ -59684,18 +59771,18 @@
         <v>609</v>
       </c>
       <c r="L1310" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1310" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1310" s="1" t="s">
-        <v>4297</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1311" s="1" t="s">
-        <v>4298</v>
+        <v>4304</v>
       </c>
       <c r="B1311" s="1" t="s">
         <v>4293</v>
@@ -59719,12 +59806,12 @@
         <v>1203</v>
       </c>
       <c r="O1311" s="1" t="s">
-        <v>4299</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1312" s="1" t="s">
-        <v>4300</v>
+        <v>4306</v>
       </c>
       <c r="B1312" s="1" t="s">
         <v>4293</v>
@@ -59748,12 +59835,12 @@
         <v>1203</v>
       </c>
       <c r="O1312" s="1" t="s">
-        <v>4301</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1313" s="1" t="s">
-        <v>4302</v>
+        <v>4308</v>
       </c>
       <c r="B1313" s="1" t="s">
         <v>4293</v>
@@ -59777,12 +59864,12 @@
         <v>1203</v>
       </c>
       <c r="O1313" s="1" t="s">
-        <v>4303</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1314" s="1" t="s">
-        <v>4304</v>
+        <v>4310</v>
       </c>
       <c r="B1314" s="1" t="s">
         <v>4293</v>
@@ -59806,12 +59893,12 @@
         <v>1203</v>
       </c>
       <c r="O1314" s="1" t="s">
-        <v>4305</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1315" s="1" t="s">
-        <v>4306</v>
+        <v>4312</v>
       </c>
       <c r="B1315" s="1" t="s">
         <v>4293</v>
@@ -59835,12 +59922,12 @@
         <v>1203</v>
       </c>
       <c r="O1315" s="1" t="s">
-        <v>4307</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1316" s="1" t="s">
-        <v>4308</v>
+        <v>4314</v>
       </c>
       <c r="B1316" s="1" t="s">
         <v>4293</v>
@@ -59864,12 +59951,12 @@
         <v>1203</v>
       </c>
       <c r="O1316" s="1" t="s">
-        <v>4309</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1317" s="1" t="s">
-        <v>4310</v>
+        <v>4316</v>
       </c>
       <c r="B1317" s="1" t="s">
         <v>4293</v>
@@ -59893,15 +59980,15 @@
         <v>1203</v>
       </c>
       <c r="O1317" s="1" t="s">
-        <v>4311</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1318" s="1" t="s">
-        <v>4312</v>
+        <v>4318</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1318" s="1" t="s">
         <v>4294</v>
@@ -59919,15 +60006,15 @@
         <v>171</v>
       </c>
       <c r="M1318" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1318" s="1" t="s">
-        <v>4313</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1319" s="1" t="s">
-        <v>4314</v>
+        <v>4321</v>
       </c>
       <c r="B1319" s="1" t="s">
         <v>4293</v>
@@ -59948,15 +60035,15 @@
         <v>171</v>
       </c>
       <c r="M1319" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1319" s="1" t="s">
-        <v>4315</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1320" s="1" t="s">
-        <v>4316</v>
+        <v>4323</v>
       </c>
       <c r="B1320" s="1" t="s">
         <v>4293</v>
@@ -59977,18 +60064,18 @@
         <v>171</v>
       </c>
       <c r="M1320" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1320" s="1" t="s">
-        <v>4317</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1321" s="1" t="s">
-        <v>4318</v>
+        <v>4325</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>4319</v>
+        <v>4293</v>
       </c>
       <c r="C1321" s="1" t="s">
         <v>4294</v>
@@ -60009,12 +60096,12 @@
         <v>1925</v>
       </c>
       <c r="O1321" s="1" t="s">
-        <v>4320</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1322" s="1" t="s">
-        <v>4321</v>
+        <v>4327</v>
       </c>
       <c r="B1322" s="1" t="s">
         <v>4293</v>
@@ -60038,12 +60125,12 @@
         <v>1925</v>
       </c>
       <c r="O1322" s="1" t="s">
-        <v>4322</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1323" s="1" t="s">
-        <v>4323</v>
+        <v>4329</v>
       </c>
       <c r="B1323" s="1" t="s">
         <v>4293</v>
@@ -60067,12 +60154,12 @@
         <v>1925</v>
       </c>
       <c r="O1323" s="1" t="s">
-        <v>4324</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1324" s="1" t="s">
-        <v>4325</v>
+        <v>4331</v>
       </c>
       <c r="B1324" s="1" t="s">
         <v>4293</v>
@@ -60096,12 +60183,12 @@
         <v>1925</v>
       </c>
       <c r="O1324" s="1" t="s">
-        <v>4326</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1325" s="1" t="s">
-        <v>4327</v>
+        <v>4333</v>
       </c>
       <c r="B1325" s="1" t="s">
         <v>4293</v>
@@ -60125,99 +60212,81 @@
         <v>1925</v>
       </c>
       <c r="O1325" s="1" t="s">
-        <v>4328</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1326" s="1" t="s">
-        <v>4329</v>
+        <v>4335</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1326" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1326" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1326" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1326" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1326" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1326" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1326" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1326" s="1" t="s">
-        <v>4330</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1327" s="1" t="s">
-        <v>4331</v>
+        <v>4339</v>
       </c>
       <c r="B1327" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1327" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1327" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1327" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1327" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1327" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1327" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1327" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1327" s="1" t="s">
-        <v>4332</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1328" s="1" t="s">
-        <v>4333</v>
+        <v>4341</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1328" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1328" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1328" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1328" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1328" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1328" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1328" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1328" s="1" t="s">
-        <v>4334</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1329" s="1" t="s">
-        <v>4335</v>
+        <v>4343</v>
       </c>
       <c r="B1329" s="1" t="s">
         <v>4319</v>
@@ -60226,21 +60295,27 @@
         <v>4294</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1329" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1329" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1329" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1329" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1329" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1329" s="1" t="s">
-        <v>4338</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1330" s="1" t="s">
-        <v>4339</v>
+        <v>4345</v>
       </c>
       <c r="B1330" s="1" t="s">
         <v>4319</v>
@@ -60249,21 +60324,27 @@
         <v>4294</v>
       </c>
       <c r="D1330" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1330" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1330" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1330" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1330" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1330" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1330" s="1" t="s">
-        <v>4340</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1331" s="1" t="s">
-        <v>4341</v>
+        <v>4347</v>
       </c>
       <c r="B1331" s="1" t="s">
         <v>4319</v>
@@ -60272,21 +60353,27 @@
         <v>4294</v>
       </c>
       <c r="D1331" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1331" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1331" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1331" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1331" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1331" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1331" s="1" t="s">
-        <v>4342</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1332" s="1" t="s">
-        <v>4343</v>
+        <v>4349</v>
       </c>
       <c r="B1332" s="1" t="s">
         <v>4319</v>
@@ -60310,12 +60397,12 @@
         <v>1925</v>
       </c>
       <c r="O1332" s="1" t="s">
-        <v>4344</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1333" s="1" t="s">
-        <v>4345</v>
+        <v>4351</v>
       </c>
       <c r="B1333" s="1" t="s">
         <v>4319</v>
@@ -60339,12 +60426,12 @@
         <v>1925</v>
       </c>
       <c r="O1333" s="1" t="s">
-        <v>4346</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1334" s="1" t="s">
-        <v>4347</v>
+        <v>4353</v>
       </c>
       <c r="B1334" s="1" t="s">
         <v>4319</v>
@@ -60368,99 +60455,81 @@
         <v>1925</v>
       </c>
       <c r="O1334" s="1" t="s">
-        <v>4348</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1335" s="1" t="s">
-        <v>4349</v>
+        <v>4355</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1335" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1335" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1335" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1335" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1335" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1335" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1335" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1335" s="1" t="s">
-        <v>4350</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1336" s="1" t="s">
-        <v>4351</v>
+        <v>4358</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1336" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1336" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1336" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1336" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1336" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1336" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1336" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1336" s="1" t="s">
-        <v>4352</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1337" s="1" t="s">
-        <v>4353</v>
+        <v>4360</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1337" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1337" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1337" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1337" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1337" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1337" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1337" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1337" s="1" t="s">
-        <v>4354</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1338" s="1" t="s">
-        <v>4355</v>
+        <v>4362</v>
       </c>
       <c r="B1338" s="1" t="s">
         <v>4356</v>
@@ -60478,12 +60547,12 @@
         <v>85</v>
       </c>
       <c r="O1338" s="1" t="s">
-        <v>4357</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1339" s="1" t="s">
-        <v>4358</v>
+        <v>4364</v>
       </c>
       <c r="B1339" s="1" t="s">
         <v>4356</v>
@@ -60501,12 +60570,12 @@
         <v>85</v>
       </c>
       <c r="O1339" s="1" t="s">
-        <v>4359</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1340" s="1" t="s">
-        <v>4360</v>
+        <v>4366</v>
       </c>
       <c r="B1340" s="1" t="s">
         <v>4356</v>
@@ -60524,12 +60593,12 @@
         <v>85</v>
       </c>
       <c r="O1340" s="1" t="s">
-        <v>4361</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1341" s="1" t="s">
-        <v>4362</v>
+        <v>4368</v>
       </c>
       <c r="B1341" s="1" t="s">
         <v>4356</v>
@@ -60547,12 +60616,12 @@
         <v>85</v>
       </c>
       <c r="O1341" s="1" t="s">
-        <v>4363</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1342" s="1" t="s">
-        <v>4364</v>
+        <v>4370</v>
       </c>
       <c r="B1342" s="1" t="s">
         <v>4356</v>
@@ -60570,12 +60639,12 @@
         <v>85</v>
       </c>
       <c r="O1342" s="1" t="s">
-        <v>4365</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1343" s="1" t="s">
-        <v>4366</v>
+        <v>4372</v>
       </c>
       <c r="B1343" s="1" t="s">
         <v>4356</v>
@@ -60593,12 +60662,12 @@
         <v>85</v>
       </c>
       <c r="O1343" s="1" t="s">
-        <v>4367</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1344" s="1" t="s">
-        <v>4368</v>
+        <v>4374</v>
       </c>
       <c r="B1344" s="1" t="s">
         <v>4356</v>
@@ -60616,81 +60685,60 @@
         <v>85</v>
       </c>
       <c r="O1344" s="1" t="s">
-        <v>4369</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1345" s="1" t="s">
-        <v>4370</v>
+        <v>4395</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1345" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1345" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1345" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1345" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1345" s="1" t="s">
-        <v>4371</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1346" s="1" t="s">
-        <v>4372</v>
+        <v>4399</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1346" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1346" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1346" s="1" t="s">
-        <v>4337</v>
-      </c>
-      <c r="J1346" s="1" t="s">
-        <v>85</v>
+        <v>4397</v>
       </c>
       <c r="O1346" s="1" t="s">
-        <v>4373</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1347" s="1" t="s">
-        <v>4374</v>
+        <v>4401</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>4356</v>
+        <v>4396</v>
       </c>
       <c r="C1347" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1347" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1347" s="1" t="s">
-        <v>4337</v>
+        <v>4397</v>
       </c>
       <c r="J1347" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="O1347" s="1" t="s">
-        <v>4375</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1348" s="1" t="s">
-        <v>4395</v>
+        <v>4403</v>
       </c>
       <c r="B1348" s="1" t="s">
         <v>4396</v>
@@ -60702,12 +60750,12 @@
         <v>447</v>
       </c>
       <c r="O1348" s="1" t="s">
-        <v>4398</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1349" s="1" t="s">
-        <v>4399</v>
+        <v>4405</v>
       </c>
       <c r="B1349" s="1" t="s">
         <v>4396</v>
@@ -60716,12 +60764,12 @@
         <v>4397</v>
       </c>
       <c r="O1349" s="1" t="s">
-        <v>4400</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1350" s="1" t="s">
-        <v>4401</v>
+        <v>4407</v>
       </c>
       <c r="B1350" s="1" t="s">
         <v>4396</v>
@@ -60733,12 +60781,12 @@
         <v>447</v>
       </c>
       <c r="O1350" s="1" t="s">
-        <v>4402</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1351" s="1" t="s">
-        <v>4403</v>
+        <v>4409</v>
       </c>
       <c r="B1351" s="1" t="s">
         <v>4396</v>
@@ -60746,16 +60794,13 @@
       <c r="C1351" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1351" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1351" s="1" t="s">
-        <v>4404</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1352" s="1" t="s">
-        <v>4405</v>
+        <v>4411</v>
       </c>
       <c r="B1352" s="1" t="s">
         <v>4396</v>
@@ -60764,12 +60809,12 @@
         <v>4397</v>
       </c>
       <c r="O1352" s="1" t="s">
-        <v>4406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1353" s="1" t="s">
-        <v>4407</v>
+        <v>4413</v>
       </c>
       <c r="B1353" s="1" t="s">
         <v>4396</v>
@@ -60781,12 +60826,12 @@
         <v>447</v>
       </c>
       <c r="O1353" s="1" t="s">
-        <v>4408</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1354" s="1" t="s">
-        <v>4409</v>
+        <v>4415</v>
       </c>
       <c r="B1354" s="1" t="s">
         <v>4396</v>
@@ -60795,12 +60840,12 @@
         <v>4397</v>
       </c>
       <c r="O1354" s="1" t="s">
-        <v>4410</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1355" s="1" t="s">
-        <v>4411</v>
+        <v>4417</v>
       </c>
       <c r="B1355" s="1" t="s">
         <v>4396</v>
@@ -60808,13 +60853,16 @@
       <c r="C1355" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="J1355" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1355" s="1" t="s">
-        <v>4412</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1356" s="1" t="s">
-        <v>4413</v>
+        <v>4419</v>
       </c>
       <c r="B1356" s="1" t="s">
         <v>4396</v>
@@ -60822,16 +60870,13 @@
       <c r="C1356" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1356" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1356" s="1" t="s">
-        <v>4414</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1357" s="1" t="s">
-        <v>4415</v>
+        <v>4421</v>
       </c>
       <c r="B1357" s="1" t="s">
         <v>4396</v>
@@ -60840,12 +60885,12 @@
         <v>4397</v>
       </c>
       <c r="O1357" s="1" t="s">
-        <v>4416</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1358" s="1" t="s">
-        <v>4417</v>
+        <v>4423</v>
       </c>
       <c r="B1358" s="1" t="s">
         <v>4396</v>
@@ -60853,16 +60898,13 @@
       <c r="C1358" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1358" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1358" s="1" t="s">
-        <v>4418</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1359" s="1" t="s">
-        <v>4419</v>
+        <v>4425</v>
       </c>
       <c r="B1359" s="1" t="s">
         <v>4396</v>
@@ -60870,156 +60912,186 @@
       <c r="C1359" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="D1359" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1359" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="O1359" s="1" t="s">
-        <v>4420</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1360" s="1" t="s">
-        <v>4421</v>
+        <v>4427</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1360" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1360" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1360" s="1" t="s">
-        <v>4422</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1361" s="1" t="s">
-        <v>4423</v>
+        <v>4430</v>
       </c>
       <c r="B1361" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1361" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1361" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1361" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1361" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1361" s="1" t="s">
-        <v>4424</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1362" s="1" t="s">
-        <v>4425</v>
+        <v>4478</v>
       </c>
       <c r="B1362" s="1" t="s">
-        <v>4396</v>
+        <v>4479</v>
       </c>
       <c r="C1362" s="1" t="s">
-        <v>4397</v>
+        <v>2</v>
       </c>
       <c r="D1362" s="1" t="s">
-        <v>158</v>
+        <v>1274</v>
       </c>
       <c r="J1362" s="1" t="s">
-        <v>349</v>
+        <v>177</v>
+      </c>
+      <c r="K1362" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1362" s="1" t="s">
-        <v>4426</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1363" s="1" t="s">
-        <v>4427</v>
+        <v>4481</v>
       </c>
       <c r="B1363" s="1" t="s">
-        <v>4428</v>
+        <v>4479</v>
       </c>
       <c r="C1363" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1363" s="1" t="s">
-        <v>2</v>
+        <v>1274</v>
       </c>
       <c r="J1363" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K1363" s="1" t="s">
-        <v>85</v>
+        <v>1275</v>
       </c>
       <c r="O1363" s="1" t="s">
-        <v>4429</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1364" s="1" t="s">
-        <v>4430</v>
+        <v>4490</v>
       </c>
       <c r="B1364" s="1" t="s">
-        <v>4428</v>
+        <v>4491</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>348</v>
+        <v>1340</v>
       </c>
       <c r="D1364" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="J1364" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1364" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1364" s="1" t="s">
-        <v>4431</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1365" s="1" t="s">
-        <v>4478</v>
+        <v>4493</v>
       </c>
       <c r="B1365" s="1" t="s">
-        <v>4479</v>
+        <v>4491</v>
       </c>
       <c r="C1365" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D1365" s="1" t="s">
-        <v>1274</v>
+        <v>1340</v>
       </c>
       <c r="J1365" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1365" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1365" s="1" t="s">
-        <v>4480</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1366" s="1" t="s">
-        <v>4481</v>
+        <v>4495</v>
       </c>
       <c r="B1366" s="1" t="s">
-        <v>4479</v>
+        <v>4496</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D1366" s="1" t="s">
-        <v>1274</v>
+        <v>1340</v>
+      </c>
+      <c r="E1366" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1366" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K1366" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1366" s="1" t="s">
-        <v>4482</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1367" s="1" t="s">
-        <v>4490</v>
+        <v>4498</v>
       </c>
       <c r="B1367" s="1" t="s">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="C1367" s="1" t="s">
         <v>1340</v>
@@ -61027,6 +61099,9 @@
       <c r="D1367" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="E1367" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1367" s="1" t="s">
         <v>383</v>
       </c>
@@ -61034,15 +61109,15 @@
         <v>1925</v>
       </c>
       <c r="O1367" s="1" t="s">
-        <v>4492</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1368" s="1" t="s">
-        <v>4493</v>
+        <v>4500</v>
       </c>
       <c r="B1368" s="1" t="s">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="C1368" s="1" t="s">
         <v>1340</v>
@@ -61050,6 +61125,9 @@
       <c r="D1368" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="E1368" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1368" s="1" t="s">
         <v>383</v>
       </c>
@@ -61057,23 +61135,20 @@
         <v>1925</v>
       </c>
       <c r="O1368" s="1" t="s">
-        <v>4494</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1369" s="1" t="s">
-        <v>4495</v>
+        <v>4502</v>
       </c>
       <c r="B1369" s="1" t="s">
-        <v>4496</v>
+        <v>4503</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1369" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1369" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1369" s="1" t="s">
@@ -61083,67 +61158,61 @@
         <v>1925</v>
       </c>
       <c r="O1369" s="1" t="s">
-        <v>4497</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1370" s="1" t="s">
-        <v>4498</v>
+        <v>4513</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>4496</v>
+        <v>4514</v>
       </c>
       <c r="C1370" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1370" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1370" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1370" s="1" t="s">
         <v>383</v>
       </c>
       <c r="K1370" s="1" t="s">
-        <v>1925</v>
+        <v>1534</v>
       </c>
       <c r="O1370" s="1" t="s">
-        <v>4499</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1371" s="1" t="s">
-        <v>4500</v>
+        <v>4516</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>4496</v>
+        <v>4514</v>
       </c>
       <c r="C1371" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D1371" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1371" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1371" s="1" t="s">
         <v>383</v>
       </c>
       <c r="K1371" s="1" t="s">
-        <v>1925</v>
+        <v>1534</v>
       </c>
       <c r="O1371" s="1" t="s">
-        <v>4501</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1372" s="1" t="s">
-        <v>4502</v>
+        <v>4518</v>
       </c>
       <c r="B1372" s="1" t="s">
-        <v>4503</v>
+        <v>4514</v>
       </c>
       <c r="C1372" s="1" t="s">
         <v>348</v>
@@ -61155,15 +61224,15 @@
         <v>383</v>
       </c>
       <c r="K1372" s="1" t="s">
-        <v>1925</v>
+        <v>1534</v>
       </c>
       <c r="O1372" s="1" t="s">
-        <v>4504</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1373" s="1" t="s">
-        <v>4513</v>
+        <v>4520</v>
       </c>
       <c r="B1373" s="1" t="s">
         <v>4514</v>
@@ -61181,12 +61250,12 @@
         <v>1534</v>
       </c>
       <c r="O1373" s="1" t="s">
-        <v>4515</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1374" s="1" t="s">
-        <v>4516</v>
+        <v>4522</v>
       </c>
       <c r="B1374" s="1" t="s">
         <v>4514</v>
@@ -61204,15 +61273,15 @@
         <v>1534</v>
       </c>
       <c r="O1374" s="1" t="s">
-        <v>4517</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1375" s="1" t="s">
-        <v>4518</v>
+        <v>4524</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C1375" s="1" t="s">
         <v>348</v>
@@ -61224,18 +61293,18 @@
         <v>383</v>
       </c>
       <c r="K1375" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O1375" s="1" t="s">
-        <v>4519</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1376" s="1" t="s">
-        <v>4520</v>
+        <v>4527</v>
       </c>
       <c r="B1376" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C1376" s="1" t="s">
         <v>348</v>
@@ -61247,90 +61316,81 @@
         <v>383</v>
       </c>
       <c r="K1376" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O1376" s="1" t="s">
-        <v>4521</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1377" s="1" t="s">
-        <v>4522</v>
+        <v>4529</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>4514</v>
+        <v>4530</v>
       </c>
       <c r="C1377" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1377" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1377" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1377" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O1377" s="1" t="s">
-        <v>4523</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1378" s="1" t="s">
-        <v>4524</v>
+        <v>4532</v>
       </c>
       <c r="B1378" s="1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
       <c r="C1378" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1378" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1378" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1378" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1378" s="1" t="s">
-        <v>4526</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1379" s="1" t="s">
-        <v>4527</v>
+        <v>4534</v>
       </c>
       <c r="B1379" s="1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1379" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1379" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1379" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1379" s="1" t="s">
-        <v>4528</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1380" s="1" t="s">
-        <v>4529</v>
+        <v>4548</v>
       </c>
       <c r="B1380" s="1" t="s">
-        <v>4530</v>
+        <v>4549</v>
       </c>
       <c r="C1380" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D1380" s="1" t="s">
         <v>2</v>
@@ -61339,18 +61399,18 @@
         <v>177</v>
       </c>
       <c r="O1380" s="1" t="s">
-        <v>4531</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1381" s="1" t="s">
-        <v>4532</v>
+        <v>4551</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>4530</v>
+        <v>4549</v>
       </c>
       <c r="C1381" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D1381" s="1" t="s">
         <v>2</v>
@@ -61359,158 +61419,161 @@
         <v>177</v>
       </c>
       <c r="O1381" s="1" t="s">
-        <v>4533</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1382" s="1" t="s">
-        <v>4534</v>
+        <v>4553</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>4530</v>
+        <v>4554</v>
       </c>
       <c r="C1382" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1382" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1382" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O1382" s="1" t="s">
-        <v>4535</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1383" s="1" t="s">
-        <v>4548</v>
+        <v>4556</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>4549</v>
+        <v>4557</v>
       </c>
       <c r="C1383" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1383" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J1383" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1383" s="1" t="s">
+        <v>4078</v>
       </c>
       <c r="O1383" s="1" t="s">
-        <v>4550</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1384" s="1" t="s">
-        <v>4551</v>
+        <v>4564</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>4549</v>
+        <v>4565</v>
       </c>
       <c r="C1384" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D1384" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="E1384" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1384" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1384" s="1" t="s">
-        <v>177</v>
+        <v>609</v>
+      </c>
+      <c r="K1384" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1384" s="1" t="s">
-        <v>4552</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="1385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1385" s="1" t="s">
-        <v>4553</v>
+        <v>4567</v>
       </c>
       <c r="B1385" s="1" t="s">
-        <v>4554</v>
+        <v>4565</v>
       </c>
       <c r="C1385" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1385" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
+      </c>
+      <c r="E1385" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1385" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J1385" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K1385" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1385" s="1" t="s">
-        <v>4555</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1386" s="1" t="s">
-        <v>4556</v>
+        <v>4569</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>4557</v>
+        <v>4570</v>
       </c>
       <c r="C1386" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1386" s="1" t="s">
-        <v>567</v>
+        <v>158</v>
       </c>
       <c r="J1386" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1386" s="1" t="s">
-        <v>4078</v>
+        <v>364</v>
       </c>
       <c r="O1386" s="1" t="s">
-        <v>4558</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1387" s="1" t="s">
-        <v>4564</v>
+        <v>4572</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1387" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1387" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1387" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1387" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J1387" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1387" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
       </c>
       <c r="O1387" s="1" t="s">
-        <v>4566</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1388" s="1" t="s">
-        <v>4567</v>
+        <v>4574</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C1388" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1388" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1388" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1388" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="J1388" s="1" t="s">
@@ -61520,12 +61583,12 @@
         <v>1723</v>
       </c>
       <c r="O1388" s="1" t="s">
-        <v>4568</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1389" s="1" t="s">
-        <v>4569</v>
+        <v>4576</v>
       </c>
       <c r="B1389" s="1" t="s">
         <v>4570</v>
@@ -61534,18 +61597,21 @@
         <v>348</v>
       </c>
       <c r="D1389" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1389" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1389" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1389" s="1" t="s">
-        <v>4571</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1390" s="1" t="s">
-        <v>4572</v>
+        <v>4578</v>
       </c>
       <c r="B1390" s="1" t="s">
         <v>4570</v>
@@ -61554,18 +61620,21 @@
         <v>348</v>
       </c>
       <c r="D1390" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J1390" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K1390" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O1390" s="1" t="s">
-        <v>4573</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1391" s="1" t="s">
-        <v>4574</v>
+        <v>4580</v>
       </c>
       <c r="B1391" s="1" t="s">
         <v>4570</v>
@@ -61583,12 +61652,12 @@
         <v>1723</v>
       </c>
       <c r="O1391" s="1" t="s">
-        <v>4575</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1392" s="1" t="s">
-        <v>4576</v>
+        <v>4582</v>
       </c>
       <c r="B1392" s="1" t="s">
         <v>4570</v>
@@ -61606,12 +61675,12 @@
         <v>1723</v>
       </c>
       <c r="O1392" s="1" t="s">
-        <v>4577</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1393" s="1" t="s">
-        <v>4578</v>
+        <v>4584</v>
       </c>
       <c r="B1393" s="1" t="s">
         <v>4570</v>
@@ -61629,12 +61698,12 @@
         <v>1723</v>
       </c>
       <c r="O1393" s="1" t="s">
-        <v>4579</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1394" s="1" t="s">
-        <v>4580</v>
+        <v>4586</v>
       </c>
       <c r="B1394" s="1" t="s">
         <v>4570</v>
@@ -61652,12 +61721,12 @@
         <v>1723</v>
       </c>
       <c r="O1394" s="1" t="s">
-        <v>4581</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1395" s="1" t="s">
-        <v>4582</v>
+        <v>4588</v>
       </c>
       <c r="B1395" s="1" t="s">
         <v>4570</v>
@@ -61675,12 +61744,12 @@
         <v>1723</v>
       </c>
       <c r="O1395" s="1" t="s">
-        <v>4583</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1396" s="1" t="s">
-        <v>4584</v>
+        <v>4590</v>
       </c>
       <c r="B1396" s="1" t="s">
         <v>4570</v>
@@ -61698,12 +61767,12 @@
         <v>1723</v>
       </c>
       <c r="O1396" s="1" t="s">
-        <v>4585</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1397" s="1" t="s">
-        <v>4586</v>
+        <v>4592</v>
       </c>
       <c r="B1397" s="1" t="s">
         <v>4570</v>
@@ -61721,12 +61790,12 @@
         <v>1723</v>
       </c>
       <c r="O1397" s="1" t="s">
-        <v>4587</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1398" s="1" t="s">
-        <v>4588</v>
+        <v>4594</v>
       </c>
       <c r="B1398" s="1" t="s">
         <v>4570</v>
@@ -61744,12 +61813,12 @@
         <v>1723</v>
       </c>
       <c r="O1398" s="1" t="s">
-        <v>4589</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="1399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1399" s="1" t="s">
-        <v>4590</v>
+        <v>4596</v>
       </c>
       <c r="B1399" s="1" t="s">
         <v>4570</v>
@@ -61767,12 +61836,12 @@
         <v>1723</v>
       </c>
       <c r="O1399" s="1" t="s">
-        <v>4591</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1400" s="1" t="s">
-        <v>4592</v>
+        <v>4598</v>
       </c>
       <c r="B1400" s="1" t="s">
         <v>4570</v>
@@ -61790,12 +61859,12 @@
         <v>1723</v>
       </c>
       <c r="O1400" s="1" t="s">
-        <v>4593</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="1401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1401" s="1" t="s">
-        <v>4594</v>
+        <v>4600</v>
       </c>
       <c r="B1401" s="1" t="s">
         <v>4570</v>
@@ -61813,12 +61882,12 @@
         <v>1723</v>
       </c>
       <c r="O1401" s="1" t="s">
-        <v>4595</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="1402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1402" s="1" t="s">
-        <v>4596</v>
+        <v>4602</v>
       </c>
       <c r="B1402" s="1" t="s">
         <v>4570</v>
@@ -61836,12 +61905,12 @@
         <v>1723</v>
       </c>
       <c r="O1402" s="1" t="s">
-        <v>4597</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="1403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1403" s="1" t="s">
-        <v>4598</v>
+        <v>4604</v>
       </c>
       <c r="B1403" s="1" t="s">
         <v>4570</v>
@@ -61859,12 +61928,12 @@
         <v>1723</v>
       </c>
       <c r="O1403" s="1" t="s">
-        <v>4599</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="1404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1404" s="1" t="s">
-        <v>4600</v>
+        <v>4606</v>
       </c>
       <c r="B1404" s="1" t="s">
         <v>4570</v>
@@ -61882,12 +61951,12 @@
         <v>1723</v>
       </c>
       <c r="O1404" s="1" t="s">
-        <v>4601</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="1405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1405" s="1" t="s">
-        <v>4602</v>
+        <v>4608</v>
       </c>
       <c r="B1405" s="1" t="s">
         <v>4570</v>
@@ -61905,12 +61974,12 @@
         <v>1723</v>
       </c>
       <c r="O1405" s="1" t="s">
-        <v>4603</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="1406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1406" s="1" t="s">
-        <v>4604</v>
+        <v>4610</v>
       </c>
       <c r="B1406" s="1" t="s">
         <v>4570</v>
@@ -61928,12 +61997,12 @@
         <v>1723</v>
       </c>
       <c r="O1406" s="1" t="s">
-        <v>4605</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="1407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1407" s="1" t="s">
-        <v>4606</v>
+        <v>4612</v>
       </c>
       <c r="B1407" s="1" t="s">
         <v>4570</v>
@@ -61951,12 +62020,12 @@
         <v>1723</v>
       </c>
       <c r="O1407" s="1" t="s">
-        <v>4607</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="1408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1408" s="1" t="s">
-        <v>4608</v>
+        <v>4614</v>
       </c>
       <c r="B1408" s="1" t="s">
         <v>4570</v>
@@ -61964,22 +62033,16 @@
       <c r="C1408" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1408" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="J1408" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1408" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O1408" s="1" t="s">
-        <v>4609</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="1409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
-        <v>4610</v>
+        <v>4616</v>
       </c>
       <c r="B1409" s="1" t="s">
         <v>4570</v>
@@ -61997,75 +62060,81 @@
         <v>1723</v>
       </c>
       <c r="O1409" s="1" t="s">
-        <v>4611</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="1410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1410" s="1" t="s">
-        <v>4612</v>
+        <v>4618</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1410" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1410" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1410" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1410" s="1" t="s">
-        <v>4613</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1411" s="1" t="s">
-        <v>4614</v>
+        <v>4621</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1411" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1411" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1411" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
+      </c>
+      <c r="K1411" s="1" t="s">
+        <v>2692</v>
       </c>
       <c r="O1411" s="1" t="s">
-        <v>4615</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="1412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1412" s="1" t="s">
-        <v>4616</v>
+        <v>4623</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C1412" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J1412" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1412" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O1412" s="1" t="s">
-        <v>4617</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="1413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1413" s="1" t="s">
-        <v>4618</v>
+        <v>4625</v>
       </c>
       <c r="B1413" s="1" t="s">
         <v>4619</v>
@@ -62083,84 +62152,75 @@
         <v>2692</v>
       </c>
       <c r="O1413" s="1" t="s">
-        <v>4620</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="1414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1414" s="1" t="s">
-        <v>4621</v>
+        <v>4627</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C1414" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1414" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1414" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O1414" s="1" t="s">
-        <v>4622</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1415" s="1" t="s">
-        <v>4623</v>
+        <v>4631</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C1415" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1415" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1415" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1415" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O1415" s="1" t="s">
-        <v>4624</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="1416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1416" s="1" t="s">
-        <v>4625</v>
+        <v>4638</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>4619</v>
+        <v>4639</v>
       </c>
       <c r="C1416" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1416" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1416" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O1416" s="1" t="s">
-        <v>4626</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1417" s="1" t="s">
-        <v>4627</v>
+        <v>4641</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1417" s="1" t="s">
         <v>348</v>
@@ -62169,18 +62229,18 @@
         <v>158</v>
       </c>
       <c r="J1417" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1417" s="1" t="s">
-        <v>4630</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="1418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1418" s="1" t="s">
-        <v>4631</v>
+        <v>4643</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C1418" s="1" t="s">
         <v>348</v>
@@ -62189,15 +62249,15 @@
         <v>158</v>
       </c>
       <c r="J1418" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O1418" s="1" t="s">
-        <v>4632</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="1419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1419" s="1" t="s">
-        <v>4638</v>
+        <v>4645</v>
       </c>
       <c r="B1419" s="1" t="s">
         <v>4639</v>
@@ -62212,12 +62272,12 @@
         <v>1640</v>
       </c>
       <c r="O1419" s="1" t="s">
-        <v>4640</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="1420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1420" s="1" t="s">
-        <v>4641</v>
+        <v>4647</v>
       </c>
       <c r="B1420" s="1" t="s">
         <v>4639</v>
@@ -62232,12 +62292,12 @@
         <v>1640</v>
       </c>
       <c r="O1420" s="1" t="s">
-        <v>4642</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1421" s="1" t="s">
-        <v>4643</v>
+        <v>4649</v>
       </c>
       <c r="B1421" s="1" t="s">
         <v>4639</v>
@@ -62252,12 +62312,12 @@
         <v>1640</v>
       </c>
       <c r="O1421" s="1" t="s">
-        <v>4644</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1422" s="1" t="s">
-        <v>4645</v>
+        <v>4651</v>
       </c>
       <c r="B1422" s="1" t="s">
         <v>4639</v>
@@ -62272,12 +62332,12 @@
         <v>1640</v>
       </c>
       <c r="O1422" s="1" t="s">
-        <v>4646</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
-        <v>4647</v>
+        <v>4653</v>
       </c>
       <c r="B1423" s="1" t="s">
         <v>4639</v>
@@ -62292,12 +62352,12 @@
         <v>1640</v>
       </c>
       <c r="O1423" s="1" t="s">
-        <v>4648</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="1424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
-        <v>4649</v>
+        <v>4655</v>
       </c>
       <c r="B1424" s="1" t="s">
         <v>4639</v>
@@ -62312,12 +62372,12 @@
         <v>1640</v>
       </c>
       <c r="O1424" s="1" t="s">
-        <v>4650</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="1425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
-        <v>4651</v>
+        <v>4657</v>
       </c>
       <c r="B1425" s="1" t="s">
         <v>4639</v>
@@ -62332,12 +62392,12 @@
         <v>1640</v>
       </c>
       <c r="O1425" s="1" t="s">
-        <v>4652</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="1426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1426" s="1" t="s">
-        <v>4653</v>
+        <v>4659</v>
       </c>
       <c r="B1426" s="1" t="s">
         <v>4639</v>
@@ -62352,12 +62412,12 @@
         <v>1640</v>
       </c>
       <c r="O1426" s="1" t="s">
-        <v>4654</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="1427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1427" s="1" t="s">
-        <v>4655</v>
+        <v>4661</v>
       </c>
       <c r="B1427" s="1" t="s">
         <v>4639</v>
@@ -62372,18 +62432,18 @@
         <v>1640</v>
       </c>
       <c r="O1427" s="1" t="s">
-        <v>4656</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="1428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1428" s="1" t="s">
-        <v>4657</v>
+        <v>4663</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1428" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1428" s="1" t="s">
         <v>158</v>
@@ -62392,18 +62452,18 @@
         <v>1640</v>
       </c>
       <c r="O1428" s="1" t="s">
-        <v>4658</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1429" s="1" t="s">
-        <v>4659</v>
+        <v>4666</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C1429" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D1429" s="1" t="s">
         <v>158</v>
@@ -62412,175 +62472,172 @@
         <v>1640</v>
       </c>
       <c r="O1429" s="1" t="s">
-        <v>4660</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1430" s="1" t="s">
-        <v>4661</v>
+        <v>4704</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>4639</v>
+        <v>4705</v>
       </c>
       <c r="C1430" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1430" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1430" s="1" t="s">
-        <v>4662</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1431" s="1" t="s">
-        <v>4663</v>
+        <v>4707</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>4664</v>
+        <v>4705</v>
       </c>
       <c r="C1431" s="1" t="s">
-        <v>2297</v>
+        <v>2</v>
       </c>
       <c r="D1431" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1431" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O1431" s="1" t="s">
-        <v>4665</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
-        <v>4666</v>
+        <v>4709</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>4664</v>
+        <v>4710</v>
       </c>
       <c r="C1432" s="1" t="s">
-        <v>2297</v>
+        <v>348</v>
       </c>
       <c r="D1432" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J1432" s="1" t="s">
-        <v>1640</v>
+        <v>383</v>
+      </c>
+      <c r="K1432" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1432" s="1" t="s">
-        <v>4667</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1433" s="1" t="s">
-        <v>4704</v>
+        <v>4712</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>4705</v>
+        <v>4713</v>
       </c>
       <c r="C1433" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D1433" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1433" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K1433" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O1433" s="1" t="s">
-        <v>4706</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
-        <v>4707</v>
+        <v>4715</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>4705</v>
+        <v>4710</v>
       </c>
       <c r="C1434" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1434" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="J1434" s="1" t="s">
-        <v>62</v>
+        <v>1925</v>
       </c>
       <c r="O1434" s="1" t="s">
-        <v>4708</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1435" s="1" t="s">
-        <v>4709</v>
+        <v>4717</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C1435" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1435" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1435" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K1435" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1435" s="1" t="s">
-        <v>4711</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1436" s="1" t="s">
-        <v>4712</v>
+        <v>4720</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>4713</v>
+        <v>4718</v>
       </c>
       <c r="C1436" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1436" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1436" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K1436" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O1436" s="1" t="s">
-        <v>4714</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1437" s="1" t="s">
-        <v>4715</v>
+        <v>4722</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C1437" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1437" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1437" s="1" t="s">
-        <v>4716</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1438" s="1" t="s">
-        <v>4717</v>
+        <v>4724</v>
       </c>
       <c r="B1438" s="1" t="s">
         <v>4718</v>
@@ -62589,72 +62646,81 @@
         <v>348</v>
       </c>
       <c r="J1438" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1438" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O1438" s="1" t="s">
-        <v>4719</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1439" s="1" t="s">
-        <v>4720</v>
+        <v>4735</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1439" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1439" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1439" s="1" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="K1439" s="1" t="s">
-        <v>1925</v>
+        <v>383</v>
       </c>
       <c r="O1439" s="1" t="s">
-        <v>4721</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="1440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
-        <v>4722</v>
+        <v>4739</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1440" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1440" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1440" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
+      </c>
+      <c r="K1440" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O1440" s="1" t="s">
-        <v>4723</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="1441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
-        <v>4724</v>
+        <v>4741</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C1441" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1441" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J1441" s="1" t="s">
-        <v>1723</v>
+        <v>85</v>
       </c>
       <c r="O1441" s="1" t="s">
-        <v>4725</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
-        <v>4735</v>
+        <v>4743</v>
       </c>
       <c r="B1442" s="1" t="s">
         <v>4736</v>
@@ -62666,18 +62732,15 @@
         <v>4737</v>
       </c>
       <c r="J1442" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1442" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1442" s="1" t="s">
-        <v>4738</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
-        <v>4739</v>
+        <v>4745</v>
       </c>
       <c r="B1443" s="1" t="s">
         <v>4736</v>
@@ -62689,18 +62752,15 @@
         <v>4737</v>
       </c>
       <c r="J1443" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1443" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O1443" s="1" t="s">
-        <v>4740</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
-        <v>4741</v>
+        <v>4747</v>
       </c>
       <c r="B1444" s="1" t="s">
         <v>4736</v>
@@ -62715,12 +62775,12 @@
         <v>85</v>
       </c>
       <c r="O1444" s="1" t="s">
-        <v>4742</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
-        <v>4743</v>
+        <v>4749</v>
       </c>
       <c r="B1445" s="1" t="s">
         <v>4736</v>
@@ -62728,19 +62788,16 @@
       <c r="C1445" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1445" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1445" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1445" s="1" t="s">
-        <v>4744</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
-        <v>4745</v>
+        <v>4751</v>
       </c>
       <c r="B1446" s="1" t="s">
         <v>4736</v>
@@ -62755,12 +62812,12 @@
         <v>85</v>
       </c>
       <c r="O1446" s="1" t="s">
-        <v>4746</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="1447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
-        <v>4747</v>
+        <v>4753</v>
       </c>
       <c r="B1447" s="1" t="s">
         <v>4736</v>
@@ -62775,12 +62832,12 @@
         <v>85</v>
       </c>
       <c r="O1447" s="1" t="s">
-        <v>4748</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
-        <v>4749</v>
+        <v>4755</v>
       </c>
       <c r="B1448" s="1" t="s">
         <v>4736</v>
@@ -62792,12 +62849,12 @@
         <v>85</v>
       </c>
       <c r="O1448" s="1" t="s">
-        <v>4750</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
-        <v>4751</v>
+        <v>4757</v>
       </c>
       <c r="B1449" s="1" t="s">
         <v>4736</v>
@@ -62805,19 +62862,16 @@
       <c r="C1449" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1449" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1449" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1449" s="1" t="s">
-        <v>4752</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
-        <v>4753</v>
+        <v>4759</v>
       </c>
       <c r="B1450" s="1" t="s">
         <v>4736</v>
@@ -62825,472 +62879,475 @@
       <c r="C1450" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1450" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J1450" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O1450" s="1" t="s">
-        <v>4754</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
-        <v>4755</v>
+        <v>4761</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>4736</v>
+        <v>4762</v>
       </c>
       <c r="C1451" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1451" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1451" s="1" t="s">
-        <v>4756</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="1452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1452" s="1" t="s">
-        <v>4757</v>
+        <v>4764</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>4736</v>
+        <v>4765</v>
       </c>
       <c r="C1452" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1452" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O1452" s="1" t="s">
-        <v>4758</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1453" s="1" t="s">
-        <v>4759</v>
+        <v>4767</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>4736</v>
+        <v>4768</v>
       </c>
       <c r="C1453" s="1" t="s">
-        <v>348</v>
+        <v>1340</v>
       </c>
       <c r="J1453" s="1" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="O1453" s="1" t="s">
-        <v>4760</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="1454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
-        <v>4761</v>
+        <v>4770</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>4762</v>
+        <v>4771</v>
       </c>
       <c r="C1454" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J1454" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1454" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1454" s="1" t="s">
-        <v>4763</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="1455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
-        <v>4764</v>
+        <v>4773</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>4765</v>
+        <v>4771</v>
       </c>
       <c r="C1455" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1455" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1455" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="K1455" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1455" s="1" t="s">
-        <v>4766</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="1456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
-        <v>4767</v>
+        <v>4776</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>4768</v>
+        <v>4771</v>
       </c>
       <c r="C1456" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
+      </c>
+      <c r="D1456" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J1456" s="1" t="s">
-        <v>364</v>
+        <v>4774</v>
+      </c>
+      <c r="K1456" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O1456" s="1" t="s">
-        <v>4769</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
-        <v>4770</v>
+        <v>4781</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>4771</v>
+        <v>4782</v>
       </c>
       <c r="C1457" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D1457" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1457" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1457" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1457" s="1" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="K1457" s="1" t="s">
-        <v>1925</v>
+        <v>4783</v>
       </c>
       <c r="O1457" s="1" t="s">
-        <v>4772</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
-        <v>4773</v>
+        <v>4810</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>4771</v>
+        <v>4811</v>
       </c>
       <c r="C1458" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1458" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1458" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K1458" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1458" s="1" t="s">
-        <v>4775</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
-        <v>4776</v>
+        <v>4824</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>4771</v>
+        <v>4825</v>
       </c>
       <c r="C1459" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1459" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1459" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K1459" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O1459" s="1" t="s">
-        <v>4777</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
-        <v>4781</v>
+        <v>4827</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>4782</v>
+        <v>4825</v>
       </c>
       <c r="C1460" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D1460" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1460" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1460" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1460" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1460" s="1" t="s">
-        <v>4783</v>
+        <v>1925</v>
       </c>
       <c r="O1460" s="1" t="s">
-        <v>4784</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1461" s="1" t="s">
-        <v>4810</v>
+        <v>4854</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>4811</v>
+        <v>4855</v>
       </c>
       <c r="C1461" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1461" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1461" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1461" s="1" t="s">
-        <v>4812</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="1462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
-        <v>4824</v>
+        <v>4857</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>4825</v>
+        <v>4858</v>
       </c>
       <c r="C1462" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J1462" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1462" s="1" t="s">
-        <v>4826</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
-        <v>4827</v>
+        <v>4860</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>4825</v>
+        <v>4858</v>
       </c>
       <c r="C1463" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J1463" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O1463" s="1" t="s">
-        <v>4828</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
-        <v>4854</v>
+        <v>4862</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>4855</v>
+        <v>4863</v>
       </c>
       <c r="C1464" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D1464" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J1464" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O1464" s="1" t="s">
-        <v>4856</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="1465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
-        <v>4857</v>
+        <v>4865</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>4858</v>
+        <v>4863</v>
       </c>
       <c r="C1465" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J1465" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O1465" s="1" t="s">
-        <v>4859</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="1466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>4860</v>
+        <v>4870</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>4858</v>
+        <v>4871</v>
       </c>
       <c r="C1466" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="J1466" s="1" t="s">
-        <v>177</v>
+        <v>3704</v>
       </c>
       <c r="O1466" s="1" t="s">
-        <v>4861</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="1467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
-        <v>4862</v>
+        <v>4873</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C1467" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1467" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1467" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O1467" s="1" t="s">
-        <v>4864</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1468" s="1" t="s">
-        <v>4865</v>
+        <v>4876</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C1468" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1468" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J1468" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O1468" s="1" t="s">
-        <v>4866</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>4870</v>
+        <v>4878</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>4871</v>
+        <v>4879</v>
       </c>
       <c r="C1469" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J1469" s="1" t="s">
-        <v>3704</v>
+        <v>395</v>
       </c>
       <c r="O1469" s="1" t="s">
-        <v>4872</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
-        <v>4873</v>
+        <v>4881</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>4874</v>
+        <v>4882</v>
       </c>
       <c r="C1470" s="1" t="s">
-        <v>521</v>
+        <v>4294</v>
+      </c>
+      <c r="D1470" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E1470" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1470" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J1470" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1470" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O1470" s="1" t="s">
-        <v>4875</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
-        <v>4876</v>
+        <v>4902</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>4874</v>
+        <v>4903</v>
       </c>
       <c r="C1471" s="1" t="s">
-        <v>521</v>
+        <v>395</v>
+      </c>
+      <c r="J1471" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O1471" s="1" t="s">
-        <v>4877</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>4878</v>
+        <v>4911</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>4879</v>
+        <v>4912</v>
       </c>
       <c r="C1472" s="1" t="s">
-        <v>395</v>
+        <v>348</v>
+      </c>
+      <c r="D1472" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1472" s="1" t="s">
+        <v>1493</v>
       </c>
       <c r="O1472" s="1" t="s">
-        <v>4880</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
-        <v>4881</v>
+        <v>4914</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>4882</v>
+        <v>4915</v>
       </c>
       <c r="C1473" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="D1473" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="E1473" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F1473" s="1" t="s">
-        <v>1266</v>
+        <v>446</v>
       </c>
       <c r="J1473" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1473" s="1" t="s">
-        <v>609</v>
+        <v>62</v>
       </c>
       <c r="O1473" s="1" t="s">
-        <v>4883</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
-        <v>4902</v>
+        <v>4937</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>4903</v>
+        <v>4938</v>
       </c>
       <c r="C1474" s="1" t="s">
-        <v>395</v>
+        <v>348</v>
+      </c>
+      <c r="D1474" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1474" s="1" t="s">
-        <v>447</v>
+        <v>1640</v>
       </c>
       <c r="O1474" s="1" t="s">
-        <v>4904</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="1475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
-        <v>4911</v>
+        <v>4940</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>4912</v>
+        <v>4938</v>
       </c>
       <c r="C1475" s="1" t="s">
         <v>348</v>
@@ -63299,32 +63356,35 @@
         <v>158</v>
       </c>
       <c r="J1475" s="1" t="s">
-        <v>1493</v>
+        <v>1640</v>
       </c>
       <c r="O1475" s="1" t="s">
-        <v>4913</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>4914</v>
+        <v>4942</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>4915</v>
+        <v>4938</v>
       </c>
       <c r="C1476" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1476" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1476" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O1476" s="1" t="s">
-        <v>4916</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>4937</v>
+        <v>4944</v>
       </c>
       <c r="B1477" s="1" t="s">
         <v>4938</v>
@@ -63339,12 +63399,12 @@
         <v>1640</v>
       </c>
       <c r="O1477" s="1" t="s">
-        <v>4939</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
-        <v>4940</v>
+        <v>4946</v>
       </c>
       <c r="B1478" s="1" t="s">
         <v>4938</v>
@@ -63359,12 +63419,12 @@
         <v>1640</v>
       </c>
       <c r="O1478" s="1" t="s">
-        <v>4941</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
-        <v>4942</v>
+        <v>4948</v>
       </c>
       <c r="B1479" s="1" t="s">
         <v>4938</v>
@@ -63379,12 +63439,12 @@
         <v>1640</v>
       </c>
       <c r="O1479" s="1" t="s">
-        <v>4943</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>4944</v>
+        <v>4950</v>
       </c>
       <c r="B1480" s="1" t="s">
         <v>4938</v>
@@ -63399,12 +63459,12 @@
         <v>1640</v>
       </c>
       <c r="O1480" s="1" t="s">
-        <v>4945</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>4946</v>
+        <v>4952</v>
       </c>
       <c r="B1481" s="1" t="s">
         <v>4938</v>
@@ -63419,12 +63479,12 @@
         <v>1640</v>
       </c>
       <c r="O1481" s="1" t="s">
-        <v>4947</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
-        <v>4948</v>
+        <v>4954</v>
       </c>
       <c r="B1482" s="1" t="s">
         <v>4938</v>
@@ -63439,12 +63499,12 @@
         <v>1640</v>
       </c>
       <c r="O1482" s="1" t="s">
-        <v>4949</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>4950</v>
+        <v>4956</v>
       </c>
       <c r="B1483" s="1" t="s">
         <v>4938</v>
@@ -63459,12 +63519,12 @@
         <v>1640</v>
       </c>
       <c r="O1483" s="1" t="s">
-        <v>4951</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>4952</v>
+        <v>4958</v>
       </c>
       <c r="B1484" s="1" t="s">
         <v>4938</v>
@@ -63479,12 +63539,12 @@
         <v>1640</v>
       </c>
       <c r="O1484" s="1" t="s">
-        <v>4953</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>4954</v>
+        <v>4960</v>
       </c>
       <c r="B1485" s="1" t="s">
         <v>4938</v>
@@ -63499,12 +63559,12 @@
         <v>1640</v>
       </c>
       <c r="O1485" s="1" t="s">
-        <v>4955</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>4956</v>
+        <v>4962</v>
       </c>
       <c r="B1486" s="1" t="s">
         <v>4938</v>
@@ -63519,12 +63579,12 @@
         <v>1640</v>
       </c>
       <c r="O1486" s="1" t="s">
-        <v>4957</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>4958</v>
+        <v>4964</v>
       </c>
       <c r="B1487" s="1" t="s">
         <v>4938</v>
@@ -63539,12 +63599,12 @@
         <v>1640</v>
       </c>
       <c r="O1487" s="1" t="s">
-        <v>4959</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>4960</v>
+        <v>4966</v>
       </c>
       <c r="B1488" s="1" t="s">
         <v>4938</v>
@@ -63559,12 +63619,12 @@
         <v>1640</v>
       </c>
       <c r="O1488" s="1" t="s">
-        <v>4961</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>4962</v>
+        <v>4968</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>4938</v>
@@ -63579,12 +63639,12 @@
         <v>1640</v>
       </c>
       <c r="O1489" s="1" t="s">
-        <v>4963</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>4964</v>
+        <v>4970</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>4938</v>
@@ -63599,12 +63659,12 @@
         <v>1640</v>
       </c>
       <c r="O1490" s="1" t="s">
-        <v>4965</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>4966</v>
+        <v>4972</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4938</v>
@@ -63619,12 +63679,12 @@
         <v>1640</v>
       </c>
       <c r="O1491" s="1" t="s">
-        <v>4967</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>4968</v>
+        <v>4974</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>4938</v>
@@ -63639,12 +63699,12 @@
         <v>1640</v>
       </c>
       <c r="O1492" s="1" t="s">
-        <v>4969</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>4938</v>
@@ -63659,12 +63719,12 @@
         <v>1640</v>
       </c>
       <c r="O1493" s="1" t="s">
-        <v>4971</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>4972</v>
+        <v>4978</v>
       </c>
       <c r="B1494" s="1" t="s">
         <v>4938</v>
@@ -63679,12 +63739,12 @@
         <v>1640</v>
       </c>
       <c r="O1494" s="1" t="s">
-        <v>4973</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>4974</v>
+        <v>4980</v>
       </c>
       <c r="B1495" s="1" t="s">
         <v>4938</v>
@@ -63699,12 +63759,12 @@
         <v>1640</v>
       </c>
       <c r="O1495" s="1" t="s">
-        <v>4975</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>4976</v>
+        <v>4982</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>4938</v>
@@ -63719,12 +63779,12 @@
         <v>1640</v>
       </c>
       <c r="O1496" s="1" t="s">
-        <v>4977</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>4978</v>
+        <v>4984</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>4938</v>
@@ -63739,12 +63799,12 @@
         <v>1640</v>
       </c>
       <c r="O1497" s="1" t="s">
-        <v>4979</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>4980</v>
+        <v>4986</v>
       </c>
       <c r="B1498" s="1" t="s">
         <v>4938</v>
@@ -63759,12 +63819,12 @@
         <v>1640</v>
       </c>
       <c r="O1498" s="1" t="s">
-        <v>4981</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>4982</v>
+        <v>4988</v>
       </c>
       <c r="B1499" s="1" t="s">
         <v>4938</v>
@@ -63779,12 +63839,12 @@
         <v>1640</v>
       </c>
       <c r="O1499" s="1" t="s">
-        <v>4983</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>4984</v>
+        <v>4990</v>
       </c>
       <c r="B1500" s="1" t="s">
         <v>4938</v>
@@ -63799,12 +63859,12 @@
         <v>1640</v>
       </c>
       <c r="O1500" s="1" t="s">
-        <v>4985</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>4986</v>
+        <v>4992</v>
       </c>
       <c r="B1501" s="1" t="s">
         <v>4938</v>
@@ -63819,12 +63879,12 @@
         <v>1640</v>
       </c>
       <c r="O1501" s="1" t="s">
-        <v>4987</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>4988</v>
+        <v>4994</v>
       </c>
       <c r="B1502" s="1" t="s">
         <v>4938</v>
@@ -63839,12 +63899,12 @@
         <v>1640</v>
       </c>
       <c r="O1502" s="1" t="s">
-        <v>4989</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="B1503" s="1" t="s">
         <v>4938</v>
@@ -63859,12 +63919,12 @@
         <v>1640</v>
       </c>
       <c r="O1503" s="1" t="s">
-        <v>4991</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
-        <v>4992</v>
+        <v>4998</v>
       </c>
       <c r="B1504" s="1" t="s">
         <v>4938</v>
@@ -63879,12 +63939,12 @@
         <v>1640</v>
       </c>
       <c r="O1504" s="1" t="s">
-        <v>4993</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="1505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>4994</v>
+        <v>5000</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>4938</v>
@@ -63899,12 +63959,12 @@
         <v>1640</v>
       </c>
       <c r="O1505" s="1" t="s">
-        <v>4995</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="1506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>4996</v>
+        <v>5002</v>
       </c>
       <c r="B1506" s="1" t="s">
         <v>4938</v>
@@ -63919,12 +63979,12 @@
         <v>1640</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>4997</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>4998</v>
+        <v>5004</v>
       </c>
       <c r="B1507" s="1" t="s">
         <v>4938</v>
@@ -63939,12 +63999,12 @@
         <v>1640</v>
       </c>
       <c r="O1507" s="1" t="s">
-        <v>4999</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="B1508" s="1" t="s">
         <v>4938</v>
@@ -63959,12 +64019,12 @@
         <v>1640</v>
       </c>
       <c r="O1508" s="1" t="s">
-        <v>5001</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>5002</v>
+        <v>5008</v>
       </c>
       <c r="B1509" s="1" t="s">
         <v>4938</v>
@@ -63979,12 +64039,12 @@
         <v>1640</v>
       </c>
       <c r="O1509" s="1" t="s">
-        <v>5003</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>5004</v>
+        <v>5010</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4938</v>
@@ -63999,12 +64059,12 @@
         <v>1640</v>
       </c>
       <c r="O1510" s="1" t="s">
-        <v>5005</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>5006</v>
+        <v>5012</v>
       </c>
       <c r="B1511" s="1" t="s">
         <v>4938</v>
@@ -64019,12 +64079,12 @@
         <v>1640</v>
       </c>
       <c r="O1511" s="1" t="s">
-        <v>5007</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>5008</v>
+        <v>5014</v>
       </c>
       <c r="B1512" s="1" t="s">
         <v>4938</v>
@@ -64039,12 +64099,12 @@
         <v>1640</v>
       </c>
       <c r="O1512" s="1" t="s">
-        <v>5009</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>5010</v>
+        <v>5016</v>
       </c>
       <c r="B1513" s="1" t="s">
         <v>4938</v>
@@ -64059,12 +64119,12 @@
         <v>1640</v>
       </c>
       <c r="O1513" s="1" t="s">
-        <v>5011</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>5012</v>
+        <v>5018</v>
       </c>
       <c r="B1514" s="1" t="s">
         <v>4938</v>
@@ -64079,12 +64139,12 @@
         <v>1640</v>
       </c>
       <c r="O1514" s="1" t="s">
-        <v>5013</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>5014</v>
+        <v>5020</v>
       </c>
       <c r="B1515" s="1" t="s">
         <v>4938</v>
@@ -64099,12 +64159,12 @@
         <v>1640</v>
       </c>
       <c r="O1515" s="1" t="s">
-        <v>5015</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>5016</v>
+        <v>5022</v>
       </c>
       <c r="B1516" s="1" t="s">
         <v>4938</v>
@@ -64119,12 +64179,12 @@
         <v>1640</v>
       </c>
       <c r="O1516" s="1" t="s">
-        <v>5017</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>5018</v>
+        <v>5024</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4938</v>
@@ -64139,12 +64199,12 @@
         <v>1640</v>
       </c>
       <c r="O1517" s="1" t="s">
-        <v>5019</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>5020</v>
+        <v>5026</v>
       </c>
       <c r="B1518" s="1" t="s">
         <v>4938</v>
@@ -64159,12 +64219,12 @@
         <v>1640</v>
       </c>
       <c r="O1518" s="1" t="s">
-        <v>5021</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>5022</v>
+        <v>5028</v>
       </c>
       <c r="B1519" s="1" t="s">
         <v>4938</v>
@@ -64179,12 +64239,12 @@
         <v>1640</v>
       </c>
       <c r="O1519" s="1" t="s">
-        <v>5023</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>5024</v>
+        <v>5030</v>
       </c>
       <c r="B1520" s="1" t="s">
         <v>4938</v>
@@ -64199,12 +64259,12 @@
         <v>1640</v>
       </c>
       <c r="O1520" s="1" t="s">
-        <v>5025</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>5026</v>
+        <v>5032</v>
       </c>
       <c r="B1521" s="1" t="s">
         <v>4938</v>
@@ -64219,12 +64279,12 @@
         <v>1640</v>
       </c>
       <c r="O1521" s="1" t="s">
-        <v>5027</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>5028</v>
+        <v>5034</v>
       </c>
       <c r="B1522" s="1" t="s">
         <v>4938</v>
@@ -64239,12 +64299,12 @@
         <v>1640</v>
       </c>
       <c r="O1522" s="1" t="s">
-        <v>5029</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>5030</v>
+        <v>5036</v>
       </c>
       <c r="B1523" s="1" t="s">
         <v>4938</v>
@@ -64259,12 +64319,12 @@
         <v>1640</v>
       </c>
       <c r="O1523" s="1" t="s">
-        <v>5031</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>5032</v>
+        <v>5038</v>
       </c>
       <c r="B1524" s="1" t="s">
         <v>4938</v>
@@ -64279,12 +64339,12 @@
         <v>1640</v>
       </c>
       <c r="O1524" s="1" t="s">
-        <v>5033</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>5034</v>
+        <v>5040</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>4938</v>
@@ -64299,12 +64359,12 @@
         <v>1640</v>
       </c>
       <c r="O1525" s="1" t="s">
-        <v>5035</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>5036</v>
+        <v>5042</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>4938</v>
@@ -64319,12 +64379,12 @@
         <v>1640</v>
       </c>
       <c r="O1526" s="1" t="s">
-        <v>5037</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>5038</v>
+        <v>5044</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>4938</v>
@@ -64339,12 +64399,12 @@
         <v>1640</v>
       </c>
       <c r="O1527" s="1" t="s">
-        <v>5039</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>5040</v>
+        <v>5046</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>4938</v>
@@ -64359,12 +64419,12 @@
         <v>1640</v>
       </c>
       <c r="O1528" s="1" t="s">
-        <v>5041</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>5042</v>
+        <v>5048</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>4938</v>
@@ -64379,12 +64439,12 @@
         <v>1640</v>
       </c>
       <c r="O1529" s="1" t="s">
-        <v>5043</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>5044</v>
+        <v>5050</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>4938</v>
@@ -64399,12 +64459,12 @@
         <v>1640</v>
       </c>
       <c r="O1530" s="1" t="s">
-        <v>5045</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>5046</v>
+        <v>5052</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>4938</v>
@@ -64419,12 +64479,12 @@
         <v>1640</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>5047</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>5048</v>
+        <v>5054</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>4938</v>
@@ -64439,12 +64499,12 @@
         <v>1640</v>
       </c>
       <c r="O1532" s="1" t="s">
-        <v>5049</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>5050</v>
+        <v>5056</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>4938</v>
@@ -64459,12 +64519,12 @@
         <v>1640</v>
       </c>
       <c r="O1533" s="1" t="s">
-        <v>5051</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>5052</v>
+        <v>5058</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>4938</v>
@@ -64479,12 +64539,12 @@
         <v>1640</v>
       </c>
       <c r="O1534" s="1" t="s">
-        <v>5053</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>5054</v>
+        <v>5060</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>4938</v>
@@ -64499,12 +64559,12 @@
         <v>1640</v>
       </c>
       <c r="O1535" s="1" t="s">
-        <v>5055</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>5056</v>
+        <v>5062</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>4938</v>
@@ -64519,12 +64579,12 @@
         <v>1640</v>
       </c>
       <c r="O1536" s="1" t="s">
-        <v>5057</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>5058</v>
+        <v>5064</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>4938</v>
@@ -64539,12 +64599,12 @@
         <v>1640</v>
       </c>
       <c r="O1537" s="1" t="s">
-        <v>5059</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>5060</v>
+        <v>5066</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>4938</v>
@@ -64559,12 +64619,12 @@
         <v>1640</v>
       </c>
       <c r="O1538" s="1" t="s">
-        <v>5061</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>5062</v>
+        <v>5068</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>4938</v>
@@ -64579,12 +64639,12 @@
         <v>1640</v>
       </c>
       <c r="O1539" s="1" t="s">
-        <v>5063</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>5064</v>
+        <v>5070</v>
       </c>
       <c r="B1540" s="1" t="s">
         <v>4938</v>
@@ -64599,12 +64659,12 @@
         <v>1640</v>
       </c>
       <c r="O1540" s="1" t="s">
-        <v>5065</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>5066</v>
+        <v>5072</v>
       </c>
       <c r="B1541" s="1" t="s">
         <v>4938</v>
@@ -64619,12 +64679,12 @@
         <v>1640</v>
       </c>
       <c r="O1541" s="1" t="s">
-        <v>5067</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>5068</v>
+        <v>5074</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4938</v>
@@ -64639,12 +64699,12 @@
         <v>1640</v>
       </c>
       <c r="O1542" s="1" t="s">
-        <v>5069</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>5070</v>
+        <v>5076</v>
       </c>
       <c r="B1543" s="1" t="s">
         <v>4938</v>
@@ -64659,12 +64719,12 @@
         <v>1640</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>5071</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>5072</v>
+        <v>5078</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>4938</v>
@@ -64679,12 +64739,12 @@
         <v>1640</v>
       </c>
       <c r="O1544" s="1" t="s">
-        <v>5073</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>5074</v>
+        <v>5080</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>4938</v>
@@ -64699,12 +64759,12 @@
         <v>1640</v>
       </c>
       <c r="O1545" s="1" t="s">
-        <v>5075</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>5076</v>
+        <v>5082</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>4938</v>
@@ -64719,12 +64779,12 @@
         <v>1640</v>
       </c>
       <c r="O1546" s="1" t="s">
-        <v>5077</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>5078</v>
+        <v>5084</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>4938</v>
@@ -64739,12 +64799,12 @@
         <v>1640</v>
       </c>
       <c r="O1547" s="1" t="s">
-        <v>5079</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>5080</v>
+        <v>5086</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>4938</v>
@@ -64759,12 +64819,12 @@
         <v>1640</v>
       </c>
       <c r="O1548" s="1" t="s">
-        <v>5081</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>5082</v>
+        <v>5088</v>
       </c>
       <c r="B1549" s="1" t="s">
         <v>4938</v>
@@ -64779,12 +64839,12 @@
         <v>1640</v>
       </c>
       <c r="O1549" s="1" t="s">
-        <v>5083</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>5084</v>
+        <v>5090</v>
       </c>
       <c r="B1550" s="1" t="s">
         <v>4938</v>
@@ -64799,12 +64859,12 @@
         <v>1640</v>
       </c>
       <c r="O1550" s="1" t="s">
-        <v>5085</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>5086</v>
+        <v>5092</v>
       </c>
       <c r="B1551" s="1" t="s">
         <v>4938</v>
@@ -64819,12 +64879,12 @@
         <v>1640</v>
       </c>
       <c r="O1551" s="1" t="s">
-        <v>5087</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>5088</v>
+        <v>5094</v>
       </c>
       <c r="B1552" s="1" t="s">
         <v>4938</v>
@@ -64839,12 +64899,12 @@
         <v>1640</v>
       </c>
       <c r="O1552" s="1" t="s">
-        <v>5089</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>5090</v>
+        <v>5096</v>
       </c>
       <c r="B1553" s="1" t="s">
         <v>4938</v>
@@ -64859,12 +64919,12 @@
         <v>1640</v>
       </c>
       <c r="O1553" s="1" t="s">
-        <v>5091</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>5092</v>
+        <v>5098</v>
       </c>
       <c r="B1554" s="1" t="s">
         <v>4938</v>
@@ -64879,12 +64939,12 @@
         <v>1640</v>
       </c>
       <c r="O1554" s="1" t="s">
-        <v>5093</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>5094</v>
+        <v>5100</v>
       </c>
       <c r="B1555" s="1" t="s">
         <v>4938</v>
@@ -64899,12 +64959,12 @@
         <v>1640</v>
       </c>
       <c r="O1555" s="1" t="s">
-        <v>5095</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>5096</v>
+        <v>5102</v>
       </c>
       <c r="B1556" s="1" t="s">
         <v>4938</v>
@@ -64919,12 +64979,12 @@
         <v>1640</v>
       </c>
       <c r="O1556" s="1" t="s">
-        <v>5097</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>5098</v>
+        <v>5104</v>
       </c>
       <c r="B1557" s="1" t="s">
         <v>4938</v>
@@ -64939,12 +64999,12 @@
         <v>1640</v>
       </c>
       <c r="O1557" s="1" t="s">
-        <v>5099</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>5100</v>
+        <v>5106</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>4938</v>
@@ -64959,12 +65019,12 @@
         <v>1640</v>
       </c>
       <c r="O1558" s="1" t="s">
-        <v>5101</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>5102</v>
+        <v>5108</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4938</v>
@@ -64979,12 +65039,12 @@
         <v>1640</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>5103</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>5104</v>
+        <v>5110</v>
       </c>
       <c r="B1560" s="1" t="s">
         <v>4938</v>
@@ -64999,12 +65059,12 @@
         <v>1640</v>
       </c>
       <c r="O1560" s="1" t="s">
-        <v>5105</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>5106</v>
+        <v>5112</v>
       </c>
       <c r="B1561" s="1" t="s">
         <v>4938</v>
@@ -65019,12 +65079,12 @@
         <v>1640</v>
       </c>
       <c r="O1561" s="1" t="s">
-        <v>5107</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>5108</v>
+        <v>5114</v>
       </c>
       <c r="B1562" s="1" t="s">
         <v>4938</v>
@@ -65039,12 +65099,12 @@
         <v>1640</v>
       </c>
       <c r="O1562" s="1" t="s">
-        <v>5109</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>5110</v>
+        <v>5116</v>
       </c>
       <c r="B1563" s="1" t="s">
         <v>4938</v>
@@ -65059,12 +65119,12 @@
         <v>1640</v>
       </c>
       <c r="O1563" s="1" t="s">
-        <v>5111</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>5112</v>
+        <v>5118</v>
       </c>
       <c r="B1564" s="1" t="s">
         <v>4938</v>
@@ -65079,12 +65139,12 @@
         <v>1640</v>
       </c>
       <c r="O1564" s="1" t="s">
-        <v>5113</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>5114</v>
+        <v>5120</v>
       </c>
       <c r="B1565" s="1" t="s">
         <v>4938</v>
@@ -65099,12 +65159,12 @@
         <v>1640</v>
       </c>
       <c r="O1565" s="1" t="s">
-        <v>5115</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>5116</v>
+        <v>5122</v>
       </c>
       <c r="B1566" s="1" t="s">
         <v>4938</v>
@@ -65119,12 +65179,12 @@
         <v>1640</v>
       </c>
       <c r="O1566" s="1" t="s">
-        <v>5117</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>5118</v>
+        <v>5124</v>
       </c>
       <c r="B1567" s="1" t="s">
         <v>4938</v>
@@ -65139,12 +65199,12 @@
         <v>1640</v>
       </c>
       <c r="O1567" s="1" t="s">
-        <v>5119</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>5120</v>
+        <v>5126</v>
       </c>
       <c r="B1568" s="1" t="s">
         <v>4938</v>
@@ -65159,12 +65219,12 @@
         <v>1640</v>
       </c>
       <c r="O1568" s="1" t="s">
-        <v>5121</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>5122</v>
+        <v>5128</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4938</v>
@@ -65179,12 +65239,12 @@
         <v>1640</v>
       </c>
       <c r="O1569" s="1" t="s">
-        <v>5123</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>5124</v>
+        <v>5130</v>
       </c>
       <c r="B1570" s="1" t="s">
         <v>4938</v>
@@ -65199,12 +65259,12 @@
         <v>1640</v>
       </c>
       <c r="O1570" s="1" t="s">
-        <v>5125</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>5126</v>
+        <v>5132</v>
       </c>
       <c r="B1571" s="1" t="s">
         <v>4938</v>
@@ -65219,12 +65279,12 @@
         <v>1640</v>
       </c>
       <c r="O1571" s="1" t="s">
-        <v>5127</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>5128</v>
+        <v>5134</v>
       </c>
       <c r="B1572" s="1" t="s">
         <v>4938</v>
@@ -65239,12 +65299,12 @@
         <v>1640</v>
       </c>
       <c r="O1572" s="1" t="s">
-        <v>5129</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>5130</v>
+        <v>5136</v>
       </c>
       <c r="B1573" s="1" t="s">
         <v>4938</v>
@@ -65259,12 +65319,12 @@
         <v>1640</v>
       </c>
       <c r="O1573" s="1" t="s">
-        <v>5131</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="1574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>5132</v>
+        <v>5138</v>
       </c>
       <c r="B1574" s="1" t="s">
         <v>4938</v>
@@ -65279,12 +65339,12 @@
         <v>1640</v>
       </c>
       <c r="O1574" s="1" t="s">
-        <v>5133</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>5134</v>
+        <v>5140</v>
       </c>
       <c r="B1575" s="1" t="s">
         <v>4938</v>
@@ -65299,12 +65359,12 @@
         <v>1640</v>
       </c>
       <c r="O1575" s="1" t="s">
-        <v>5135</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>5136</v>
+        <v>5142</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>4938</v>
@@ -65319,12 +65379,12 @@
         <v>1640</v>
       </c>
       <c r="O1576" s="1" t="s">
-        <v>5137</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>5138</v>
+        <v>5144</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>4938</v>
@@ -65339,12 +65399,12 @@
         <v>1640</v>
       </c>
       <c r="O1577" s="1" t="s">
-        <v>5139</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>5140</v>
+        <v>5146</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>4938</v>
@@ -65359,12 +65419,12 @@
         <v>1640</v>
       </c>
       <c r="O1578" s="1" t="s">
-        <v>5141</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>5142</v>
+        <v>5148</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>4938</v>
@@ -65379,12 +65439,12 @@
         <v>1640</v>
       </c>
       <c r="O1579" s="1" t="s">
-        <v>5143</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="1580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>5144</v>
+        <v>5150</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4938</v>
@@ -65399,12 +65459,12 @@
         <v>1640</v>
       </c>
       <c r="O1580" s="1" t="s">
-        <v>5145</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="1581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>5146</v>
+        <v>5152</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>4938</v>
@@ -65419,12 +65479,12 @@
         <v>1640</v>
       </c>
       <c r="O1581" s="1" t="s">
-        <v>5147</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>5148</v>
+        <v>5154</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>4938</v>
@@ -65439,12 +65499,12 @@
         <v>1640</v>
       </c>
       <c r="O1582" s="1" t="s">
-        <v>5149</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="1583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>5150</v>
+        <v>5156</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>4938</v>
@@ -65459,12 +65519,12 @@
         <v>1640</v>
       </c>
       <c r="O1583" s="1" t="s">
-        <v>5151</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>5152</v>
+        <v>5158</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>4938</v>
@@ -65479,12 +65539,12 @@
         <v>1640</v>
       </c>
       <c r="O1584" s="1" t="s">
-        <v>5153</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>5154</v>
+        <v>5160</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>4938</v>
@@ -65499,12 +65559,12 @@
         <v>1640</v>
       </c>
       <c r="O1585" s="1" t="s">
-        <v>5155</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>5156</v>
+        <v>5162</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>4938</v>
@@ -65519,12 +65579,12 @@
         <v>1640</v>
       </c>
       <c r="O1586" s="1" t="s">
-        <v>5157</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="1587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>5158</v>
+        <v>5164</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>4938</v>
@@ -65539,12 +65599,12 @@
         <v>1640</v>
       </c>
       <c r="O1587" s="1" t="s">
-        <v>5159</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="1588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>5160</v>
+        <v>5166</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>4938</v>
@@ -65559,12 +65619,12 @@
         <v>1640</v>
       </c>
       <c r="O1588" s="1" t="s">
-        <v>5161</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>5162</v>
+        <v>5168</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>4938</v>
@@ -65579,12 +65639,12 @@
         <v>1640</v>
       </c>
       <c r="O1589" s="1" t="s">
-        <v>5163</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>5164</v>
+        <v>5170</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>4938</v>
@@ -65599,12 +65659,12 @@
         <v>1640</v>
       </c>
       <c r="O1590" s="1" t="s">
-        <v>5165</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>5166</v>
+        <v>5172</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>4938</v>
@@ -65619,12 +65679,12 @@
         <v>1640</v>
       </c>
       <c r="O1591" s="1" t="s">
-        <v>5167</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>5168</v>
+        <v>5174</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>4938</v>
@@ -65639,12 +65699,12 @@
         <v>1640</v>
       </c>
       <c r="O1592" s="1" t="s">
-        <v>5169</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>5170</v>
+        <v>5176</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>4938</v>
@@ -65659,12 +65719,12 @@
         <v>1640</v>
       </c>
       <c r="O1593" s="1" t="s">
-        <v>5171</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>5172</v>
+        <v>5178</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>4938</v>
@@ -65679,12 +65739,12 @@
         <v>1640</v>
       </c>
       <c r="O1594" s="1" t="s">
-        <v>5173</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>5174</v>
+        <v>5180</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>4938</v>
@@ -65699,12 +65759,12 @@
         <v>1640</v>
       </c>
       <c r="O1595" s="1" t="s">
-        <v>5175</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>5176</v>
+        <v>5182</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>4938</v>
@@ -65719,12 +65779,12 @@
         <v>1640</v>
       </c>
       <c r="O1596" s="1" t="s">
-        <v>5177</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="1597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
-        <v>5178</v>
+        <v>5184</v>
       </c>
       <c r="B1597" s="1" t="s">
         <v>4938</v>
@@ -65739,12 +65799,12 @@
         <v>1640</v>
       </c>
       <c r="O1597" s="1" t="s">
-        <v>5179</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
-        <v>5180</v>
+        <v>5186</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>4938</v>
@@ -65759,12 +65819,12 @@
         <v>1640</v>
       </c>
       <c r="O1598" s="1" t="s">
-        <v>5181</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
-        <v>5182</v>
+        <v>5188</v>
       </c>
       <c r="B1599" s="1" t="s">
         <v>4938</v>
@@ -65779,12 +65839,12 @@
         <v>1640</v>
       </c>
       <c r="O1599" s="1" t="s">
-        <v>5183</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>5184</v>
+        <v>5190</v>
       </c>
       <c r="B1600" s="1" t="s">
         <v>4938</v>
@@ -65799,12 +65859,12 @@
         <v>1640</v>
       </c>
       <c r="O1600" s="1" t="s">
-        <v>5185</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
-        <v>5186</v>
+        <v>5192</v>
       </c>
       <c r="B1601" s="1" t="s">
         <v>4938</v>
@@ -65819,71 +65879,11 @@
         <v>1640</v>
       </c>
       <c r="O1601" s="1" t="s">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1602" s="1" t="s">
-        <v>5188</v>
-      </c>
-      <c r="B1602" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1602" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1602" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1602" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1602" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1603" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B1603" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1603" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1603" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1603" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1603" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1604" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B1604" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1604" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1604" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1604" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1604" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1604"/>
+  <autoFilter ref="A1:N1601"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1597</definedName>
-    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1597</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$N$1595</definedName>
+    <definedName name="DETAILS" localSheetId="1">Φύλλο1!$A$2:$O$1595</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -15960,10 +15960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O741"/>
+  <dimension ref="A1:O743"/>
   <sheetViews>
-    <sheetView topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="A742" sqref="A742"/>
+    <sheetView topLeftCell="A718" workbookViewId="0">
+      <selection activeCell="A744" sqref="A744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31146,6 +31146,37 @@
         <v>3006</v>
       </c>
     </row>
+    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="O742" s="1" t="s">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>4903</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J743" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O743" s="1" t="s">
+        <v>4904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31153,10 +31184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O1597"/>
+  <dimension ref="A2:O1595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A900" workbookViewId="0">
-      <selection activeCell="I912" sqref="I912"/>
+    <sheetView tabSelected="1" topLeftCell="A1451" workbookViewId="0">
+      <selection activeCell="A1465" sqref="A1465:XFD1465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63227,70 +63258,76 @@
     </row>
     <row r="1465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
-        <v>4878</v>
+        <v>4881</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>4879</v>
+        <v>4882</v>
       </c>
       <c r="C1465" s="1" t="s">
-        <v>395</v>
+        <v>4294</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E1465" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1465" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J1465" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1465" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O1465" s="1" t="s">
-        <v>4880</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>4881</v>
+        <v>4911</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>4882</v>
+        <v>4912</v>
       </c>
       <c r="C1466" s="1" t="s">
-        <v>4294</v>
+        <v>348</v>
       </c>
       <c r="D1466" s="1" t="s">
-        <v>4294</v>
-      </c>
-      <c r="E1466" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F1466" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J1466" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1466" s="1" t="s">
-        <v>609</v>
+        <v>1493</v>
       </c>
       <c r="O1466" s="1" t="s">
-        <v>4883</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
-        <v>4902</v>
+        <v>4914</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>4903</v>
+        <v>4915</v>
       </c>
       <c r="C1467" s="1" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="J1467" s="1" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="O1467" s="1" t="s">
-        <v>4904</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1468" s="1" t="s">
-        <v>4911</v>
+        <v>4937</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>4912</v>
+        <v>4938</v>
       </c>
       <c r="C1468" s="1" t="s">
         <v>348</v>
@@ -63299,32 +63336,35 @@
         <v>158</v>
       </c>
       <c r="J1468" s="1" t="s">
-        <v>1493</v>
+        <v>1640</v>
       </c>
       <c r="O1468" s="1" t="s">
-        <v>4913</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="1469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>4914</v>
+        <v>4940</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>4915</v>
+        <v>4938</v>
       </c>
       <c r="C1469" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
+      </c>
+      <c r="D1469" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1469" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O1469" s="1" t="s">
-        <v>4916</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
-        <v>4937</v>
+        <v>4942</v>
       </c>
       <c r="B1470" s="1" t="s">
         <v>4938</v>
@@ -63339,12 +63379,12 @@
         <v>1640</v>
       </c>
       <c r="O1470" s="1" t="s">
-        <v>4939</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="1471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
-        <v>4940</v>
+        <v>4944</v>
       </c>
       <c r="B1471" s="1" t="s">
         <v>4938</v>
@@ -63359,12 +63399,12 @@
         <v>1640</v>
       </c>
       <c r="O1471" s="1" t="s">
-        <v>4941</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>4942</v>
+        <v>4946</v>
       </c>
       <c r="B1472" s="1" t="s">
         <v>4938</v>
@@ -63379,12 +63419,12 @@
         <v>1640</v>
       </c>
       <c r="O1472" s="1" t="s">
-        <v>4943</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="1473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="B1473" s="1" t="s">
         <v>4938</v>
@@ -63399,12 +63439,12 @@
         <v>1640</v>
       </c>
       <c r="O1473" s="1" t="s">
-        <v>4945</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="1474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
-        <v>4946</v>
+        <v>4950</v>
       </c>
       <c r="B1474" s="1" t="s">
         <v>4938</v>
@@ -63419,12 +63459,12 @@
         <v>1640</v>
       </c>
       <c r="O1474" s="1" t="s">
-        <v>4947</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1475" s="1" t="s">
-        <v>4948</v>
+        <v>4952</v>
       </c>
       <c r="B1475" s="1" t="s">
         <v>4938</v>
@@ -63439,12 +63479,12 @@
         <v>1640</v>
       </c>
       <c r="O1475" s="1" t="s">
-        <v>4949</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="1476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>4950</v>
+        <v>4954</v>
       </c>
       <c r="B1476" s="1" t="s">
         <v>4938</v>
@@ -63459,12 +63499,12 @@
         <v>1640</v>
       </c>
       <c r="O1476" s="1" t="s">
-        <v>4951</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>4952</v>
+        <v>4956</v>
       </c>
       <c r="B1477" s="1" t="s">
         <v>4938</v>
@@ -63479,12 +63519,12 @@
         <v>1640</v>
       </c>
       <c r="O1477" s="1" t="s">
-        <v>4953</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
-        <v>4954</v>
+        <v>4958</v>
       </c>
       <c r="B1478" s="1" t="s">
         <v>4938</v>
@@ -63499,12 +63539,12 @@
         <v>1640</v>
       </c>
       <c r="O1478" s="1" t="s">
-        <v>4955</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
-        <v>4956</v>
+        <v>4960</v>
       </c>
       <c r="B1479" s="1" t="s">
         <v>4938</v>
@@ -63519,12 +63559,12 @@
         <v>1640</v>
       </c>
       <c r="O1479" s="1" t="s">
-        <v>4957</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="1480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>4958</v>
+        <v>4962</v>
       </c>
       <c r="B1480" s="1" t="s">
         <v>4938</v>
@@ -63539,12 +63579,12 @@
         <v>1640</v>
       </c>
       <c r="O1480" s="1" t="s">
-        <v>4959</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>4960</v>
+        <v>4964</v>
       </c>
       <c r="B1481" s="1" t="s">
         <v>4938</v>
@@ -63559,12 +63599,12 @@
         <v>1640</v>
       </c>
       <c r="O1481" s="1" t="s">
-        <v>4961</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="1482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
-        <v>4962</v>
+        <v>4966</v>
       </c>
       <c r="B1482" s="1" t="s">
         <v>4938</v>
@@ -63579,12 +63619,12 @@
         <v>1640</v>
       </c>
       <c r="O1482" s="1" t="s">
-        <v>4963</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="1483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>4964</v>
+        <v>4968</v>
       </c>
       <c r="B1483" s="1" t="s">
         <v>4938</v>
@@ -63599,12 +63639,12 @@
         <v>1640</v>
       </c>
       <c r="O1483" s="1" t="s">
-        <v>4965</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="1484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="B1484" s="1" t="s">
         <v>4938</v>
@@ -63619,12 +63659,12 @@
         <v>1640</v>
       </c>
       <c r="O1484" s="1" t="s">
-        <v>4967</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="1485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
-        <v>4968</v>
+        <v>4972</v>
       </c>
       <c r="B1485" s="1" t="s">
         <v>4938</v>
@@ -63639,12 +63679,12 @@
         <v>1640</v>
       </c>
       <c r="O1485" s="1" t="s">
-        <v>4969</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
-        <v>4970</v>
+        <v>4974</v>
       </c>
       <c r="B1486" s="1" t="s">
         <v>4938</v>
@@ -63659,12 +63699,12 @@
         <v>1640</v>
       </c>
       <c r="O1486" s="1" t="s">
-        <v>4971</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
-        <v>4972</v>
+        <v>4976</v>
       </c>
       <c r="B1487" s="1" t="s">
         <v>4938</v>
@@ -63679,12 +63719,12 @@
         <v>1640</v>
       </c>
       <c r="O1487" s="1" t="s">
-        <v>4973</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="1488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>4974</v>
+        <v>4978</v>
       </c>
       <c r="B1488" s="1" t="s">
         <v>4938</v>
@@ -63699,12 +63739,12 @@
         <v>1640</v>
       </c>
       <c r="O1488" s="1" t="s">
-        <v>4975</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="1489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>4938</v>
@@ -63719,12 +63759,12 @@
         <v>1640</v>
       </c>
       <c r="O1489" s="1" t="s">
-        <v>4977</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="1490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
-        <v>4978</v>
+        <v>4982</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>4938</v>
@@ -63739,12 +63779,12 @@
         <v>1640</v>
       </c>
       <c r="O1490" s="1" t="s">
-        <v>4979</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="1491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>4980</v>
+        <v>4984</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4938</v>
@@ -63759,12 +63799,12 @@
         <v>1640</v>
       </c>
       <c r="O1491" s="1" t="s">
-        <v>4981</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="1492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>4982</v>
+        <v>4986</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>4938</v>
@@ -63779,12 +63819,12 @@
         <v>1640</v>
       </c>
       <c r="O1492" s="1" t="s">
-        <v>4983</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="1493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>4984</v>
+        <v>4988</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>4938</v>
@@ -63799,12 +63839,12 @@
         <v>1640</v>
       </c>
       <c r="O1493" s="1" t="s">
-        <v>4985</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="1494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="B1494" s="1" t="s">
         <v>4938</v>
@@ -63819,12 +63859,12 @@
         <v>1640</v>
       </c>
       <c r="O1494" s="1" t="s">
-        <v>4987</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1495" s="1" t="s">
-        <v>4988</v>
+        <v>4992</v>
       </c>
       <c r="B1495" s="1" t="s">
         <v>4938</v>
@@ -63839,12 +63879,12 @@
         <v>1640</v>
       </c>
       <c r="O1495" s="1" t="s">
-        <v>4989</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>4938</v>
@@ -63859,12 +63899,12 @@
         <v>1640</v>
       </c>
       <c r="O1496" s="1" t="s">
-        <v>4991</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
-        <v>4992</v>
+        <v>4996</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>4938</v>
@@ -63879,12 +63919,12 @@
         <v>1640</v>
       </c>
       <c r="O1497" s="1" t="s">
-        <v>4993</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="1498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
-        <v>4994</v>
+        <v>4998</v>
       </c>
       <c r="B1498" s="1" t="s">
         <v>4938</v>
@@ -63899,12 +63939,12 @@
         <v>1640</v>
       </c>
       <c r="O1498" s="1" t="s">
-        <v>4995</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="1499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="B1499" s="1" t="s">
         <v>4938</v>
@@ -63919,12 +63959,12 @@
         <v>1640</v>
       </c>
       <c r="O1499" s="1" t="s">
-        <v>4997</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="1500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
-        <v>4998</v>
+        <v>5002</v>
       </c>
       <c r="B1500" s="1" t="s">
         <v>4938</v>
@@ -63939,12 +63979,12 @@
         <v>1640</v>
       </c>
       <c r="O1500" s="1" t="s">
-        <v>4999</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
-        <v>5000</v>
+        <v>5004</v>
       </c>
       <c r="B1501" s="1" t="s">
         <v>4938</v>
@@ -63959,12 +63999,12 @@
         <v>1640</v>
       </c>
       <c r="O1501" s="1" t="s">
-        <v>5001</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
-        <v>5002</v>
+        <v>5006</v>
       </c>
       <c r="B1502" s="1" t="s">
         <v>4938</v>
@@ -63979,12 +64019,12 @@
         <v>1640</v>
       </c>
       <c r="O1502" s="1" t="s">
-        <v>5003</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="B1503" s="1" t="s">
         <v>4938</v>
@@ -63999,12 +64039,12 @@
         <v>1640</v>
       </c>
       <c r="O1503" s="1" t="s">
-        <v>5005</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="1504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
-        <v>5006</v>
+        <v>5010</v>
       </c>
       <c r="B1504" s="1" t="s">
         <v>4938</v>
@@ -64019,12 +64059,12 @@
         <v>1640</v>
       </c>
       <c r="O1504" s="1" t="s">
-        <v>5007</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>5008</v>
+        <v>5012</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>4938</v>
@@ -64039,12 +64079,12 @@
         <v>1640</v>
       </c>
       <c r="O1505" s="1" t="s">
-        <v>5009</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
-        <v>5010</v>
+        <v>5014</v>
       </c>
       <c r="B1506" s="1" t="s">
         <v>4938</v>
@@ -64059,12 +64099,12 @@
         <v>1640</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>5011</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>5012</v>
+        <v>5016</v>
       </c>
       <c r="B1507" s="1" t="s">
         <v>4938</v>
@@ -64079,12 +64119,12 @@
         <v>1640</v>
       </c>
       <c r="O1507" s="1" t="s">
-        <v>5013</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>5014</v>
+        <v>5018</v>
       </c>
       <c r="B1508" s="1" t="s">
         <v>4938</v>
@@ -64099,12 +64139,12 @@
         <v>1640</v>
       </c>
       <c r="O1508" s="1" t="s">
-        <v>5015</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="B1509" s="1" t="s">
         <v>4938</v>
@@ -64119,12 +64159,12 @@
         <v>1640</v>
       </c>
       <c r="O1509" s="1" t="s">
-        <v>5017</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>5018</v>
+        <v>5022</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4938</v>
@@ -64139,12 +64179,12 @@
         <v>1640</v>
       </c>
       <c r="O1510" s="1" t="s">
-        <v>5019</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
-        <v>5020</v>
+        <v>5024</v>
       </c>
       <c r="B1511" s="1" t="s">
         <v>4938</v>
@@ -64159,12 +64199,12 @@
         <v>1640</v>
       </c>
       <c r="O1511" s="1" t="s">
-        <v>5021</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>5022</v>
+        <v>5026</v>
       </c>
       <c r="B1512" s="1" t="s">
         <v>4938</v>
@@ -64179,12 +64219,12 @@
         <v>1640</v>
       </c>
       <c r="O1512" s="1" t="s">
-        <v>5023</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
-        <v>5024</v>
+        <v>5028</v>
       </c>
       <c r="B1513" s="1" t="s">
         <v>4938</v>
@@ -64199,12 +64239,12 @@
         <v>1640</v>
       </c>
       <c r="O1513" s="1" t="s">
-        <v>5025</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
-        <v>5026</v>
+        <v>5030</v>
       </c>
       <c r="B1514" s="1" t="s">
         <v>4938</v>
@@ -64219,12 +64259,12 @@
         <v>1640</v>
       </c>
       <c r="O1514" s="1" t="s">
-        <v>5027</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
-        <v>5028</v>
+        <v>5032</v>
       </c>
       <c r="B1515" s="1" t="s">
         <v>4938</v>
@@ -64239,12 +64279,12 @@
         <v>1640</v>
       </c>
       <c r="O1515" s="1" t="s">
-        <v>5029</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>5030</v>
+        <v>5034</v>
       </c>
       <c r="B1516" s="1" t="s">
         <v>4938</v>
@@ -64259,12 +64299,12 @@
         <v>1640</v>
       </c>
       <c r="O1516" s="1" t="s">
-        <v>5031</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>5032</v>
+        <v>5036</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4938</v>
@@ -64279,12 +64319,12 @@
         <v>1640</v>
       </c>
       <c r="O1517" s="1" t="s">
-        <v>5033</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>5034</v>
+        <v>5038</v>
       </c>
       <c r="B1518" s="1" t="s">
         <v>4938</v>
@@ -64299,12 +64339,12 @@
         <v>1640</v>
       </c>
       <c r="O1518" s="1" t="s">
-        <v>5035</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
-        <v>5036</v>
+        <v>5040</v>
       </c>
       <c r="B1519" s="1" t="s">
         <v>4938</v>
@@ -64319,12 +64359,12 @@
         <v>1640</v>
       </c>
       <c r="O1519" s="1" t="s">
-        <v>5037</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>5038</v>
+        <v>5042</v>
       </c>
       <c r="B1520" s="1" t="s">
         <v>4938</v>
@@ -64339,12 +64379,12 @@
         <v>1640</v>
       </c>
       <c r="O1520" s="1" t="s">
-        <v>5039</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1521" s="1" t="s">
-        <v>5040</v>
+        <v>5044</v>
       </c>
       <c r="B1521" s="1" t="s">
         <v>4938</v>
@@ -64359,12 +64399,12 @@
         <v>1640</v>
       </c>
       <c r="O1521" s="1" t="s">
-        <v>5041</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1522" s="1" t="s">
-        <v>5042</v>
+        <v>5046</v>
       </c>
       <c r="B1522" s="1" t="s">
         <v>4938</v>
@@ -64379,12 +64419,12 @@
         <v>1640</v>
       </c>
       <c r="O1522" s="1" t="s">
-        <v>5043</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="B1523" s="1" t="s">
         <v>4938</v>
@@ -64399,12 +64439,12 @@
         <v>1640</v>
       </c>
       <c r="O1523" s="1" t="s">
-        <v>5045</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>5046</v>
+        <v>5050</v>
       </c>
       <c r="B1524" s="1" t="s">
         <v>4938</v>
@@ -64419,12 +64459,12 @@
         <v>1640</v>
       </c>
       <c r="O1524" s="1" t="s">
-        <v>5047</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>5048</v>
+        <v>5052</v>
       </c>
       <c r="B1525" s="1" t="s">
         <v>4938</v>
@@ -64439,12 +64479,12 @@
         <v>1640</v>
       </c>
       <c r="O1525" s="1" t="s">
-        <v>5049</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
-        <v>5050</v>
+        <v>5054</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>4938</v>
@@ -64459,12 +64499,12 @@
         <v>1640</v>
       </c>
       <c r="O1526" s="1" t="s">
-        <v>5051</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>5052</v>
+        <v>5056</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>4938</v>
@@ -64479,12 +64519,12 @@
         <v>1640</v>
       </c>
       <c r="O1527" s="1" t="s">
-        <v>5053</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>5054</v>
+        <v>5058</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>4938</v>
@@ -64499,12 +64539,12 @@
         <v>1640</v>
       </c>
       <c r="O1528" s="1" t="s">
-        <v>5055</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>5056</v>
+        <v>5060</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>4938</v>
@@ -64519,12 +64559,12 @@
         <v>1640</v>
       </c>
       <c r="O1529" s="1" t="s">
-        <v>5057</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>5058</v>
+        <v>5062</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>4938</v>
@@ -64539,12 +64579,12 @@
         <v>1640</v>
       </c>
       <c r="O1530" s="1" t="s">
-        <v>5059</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>5060</v>
+        <v>5064</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>4938</v>
@@ -64559,12 +64599,12 @@
         <v>1640</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>5061</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>5062</v>
+        <v>5066</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>4938</v>
@@ -64579,12 +64619,12 @@
         <v>1640</v>
       </c>
       <c r="O1532" s="1" t="s">
-        <v>5063</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>5064</v>
+        <v>5068</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>4938</v>
@@ -64599,12 +64639,12 @@
         <v>1640</v>
       </c>
       <c r="O1533" s="1" t="s">
-        <v>5065</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>5066</v>
+        <v>5070</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>4938</v>
@@ -64619,12 +64659,12 @@
         <v>1640</v>
       </c>
       <c r="O1534" s="1" t="s">
-        <v>5067</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
-        <v>5068</v>
+        <v>5072</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>4938</v>
@@ -64639,12 +64679,12 @@
         <v>1640</v>
       </c>
       <c r="O1535" s="1" t="s">
-        <v>5069</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
-        <v>5070</v>
+        <v>5074</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>4938</v>
@@ -64659,12 +64699,12 @@
         <v>1640</v>
       </c>
       <c r="O1536" s="1" t="s">
-        <v>5071</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
-        <v>5072</v>
+        <v>5076</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>4938</v>
@@ -64679,12 +64719,12 @@
         <v>1640</v>
       </c>
       <c r="O1537" s="1" t="s">
-        <v>5073</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
-        <v>5074</v>
+        <v>5078</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>4938</v>
@@ -64699,12 +64739,12 @@
         <v>1640</v>
       </c>
       <c r="O1538" s="1" t="s">
-        <v>5075</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
-        <v>5076</v>
+        <v>5080</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>4938</v>
@@ -64719,12 +64759,12 @@
         <v>1640</v>
       </c>
       <c r="O1539" s="1" t="s">
-        <v>5077</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
-        <v>5078</v>
+        <v>5082</v>
       </c>
       <c r="B1540" s="1" t="s">
         <v>4938</v>
@@ -64739,12 +64779,12 @@
         <v>1640</v>
       </c>
       <c r="O1540" s="1" t="s">
-        <v>5079</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>5080</v>
+        <v>5084</v>
       </c>
       <c r="B1541" s="1" t="s">
         <v>4938</v>
@@ -64759,12 +64799,12 @@
         <v>1640</v>
       </c>
       <c r="O1541" s="1" t="s">
-        <v>5081</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>5082</v>
+        <v>5086</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4938</v>
@@ -64779,12 +64819,12 @@
         <v>1640</v>
       </c>
       <c r="O1542" s="1" t="s">
-        <v>5083</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
-        <v>5084</v>
+        <v>5088</v>
       </c>
       <c r="B1543" s="1" t="s">
         <v>4938</v>
@@ -64799,12 +64839,12 @@
         <v>1640</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>5085</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
-        <v>5086</v>
+        <v>5090</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>4938</v>
@@ -64819,12 +64859,12 @@
         <v>1640</v>
       </c>
       <c r="O1544" s="1" t="s">
-        <v>5087</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
-        <v>5088</v>
+        <v>5092</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>4938</v>
@@ -64839,12 +64879,12 @@
         <v>1640</v>
       </c>
       <c r="O1545" s="1" t="s">
-        <v>5089</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
-        <v>5090</v>
+        <v>5094</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>4938</v>
@@ -64859,12 +64899,12 @@
         <v>1640</v>
       </c>
       <c r="O1546" s="1" t="s">
-        <v>5091</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
-        <v>5092</v>
+        <v>5096</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>4938</v>
@@ -64879,12 +64919,12 @@
         <v>1640</v>
       </c>
       <c r="O1547" s="1" t="s">
-        <v>5093</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
-        <v>5094</v>
+        <v>5098</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>4938</v>
@@ -64899,12 +64939,12 @@
         <v>1640</v>
       </c>
       <c r="O1548" s="1" t="s">
-        <v>5095</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>5096</v>
+        <v>5100</v>
       </c>
       <c r="B1549" s="1" t="s">
         <v>4938</v>
@@ -64919,12 +64959,12 @@
         <v>1640</v>
       </c>
       <c r="O1549" s="1" t="s">
-        <v>5097</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
-        <v>5098</v>
+        <v>5102</v>
       </c>
       <c r="B1550" s="1" t="s">
         <v>4938</v>
@@ -64939,12 +64979,12 @@
         <v>1640</v>
       </c>
       <c r="O1550" s="1" t="s">
-        <v>5099</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
-        <v>5100</v>
+        <v>5104</v>
       </c>
       <c r="B1551" s="1" t="s">
         <v>4938</v>
@@ -64959,12 +64999,12 @@
         <v>1640</v>
       </c>
       <c r="O1551" s="1" t="s">
-        <v>5101</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
-        <v>5102</v>
+        <v>5106</v>
       </c>
       <c r="B1552" s="1" t="s">
         <v>4938</v>
@@ -64979,12 +65019,12 @@
         <v>1640</v>
       </c>
       <c r="O1552" s="1" t="s">
-        <v>5103</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
-        <v>5104</v>
+        <v>5108</v>
       </c>
       <c r="B1553" s="1" t="s">
         <v>4938</v>
@@ -64999,12 +65039,12 @@
         <v>1640</v>
       </c>
       <c r="O1553" s="1" t="s">
-        <v>5105</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>5106</v>
+        <v>5110</v>
       </c>
       <c r="B1554" s="1" t="s">
         <v>4938</v>
@@ -65019,12 +65059,12 @@
         <v>1640</v>
       </c>
       <c r="O1554" s="1" t="s">
-        <v>5107</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
-        <v>5108</v>
+        <v>5112</v>
       </c>
       <c r="B1555" s="1" t="s">
         <v>4938</v>
@@ -65039,12 +65079,12 @@
         <v>1640</v>
       </c>
       <c r="O1555" s="1" t="s">
-        <v>5109</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
-        <v>5110</v>
+        <v>5114</v>
       </c>
       <c r="B1556" s="1" t="s">
         <v>4938</v>
@@ -65059,12 +65099,12 @@
         <v>1640</v>
       </c>
       <c r="O1556" s="1" t="s">
-        <v>5111</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
-        <v>5112</v>
+        <v>5116</v>
       </c>
       <c r="B1557" s="1" t="s">
         <v>4938</v>
@@ -65079,12 +65119,12 @@
         <v>1640</v>
       </c>
       <c r="O1557" s="1" t="s">
-        <v>5113</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
-        <v>5114</v>
+        <v>5118</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>4938</v>
@@ -65099,12 +65139,12 @@
         <v>1640</v>
       </c>
       <c r="O1558" s="1" t="s">
-        <v>5115</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>5116</v>
+        <v>5120</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4938</v>
@@ -65119,12 +65159,12 @@
         <v>1640</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>5117</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
-        <v>5118</v>
+        <v>5122</v>
       </c>
       <c r="B1560" s="1" t="s">
         <v>4938</v>
@@ -65139,12 +65179,12 @@
         <v>1640</v>
       </c>
       <c r="O1560" s="1" t="s">
-        <v>5119</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
-        <v>5120</v>
+        <v>5124</v>
       </c>
       <c r="B1561" s="1" t="s">
         <v>4938</v>
@@ -65159,12 +65199,12 @@
         <v>1640</v>
       </c>
       <c r="O1561" s="1" t="s">
-        <v>5121</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="1562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
-        <v>5122</v>
+        <v>5126</v>
       </c>
       <c r="B1562" s="1" t="s">
         <v>4938</v>
@@ -65179,12 +65219,12 @@
         <v>1640</v>
       </c>
       <c r="O1562" s="1" t="s">
-        <v>5123</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="1563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>5124</v>
+        <v>5128</v>
       </c>
       <c r="B1563" s="1" t="s">
         <v>4938</v>
@@ -65199,12 +65239,12 @@
         <v>1640</v>
       </c>
       <c r="O1563" s="1" t="s">
-        <v>5125</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="1564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
-        <v>5126</v>
+        <v>5130</v>
       </c>
       <c r="B1564" s="1" t="s">
         <v>4938</v>
@@ -65219,12 +65259,12 @@
         <v>1640</v>
       </c>
       <c r="O1564" s="1" t="s">
-        <v>5127</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="1565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
-        <v>5128</v>
+        <v>5132</v>
       </c>
       <c r="B1565" s="1" t="s">
         <v>4938</v>
@@ -65239,12 +65279,12 @@
         <v>1640</v>
       </c>
       <c r="O1565" s="1" t="s">
-        <v>5129</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="1566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>5130</v>
+        <v>5134</v>
       </c>
       <c r="B1566" s="1" t="s">
         <v>4938</v>
@@ -65259,12 +65299,12 @@
         <v>1640</v>
       </c>
       <c r="O1566" s="1" t="s">
-        <v>5131</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
-        <v>5132</v>
+        <v>5136</v>
       </c>
       <c r="B1567" s="1" t="s">
         <v>4938</v>
@@ -65279,12 +65319,12 @@
         <v>1640</v>
       </c>
       <c r="O1567" s="1" t="s">
-        <v>5133</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="1568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>5134</v>
+        <v>5138</v>
       </c>
       <c r="B1568" s="1" t="s">
         <v>4938</v>
@@ -65299,12 +65339,12 @@
         <v>1640</v>
       </c>
       <c r="O1568" s="1" t="s">
-        <v>5135</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>5136</v>
+        <v>5140</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4938</v>
@@ -65319,12 +65359,12 @@
         <v>1640</v>
       </c>
       <c r="O1569" s="1" t="s">
-        <v>5137</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>5138</v>
+        <v>5142</v>
       </c>
       <c r="B1570" s="1" t="s">
         <v>4938</v>
@@ -65339,12 +65379,12 @@
         <v>1640</v>
       </c>
       <c r="O1570" s="1" t="s">
-        <v>5139</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
-        <v>5140</v>
+        <v>5144</v>
       </c>
       <c r="B1571" s="1" t="s">
         <v>4938</v>
@@ -65359,12 +65399,12 @@
         <v>1640</v>
       </c>
       <c r="O1571" s="1" t="s">
-        <v>5141</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
-        <v>5142</v>
+        <v>5146</v>
       </c>
       <c r="B1572" s="1" t="s">
         <v>4938</v>
@@ -65379,12 +65419,12 @@
         <v>1640</v>
       </c>
       <c r="O1572" s="1" t="s">
-        <v>5143</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
-        <v>5144</v>
+        <v>5148</v>
       </c>
       <c r="B1573" s="1" t="s">
         <v>4938</v>
@@ -65399,12 +65439,12 @@
         <v>1640</v>
       </c>
       <c r="O1573" s="1" t="s">
-        <v>5145</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="1574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
-        <v>5146</v>
+        <v>5150</v>
       </c>
       <c r="B1574" s="1" t="s">
         <v>4938</v>
@@ -65419,12 +65459,12 @@
         <v>1640</v>
       </c>
       <c r="O1574" s="1" t="s">
-        <v>5147</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="1575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
-        <v>5148</v>
+        <v>5152</v>
       </c>
       <c r="B1575" s="1" t="s">
         <v>4938</v>
@@ -65439,12 +65479,12 @@
         <v>1640</v>
       </c>
       <c r="O1575" s="1" t="s">
-        <v>5149</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
-        <v>5150</v>
+        <v>5154</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>4938</v>
@@ -65459,12 +65499,12 @@
         <v>1640</v>
       </c>
       <c r="O1576" s="1" t="s">
-        <v>5151</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="1577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>5152</v>
+        <v>5156</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>4938</v>
@@ -65479,12 +65519,12 @@
         <v>1640</v>
       </c>
       <c r="O1577" s="1" t="s">
-        <v>5153</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>5154</v>
+        <v>5158</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>4938</v>
@@ -65499,12 +65539,12 @@
         <v>1640</v>
       </c>
       <c r="O1578" s="1" t="s">
-        <v>5155</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>5156</v>
+        <v>5160</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>4938</v>
@@ -65519,12 +65559,12 @@
         <v>1640</v>
       </c>
       <c r="O1579" s="1" t="s">
-        <v>5157</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
-        <v>5158</v>
+        <v>5162</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>4938</v>
@@ -65539,12 +65579,12 @@
         <v>1640</v>
       </c>
       <c r="O1580" s="1" t="s">
-        <v>5159</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="1581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>4938</v>
@@ -65559,12 +65599,12 @@
         <v>1640</v>
       </c>
       <c r="O1581" s="1" t="s">
-        <v>5161</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="1582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>4938</v>
@@ -65579,12 +65619,12 @@
         <v>1640</v>
       </c>
       <c r="O1582" s="1" t="s">
-        <v>5163</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>5164</v>
+        <v>5168</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>4938</v>
@@ -65599,12 +65639,12 @@
         <v>1640</v>
       </c>
       <c r="O1583" s="1" t="s">
-        <v>5165</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>5166</v>
+        <v>5170</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>4938</v>
@@ -65619,12 +65659,12 @@
         <v>1640</v>
       </c>
       <c r="O1584" s="1" t="s">
-        <v>5167</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>5168</v>
+        <v>5172</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>4938</v>
@@ -65639,12 +65679,12 @@
         <v>1640</v>
       </c>
       <c r="O1585" s="1" t="s">
-        <v>5169</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>5170</v>
+        <v>5174</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>4938</v>
@@ -65659,12 +65699,12 @@
         <v>1640</v>
       </c>
       <c r="O1586" s="1" t="s">
-        <v>5171</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>5172</v>
+        <v>5176</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>4938</v>
@@ -65679,12 +65719,12 @@
         <v>1640</v>
       </c>
       <c r="O1587" s="1" t="s">
-        <v>5173</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>5174</v>
+        <v>5178</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>4938</v>
@@ -65699,12 +65739,12 @@
         <v>1640</v>
       </c>
       <c r="O1588" s="1" t="s">
-        <v>5175</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>5176</v>
+        <v>5180</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>4938</v>
@@ -65719,12 +65759,12 @@
         <v>1640</v>
       </c>
       <c r="O1589" s="1" t="s">
-        <v>5177</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>5178</v>
+        <v>5182</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>4938</v>
@@ -65739,12 +65779,12 @@
         <v>1640</v>
       </c>
       <c r="O1590" s="1" t="s">
-        <v>5179</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="1591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>5180</v>
+        <v>5184</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>4938</v>
@@ -65759,12 +65799,12 @@
         <v>1640</v>
       </c>
       <c r="O1591" s="1" t="s">
-        <v>5181</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>5182</v>
+        <v>5186</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>4938</v>
@@ -65779,12 +65819,12 @@
         <v>1640</v>
       </c>
       <c r="O1592" s="1" t="s">
-        <v>5183</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>5184</v>
+        <v>5188</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>4938</v>
@@ -65799,12 +65839,12 @@
         <v>1640</v>
       </c>
       <c r="O1593" s="1" t="s">
-        <v>5185</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>5186</v>
+        <v>5190</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>4938</v>
@@ -65819,12 +65859,12 @@
         <v>1640</v>
       </c>
       <c r="O1594" s="1" t="s">
-        <v>5187</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
-        <v>5188</v>
+        <v>5192</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>4938</v>
@@ -65839,51 +65879,11 @@
         <v>1640</v>
       </c>
       <c r="O1595" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1596" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B1596" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1596" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1596" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1596" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1596" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1597" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B1597" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C1597" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1597" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1597" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O1597" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1597"/>
+  <autoFilter ref="A1:N1595"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>